--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA68415-8D1A-4427-8CA8-1D99DFFD8738}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B8C9F0-9FCD-420E-AAC2-D0FBA1BF027C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE75819C-F2BF-48A4-A25A-3F0C921A5E1F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="311">
   <si>
     <t>Vente</t>
   </si>
@@ -581,9 +581,6 @@
     <t>https://www.promeca.com/composition-v5-servante-chrono-6m3-facom-chrono-v5pb-promotion</t>
   </si>
   <si>
-    <t>1079.10$ HT</t>
-  </si>
-  <si>
     <t>Clé dynamo</t>
   </si>
   <si>
@@ -969,6 +966,15 @@
   </si>
   <si>
     <t>Depth gauges</t>
+  </si>
+  <si>
+    <t>https://www.master-outillage.com/facom/13765-servante-rouge-7-tiroirs-composition-d-outillage-v8-facom-jetv8m3-3148519073409.html</t>
+  </si>
+  <si>
+    <t>1079.10€ HT</t>
+  </si>
+  <si>
+    <t>2041.73€TTC</t>
   </si>
 </sst>
 </file>
@@ -1839,13 +1845,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
         <v>200</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2075,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2155,7 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="25">
         <f>SUM(Metrology!E14:E17)</f>
@@ -2174,7 +2180,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="25">
         <f>SUM(Metrology!E18:E19)</f>
@@ -2195,7 +2201,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="25">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
@@ -2229,7 +2235,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="25">
         <f>SUM(Metrology!E10:E12)</f>
@@ -2241,7 +2247,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" s="25">
         <f>2*Metrology!E21</f>
@@ -2356,7 +2362,7 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="24">
         <f>C42</f>
@@ -2412,7 +2418,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" s="24">
         <f>IT!D5+2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
@@ -2426,7 +2432,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" s="24">
         <f>IT!D3*12*3</f>
@@ -2443,7 +2449,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C23" s="24">
         <f>IT!D2*2</f>
@@ -2473,7 +2479,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" t="s">
@@ -2657,7 +2663,7 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" s="24">
         <f>Energies!B5</f>
@@ -2666,7 +2672,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47">
         <f>Energies!B6</f>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C49">
         <v>1.12964</v>
@@ -2688,7 +2694,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C50" s="29">
         <v>0.2</v>
@@ -2725,24 +2731,24 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
         <v>298</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>299</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>300</v>
-      </c>
-      <c r="E1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="28">
         <v>149</v>
@@ -2752,12 +2758,12 @@
         <v>119.2</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -2770,7 +2776,7 @@
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,7 +2794,7 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,7 +2802,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="28">
         <v>392</v>
@@ -2806,12 +2812,12 @@
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="28">
         <v>167</v>
@@ -2821,12 +2827,12 @@
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="28">
         <v>94</v>
@@ -2836,7 +2842,7 @@
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,7 +2850,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="28">
         <v>282</v>
@@ -2854,12 +2860,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="28">
         <v>408</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="28">
         <v>3322</v>
@@ -2881,7 +2887,7 @@
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,10 +2895,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
         <v>220</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
       </c>
       <c r="D14" s="28">
         <v>1390</v>
@@ -2902,12 +2908,12 @@
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="28">
         <v>1202</v>
@@ -2917,12 +2923,12 @@
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="28">
         <v>146</v>
@@ -2932,12 +2938,12 @@
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D17" s="28">
         <v>162</v>
@@ -2947,7 +2953,7 @@
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,7 +2961,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="28">
         <v>1623</v>
@@ -2965,12 +2971,12 @@
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D19" s="28">
         <v>675</v>
@@ -2980,7 +2986,7 @@
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,10 +2995,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="34">
         <v>348</v>
@@ -3006,7 +3012,7 @@
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3037,17 +3043,17 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="2">
         <v>300.60000000000002</v>
@@ -3055,7 +3061,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="32">
         <v>8.6199999999999999E-2</v>
@@ -3082,31 +3088,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -3117,7 +3123,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2">
         <v>2054</v>
@@ -3128,7 +3134,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2">
         <v>3333</v>
@@ -3139,15 +3145,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11">
         <v>365</v>
@@ -3155,7 +3161,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -3163,7 +3169,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -3171,7 +3177,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -3179,7 +3185,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" s="30">
         <f>B15/5</f>
@@ -3206,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8212045D-BA9D-4645-BBE6-821FC0C971AC}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,50 +3249,62 @@
       <c r="A5" t="s">
         <v>177</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="22" t="s">
         <v>178</v>
       </c>
       <c r="C5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>180</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>181</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" s="25">
+        <v>283.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="25">
-        <v>283.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>183</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" s="25">
+        <v>173.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="25">
-        <v>173.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="D10" s="27">
         <v>153.08000000000001</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{904749AB-60F7-40C9-9A05-88575D8612EE}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{733D9E26-495E-4FA2-AC52-44A6B2BD84E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3307,54 +3325,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>188</v>
-      </c>
-      <c r="C1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
         <v>193</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
         <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" t="s">
         <v>277</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>278</v>
-      </c>
-      <c r="C9" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3864,13 +3882,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3896,7 @@
         <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -3896,14 +3914,14 @@
         <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,7 +3930,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -3922,12 +3940,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -3937,12 +3955,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -3952,31 +3970,31 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,7 +4003,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -3995,12 +4013,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -4010,12 +4028,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -4025,7 +4043,7 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4034,7 +4052,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -4044,12 +4062,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -4059,12 +4077,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -4074,12 +4092,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -4089,21 +4107,21 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,24 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B8C9F0-9FCD-420E-AAC2-D0FBA1BF027C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A629C2D0-FEB5-4A10-A672-064F8FC68E07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE75819C-F2BF-48A4-A25A-3F0C921A5E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE75819C-F2BF-48A4-A25A-3F0C921A5E1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="General" sheetId="6" r:id="rId2"/>
+    <sheet name="General" sheetId="6" r:id="rId1"/>
+    <sheet name="Energies" sheetId="13" r:id="rId2"/>
     <sheet name="Metrology" sheetId="12" r:id="rId3"/>
-    <sheet name="Energies" sheetId="13" r:id="rId4"/>
+    <sheet name="Tooling and small machinery" sheetId="8" r:id="rId4"/>
     <sheet name="Manpower" sheetId="11" r:id="rId5"/>
-    <sheet name="Assembly" sheetId="8" r:id="rId6"/>
-    <sheet name="TIG Welder" sheetId="10" r:id="rId7"/>
-    <sheet name="Material" sheetId="2" r:id="rId8"/>
-    <sheet name="IT" sheetId="9" r:id="rId9"/>
-    <sheet name="CNC mill" sheetId="3" r:id="rId10"/>
-    <sheet name="Accessories for machining" sheetId="7" r:id="rId11"/>
-    <sheet name="Laser cutter" sheetId="5" r:id="rId12"/>
-    <sheet name="CNC lathes" sheetId="4" r:id="rId13"/>
+    <sheet name="TIG Welder" sheetId="10" r:id="rId6"/>
+    <sheet name="Material" sheetId="2" r:id="rId7"/>
+    <sheet name="IT" sheetId="9" r:id="rId8"/>
+    <sheet name="CNC mill" sheetId="3" r:id="rId9"/>
+    <sheet name="Laser cutter" sheetId="5" r:id="rId10"/>
+    <sheet name="CNC lathes" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,79 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="311">
-  <si>
-    <t>Vente</t>
-  </si>
-  <si>
-    <t>Coûts variables</t>
-  </si>
-  <si>
-    <t>Matière</t>
-  </si>
-  <si>
-    <t>Produits chimiques (lubrifiants, nettoyant)</t>
-  </si>
-  <si>
-    <t>Outils coupants</t>
-  </si>
-  <si>
-    <t>Salaires</t>
-  </si>
-  <si>
-    <t>Coûts fixes</t>
-  </si>
-  <si>
-    <t>Loyer</t>
-  </si>
-  <si>
-    <t>Electricité/eau/chauffage</t>
-  </si>
-  <si>
-    <t>Rénovation/Maintien des constructions</t>
-  </si>
-  <si>
-    <t>Nettoyage</t>
-  </si>
-  <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Site internet</t>
-  </si>
-  <si>
-    <t>Assurances</t>
-  </si>
-  <si>
-    <t>Comptable</t>
-  </si>
-  <si>
-    <t>Coûts imprévus</t>
-  </si>
-  <si>
-    <t>Intérêt</t>
-  </si>
-  <si>
-    <t>sur prêt de banque</t>
-  </si>
-  <si>
-    <t>sur découvert</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>Amortissement/dépréciation</t>
-  </si>
-  <si>
-    <t>Constructions</t>
-  </si>
-  <si>
-    <t>Machines</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="326">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -182,15 +108,9 @@
     <t>2 Axis CNC Lathe</t>
   </si>
   <si>
-    <t>3 Axis CNC Mill</t>
-  </si>
-  <si>
     <t>Turning tools</t>
   </si>
   <si>
-    <t>Milling tools</t>
-  </si>
-  <si>
     <t xml:space="preserve">Operator </t>
   </si>
   <si>
@@ -203,9 +123,6 @@
     <t>2D Laser cut</t>
   </si>
   <si>
-    <t>Direct manufacturing cost</t>
-  </si>
-  <si>
     <t>Maintenance</t>
   </si>
   <si>
@@ -215,9 +132,6 @@
     <t>Welding</t>
   </si>
   <si>
-    <t>TIG Welder</t>
-  </si>
-  <si>
     <t>Direct Assembly Cost</t>
   </si>
   <si>
@@ -320,12 +234,6 @@
     <t>Band Saw</t>
   </si>
   <si>
-    <t>Roller Cabinet</t>
-  </si>
-  <si>
-    <t>Specific tools (clamp/magnets/…)</t>
-  </si>
-  <si>
     <t>Torque Wrench</t>
   </si>
   <si>
@@ -380,9 +288,6 @@
     <t>Technician</t>
   </si>
   <si>
-    <t>Cost and OPE Impact</t>
-  </si>
-  <si>
     <t>Engineer</t>
   </si>
   <si>
@@ -506,9 +411,6 @@
     <t>https://www.baileigh.com/sheet-metal-brake-hb-4816e</t>
   </si>
   <si>
-    <t>1295$</t>
-  </si>
-  <si>
     <t>https://www.baileigh.com/semi-auto-band-saw-bs-330sa</t>
   </si>
   <si>
@@ -518,9 +420,6 @@
     <t>Stock Band saw</t>
   </si>
   <si>
-    <t>13995$</t>
-  </si>
-  <si>
     <t>Baileigh</t>
   </si>
   <si>
@@ -563,9 +462,6 @@
     <t>Manual Hydraulic press</t>
   </si>
   <si>
-    <t>395$</t>
-  </si>
-  <si>
     <t>Fusion 360</t>
   </si>
   <si>
@@ -575,9 +471,6 @@
     <t>Office 365 business</t>
   </si>
   <si>
-    <t>Roller cabinet + standard tooling</t>
-  </si>
-  <si>
     <t>https://www.promeca.com/composition-v5-servante-chrono-6m3-facom-chrono-v5pb-promotion</t>
   </si>
   <si>
@@ -608,9 +501,6 @@
     <t>https://www.promeca.com/poste-a-souder-tig220-ac-dc-ta34-ref-eau-esab-caddy-tig2200iac-dc</t>
   </si>
   <si>
-    <t>4386€HT</t>
-  </si>
-  <si>
     <t>https://www.gestionnaire-paie.com/convention-collective-automobile-salaires-minima/</t>
   </si>
   <si>
@@ -623,18 +513,12 @@
     <t>Welding helmet</t>
   </si>
   <si>
-    <t>146€ HT</t>
-  </si>
-  <si>
     <t>https://www.promeca.com/soudage-et-accessoires/equipements-du-soudeur/vetements-specifiques-du-soudeur</t>
   </si>
   <si>
     <t>Clothes/gloves</t>
   </si>
   <si>
-    <t>50€ HT</t>
-  </si>
-  <si>
     <t>https://www.promeca.com/soudage-et-accessoires/consommables-de-soudage/metaux-d-apport-soudage-tig</t>
   </si>
   <si>
@@ -758,15 +642,9 @@
     <t>Brut/month</t>
   </si>
   <si>
-    <t>Engineer - Grade III A</t>
-  </si>
-  <si>
     <t>Yearly for the company</t>
   </si>
   <si>
-    <t>Technician - Grade 22</t>
-  </si>
-  <si>
     <t>https://www.juristique.org/social/duree-du-travail</t>
   </si>
   <si>
@@ -878,9 +756,6 @@
     <t>https://www.siegmund.com/fr/1-Tables-de-soudure/98-Professional-Extreme/2400x1200x200/Panorama,101.php</t>
   </si>
   <si>
-    <t>8579€ HT</t>
-  </si>
-  <si>
     <t>HT</t>
   </si>
   <si>
@@ -908,9 +783,6 @@
     <t>Dedicated Software (Fusion 360) - 2 license</t>
   </si>
   <si>
-    <t xml:space="preserve"> Printers (4000 A4pages B&amp;W, 1600 A4pages Colors)</t>
-  </si>
-  <si>
     <t>A4 *2500</t>
   </si>
   <si>
@@ -971,21 +843,191 @@
     <t>https://www.master-outillage.com/facom/13765-servante-rouge-7-tiroirs-composition-d-outillage-v8-facom-jetv8m3-3148519073409.html</t>
   </si>
   <si>
-    <t>1079.10€ HT</t>
-  </si>
-  <si>
-    <t>2041.73€TTC</t>
+    <t>Qté</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Quote</t>
+  </si>
+  <si>
+    <t>Amortissement (année)</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Printer consumable (4000 A4pages B&amp;W, 1600 A4pages Colors)</t>
+  </si>
+  <si>
+    <t>Cost/year</t>
+  </si>
+  <si>
+    <t>3 Axis CNC Mill Direct</t>
+  </si>
+  <si>
+    <t>Manufacturing cost</t>
+  </si>
+  <si>
+    <t>Milling tool holders</t>
+  </si>
+  <si>
+    <t>Fixtures</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Chip management</t>
+  </si>
+  <si>
+    <t>Cutting fluid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance </t>
+  </si>
+  <si>
+    <t>Cutting tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way of costing </t>
+  </si>
+  <si>
+    <t>Electricity/time</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Volume/time</t>
+  </si>
+  <si>
+    <t>Cost/usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool sample and ponderate mean /time </t>
+  </si>
+  <si>
+    <t>5 % of initial cost /year</t>
+  </si>
+  <si>
+    <t>Price $ HT</t>
+  </si>
+  <si>
+    <t>Price $ TTC</t>
+  </si>
+  <si>
+    <t>Spec info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roller cabinet + standard tooling </t>
+  </si>
+  <si>
+    <t>Tooling kit V3</t>
+  </si>
+  <si>
+    <t>Tooling kit V5</t>
+  </si>
+  <si>
+    <t>Roller Cabinet (2 V3 and 2 V5)</t>
+  </si>
+  <si>
+    <t>OPE</t>
+  </si>
+  <si>
+    <t>Volume cut/min</t>
+  </si>
+  <si>
+    <t>OPM per job (Cleaning in min)</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Technician - Grade 25</t>
+  </si>
+  <si>
+    <t>Engineer - Grade IV A</t>
+  </si>
+  <si>
+    <t>Because prototyping company 80% and 5 percent for maintenance and cleaning of shop floor</t>
+  </si>
+  <si>
+    <t>Program &amp; setup time / cut volume</t>
+  </si>
+  <si>
+    <t>Specific workstation and tooling</t>
+  </si>
+  <si>
+    <t>weight/length</t>
+  </si>
+  <si>
+    <t>Gaz</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/projecteur-de-profil-pj-h30/p-G1213001821</t>
+  </si>
+  <si>
+    <t>Profil projector</t>
+  </si>
+  <si>
+    <t>510x342 mm</t>
+  </si>
+  <si>
+    <t>Measruement column</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/colonne-de-mesure-817clm-cap-600-770-pupitre-2d/p-G1197000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement column </t>
+  </si>
+  <si>
+    <t>600mm</t>
+  </si>
+  <si>
+    <t>TIG Welder &amp; Chiller</t>
+  </si>
+  <si>
+    <t>Tig Chiller</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/refroidisseurs-cool-arc/p-G1189001474</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/mobiflex-200-m-systeme-d-aspiration-des-fumees/p-G1189001541</t>
+  </si>
+  <si>
+    <t>3% of initial cost/year</t>
+  </si>
+  <si>
+    <t>Welding Helmet</t>
+  </si>
+  <si>
+    <t>Number of machine/workstation</t>
+  </si>
+  <si>
+    <t>Total time of production of machin or station per year (in hours)</t>
+  </si>
+  <si>
+    <t>Welding/assy , CNC mill, CNC lathe, Laser Cutting, 2 Assembly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
@@ -1160,7 +1202,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1220,7 +1262,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1229,6 +1270,15 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,6 +1294,20 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1560,421 +1624,1227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A679F01E-2D93-410F-BC7D-EB956F7D9444}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371D2E59-26F6-41B6-8D22-66B526DB6BB8}">
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="G1" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="P1" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="T1" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+    </row>
+    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="25">
+        <f>SUM(Metrology!E14:E17)</f>
+        <v>2320</v>
+      </c>
+      <c r="D3" s="43">
+        <v>10</v>
+      </c>
+      <c r="E3" s="25">
+        <f>C3/D3</f>
+        <v>232</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L3" s="24">
+        <f>'CNC mill'!B22</f>
+        <v>108020</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="24">
+        <f>L3/M3</f>
+        <v>10802</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="25">
+        <f>SUM(Metrology!E18:E19)</f>
+        <v>1838.4</v>
+      </c>
+      <c r="D4" s="43">
+        <v>10</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E36" si="0">C4/D4</f>
+        <v>183.84</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L4" s="24">
+        <f>'CNC mill'!B23*'CNC mill'!C23</f>
+        <v>3200</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" s="24">
+        <f t="shared" ref="N4:N6" si="1">L4/M4</f>
+        <v>320</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="25">
+        <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
+        <v>1272</v>
+      </c>
+      <c r="D5" s="43">
+        <v>10</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="0"/>
+        <v>127.2</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="47">
+        <f>C47</f>
+        <v>0.75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" s="24">
+        <f>'CNC mill'!B24</f>
+        <v>2500</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="24">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="24">
+        <f>Metrology!E23</f>
+        <v>48334.81</v>
+      </c>
+      <c r="D6" s="43">
+        <v>10</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="0"/>
+        <v>4833.4809999999998</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="9">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="24">
+        <f>0.05*L3</f>
+        <v>5401</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" si="1"/>
+        <v>5401</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="25">
+        <f>SUM(Metrology!E10:E12)</f>
+        <v>3209.6000000000004</v>
+      </c>
+      <c r="D7" s="43">
+        <v>10</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="0"/>
+        <v>320.96000000000004</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="25">
+        <f>2*Metrology!E21</f>
+        <v>492.90039304557206</v>
+      </c>
+      <c r="D8" s="43">
+        <v>10</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="0"/>
+        <v>49.290039304557205</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K8" t="s">
+        <v>287</v>
+      </c>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="24">
+        <f>Metrology!E25</f>
+        <v>5390</v>
+      </c>
+      <c r="D9" s="43">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10" t="s">
+        <v>280</v>
+      </c>
+      <c r="K10" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" t="s">
+        <v>289</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K12" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>279</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="24">
+        <f>C44</f>
+        <v>39809</v>
+      </c>
+      <c r="D18" s="43">
+        <v>1</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="0"/>
+        <v>39809</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="24">
+        <f>C43/2</f>
+        <v>34921.5</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="0"/>
+        <v>34921.5</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="24">
+        <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
+        <v>4796.88</v>
+      </c>
+      <c r="D21" s="43">
+        <v>5</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="0"/>
+        <v>959.37599999999998</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="24">
+        <f>IT!D5</f>
+        <v>192.96</v>
+      </c>
+      <c r="D22" s="43">
+        <v>5</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="0"/>
+        <v>38.591999999999999</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="24">
+        <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
+        <v>277.54199999999997</v>
+      </c>
+      <c r="D23" s="43">
+        <v>1</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="0"/>
+        <v>277.54199999999997</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="24">
+        <f>IT!D3*12*3</f>
+        <v>316.8</v>
+      </c>
+      <c r="D24" s="43">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" si="0"/>
+        <v>316.8</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="24">
+        <f>IT!D2*2</f>
+        <v>796.80000000000007</v>
+      </c>
+      <c r="D25" s="43">
+        <v>1</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="0"/>
+        <v>796.80000000000007</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="24">
+        <f>'TIG Welder'!F2+'TIG Welder'!F3</f>
+        <v>5308.6</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25" s="24">
+        <f>L25/M25</f>
+        <v>530.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="24">
+        <f>12*IT!D20</f>
+        <v>1224</v>
+      </c>
+      <c r="D26" s="43">
+        <v>1</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="24">
+        <f>'TIG Welder'!F4</f>
+        <v>3859.6</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" ref="N26:N30" si="2">L26/M26</f>
+        <v>385.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="43">
+        <v>3</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" t="s">
+        <v>322</v>
+      </c>
+      <c r="J27" t="s">
+        <v>279</v>
+      </c>
+      <c r="L27" s="24">
+        <f>'TIG Welder'!F6</f>
+        <v>146</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="2"/>
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="43">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>279</v>
+      </c>
+      <c r="L28" s="24">
+        <f>'TIG Welder'!F6+'TIG Welder'!F7</f>
+        <v>196</v>
+      </c>
+      <c r="M28">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="N28" s="24">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="43">
+        <v>1</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" t="s">
+        <v>307</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" s="24">
+        <f>'TIG Welder'!F5</f>
+        <v>8579</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29" s="24">
+        <f t="shared" si="2"/>
+        <v>857.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="43">
+        <v>1</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>321</v>
+      </c>
+      <c r="L30" s="24">
+        <f>0.03*(L25+L26)</f>
+        <v>275.04599999999999</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" s="24">
+        <f t="shared" si="2"/>
+        <v>275.04599999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="43">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="43">
+        <v>10</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="24">
+        <f>'Tooling and small machinery'!F3</f>
+        <v>12388.902659254276</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="0"/>
+        <v>1238.8902659254277</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="24">
+        <f>'Tooling and small machinery'!F6*2+'Tooling and small machinery'!F7*2</f>
+        <v>5424.9679999999998</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="0"/>
+        <v>542.49680000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="24">
+        <f>Manpower!C5</f>
+        <v>21376</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="24">
+        <f>Manpower!C6</f>
+        <v>39809</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="24">
+        <f>Manpower!C7</f>
+        <v>69843</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="24">
+        <f>Manpower!C6</f>
+        <v>39809</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="29">
+        <f>Manpower!B16</f>
+        <v>45.6</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="48">
+        <f>C46*C45*C47*C54</f>
+        <v>7182</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="24">
+        <f>Energies!B5</f>
+        <v>300.60000000000002</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="34">
+        <f>Energies!B6</f>
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="D50" s="43"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="43">
+        <v>1.12964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>20</v>
+      <c r="D54" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B58F9C-6374-4FC1-9CD1-FAF62F23455A}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2">
-        <v>80000</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D87BE077-FBAD-4470-AE46-C2A521D1C95A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{8DD2D8AC-F91F-4BDD-88D8-E92AD1B87856}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D6DE6C-0499-4E38-B78B-E24301945BCE}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>79.52</v>
-      </c>
-      <c r="E3">
-        <f>208*B3</f>
-        <v>8.32</v>
-      </c>
-      <c r="F3" s="24">
-        <f>$E$3*D3/C3</f>
-        <v>132.32128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>236.84</v>
-      </c>
-      <c r="F4" s="24">
-        <f t="shared" ref="F4:F5" si="0">$E$3*D4/C4</f>
-        <v>98.525440000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2116</v>
-      </c>
-      <c r="F5" s="24">
-        <f t="shared" si="0"/>
-        <v>88.025599999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3EF85-2FE8-4B91-9C72-7F274AF59AF6}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1989,54 +2859,54 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC5447B-3FC6-4E00-9E51-22AB77171136}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2059,7 +2929,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2071,961 +2941,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371D2E59-26F6-41B6-8D22-66B526DB6BB8}">
-  <dimension ref="A1:O50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="E1" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="M1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="25">
-        <f>SUM(Metrology!E14:E17)</f>
-        <v>2320</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="25">
-        <f>SUM(Metrology!E18:E19)</f>
-        <v>1838.4</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="25">
-        <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
-        <v>1272</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="25">
-        <f>SUM(Metrology!E10:E12)</f>
-        <v>3209.6000000000004</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="25">
-        <f>2*Metrology!E21</f>
-        <v>492.90039304557206</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="24">
-        <f>C42</f>
-        <v>31454</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="24">
-        <f>C41/2</f>
-        <v>27459.5</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="E19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="24">
-        <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
-        <v>4796.88</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="24">
-        <f>IT!D5+2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
-        <v>470.50200000000001</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22" s="24">
-        <f>IT!D3*12*3</f>
-        <v>316.8</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" s="24">
-        <f>IT!D2*2</f>
-        <v>796.80000000000007</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="24">
-        <f>12*IT!D20</f>
-        <v>1224</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="24">
-        <f>Manpower!C5</f>
-        <v>21376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="24">
-        <f>Manpower!C6</f>
-        <v>31454</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="24">
-        <f>Manpower!C7</f>
-        <v>54919</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="24">
-        <f>Manpower!C6</f>
-        <v>31454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="30">
-        <f>Manpower!B16</f>
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="29">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" t="s">
-        <v>253</v>
-      </c>
-      <c r="C46" s="24">
-        <f>Energies!B5</f>
-        <v>300.60000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>254</v>
-      </c>
-      <c r="C47">
-        <f>Energies!B6</f>
-        <v>8.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49">
-        <v>1.12964</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A37:C37"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E94A6A-2E2D-4927-B2FE-CAA3343F254D}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="28">
-        <v>149</v>
-      </c>
-      <c r="E2" s="25">
-        <f>D2*(1-General!$C$50)</f>
-        <v>119.2</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="28">
-        <v>129</v>
-      </c>
-      <c r="E3" s="25">
-        <f>D3*(1-General!$C$50)</f>
-        <v>103.2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="28">
-        <v>60</v>
-      </c>
-      <c r="E4" s="25">
-        <f>D4*(1-General!$C$50)</f>
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="28">
-        <v>392</v>
-      </c>
-      <c r="E6" s="25">
-        <f>D6*(1-General!$C$50)</f>
-        <v>313.60000000000002</v>
-      </c>
-      <c r="F6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="28">
-        <v>167</v>
-      </c>
-      <c r="E7" s="25">
-        <f>D7*(1-General!$C$50)</f>
-        <v>133.6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="28">
-        <v>94</v>
-      </c>
-      <c r="E8" s="25">
-        <f>D8*(1-General!$C$50)</f>
-        <v>75.2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="28">
-        <v>282</v>
-      </c>
-      <c r="E10" s="25">
-        <f>D10*(1-General!$C$50)</f>
-        <v>225.60000000000002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="28">
-        <v>408</v>
-      </c>
-      <c r="E11" s="25">
-        <f>D11*(1-General!$C$50)</f>
-        <v>326.40000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="28">
-        <v>3322</v>
-      </c>
-      <c r="E12" s="25">
-        <f>D12*(1-General!$C$50)</f>
-        <v>2657.6000000000004</v>
-      </c>
-      <c r="F12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="28">
-        <v>1390</v>
-      </c>
-      <c r="E14" s="25">
-        <f>D14*(1-General!$C$50)</f>
-        <v>1112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="28">
-        <v>1202</v>
-      </c>
-      <c r="E15" s="25">
-        <f>D15*(1-General!$C$50)</f>
-        <v>961.6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="28">
-        <v>146</v>
-      </c>
-      <c r="E16" s="25">
-        <f>D16*(1-General!$C$50)</f>
-        <v>116.80000000000001</v>
-      </c>
-      <c r="F16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="28">
-        <v>162</v>
-      </c>
-      <c r="E17" s="25">
-        <f>D17*(1-General!$C$50)</f>
-        <v>129.6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="28">
-        <v>1623</v>
-      </c>
-      <c r="E18" s="25">
-        <f>D18*(1-General!$C$50)</f>
-        <v>1298.4000000000001</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="28">
-        <v>675</v>
-      </c>
-      <c r="E19" s="25">
-        <f>D19*(1-General!$C$50)</f>
-        <v>540</v>
-      </c>
-      <c r="F19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="34">
-        <v>348</v>
-      </c>
-      <c r="D21" s="35">
-        <f>Metrology!C21/(General!C49)</f>
-        <v>308.06274565348252</v>
-      </c>
-      <c r="E21" s="25">
-        <f>D21*(1-General!$C$50)</f>
-        <v>246.45019652278603</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{58DA363D-2D93-46A9-8D7C-0B5ED87DF868}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{082AA6A4-2406-4004-9E43-1501E0B29EF7}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{D91E9628-A254-43A5-A037-02481B0A8B04}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CCC6EF-A592-4848-BAEA-E441E8495A29}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3040,20 +2955,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>250</v>
+      <c r="A3" s="30" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="B5" s="2">
         <v>300.60000000000002</v>
@@ -3061,13 +2976,527 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="32">
+        <v>211</v>
+      </c>
+      <c r="B6" s="31">
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E94A6A-2E2D-4927-B2FE-CAA3343F254D}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="27">
+        <v>149</v>
+      </c>
+      <c r="E2" s="25">
+        <f>D2*(1-General!$C$53)</f>
+        <v>119.2</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="27">
+        <v>129</v>
+      </c>
+      <c r="E3" s="25">
+        <f>D3*(1-General!$C$53)</f>
+        <v>103.2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="27">
+        <v>60</v>
+      </c>
+      <c r="E4" s="25">
+        <f>D4*(1-General!$C$53)</f>
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="27">
+        <v>392</v>
+      </c>
+      <c r="E6" s="25">
+        <f>D6*(1-General!$C$53)</f>
+        <v>313.60000000000002</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="27">
+        <v>167</v>
+      </c>
+      <c r="E7" s="25">
+        <f>D7*(1-General!$C$53)</f>
+        <v>133.6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="27">
+        <v>94</v>
+      </c>
+      <c r="E8" s="25">
+        <f>D8*(1-General!$C$53)</f>
+        <v>75.2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="27">
+        <v>282</v>
+      </c>
+      <c r="E10" s="25">
+        <f>D10*(1-General!$C$53)</f>
+        <v>225.60000000000002</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="27">
+        <v>408</v>
+      </c>
+      <c r="E11" s="25">
+        <f>D11*(1-General!$C$53)</f>
+        <v>326.40000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="27">
+        <v>3322</v>
+      </c>
+      <c r="E12" s="25">
+        <f>D12*(1-General!$C$53)</f>
+        <v>2657.6000000000004</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1390</v>
+      </c>
+      <c r="E14" s="25">
+        <f>D14*(1-General!$C$53)</f>
+        <v>1112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1202</v>
+      </c>
+      <c r="E15" s="25">
+        <f>D15*(1-General!$C$53)</f>
+        <v>961.6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="27">
+        <v>146</v>
+      </c>
+      <c r="E16" s="25">
+        <f>D16*(1-General!$C$53)</f>
+        <v>116.80000000000001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="27">
+        <v>162</v>
+      </c>
+      <c r="E17" s="25">
+        <f>D17*(1-General!$C$53)</f>
+        <v>129.6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1623</v>
+      </c>
+      <c r="E18" s="25">
+        <f>D18*(1-General!$C$53)</f>
+        <v>1298.4000000000001</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="27">
+        <v>675</v>
+      </c>
+      <c r="E19" s="25">
+        <f>D19*(1-General!$C$53)</f>
+        <v>540</v>
+      </c>
+      <c r="F19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="33">
+        <v>348</v>
+      </c>
+      <c r="D21" s="34">
+        <f>Metrology!C21/(General!C52)</f>
+        <v>308.06274565348252</v>
+      </c>
+      <c r="E21" s="25">
+        <f>D21*(1-General!$C$53)</f>
+        <v>246.45019652278603</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="2">
+        <v>48334.81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5390</v>
+      </c>
+      <c r="F25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{58DA363D-2D93-46A9-8D7C-0B5ED87DF868}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{082AA6A4-2406-4004-9E43-1501E0B29EF7}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{D91E9628-A254-43A5-A037-02481B0A8B04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8212045D-BA9D-4645-BBE6-821FC0C971AC}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="33">
+        <v>1295</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2/General!C52</f>
+        <v>1146.3829184518961</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="33">
+        <v>13995</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3/General!C52</f>
+        <v>12388.902659254276</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="33">
+        <v>395</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4/General!C52</f>
+        <v>349.66892107220002</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="F6" s="2">
+        <v>1079.0999999999999</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="E7" s="2">
+        <v>2041.73</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7*(1-General!C53)</f>
+        <v>1633.384</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="2">
+        <v>283.8</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="2">
+        <v>173.75</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="F11" s="2">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{904749AB-60F7-40C9-9A05-88575D8612EE}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{733D9E26-495E-4FA2-AC52-44A6B2BD84E0}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{89A6F626-5D60-42EF-84C3-3F4D50C0E634}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{8595F79F-934E-4012-AE6A-DB2122730452}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{60FB0FAE-5E8F-400D-A109-79F83F98898A}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{E17BCB8E-3909-404F-9A99-3D577A460404}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{2856BD11-A603-4A3C-9023-197BCA38F03F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3077,7 +3506,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,31 +3517,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -3123,37 +3552,37 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="B6" s="2">
-        <v>2054</v>
+        <v>2438</v>
       </c>
       <c r="C6" s="2">
-        <v>31454</v>
+        <v>39809</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="B7" s="2">
-        <v>3333</v>
+        <v>4104</v>
       </c>
       <c r="C7" s="2">
-        <v>54919</v>
+        <v>69843</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" t="s">
-        <v>241</v>
+        <v>202</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>365</v>
@@ -3161,7 +3590,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -3169,7 +3598,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -3177,7 +3606,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -3185,7 +3614,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
@@ -3194,9 +3623,9 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16" s="30">
+        <v>208</v>
+      </c>
+      <c r="B16" s="29">
         <f>B15/5</f>
         <v>45.6</v>
       </c>
@@ -3205,116 +3634,18 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{77E3761D-D50B-49EB-9456-1ABE9C4BA444}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{91619E3B-26A2-41F9-8981-7952596A8709}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{D96BDD8D-CC8F-42C9-9822-F4E0C956DB0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8212045D-BA9D-4645-BBE6-821FC0C971AC}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104E2A31-2CF8-497B-80D7-A7402E14FDAF}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="25">
-        <v>283.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="25">
-        <v>173.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="27">
-        <v>153.08000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{904749AB-60F7-40C9-9A05-88575D8612EE}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{733D9E26-495E-4FA2-AC52-44A6B2BD84E0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104E2A31-2CF8-497B-80D7-A7402E14FDAF}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,56 +3654,105 @@
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4386</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="F3" s="2">
+        <v>922.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3859.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8579</v>
+      </c>
+      <c r="G5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="2">
+        <v>146</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" t="s">
-        <v>278</v>
+        <v>160</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1844E3DF-8095-40C8-89A5-34A98EA6B556}">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -3398,44 +3778,44 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3688,14 +4068,14 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <f>AVERAGE(E4:E11)</f>
         <v>3.5967449974390129E-5</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
         <f>AVERAGE(J4:J11)</f>
@@ -3704,24 +4084,24 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3852,7 +4232,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
         <f>AVERAGE(E15:E21)</f>
@@ -3864,7 +4244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43928E5E-9C1A-45B2-9992-CAE5D3D51765}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -3882,46 +4262,46 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
       </c>
       <c r="D2" s="2">
-        <f>C2*(1-General!$C$50)</f>
+        <f>C2*(1-General!$C$53)</f>
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,71 +4310,71 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
       </c>
       <c r="D5" s="2">
-        <f>C5*(1-General!$C$50)</f>
+        <f>C5*(1-General!$C$53)</f>
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
       </c>
       <c r="D6" s="2">
-        <f>C6*(1-General!$C$50)</f>
+        <f>C6*(1-General!$C$53)</f>
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
       </c>
       <c r="D7" s="2">
-        <f>C7*(1-General!$C$50)</f>
+        <f>C7*(1-General!$C$53)</f>
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4003,47 +4383,47 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*(1-General!$C$50)</f>
+        <f>C11*(1-General!$C$53)</f>
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
       </c>
       <c r="D12" s="2">
-        <f>C12*(1-General!$C$50)</f>
+        <f>C12*(1-General!$C$53)</f>
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
       </c>
       <c r="D13" s="2">
-        <f>C13*(1-General!$C$50)</f>
+        <f>C13*(1-General!$C$53)</f>
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4052,76 +4432,76 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*(1-General!$C$50)</f>
+        <f>C15*(1-General!$C$53)</f>
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*(1-General!$C$50)</f>
+        <f>C16*(1-General!$C$53)</f>
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="D17" s="2">
-        <f>C17*(1-General!$C$50)</f>
+        <f>C17*(1-General!$C$53)</f>
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*(1-General!$C$50)</f>
+        <f>C18*(1-General!$C$53)</f>
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -4133,4 +4513,295 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B58F9C-6374-4FC1-9CD1-FAF62F23455A}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2">
+        <f>97625+10395</f>
+        <v>108020</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2">
+        <f>97625+10395</f>
+        <v>108020</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="2">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>79.52</v>
+      </c>
+      <c r="E29">
+        <f>208*B29</f>
+        <v>8.32</v>
+      </c>
+      <c r="F29" s="24">
+        <f>$E$29*D29/C29</f>
+        <v>132.32128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>236.84</v>
+      </c>
+      <c r="F30" s="24">
+        <f>$E$29*D30/C30</f>
+        <v>98.525440000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>200</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2116</v>
+      </c>
+      <c r="F31" s="24">
+        <f>$E$29*D31/C31</f>
+        <v>88.025599999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{D87BE077-FBAD-4470-AE46-C2A521D1C95A}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{8DD2D8AC-F91F-4BDD-88D8-E92AD1B87856}"/>
+    <hyperlink ref="D24" r:id="rId3" xr:uid="{438FC4BF-1A01-498B-BCE2-5FB9FF37B650}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A629C2D0-FEB5-4A10-A672-064F8FC68E07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201C0C6-B08B-41CB-984E-2D2B10EE2AD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE75819C-F2BF-48A4-A25A-3F0C921A5E1F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="325">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Security/safety</t>
   </si>
   <si>
-    <t>Comptability</t>
-  </si>
-  <si>
     <t>Office furniture</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>Cleaning</t>
   </si>
   <si>
-    <t>Cleaning furniture and OPE impact</t>
-  </si>
-  <si>
     <t>General Data</t>
   </si>
   <si>
@@ -1018,6 +1012,9 @@
   </si>
   <si>
     <t>Welding/assy , CNC mill, CNC lathe, Laser Cutting, 2 Assembly</t>
+  </si>
+  <si>
+    <t>Cleaning furniture</t>
   </si>
 </sst>
 </file>
@@ -1028,9 +1025,9 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1202,7 +1199,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1266,10 +1263,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,6 +1276,17 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,20 +1302,11 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1628,7 +1627,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,33 +1650,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
-      <c r="G1" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="G1" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="T1" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="T1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
     </row>
     <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1689,11 +1688,11 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>270</v>
+      <c r="D2" s="39" t="s">
+        <v>268</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>16</v>
@@ -1703,19 +1702,19 @@
         <v>17</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>270</v>
+      <c r="M2" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>16</v>
@@ -1741,28 +1740,28 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="25">
         <f>SUM(Metrology!E14:E17)</f>
         <v>2320</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="38">
         <v>10</v>
       </c>
       <c r="E3" s="25">
         <f>C3/D3</f>
         <v>232</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="48"/>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L3" s="24">
         <f>'CNC mill'!B22</f>
@@ -1779,22 +1778,22 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="25">
         <f>SUM(Metrology!E18:E19)</f>
         <v>1838.4</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="38">
         <v>10</v>
       </c>
       <c r="E4" s="25">
@@ -1804,10 +1803,10 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L4" s="24">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
@@ -1825,19 +1824,19 @@
         <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" s="25">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
         <v>1272</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="38">
         <v>10</v>
       </c>
       <c r="E5" s="25">
@@ -1845,17 +1844,17 @@
         <v>127.2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="47">
+        <v>297</v>
+      </c>
+      <c r="H5" s="41">
         <f>C47</f>
         <v>0.75</v>
       </c>
       <c r="I5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" t="s">
         <v>277</v>
-      </c>
-      <c r="J5" t="s">
-        <v>279</v>
       </c>
       <c r="L5" s="24">
         <f>'CNC mill'!B24</f>
@@ -1884,7 +1883,7 @@
         <f>Metrology!E23</f>
         <v>48334.81</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="38">
         <v>10</v>
       </c>
       <c r="E6" s="25">
@@ -1892,7 +1891,7 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H6" s="9">
         <v>15</v>
@@ -1901,10 +1900,10 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L6" s="24">
         <f>0.05*L3</f>
@@ -1925,13 +1924,13 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="25">
         <f>SUM(Metrology!E10:E12)</f>
         <v>3209.6000000000004</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="38">
         <v>10</v>
       </c>
       <c r="E7" s="25">
@@ -1939,30 +1938,30 @@
         <v>320.96000000000004</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="25">
         <f>2*Metrology!E21</f>
         <v>492.90039304557206</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="38">
         <v>10</v>
       </c>
       <c r="E8" s="25">
@@ -1970,30 +1969,30 @@
         <v>49.290039304557205</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" s="24">
         <f>Metrology!E25</f>
         <v>5390</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="38">
         <v>10</v>
       </c>
       <c r="E9" s="25">
@@ -2015,13 +2014,13 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" t="s">
@@ -2030,8 +2029,8 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" t="s">
-        <v>65</v>
+      <c r="B11" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2043,24 +2042,24 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" t="s">
+      <c r="B12" s="49" t="s">
         <v>46</v>
       </c>
       <c r="D12">
@@ -2073,13 +2072,13 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" t="s">
@@ -2088,7 +2087,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" t="s">
+      <c r="B13" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D13">
@@ -2106,7 +2105,7 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M13">
         <v>10</v>
@@ -2114,7 +2113,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" t="s">
+      <c r="B14" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D14">
@@ -2163,7 +2162,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -2183,13 +2182,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" s="24">
         <f>C44</f>
         <v>39809</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="38">
         <v>1</v>
       </c>
       <c r="E18" s="25">
@@ -2211,7 +2210,7 @@
         <f>C43/2</f>
         <v>34921.5</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="38">
         <v>1</v>
       </c>
       <c r="E19" s="25">
@@ -2221,12 +2220,12 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="25"/>
       <c r="G20" s="11" t="s">
         <v>25</v>
@@ -2247,7 +2246,7 @@
         <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
         <v>4796.88</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="38">
         <v>5</v>
       </c>
       <c r="E21" s="25">
@@ -2263,13 +2262,13 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C22" s="24">
         <f>IT!D5</f>
         <v>192.96</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="38">
         <v>5</v>
       </c>
       <c r="E22" s="25">
@@ -2285,13 +2284,13 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C23" s="24">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
         <v>277.54199999999997</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="38">
         <v>1</v>
       </c>
       <c r="E23" s="25">
@@ -2307,13 +2306,13 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" s="24">
         <f>IT!D3*12*3</f>
         <v>316.8</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="38">
         <v>1</v>
       </c>
       <c r="E24" s="25">
@@ -2323,19 +2322,19 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C25" s="24">
         <f>IT!D2*2</f>
         <v>796.80000000000007</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="38">
         <v>1</v>
       </c>
       <c r="E25" s="25">
@@ -2347,10 +2346,10 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L25" s="24">
         <f>'TIG Welder'!F2+'TIG Welder'!F3</f>
@@ -2373,7 +2372,7 @@
         <f>12*IT!D20</f>
         <v>1224</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="38">
         <v>1</v>
       </c>
       <c r="E26" s="25">
@@ -2383,10 +2382,10 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L26" s="24">
         <f>'TIG Welder'!F4</f>
@@ -2403,9 +2402,9 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="43">
+        <v>249</v>
+      </c>
+      <c r="D27" s="38">
         <v>3</v>
       </c>
       <c r="E27" s="25">
@@ -2415,10 +2414,10 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L27" s="24">
         <f>'TIG Welder'!F6</f>
@@ -2436,10 +2435,10 @@
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="38">
         <v>1</v>
       </c>
       <c r="E28" s="25">
@@ -2452,7 +2451,7 @@
         <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L28" s="24">
         <f>'TIG Welder'!F6+'TIG Welder'!F7</f>
@@ -2468,10 +2467,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" t="s">
+      <c r="B29" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="38">
         <v>1</v>
       </c>
       <c r="E29" s="25">
@@ -2481,10 +2480,10 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L29" s="24">
         <f>'TIG Welder'!F5</f>
@@ -2500,10 +2499,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="43">
+      <c r="D30" s="38">
         <v>1</v>
       </c>
       <c r="E30" s="25">
@@ -2516,10 +2512,10 @@
         <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L30" s="24">
         <f>0.03*(L25+L26)</f>
@@ -2536,9 +2532,9 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="43">
+        <v>59</v>
+      </c>
+      <c r="D31" s="38">
         <v>1</v>
       </c>
       <c r="E31" s="25">
@@ -2551,18 +2547,18 @@
         <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="43">
+        <v>72</v>
+      </c>
+      <c r="D32" s="38">
         <v>10</v>
       </c>
       <c r="E32" s="25">
@@ -2575,18 +2571,18 @@
         <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
       </c>
       <c r="C33" s="24">
         <f>'Tooling and small machinery'!F3</f>
@@ -2602,19 +2598,19 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C34" s="24">
         <f>'Tooling and small machinery'!F6*2+'Tooling and small machinery'!F7*2</f>
@@ -2631,7 +2627,7 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -2643,10 +2639,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2657,11 +2653,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
     </row>
@@ -2673,16 +2669,16 @@
         <v>17</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -2696,7 +2692,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" s="24">
         <f>Manpower!C6</f>
@@ -2707,7 +2703,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" s="24">
         <f>Manpower!C7</f>
@@ -2718,7 +2714,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="24">
         <f>Manpower!C6</f>
@@ -2729,10 +2725,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>35</v>
@@ -2740,7 +2736,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="29">
         <f>Manpower!B16</f>
@@ -2751,21 +2747,21 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47" s="28">
         <v>0.75</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>324</v>
-      </c>
-      <c r="C48" s="48">
+        <v>322</v>
+      </c>
+      <c r="C48" s="42">
         <f>C46*C45*C47*C54</f>
         <v>7182</v>
       </c>
@@ -2774,10 +2770,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C49" s="24">
         <f>Energies!B5</f>
@@ -2788,30 +2784,30 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C50" s="34">
         <f>Energies!B6</f>
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="43">
+        <v>241</v>
+      </c>
+      <c r="C52" s="38">
         <v>1.12964</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C53" s="28">
         <v>0.2</v>
@@ -2821,13 +2817,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C54">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2864,49 +2860,49 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2958,17 +2954,17 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="2">
         <v>300.60000000000002</v>
@@ -2976,7 +2972,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="31">
         <v>8.6199999999999999E-2</v>
@@ -3006,27 +3002,27 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
         <v>255</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>256</v>
       </c>
-      <c r="D1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" t="s">
-        <v>258</v>
-      </c>
       <c r="F1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="27">
         <v>149</v>
@@ -3036,12 +3032,12 @@
         <v>119.2</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -3054,7 +3050,7 @@
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,7 +3068,7 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,7 +3076,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="27">
         <v>392</v>
@@ -3090,12 +3086,12 @@
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="27">
         <v>167</v>
@@ -3105,12 +3101,12 @@
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="27">
         <v>94</v>
@@ -3120,7 +3116,7 @@
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,7 +3124,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="27">
         <v>282</v>
@@ -3138,12 +3134,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="27">
         <v>408</v>
@@ -3155,7 +3151,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="27">
         <v>3322</v>
@@ -3165,7 +3161,7 @@
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3173,10 +3169,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D14" s="27">
         <v>1390</v>
@@ -3186,12 +3182,12 @@
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" s="27">
         <v>1202</v>
@@ -3201,12 +3197,12 @@
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="27">
         <v>146</v>
@@ -3216,12 +3212,12 @@
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="27">
         <v>162</v>
@@ -3231,7 +3227,7 @@
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,7 +3235,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D18" s="27">
         <v>1623</v>
@@ -3249,12 +3245,12 @@
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D19" s="27">
         <v>675</v>
@@ -3264,7 +3260,7 @@
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,10 +3269,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
         <v>192</v>
-      </c>
-      <c r="B21" t="s">
-        <v>194</v>
       </c>
       <c r="C21" s="33">
         <v>348</v>
@@ -3290,35 +3286,35 @@
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3350,27 +3346,27 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="33">
         <v>1295</v>
@@ -3380,12 +3376,12 @@
         <v>1146.3829184518961</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="33">
         <v>13995</v>
@@ -3395,12 +3391,12 @@
         <v>12388.902659254276</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="33">
         <v>395</v>
@@ -3410,7 +3406,7 @@
         <v>349.66892107220002</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,25 +3414,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C6" s="22"/>
       <c r="F6" s="2">
         <v>1079.0999999999999</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
         <v>295</v>
-      </c>
-      <c r="B7" t="s">
-        <v>297</v>
       </c>
       <c r="C7" s="22"/>
       <c r="E7" s="2">
@@ -3447,44 +3443,44 @@
         <v>1633.384</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="2">
         <v>283.8</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" s="2">
         <v>173.75</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26"/>
       <c r="F11" s="2">
         <v>153.08000000000001</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3517,31 +3513,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -3552,7 +3548,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -3563,7 +3559,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B7" s="2">
         <v>4104</v>
@@ -3574,15 +3570,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>365</v>
@@ -3590,7 +3586,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -3598,7 +3594,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -3606,7 +3602,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -3614,7 +3610,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
@@ -3623,7 +3619,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" s="29">
         <f>B15/5</f>
@@ -3659,88 +3655,88 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2">
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3748,11 +3744,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4262,21 +4258,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -4286,22 +4282,22 @@
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,7 +4306,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -4320,12 +4316,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -4335,12 +4331,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -4350,31 +4346,31 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4383,7 +4379,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -4393,12 +4389,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -4408,12 +4404,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -4423,7 +4419,7 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4432,7 +4428,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -4442,12 +4438,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -4457,12 +4453,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -4472,12 +4468,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -4487,21 +4483,21 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -4536,27 +4532,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>1016</v>
@@ -4564,7 +4560,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>660</v>
@@ -4572,7 +4568,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>635</v>
@@ -4580,25 +4576,25 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>1372</v>
@@ -4606,7 +4602,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>610</v>
@@ -4614,42 +4610,42 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4657,34 +4653,34 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
         <v>161</v>
-      </c>
-      <c r="B19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -4694,12 +4690,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2">
         <v>80</v>
@@ -4708,12 +4704,12 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -4722,34 +4718,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
         <v>114</v>
       </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
       <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" s="23">
         <v>0.04</v>
@@ -4771,7 +4767,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30">
         <v>20</v>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201C0C6-B08B-41CB-984E-2D2B10EE2AD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308F9AE-B14A-4CDA-9429-7A2F57E33A6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE75819C-F2BF-48A4-A25A-3F0C921A5E1F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="348">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Shop floor</t>
   </si>
   <si>
-    <t>Heating</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -195,12 +192,6 @@
     <t>Recycling/Waste Managment</t>
   </si>
   <si>
-    <t>Administrative</t>
-  </si>
-  <si>
-    <t>50% engineer</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Torque Wrench</t>
   </si>
   <si>
-    <t>Electricity/electric supply (basic, not for machine)</t>
-  </si>
-  <si>
     <t>Chip managment</t>
   </si>
   <si>
@@ -666,15 +654,9 @@
     <t>https://www.kelwatt.fr/guide/prix-electricite-entreprise</t>
   </si>
   <si>
-    <t xml:space="preserve">To be modified with consumption of machine later on </t>
-  </si>
-  <si>
     <t>Price /kWh HT</t>
   </si>
   <si>
-    <t>Subscription 36kVa HT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electricity Subscription </t>
   </si>
   <si>
@@ -885,9 +867,6 @@
     <t>Cutting fluid</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance </t>
-  </si>
-  <si>
     <t>Cutting tools</t>
   </si>
   <si>
@@ -903,9 +882,6 @@
     <t>Volume/time</t>
   </si>
   <si>
-    <t>Cost/usage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tool sample and ponderate mean /time </t>
   </si>
   <si>
@@ -936,9 +912,6 @@
     <t>OPE</t>
   </si>
   <si>
-    <t>Volume cut/min</t>
-  </si>
-  <si>
     <t>OPM per job (Cleaning in min)</t>
   </si>
   <si>
@@ -951,12 +924,6 @@
     <t>Engineer - Grade IV A</t>
   </si>
   <si>
-    <t>Because prototyping company 80% and 5 percent for maintenance and cleaning of shop floor</t>
-  </si>
-  <si>
-    <t>Program &amp; setup time / cut volume</t>
-  </si>
-  <si>
     <t>Specific workstation and tooling</t>
   </si>
   <si>
@@ -1015,6 +982,108 @@
   </si>
   <si>
     <t>Cleaning furniture</t>
+  </si>
+  <si>
+    <t>Removal rate (min/mm^3)</t>
+  </si>
+  <si>
+    <t>Programation time / mm^3 (40% of machining time)</t>
+  </si>
+  <si>
+    <t>Setup time (fixture and tools) (min)</t>
+  </si>
+  <si>
+    <t>Yearly fixed cost</t>
+  </si>
+  <si>
+    <t>Fixed cost / hour</t>
+  </si>
+  <si>
+    <t>People efficiency</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>CNC mill</t>
+  </si>
+  <si>
+    <t>CNC lathe</t>
+  </si>
+  <si>
+    <t>Assembly 1</t>
+  </si>
+  <si>
+    <t>Assembly 2</t>
+  </si>
+  <si>
+    <t>Welding/Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC programmation </t>
+  </si>
+  <si>
+    <t>40% engineer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sum (hrs)</t>
+  </si>
+  <si>
+    <t>Required  (hrs)</t>
+  </si>
+  <si>
+    <t>Fixed cost (10% of the time)</t>
+  </si>
+  <si>
+    <t>Variable cost for 1 op (€/hour)</t>
+  </si>
+  <si>
+    <t>Manwork availability (90%) /year (hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopfloor allocation </t>
+  </si>
+  <si>
+    <t>Because prototyping company so not running all time, 6 percent used for maintenance and cleaning of shop floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People not working all time, need to pay them during this time </t>
+  </si>
+  <si>
+    <t>Maintenance manwork cost</t>
+  </si>
+  <si>
+    <t>Yearly for the company (90%)</t>
+  </si>
+  <si>
+    <t>Manwork</t>
+  </si>
+  <si>
+    <t>10% of manwork OPE</t>
+  </si>
+  <si>
+    <t>Maintenance manwork</t>
+  </si>
+  <si>
+    <t>Power consumption (kW)</t>
+  </si>
+  <si>
+    <t>Cost/hour</t>
+  </si>
+  <si>
+    <t>Subscription €/kVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power needed </t>
+  </si>
+  <si>
+    <t>Electricity subscription</t>
+  </si>
+  <si>
+    <t>Electricity consumption for office and small components (avg 16kW)</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1268,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1262,7 +1331,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1287,6 +1355,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,8 +1375,18 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1624,20 +1704,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371D2E59-26F6-41B6-8D22-66B526DB6BB8}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1650,33 +1730,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="G1" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="P1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="P1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="T1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="T1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
     </row>
     <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1688,33 +1768,33 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>271</v>
+      <c r="D2" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>265</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>276</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>283</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>271</v>
+      <c r="M2" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>16</v>
@@ -1740,28 +1820,28 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C3" s="25">
         <f>SUM(Metrology!E14:E17)</f>
         <v>2320</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>10</v>
       </c>
       <c r="E3" s="25">
         <f>C3/D3</f>
         <v>232</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="49"/>
       <c r="I3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L3" s="24">
         <f>'CNC mill'!B22</f>
@@ -1778,35 +1858,39 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C4" s="25">
         <f>SUM(Metrology!E18:E19)</f>
         <v>1838.4</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>10</v>
       </c>
       <c r="E4" s="25">
-        <f t="shared" ref="E4:E36" si="0">C4/D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4/D4</f>
         <v>183.84</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="9">
+        <v>22.4</v>
+      </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L4" s="24">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
@@ -1824,19 +1908,19 @@
         <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C5" s="25">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
         <v>1272</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>10</v>
       </c>
       <c r="E5" s="25">
@@ -1844,17 +1928,17 @@
         <v>127.2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="41">
-        <f>C47</f>
+        <v>289</v>
+      </c>
+      <c r="H5" s="40">
+        <f>C49</f>
         <v>0.75</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L5" s="24">
         <f>'CNC mill'!B24</f>
@@ -1883,7 +1967,7 @@
         <f>Metrology!E23</f>
         <v>48334.81</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>10</v>
       </c>
       <c r="E6" s="25">
@@ -1891,7 +1975,7 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H6" s="9">
         <v>15</v>
@@ -1900,10 +1984,10 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L6" s="24">
         <f>0.05*L3</f>
@@ -1924,13 +2008,13 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C7" s="25">
         <f>SUM(Metrology!E10:E12)</f>
         <v>3209.6000000000004</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>10</v>
       </c>
       <c r="E7" s="25">
@@ -1938,30 +2022,37 @@
         <v>320.96000000000004</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>314</v>
+      </c>
+      <c r="H7" s="50">
+        <f>1/10000</f>
+        <v>1E-4</v>
+      </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K7" t="s">
-        <v>284</v>
+        <v>343</v>
+      </c>
+      <c r="L7" s="33">
+        <f>H4*0.8*C53</f>
+        <v>1.4031359999999997</v>
       </c>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C8" s="25">
         <f>2*Metrology!E21</f>
         <v>492.90039304557206</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>10</v>
       </c>
       <c r="E8" s="25">
@@ -1969,58 +2060,70 @@
         <v>49.290039304557205</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="9"/>
+        <v>315</v>
+      </c>
+      <c r="H8" s="50">
+        <f>H7*0.4</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
       <c r="I8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" t="s">
         <v>278</v>
-      </c>
-      <c r="K8" t="s">
-        <v>285</v>
       </c>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C9" s="24">
         <f>Metrology!E25</f>
         <v>5390</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>10</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="0"/>
         <v>539</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="9">
+        <v>15</v>
+      </c>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="25"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="53">
+        <f>SUM(N3:N6)</f>
+        <v>16773</v>
+      </c>
       <c r="I10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" t="s">
@@ -2029,56 +2132,60 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="49" t="s">
-        <v>64</v>
+      <c r="B11" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="24">
+        <f>Energies!B5</f>
+        <v>2843.9040000000005</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" t="s">
-        <v>281</v>
-      </c>
-      <c r="J11" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" t="s">
-        <v>287</v>
+        <v>2843.9040000000005</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="53">
+        <f>H10/(H5*C47*C48)</f>
+        <v>14.012531328320803</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="49" t="s">
-        <v>46</v>
+      <c r="B12" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="2">
+        <f>16*C47*C48*C53</f>
+        <v>1999.4687999999999</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1999.4687999999999</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K12" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" t="s">
@@ -2087,9 +2194,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="49" t="s">
-        <v>47</v>
-      </c>
+      <c r="B13" s="43"/>
       <c r="D13">
         <v>1</v>
       </c>
@@ -2105,7 +2210,7 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M13">
         <v>10</v>
@@ -2113,8 +2218,8 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="50" t="s">
-        <v>48</v>
+      <c r="B14" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2131,28 +2236,28 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="25"/>
+      <c r="B15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="51"/>
       <c r="I15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="25"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" t="s">
@@ -2162,71 +2267,79 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="52"/>
       <c r="I17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="24">
-        <f>C44</f>
-        <v>39809</v>
-      </c>
-      <c r="D18" s="38">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="0"/>
-        <v>39809</v>
+        <v>0</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="52"/>
       <c r="I18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="C19" s="24">
-        <f>C43/2</f>
-        <v>34921.5</v>
-      </c>
-      <c r="D19" s="38">
+        <f>C46</f>
+        <v>39809</v>
+      </c>
+      <c r="D19" s="37">
         <v>1</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="0"/>
-        <v>34921.5</v>
+        <v>39809</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="25"/>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="24">
+        <f>C45*0.4</f>
+        <v>27937.200000000001</v>
+      </c>
+      <c r="D20" s="37">
+        <v>1</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="0"/>
+        <v>27937.200000000001</v>
+      </c>
       <c r="G20" s="11" t="s">
         <v>25</v>
       </c>
@@ -2236,22 +2349,20 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>340</v>
       </c>
       <c r="C21" s="24">
-        <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
-        <v>4796.88</v>
-      </c>
-      <c r="D21" s="38">
-        <v>5</v>
+        <f>Manpower!G8</f>
+        <v>24683.68</v>
+      </c>
+      <c r="D21" s="37">
+        <v>1</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" si="0"/>
-        <v>959.37599999999998</v>
+        <v>24683.68</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2260,20 +2371,20 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="C22" s="24">
-        <f>IT!D5</f>
-        <v>192.96</v>
-      </c>
-      <c r="D22" s="38">
-        <v>5</v>
+        <f>Manpower!B30</f>
+        <v>13716.36</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" si="0"/>
-        <v>38.591999999999999</v>
+        <v>13716.36</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2282,20 +2393,22 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="C23" s="24">
-        <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
-        <v>277.54199999999997</v>
-      </c>
-      <c r="D23" s="38">
-        <v>1</v>
+        <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
+        <v>4796.88</v>
+      </c>
+      <c r="D23" s="37">
+        <v>5</v>
       </c>
       <c r="E23" s="25">
         <f t="shared" si="0"/>
-        <v>277.54199999999997</v>
+        <v>959.37599999999998</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2306,50 +2419,50 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C24" s="24">
-        <f>IT!D3*12*3</f>
-        <v>316.8</v>
-      </c>
-      <c r="D24" s="38">
-        <v>1</v>
+        <f>IT!D5</f>
+        <v>192.96</v>
+      </c>
+      <c r="D24" s="37">
+        <v>5</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
-        <v>316.8</v>
+        <v>38.591999999999999</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C25" s="24">
-        <f>IT!D2*2</f>
-        <v>796.80000000000007</v>
-      </c>
-      <c r="D25" s="38">
+        <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
+        <v>277.54199999999997</v>
+      </c>
+      <c r="D25" s="37">
         <v>1</v>
       </c>
       <c r="E25" s="25">
         <f t="shared" si="0"/>
-        <v>796.80000000000007</v>
+        <v>277.54199999999997</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="J25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L25" s="24">
         <f>'TIG Welder'!F2+'TIG Welder'!F3</f>
@@ -2366,26 +2479,26 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="C26" s="24">
-        <f>12*IT!D20</f>
-        <v>1224</v>
-      </c>
-      <c r="D26" s="38">
+        <f>IT!D3*12*3</f>
+        <v>316.8</v>
+      </c>
+      <c r="D26" s="37">
         <v>1</v>
       </c>
       <c r="E26" s="25">
         <f t="shared" si="0"/>
-        <v>1224</v>
+        <v>316.8</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L26" s="24">
         <f>'TIG Welder'!F4</f>
@@ -2402,22 +2515,26 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="38">
-        <v>3</v>
+        <v>238</v>
+      </c>
+      <c r="C27" s="24">
+        <f>IT!D2*2</f>
+        <v>796.80000000000007</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1</v>
       </c>
       <c r="E27" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>796.80000000000007</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J27" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L27" s="24">
         <f>'TIG Welder'!F6</f>
@@ -2432,18 +2549,20 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="38">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="24">
+        <f>12*IT!D20</f>
+        <v>1224</v>
+      </c>
+      <c r="D28" s="37">
         <v>1</v>
       </c>
       <c r="E28" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2451,7 +2570,7 @@
         <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L28" s="24">
         <f>'TIG Welder'!F6+'TIG Welder'!F7</f>
@@ -2466,12 +2585,12 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="38">
-        <v>1</v>
+      <c r="A29" s="7"/>
+      <c r="B29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="37">
+        <v>3</v>
       </c>
       <c r="E29" s="25">
         <f t="shared" si="0"/>
@@ -2480,10 +2599,10 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L29" s="24">
         <f>'TIG Welder'!F5</f>
@@ -2498,8 +2617,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="D30" s="38">
+      <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="37">
         <v>1</v>
       </c>
       <c r="E30" s="25">
@@ -2512,10 +2636,10 @@
         <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="L30" s="24">
         <f>0.03*(L25+L26)</f>
@@ -2531,10 +2655,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="38">
+      <c r="B31" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="37">
         <v>1</v>
       </c>
       <c r="E31" s="25">
@@ -2547,19 +2671,16 @@
         <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="38">
-        <v>10</v>
+      <c r="D32" s="37">
+        <v>1</v>
       </c>
       <c r="E32" s="25">
         <f t="shared" si="0"/>
@@ -2571,150 +2692,154 @@
         <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="24">
-        <f>'Tooling and small machinery'!F3</f>
-        <v>12388.902659254276</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="37">
+        <v>1</v>
       </c>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>1238.8902659254277</v>
+        <v>0</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="A34" s="4"/>
+      <c r="B34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="37">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="24">
+        <f>'Tooling and small machinery'!F3</f>
+        <v>12388.902659254276</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="0"/>
+        <v>1238.8902659254277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="24">
         <f>'Tooling and small machinery'!F6*2+'Tooling and small machinery'!F7*2</f>
         <v>5424.9679999999998</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E36" s="25">
         <f t="shared" si="0"/>
         <v>542.49680000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37">
         <v>10</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E37" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>324</v>
-      </c>
-      <c r="D36">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E38" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C43" s="24">
         <f>Manpower!C5</f>
         <v>21376</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="24">
-        <f>Manpower!C6</f>
-        <v>39809</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="24">
-        <f>Manpower!C7</f>
-        <v>69843</v>
-      </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C44" s="24">
         <f>Manpower!C6</f>
@@ -2724,106 +2849,140 @@
       <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
       <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45">
-        <v>35</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C45" s="24">
+        <f>Manpower!C7</f>
+        <v>69843</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="29">
+        <v>77</v>
+      </c>
+      <c r="C46" s="24">
+        <f>Manpower!C6</f>
+        <v>39809</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="29">
         <f>Manpower!B16</f>
         <v>45.6</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="28">
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="28">
         <v>0.75</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>322</v>
-      </c>
-      <c r="C48" s="42">
-        <f>C46*C45*C47*C54</f>
-        <v>7182</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="24">
-        <f>Energies!B5</f>
-        <v>300.60000000000002</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="D49" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="34">
-        <f>Energies!B6</f>
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="D50" s="38"/>
+        <v>319</v>
+      </c>
+      <c r="C50" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>87</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C51" s="41">
+        <f>C48*C47*C49*C57</f>
+        <v>7182</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
       <c r="B52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="38">
-        <v>1.12964</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C52" s="24">
+        <f>Energies!B5</f>
+        <v>2843.9040000000005</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+        <v>206</v>
+      </c>
+      <c r="C53" s="33">
+        <f>Energies!B6</f>
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>321</v>
-      </c>
-      <c r="C54">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="37">
+        <v>1.12964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
-        <v>323</v>
+      <c r="D57" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +2991,7 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,49 +3019,49 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>129</v>
-      </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +3100,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,32 +3112,48 @@
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="B1" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>208</v>
+      <c r="A3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3">
+        <v>38.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4">
+        <f>24*0.8*3+16</f>
+        <v>73.600000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="B5" s="2">
-        <v>300.60000000000002</v>
+        <f>B4*B3</f>
+        <v>2843.9040000000005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="31">
-        <v>8.6199999999999999E-2</v>
+        <v>204</v>
+      </c>
+      <c r="B6" s="30">
+        <v>7.8299999999999995E-2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{F81F83C5-B38A-48AB-A7EA-AD5AD4101BAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3002,42 +3177,42 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D2" s="27">
         <v>149</v>
       </c>
       <c r="E2" s="25">
-        <f>D2*(1-General!$C$53)</f>
+        <f>D2*(1-General!$C$56)</f>
         <v>119.2</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -3046,11 +3221,11 @@
         <v>129</v>
       </c>
       <c r="E3" s="25">
-        <f>D3*(1-General!$C$53)</f>
+        <f>D3*(1-General!$C$56)</f>
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,11 +3239,11 @@
         <v>60</v>
       </c>
       <c r="E4" s="25">
-        <f>D4*(1-General!$C$53)</f>
+        <f>D4*(1-General!$C$56)</f>
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,47 +3251,47 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" s="27">
         <v>392</v>
       </c>
       <c r="E6" s="25">
-        <f>D6*(1-General!$C$53)</f>
+        <f>D6*(1-General!$C$56)</f>
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D7" s="27">
         <v>167</v>
       </c>
       <c r="E7" s="25">
-        <f>D7*(1-General!$C$53)</f>
+        <f>D7*(1-General!$C$56)</f>
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D8" s="27">
         <v>94</v>
       </c>
       <c r="E8" s="25">
-        <f>D8*(1-General!$C$53)</f>
+        <f>D8*(1-General!$C$56)</f>
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,44 +3299,44 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D10" s="27">
         <v>282</v>
       </c>
       <c r="E10" s="25">
-        <f>D10*(1-General!$C$53)</f>
+        <f>D10*(1-General!$C$56)</f>
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D11" s="27">
         <v>408</v>
       </c>
       <c r="E11" s="25">
-        <f>D11*(1-General!$C$53)</f>
+        <f>D11*(1-General!$C$56)</f>
         <v>326.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="27">
         <v>3322</v>
       </c>
       <c r="E12" s="25">
-        <f>D12*(1-General!$C$53)</f>
+        <f>D12*(1-General!$C$56)</f>
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,65 +3344,65 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D14" s="27">
         <v>1390</v>
       </c>
       <c r="E14" s="25">
-        <f>D14*(1-General!$C$53)</f>
+        <f>D14*(1-General!$C$56)</f>
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" s="27">
         <v>1202</v>
       </c>
       <c r="E15" s="25">
-        <f>D15*(1-General!$C$53)</f>
+        <f>D15*(1-General!$C$56)</f>
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D16" s="27">
         <v>146</v>
       </c>
       <c r="E16" s="25">
-        <f>D16*(1-General!$C$53)</f>
+        <f>D16*(1-General!$C$56)</f>
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D17" s="27">
         <v>162</v>
       </c>
       <c r="E17" s="25">
-        <f>D17*(1-General!$C$53)</f>
+        <f>D17*(1-General!$C$56)</f>
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,32 +3410,32 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18" s="27">
         <v>1623</v>
       </c>
       <c r="E18" s="25">
-        <f>D18*(1-General!$C$53)</f>
+        <f>D18*(1-General!$C$56)</f>
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D19" s="27">
         <v>675</v>
       </c>
       <c r="E19" s="25">
-        <f>D19*(1-General!$C$53)</f>
+        <f>D19*(1-General!$C$56)</f>
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,52 +3444,52 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="33">
+        <v>188</v>
+      </c>
+      <c r="C21" s="32">
         <v>348</v>
       </c>
-      <c r="D21" s="34">
-        <f>Metrology!C21/(General!C52)</f>
+      <c r="D21" s="33">
+        <f>Metrology!C21/(General!C55)</f>
         <v>308.06274565348252</v>
       </c>
       <c r="E21" s="25">
-        <f>D21*(1-General!$C$53)</f>
+        <f>D21*(1-General!$C$56)</f>
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3346,67 +3521,67 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="33">
+        <v>115</v>
+      </c>
+      <c r="D2" s="32">
         <v>1295</v>
       </c>
       <c r="F2" s="2">
-        <f>D2/General!C52</f>
+        <f>D2/General!C55</f>
         <v>1146.3829184518961</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="33">
+        <v>119</v>
+      </c>
+      <c r="D3" s="32">
         <v>13995</v>
       </c>
       <c r="F3" s="2">
-        <f>D3/General!C52</f>
+        <f>D3/General!C55</f>
         <v>12388.902659254276</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="33">
+        <v>133</v>
+      </c>
+      <c r="D4" s="32">
         <v>395</v>
       </c>
       <c r="F4" s="2">
-        <f>D4/General!C52</f>
+        <f>D4/General!C55</f>
         <v>349.66892107220002</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3414,73 +3589,73 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C6" s="22"/>
       <c r="F6" s="2">
         <v>1079.0999999999999</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C7" s="22"/>
       <c r="E7" s="2">
         <v>2041.73</v>
       </c>
       <c r="F7" s="2">
-        <f>E7*(1-General!C53)</f>
+        <f>E7*(1-General!C56)</f>
         <v>1633.384</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F9" s="2">
         <v>283.8</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F10" s="2">
         <v>173.75</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="26"/>
       <c r="F11" s="2">
         <v>153.08000000000001</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3499,45 +3674,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165F036-5546-4CAB-92C2-E90497369D05}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -3545,10 +3744,25 @@
       <c r="C5" s="2">
         <v>21376</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <f>C5*0.9</f>
+        <v>19238.400000000001</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24">
+        <f>C5*0.1*F5</f>
+        <v>8550.4</v>
+      </c>
+      <c r="H5" s="24">
+        <f>C5*0.9/$B$28</f>
+        <v>13.393483709273186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -3556,10 +3770,25 @@
       <c r="C6" s="2">
         <v>39809</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D7" si="0">C6*0.9</f>
+        <v>35828.1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="24">
+        <f>C6*0.1*F6</f>
+        <v>11942.7</v>
+      </c>
+      <c r="H6" s="24">
+        <f>C6*0.9/$B$28</f>
+        <v>24.942982456140353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B7" s="2">
         <v>4104</v>
@@ -3567,64 +3796,310 @@
       <c r="C7" s="2">
         <v>69843</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>62858.700000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="24">
+        <f>C7*0.1*F7</f>
+        <v>4190.58</v>
+      </c>
+      <c r="H7" s="24">
+        <f>C7*0.9/$B$28</f>
+        <v>43.761278195488728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F7+F6+F5)</f>
+        <v>7.6</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(G7+G6+G5)</f>
+        <v>24683.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B11">
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B16" s="29">
         <f>B15/5</f>
         <v>45.6</v>
       </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" t="s">
+        <v>325</v>
+      </c>
+      <c r="H21" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22">
+        <v>0.85</v>
+      </c>
+      <c r="C22">
+        <v>0.85</v>
+      </c>
+      <c r="D22">
+        <v>0.85</v>
+      </c>
+      <c r="E22">
+        <v>0.85</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>0.2</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <f>SUM(B22:J22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23">
+        <v>0.9</v>
+      </c>
+      <c r="G23">
+        <v>0.9</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+      <c r="I23">
+        <v>0.7</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="1">SUM(B23:J23)</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H24">
+        <v>0.3</v>
+      </c>
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25">
+        <f>$B$28*SUM(B22:B24)</f>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="C25">
+        <f>$B$28*SUM(C22:C24)</f>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="D25">
+        <f>$B$28*SUM(D22:D24)</f>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="E25">
+        <f>$B$28*SUM(E22:E24)</f>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="F25">
+        <f>$B$28*SUM(F22:F24)</f>
+        <v>1292.76</v>
+      </c>
+      <c r="G25">
+        <f>$B$28*SUM(G22:G24)</f>
+        <v>1292.76</v>
+      </c>
+      <c r="H25">
+        <f>$B$28*SUM(H22:H24)</f>
+        <v>1292.76</v>
+      </c>
+      <c r="I25">
+        <f>$B$28*SUM(I22:I24)</f>
+        <v>1580.0399999999997</v>
+      </c>
+      <c r="J25">
+        <f>$B$28*SUM(J22:J24)</f>
+        <v>574.55999999999995</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>10916.639999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="C26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="D26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="E26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="F26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="G26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="H26">
+        <f>0.4*B26*2+0.2*D26</f>
+        <v>1197</v>
+      </c>
+      <c r="I26">
+        <f>0.4*B26*3</f>
+        <v>1436.4</v>
+      </c>
+      <c r="J26">
+        <f>0.06*General!C47*General!C48*General!C57</f>
+        <v>574.56000000000006</v>
+      </c>
+      <c r="K26">
+        <f>SUM(B26:J26)</f>
+        <v>10389.959999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28">
+        <f>General!$C$50*General!$C$48*General!$C$47</f>
+        <v>1436.3999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="24">
+        <f>SUMPRODUCT(D5:D7*J22:J24)</f>
+        <v>13716.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3655,88 +4130,88 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2">
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3744,11 +4219,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4258,46 +4733,46 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
       </c>
       <c r="D2" s="2">
-        <f>C2*(1-General!$C$53)</f>
+        <f>C2*(1-General!$C$56)</f>
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4306,71 +4781,71 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
       </c>
       <c r="D5" s="2">
-        <f>C5*(1-General!$C$53)</f>
+        <f>C5*(1-General!$C$56)</f>
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
       </c>
       <c r="D6" s="2">
-        <f>C6*(1-General!$C$53)</f>
+        <f>C6*(1-General!$C$56)</f>
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
       </c>
       <c r="D7" s="2">
-        <f>C7*(1-General!$C$53)</f>
+        <f>C7*(1-General!$C$56)</f>
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4379,47 +4854,47 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*(1-General!$C$53)</f>
+        <f>C11*(1-General!$C$56)</f>
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
       </c>
       <c r="D12" s="2">
-        <f>C12*(1-General!$C$53)</f>
+        <f>C12*(1-General!$C$56)</f>
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
       </c>
       <c r="D13" s="2">
-        <f>C13*(1-General!$C$53)</f>
+        <f>C13*(1-General!$C$56)</f>
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4428,76 +4903,76 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*(1-General!$C$53)</f>
+        <f>C15*(1-General!$C$56)</f>
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*(1-General!$C$53)</f>
+        <f>C16*(1-General!$C$56)</f>
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="D17" s="2">
-        <f>C17*(1-General!$C$53)</f>
+        <f>C17*(1-General!$C$56)</f>
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*(1-General!$C$53)</f>
+        <f>C18*(1-General!$C$56)</f>
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -4532,27 +5007,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>1016</v>
@@ -4560,7 +5035,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>660</v>
@@ -4568,7 +5043,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>635</v>
@@ -4576,25 +5051,25 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>1372</v>
@@ -4602,7 +5077,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>610</v>
@@ -4610,42 +5085,42 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,34 +5128,34 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -4690,12 +5165,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2">
         <v>80</v>
@@ -4704,12 +5179,12 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -4718,34 +5193,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B29" s="23">
         <v>0.04</v>
@@ -4767,7 +5242,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C30">
         <v>20</v>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3308F9AE-B14A-4CDA-9429-7A2F57E33A6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D43F4-2627-488D-9C90-9837A1E61B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE75819C-F2BF-48A4-A25A-3F0C921A5E1F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="358">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -882,9 +882,6 @@
     <t>Volume/time</t>
   </si>
   <si>
-    <t xml:space="preserve">Tool sample and ponderate mean /time </t>
-  </si>
-  <si>
     <t>5 % of initial cost /year</t>
   </si>
   <si>
@@ -1084,6 +1081,39 @@
   </si>
   <si>
     <t>Electricity consumption for office and small components (avg 16kW)</t>
+  </si>
+  <si>
+    <t>https://www.fournisseurs-electricite.com/edf/pro/tarifs-reglementes/jaune#decomposition-facture</t>
+  </si>
+  <si>
+    <t>https://www.fournisseurs-electricite.com/guides/compteur/puissance/estimation?fbclid=IwAR0M9rlabDNFJxLa_aehdEGtK33qlQUwFO2xf_a1OlrFo_cEoo8_Df1M5hg</t>
+  </si>
+  <si>
+    <t>€/hour</t>
+  </si>
+  <si>
+    <t>Cost/hour running</t>
+  </si>
+  <si>
+    <t>Cost of machining part (€/mm^3)</t>
+  </si>
+  <si>
+    <t>Cost of Setup</t>
+  </si>
+  <si>
+    <t>Cost of programing part Technician(€/mm^3)</t>
+  </si>
+  <si>
+    <t>Cost of programing part Engineer (€/mm^3)</t>
+  </si>
+  <si>
+    <t>Cost of programing part Operator (€/mm^3)</t>
+  </si>
+  <si>
+    <t>Fixed cost</t>
+  </si>
+  <si>
+    <t>Fixed cost/hour to charge on operation (machine/station/programing/metrology)</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1298,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1357,6 +1387,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,16 +1420,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371D2E59-26F6-41B6-8D22-66B526DB6BB8}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,33 +1766,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="T1" s="47" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="T1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
     </row>
     <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1833,10 +1869,10 @@
         <f>C3/D3</f>
         <v>232</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="54"/>
       <c r="I3" t="s">
         <v>266</v>
       </c>
@@ -1881,7 +1917,7 @@
         <v>183.84</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H4" s="9">
         <v>22.4</v>
@@ -1928,7 +1964,7 @@
         <v>127.2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H5" s="40">
         <f>C49</f>
@@ -1975,7 +2011,7 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H6" s="9">
         <v>15</v>
@@ -1987,7 +2023,7 @@
         <v>271</v>
       </c>
       <c r="K6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L6" s="24">
         <f>0.05*L3</f>
@@ -2022,9 +2058,9 @@
         <v>320.96000000000004</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="50">
+        <v>313</v>
+      </c>
+      <c r="H7" s="45">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
@@ -2035,7 +2071,7 @@
         <v>272</v>
       </c>
       <c r="K7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L7" s="33">
         <f>H4*0.8*C53</f>
@@ -2060,9 +2096,9 @@
         <v>49.290039304557205</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="H8" s="50">
+        <v>314</v>
+      </c>
+      <c r="H8" s="45">
         <f>H7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
@@ -2080,7 +2116,7 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9" s="24">
         <f>Metrology!E25</f>
@@ -2094,10 +2130,22 @@
         <v>539</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H9" s="9">
         <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" t="s">
+        <v>349</v>
+      </c>
+      <c r="L9" s="2">
+        <v>20</v>
       </c>
       <c r="P9" s="14"/>
     </row>
@@ -2110,9 +2158,9 @@
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="53">
+        <v>316</v>
+      </c>
+      <c r="H10" s="48">
         <f>SUM(N3:N6)</f>
         <v>16773</v>
       </c>
@@ -2133,10 +2181,10 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C11" s="24">
-        <f>Energies!B5</f>
+        <f>Energies!B6</f>
         <v>2843.9040000000005</v>
       </c>
       <c r="D11">
@@ -2147,11 +2195,11 @@
         <v>2843.9040000000005</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="H11" s="53">
-        <f>H10/(H5*C47*C48)</f>
-        <v>14.012531328320803</v>
+        <v>317</v>
+      </c>
+      <c r="H11" s="48">
+        <f>H10/(H5*C47*C48)+C59</f>
+        <v>26.510226878703875</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>69</v>
@@ -2163,7 +2211,7 @@
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12" s="2">
         <f>16*C47*C48*C53</f>
@@ -2176,16 +2224,12 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" t="s">
-        <v>280</v>
+      <c r="G12" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="48">
+        <f>H11+L10+L9+L7</f>
+        <v>47.913362878703872</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" t="s">
@@ -2202,19 +2246,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>271</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -2228,11 +2261,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
+      <c r="G14" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="H14" s="45">
+        <f>(Manpower!H5+H12)*H7/60</f>
+        <v>1.0217807764662842E-4</v>
+      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -2246,10 +2282,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="51"/>
-      <c r="I15" t="s">
-        <v>19</v>
+      <c r="G15" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" s="55">
+        <f>(Manpower!H5)*H8/60</f>
+        <v>8.9289891395154577E-6</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -2258,10 +2296,12 @@
         <v>48</v>
       </c>
       <c r="E16" s="25"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" t="s">
-        <v>23</v>
+      <c r="G16" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="55">
+        <f>(Manpower!H6)*H8/60</f>
+        <v>1.6628654970760235E-5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2276,10 +2316,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="52"/>
-      <c r="I17" t="s">
-        <v>24</v>
+      <c r="G17" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" s="55">
+        <f>(Manpower!H7)*H8/60</f>
+        <v>2.9174185463659156E-5</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2294,15 +2336,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="52"/>
-      <c r="I18" t="s">
-        <v>27</v>
+      <c r="G18" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" s="48">
+        <f>(Manpower!H5+H11)*H9/60</f>
+        <v>9.9759276469942666</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
         <v>189</v>
@@ -2318,16 +2362,24 @@
         <f t="shared" si="0"/>
         <v>39809</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>271</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C20" s="24">
         <f>C45*0.4</f>
@@ -2340,18 +2392,16 @@
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C21" s="24">
         <f>Manpower!G8</f>
@@ -2364,16 +2414,16 @@
         <f t="shared" si="0"/>
         <v>24683.68</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="46"/>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22" s="24">
         <f>Manpower!B30</f>
@@ -2386,10 +2436,10 @@
         <f t="shared" si="0"/>
         <v>13716.36</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2410,10 +2460,10 @@
         <f t="shared" si="0"/>
         <v>959.37599999999998</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="47"/>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2432,10 +2482,10 @@
         <f t="shared" si="0"/>
         <v>38.591999999999999</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="47"/>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2454,26 +2504,10 @@
         <f t="shared" si="0"/>
         <v>277.54199999999997</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" t="s">
-        <v>304</v>
-      </c>
-      <c r="J25" t="s">
-        <v>271</v>
-      </c>
-      <c r="L25" s="24">
-        <f>'TIG Welder'!F2+'TIG Welder'!F3</f>
-        <v>5308.6</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25" s="24">
-        <f>L25/M25</f>
-        <v>530.86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2492,24 +2526,12 @@
         <f t="shared" si="0"/>
         <v>316.8</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="11"/>
       <c r="I26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" t="s">
-        <v>271</v>
-      </c>
-      <c r="L26" s="24">
-        <f>'TIG Welder'!F4</f>
-        <v>3859.6</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" ref="N26:N30" si="2">L26/M26</f>
-        <v>385.96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2528,24 +2550,10 @@
         <f t="shared" si="0"/>
         <v>796.80000000000007</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" t="s">
-        <v>309</v>
-      </c>
-      <c r="J27" t="s">
-        <v>271</v>
-      </c>
-      <c r="L27" s="24">
-        <f>'TIG Welder'!F6</f>
-        <v>146</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27" s="24">
-        <f t="shared" si="2"/>
-        <v>29.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2564,24 +2572,10 @@
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s">
-        <v>271</v>
-      </c>
-      <c r="L28" s="24">
-        <f>'TIG Welder'!F6+'TIG Welder'!F7</f>
-        <v>196</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" si="2"/>
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2596,24 +2590,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="I29" t="s">
-        <v>294</v>
-      </c>
-      <c r="J29" t="s">
-        <v>271</v>
-      </c>
-      <c r="L29" s="24">
-        <f>'TIG Welder'!F5</f>
-        <v>8579</v>
-      </c>
-      <c r="M29">
-        <v>10</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" si="2"/>
-        <v>857.9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2630,27 +2610,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" t="s">
-        <v>271</v>
-      </c>
-      <c r="K30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L30" s="24">
-        <f>0.03*(L25+L26)</f>
-        <v>275.04599999999999</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30" s="24">
-        <f t="shared" si="2"/>
-        <v>275.04599999999999</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2665,16 +2628,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
-      </c>
-      <c r="K31" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="L31" s="24">
+        <f>'TIG Welder'!F2+'TIG Welder'!F3</f>
+        <v>5308.6</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31" s="24">
+        <f>L31/M31</f>
+        <v>530.86</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2686,19 +2659,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
-      </c>
-      <c r="K32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="L32" s="24">
+        <f>'TIG Welder'!F4</f>
+        <v>3859.6</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32" s="24">
+        <f t="shared" ref="N32:N36" si="2">L32/M32</f>
+        <v>385.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>56</v>
@@ -2710,19 +2691,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
-      </c>
-      <c r="K33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="L33" s="24">
+        <f>'TIG Welder'!F6</f>
+        <v>146</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33" s="24">
+        <f t="shared" si="2"/>
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="17" t="s">
         <v>68</v>
@@ -2734,8 +2723,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" s="24">
+        <f>'TIG Welder'!F6+'TIG Welder'!F7</f>
+        <v>196</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -2753,11 +2761,30 @@
         <f t="shared" si="0"/>
         <v>1238.8902659254277</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" s="24">
+        <f>'TIG Welder'!F5</f>
+        <v>8579</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35" s="24">
+        <f t="shared" si="2"/>
+        <v>857.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C36" s="24">
         <f>'Tooling and small machinery'!F6*2+'Tooling and small machinery'!F7*2</f>
@@ -2770,8 +2797,30 @@
         <f t="shared" si="0"/>
         <v>542.49680000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" s="24">
+        <f>0.03*(L31+L32)</f>
+        <v>275.04599999999999</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="24">
+        <f t="shared" si="2"/>
+        <v>275.04599999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>63</v>
@@ -2783,13 +2832,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2798,17 +2858,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>39</v>
       </c>
@@ -2819,11 +2903,11 @@
         <v>73</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2837,7 +2921,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>75</v>
       </c>
@@ -2848,7 +2932,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>76</v>
       </c>
@@ -2859,7 +2943,7 @@
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -2870,7 +2954,7 @@
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2881,7 +2965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>80</v>
       </c>
@@ -2900,25 +2984,25 @@
         <v>0.75</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C50" s="28">
         <v>0.9</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C51" s="41">
         <f>C48*C47*C49*C57</f>
@@ -2935,7 +3019,7 @@
         <v>205</v>
       </c>
       <c r="C52" s="24">
-        <f>Energies!B5</f>
+        <f>Energies!B6</f>
         <v>2843.9040000000005</v>
       </c>
       <c r="D52" s="24"/>
@@ -2946,7 +3030,7 @@
         <v>206</v>
       </c>
       <c r="C53" s="33">
-        <f>Energies!B6</f>
+        <f>Energies!B7</f>
         <v>7.8299999999999995E-2</v>
       </c>
       <c r="D53" s="37"/>
@@ -2976,13 +3060,31 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="25">
+        <f>SUM(E3:E38)</f>
+        <v>122669.88090523001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" s="25">
+        <f>C58/SUM(Manpower!B26:I26)</f>
+        <v>12.497695550383073</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CCC6EF-A592-4848-BAEA-E441E8495A29}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -3116,37 +3218,47 @@
         <v>203</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3">
-        <v>38.64</v>
+      <c r="B3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4">
-        <f>24*0.8*3+16</f>
-        <v>73.600000000000009</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="2">
-        <f>B4*B3</f>
-        <v>2843.9040000000005</v>
+      <c r="B5">
+        <f>24*0.8*3+16</f>
+        <v>73.600000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B5*B4</f>
+        <v>2843.9040000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B7" s="30">
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
@@ -3466,30 +3578,30 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" t="s">
         <v>298</v>
-      </c>
-      <c r="B23" t="s">
-        <v>299</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
         <v>302</v>
-      </c>
-      <c r="B25" t="s">
-        <v>303</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3521,13 +3633,13 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
         <v>249</v>
@@ -3589,10 +3701,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
         <v>285</v>
-      </c>
-      <c r="B6" t="s">
-        <v>286</v>
       </c>
       <c r="C6" s="22"/>
       <c r="F6" s="2">
@@ -3604,10 +3716,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="22"/>
       <c r="E7" s="2">
@@ -3677,7 +3789,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B26" sqref="B26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,16 +3834,16 @@
         <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" t="s">
         <v>331</v>
-      </c>
-      <c r="H4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3762,7 +3874,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -3788,7 +3900,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="2">
         <v>4104</v>
@@ -3814,7 +3926,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F8">
         <f>SUM(F7+F6+F5)</f>
@@ -3885,25 +3997,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
         <v>321</v>
-      </c>
-      <c r="C21" t="s">
-        <v>322</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F21" t="s">
         <v>323</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>324</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>325</v>
-      </c>
-      <c r="H21" t="s">
-        <v>326</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
@@ -3912,7 +4024,7 @@
         <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3947,7 +4059,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F23">
         <v>0.9</v>
@@ -3971,7 +4083,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H24">
         <v>0.3</v>
@@ -3989,42 +4101,42 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B25">
-        <f>$B$28*SUM(B22:B24)</f>
+        <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
         <v>1220.9399999999998</v>
       </c>
       <c r="C25">
-        <f>$B$28*SUM(C22:C24)</f>
+        <f t="shared" si="2"/>
         <v>1220.9399999999998</v>
       </c>
       <c r="D25">
-        <f>$B$28*SUM(D22:D24)</f>
+        <f t="shared" si="2"/>
         <v>1220.9399999999998</v>
       </c>
       <c r="E25">
-        <f>$B$28*SUM(E22:E24)</f>
+        <f t="shared" si="2"/>
         <v>1220.9399999999998</v>
       </c>
       <c r="F25">
-        <f>$B$28*SUM(F22:F24)</f>
+        <f t="shared" si="2"/>
         <v>1292.76</v>
       </c>
       <c r="G25">
-        <f>$B$28*SUM(G22:G24)</f>
+        <f t="shared" si="2"/>
         <v>1292.76</v>
       </c>
       <c r="H25">
-        <f>$B$28*SUM(H22:H24)</f>
+        <f t="shared" si="2"/>
         <v>1292.76</v>
       </c>
       <c r="I25">
-        <f>$B$28*SUM(I22:I24)</f>
+        <f t="shared" si="2"/>
         <v>1580.0399999999997</v>
       </c>
       <c r="J25">
-        <f>$B$28*SUM(J22:J24)</f>
+        <f t="shared" si="2"/>
         <v>574.55999999999995</v>
       </c>
       <c r="K25">
@@ -4034,7 +4146,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B26">
         <f>General!$C$49*General!$C$48*General!$C$47</f>
@@ -4079,7 +4191,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28">
         <f>General!$C$50*General!$C$48*General!$C$47</f>
@@ -4088,7 +4200,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B30" s="24">
         <f>SUMPRODUCT(D5:D7*J22:J24)</f>
@@ -4130,13 +4242,13 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
         <v>249</v>
@@ -4161,13 +4273,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4178,7 +4290,7 @@
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D43F4-2627-488D-9C90-9837A1E61B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE75819C-F2BF-48A4-A25A-3F0C921A5E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Laser cutter" sheetId="5" r:id="rId10"/>
     <sheet name="CNC lathes" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="362">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -1114,12 +1113,24 @@
   </si>
   <si>
     <t>Fixed cost/hour to charge on operation (machine/station/programing/metrology)</t>
+  </si>
+  <si>
+    <t>Rond plein</t>
+  </si>
+  <si>
+    <t>diamètre (mm)</t>
+  </si>
+  <si>
+    <t>Alu 7075 T651</t>
+  </si>
+  <si>
+    <t>https://www.siso.fr/produits/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -1298,7 +1309,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1402,6 +1413,9 @@
     <xf numFmtId="44" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,9 +1434,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1739,62 +1751,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371D2E59-26F6-41B6-8D22-66B526DB6BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="T1" s="52" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="T1" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-    </row>
-    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+    </row>
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1869,10 +1881,10 @@
         <f>C3/D3</f>
         <v>232</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="55"/>
       <c r="I3" t="s">
         <v>266</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>254</v>
@@ -1947,7 +1959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>253</v>
@@ -1994,7 +2006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2041,7 +2053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>256</v>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>257</v>
@@ -2113,7 +2125,7 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>299</v>
@@ -2149,7 +2161,7 @@
       </c>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="43" t="s">
         <v>345</v>
@@ -2208,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="43" t="s">
         <v>346</v>
@@ -2236,7 +2248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="43"/>
       <c r="D13">
@@ -2249,7 +2261,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="42" t="s">
         <v>46</v>
@@ -2270,7 +2282,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="43" t="s">
         <v>47</v>
@@ -2285,12 +2297,12 @@
       <c r="G15" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="49">
         <f>(Manpower!H5)*H8/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="31" t="s">
         <v>48</v>
@@ -2299,12 +2311,12 @@
       <c r="G16" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="49">
         <f>(Manpower!H6)*H8/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>49</v>
@@ -2319,12 +2331,12 @@
       <c r="G17" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="49">
         <f>(Manpower!H7)*H8/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>64</v>
@@ -2344,7 +2356,7 @@
         <v>9.9759276469942666</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>338</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>326</v>
@@ -2398,7 +2410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>339</v>
@@ -2420,7 +2432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>340</v>
@@ -2442,7 +2454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2466,7 +2478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>263</v>
@@ -2488,7 +2500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>264</v>
@@ -2510,7 +2522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>237</v>
@@ -2534,7 +2546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>238</v>
@@ -2556,7 +2568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>52</v>
@@ -2578,7 +2590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>243</v>
@@ -2596,7 +2608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -2616,7 +2628,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="42" t="s">
         <v>55</v>
@@ -2650,7 +2662,7 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="D32" s="37">
         <v>1</v>
@@ -2679,7 +2691,7 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>56</v>
@@ -2711,7 +2723,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="17" t="s">
         <v>68</v>
@@ -2743,7 +2755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" t="s">
         <v>287</v>
@@ -2820,7 +2832,7 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>63</v>
@@ -2844,7 +2856,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>71</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" t="s">
@@ -2883,16 +2895,16 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>39</v>
       </c>
@@ -2907,7 +2919,7 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2921,7 +2933,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>75</v>
       </c>
@@ -2932,7 +2944,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>76</v>
       </c>
@@ -2943,7 +2955,7 @@
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -2954,7 +2966,7 @@
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>80</v>
       </c>
@@ -2976,7 +2988,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>81</v>
       </c>
@@ -2988,7 +3000,7 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>318</v>
       </c>
@@ -3000,7 +3012,7 @@
       </c>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>310</v>
       </c>
@@ -3011,7 +3023,7 @@
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3025,7 +3037,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>206</v>
       </c>
@@ -3035,12 +3047,12 @@
       </c>
       <c r="D53" s="37"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>235</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>1.12964</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>236</v>
       </c>
@@ -3058,7 +3070,7 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>309</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>356</v>
       </c>
@@ -3078,7 +3090,7 @@
         <v>122669.88090523001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>357</v>
       </c>
@@ -3102,29 +3114,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3EF85-2FE8-4B91-9C72-7F274AF59AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -3147,12 +3159,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3168,49 +3180,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{851F5C67-BAB8-49A1-896D-849705F721F4}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC5447B-3FC6-4E00-9E51-22AB77171136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{F57AD832-C197-4AB5-80D7-9956AD22D565}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CCC6EF-A592-4848-BAEA-E441E8495A29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3218,17 +3230,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>343</v>
       </c>
@@ -3236,7 +3248,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>344</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>73.600000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -3254,7 +3266,7 @@
         <v>2843.9040000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -3264,27 +3276,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{F81F83C5-B38A-48AB-A7EA-AD5AD4101BAB}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E94A6A-2E2D-4927-B2FE-CAA3343F254D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -3322,7 +3334,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3340,7 +3352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3358,10 +3370,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -3406,10 +3418,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -3424,7 +3436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -3436,7 +3448,7 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3451,10 +3463,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>179</v>
       </c>
@@ -3487,7 +3499,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>181</v>
       </c>
@@ -3502,7 +3514,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>183</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3535,7 +3547,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>251</v>
       </c>
@@ -3550,11 +3562,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>297</v>
       </c>
@@ -3590,7 +3602,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>301</v>
       </c>
@@ -3606,29 +3618,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{58DA363D-2D93-46A9-8D7C-0B5ED87DF868}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{082AA6A4-2406-4004-9E43-1501E0B29EF7}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{D91E9628-A254-43A5-A037-02481B0A8B04}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8212045D-BA9D-4645-BBE6-821FC0C971AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3666,7 +3678,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -3681,7 +3693,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -3696,10 +3708,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>284</v>
       </c>
@@ -3714,7 +3726,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -3747,7 +3759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>141</v>
       </c>
@@ -3758,7 +3770,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>144</v>
       </c>
@@ -3772,45 +3784,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{904749AB-60F7-40C9-9A05-88575D8612EE}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{733D9E26-495E-4FA2-AC52-44A6B2BD84E0}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{89A6F626-5D60-42EF-84C3-3F4D50C0E634}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{8595F79F-934E-4012-AE6A-DB2122730452}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{60FB0FAE-5E8F-400D-A109-79F83F98898A}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{E17BCB8E-3909-404F-9A99-3D577A460404}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{2856BD11-A603-4A3C-9023-197BCA38F03F}"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165F036-5546-4CAB-92C2-E90497369D05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -3818,7 +3830,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>193</v>
       </c>
@@ -3846,7 +3858,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>13.393483709273186</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -3898,7 +3910,7 @@
         <v>24.942982456140353</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>292</v>
       </c>
@@ -3924,7 +3936,7 @@
         <v>43.761278195488728</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>319</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>24683.68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>196</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -3953,7 +3965,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -3961,7 +3973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -3969,7 +3981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -3986,7 +3998,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>320</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>291</v>
       </c>
@@ -4081,7 +4093,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>292</v>
       </c>
@@ -4099,7 +4111,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>328</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>10916.639999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>329</v>
       </c>
@@ -4189,7 +4201,7 @@
         <v>10389.959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>332</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>1436.3999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>336</v>
       </c>
@@ -4207,37 +4219,37 @@
         <v>13716.36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{77E3761D-D50B-49EB-9456-1ABE9C4BA444}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{91619E3B-26A2-41F9-8981-7952596A8709}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{D96BDD8D-CC8F-42C9-9822-F4E0C956DB0D}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104E2A31-2CF8-497B-80D7-A7402E14FDAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4260,7 +4272,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4271,7 +4283,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -4304,7 +4316,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4315,7 +4327,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -4326,10 +4338,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4344,35 +4356,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1844E3DF-8095-40C8-89A5-34A98EA6B556}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4400,8 +4417,23 @@
       <c r="J3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>32</v>
       </c>
@@ -4431,8 +4463,24 @@
         <f>I4/(PI()*G4^2*H4)</f>
         <v>3.2722256299693677E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>80</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>P4/(M4*N4*O4)</f>
+        <v>4.0624999999999998E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>32</v>
       </c>
@@ -4462,8 +4510,24 @@
         <f t="shared" ref="J5:J11" si="1">I5/(PI()*G5^2*H5)</f>
         <v>1.3769314015980641E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>160</v>
+      </c>
+      <c r="P5" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q10" si="2">P5/(M5*N5*O5)</f>
+        <v>3.5859374999999996E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
@@ -4493,8 +4557,24 @@
         <f t="shared" si="1"/>
         <v>1.388474154036446E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>500</v>
+      </c>
+      <c r="P6" s="2">
+        <v>25.09</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1362499999999997E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>32</v>
       </c>
@@ -4524,8 +4604,24 @@
         <f t="shared" si="1"/>
         <v>1.2246535239484113E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>500</v>
+      </c>
+      <c r="P7" s="2">
+        <v>41.62</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3296000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>40</v>
       </c>
@@ -4555,8 +4651,24 @@
         <f t="shared" si="1"/>
         <v>1.357790608252732E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6720000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -4586,8 +4698,24 @@
         <f t="shared" si="1"/>
         <v>1.0225705093654274E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>500</v>
+      </c>
+      <c r="P9" s="2">
+        <v>57.83</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2127777777777776E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -4617,8 +4745,24 @@
         <f t="shared" si="1"/>
         <v>1.0867298457993479E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>995</v>
+      </c>
+      <c r="P10" s="2">
+        <v>119.95</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="2"/>
+        <v>3.348687883863763E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
@@ -4648,8 +4792,15 @@
         <f t="shared" si="1"/>
         <v>1.2469259274773026E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>AVERAGE(Q4:Q10)</f>
+        <v>3.478250451663077E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -4665,185 +4816,264 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="N14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="E15" s="1">
-        <f>D15/(A15*B15*C15)</f>
-        <v>4.0624999999999998E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>40</v>
-      </c>
+      <c r="N15" t="s">
+        <v>359</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="D16" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" ref="E16:E21" si="2">D16/(A16*B16*C16)</f>
-        <v>3.5859374999999996E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>40</v>
-      </c>
+        <v>5.14</v>
+      </c>
+      <c r="E16" s="56">
+        <f>D16/(PI()*(B16/2)^2*C16)</f>
+        <v>1.3088902519877471E-4</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>500</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="Q16" s="56">
+        <f>P16/(PI()*(N16/2)^2*O16)</f>
+        <v>1.6399325336188895E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>500</v>
       </c>
       <c r="D17" s="2">
-        <v>25.09</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1362499999999997E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>50</v>
-      </c>
+        <v>8.35</v>
+      </c>
+      <c r="E17" s="56">
+        <f>D17/(PI()*(B17/2)^2*C17)</f>
+        <v>5.3157750992693033E-5</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>500</v>
+      </c>
+      <c r="P17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Q17" s="56">
+        <f>P17/(PI()*(N17/2)^2*O17)</f>
+        <v>1.1459155902616463E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C18">
+        <v>990</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17.13</v>
+      </c>
+      <c r="E18" s="56">
+        <f>D18/(PI()*(B18/2)^2*C18)</f>
+        <v>5.5077256063922563E-5</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18">
         <v>500</v>
       </c>
-      <c r="D18" s="2">
-        <v>41.62</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>3.3296000000000001E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>50</v>
-      </c>
+      <c r="P18" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Q18" s="56">
+        <f t="shared" ref="Q18:Q21" si="3">P18/(PI()*(N18/2)^2*O18)</f>
+        <v>5.432488724203361E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D19" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>3.6720000000000001E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>60</v>
-      </c>
+        <v>13.11</v>
+      </c>
+      <c r="E19" s="56">
+        <f>D19/(PI()*(B19/2)^2*C19)</f>
+        <v>5.3414945380729545E-5</v>
+      </c>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <v>500</v>
+      </c>
+      <c r="P19" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="Q19" s="56">
+        <f t="shared" si="3"/>
+        <v>4.9986441385898987E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C20">
+        <v>990</v>
+      </c>
+      <c r="D20" s="2">
+        <v>26.99</v>
+      </c>
+      <c r="E20" s="56">
+        <f>D20/(PI()*(B20/2)^2*C20)</f>
+        <v>5.5538966161457841E-5</v>
+      </c>
+      <c r="N20">
+        <v>22</v>
+      </c>
+      <c r="O20">
         <v>500</v>
       </c>
-      <c r="D20" s="2">
-        <v>57.83</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="2"/>
-        <v>3.2127777777777776E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>60</v>
-      </c>
+      <c r="P20" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="Q20" s="56">
+        <f t="shared" si="3"/>
+        <v>4.4195091635435405E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>995</v>
+        <v>500</v>
       </c>
       <c r="D21" s="2">
-        <v>119.95</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>3.348687883863763E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E21" s="56">
+        <f>D21/(PI()*(B21/2)^2*C21)</f>
+        <v>4.5440504640992695E-5</v>
+      </c>
+      <c r="P21" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1">
-        <f>AVERAGE(E15:E21)</f>
-        <v>3.478250451663077E-5</v>
+      <c r="Q21" s="56">
+        <f>AVERAGE(Q16:Q20)</f>
+        <v>8.541824653028432E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E22" s="56">
+        <f>D22/(PI()*(B22/2)^2*C22)</f>
+        <v>3.338486055256606E-5</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="56">
+        <f>AVERAGE(E16:E22)</f>
+        <v>6.0986186998733781E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43928E5E-9C1A-45B2-9992-CAE5D3D51765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>232</v>
       </c>
@@ -4854,7 +5084,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -4872,7 +5102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -4887,11 +5117,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -4906,7 +5136,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -4921,7 +5151,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -4936,7 +5166,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -4948,7 +5178,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -4960,11 +5190,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -4979,7 +5209,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -4994,7 +5224,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -5009,11 +5239,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -5028,7 +5258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>220</v>
       </c>
@@ -5043,7 +5273,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -5058,7 +5288,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -5073,7 +5303,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -5087,7 +5317,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>5600*0.4</f>
         <v>2240</v>
@@ -5099,25 +5329,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B58F9C-6374-4FC1-9CD1-FAF62F23455A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -5129,12 +5359,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -5145,7 +5375,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -5153,7 +5383,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -5161,22 +5391,22 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -5187,7 +5417,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>89</v>
       </c>
@@ -5195,7 +5425,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -5203,7 +5433,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5211,7 +5441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -5219,7 +5449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5227,7 +5457,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -5235,7 +5465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -5243,7 +5473,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -5254,7 +5484,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>250</v>
       </c>
@@ -5265,7 +5495,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -5280,7 +5510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -5294,7 +5524,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -5308,7 +5538,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -5316,7 +5546,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>108</v>
       </c>
@@ -5330,7 +5560,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5352,7 +5582,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -5367,7 +5597,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>200</v>
       </c>
@@ -5381,9 +5611,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D87BE077-FBAD-4470-AE46-C2A521D1C95A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{8DD2D8AC-F91F-4BDD-88D8-E92AD1B87856}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{438FC4BF-1A01-498B-BCE2-5FB9FF37B650}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902EA7E-DDD3-4281-A445-F0CA02F41562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
     <sheet name="Energies" sheetId="13" r:id="rId2"/>
-    <sheet name="Metrology" sheetId="12" r:id="rId3"/>
-    <sheet name="Tooling and small machinery" sheetId="8" r:id="rId4"/>
-    <sheet name="Manpower" sheetId="11" r:id="rId5"/>
-    <sheet name="TIG Welder" sheetId="10" r:id="rId6"/>
-    <sheet name="Material" sheetId="2" r:id="rId7"/>
-    <sheet name="IT" sheetId="9" r:id="rId8"/>
-    <sheet name="CNC mill" sheetId="3" r:id="rId9"/>
-    <sheet name="Laser cutter" sheetId="5" r:id="rId10"/>
-    <sheet name="CNC lathes" sheetId="4" r:id="rId11"/>
+    <sheet name="Tooling and small machinery" sheetId="8" r:id="rId3"/>
+    <sheet name="Office Furniture" sheetId="14" r:id="rId4"/>
+    <sheet name="Metrology" sheetId="12" r:id="rId5"/>
+    <sheet name="Manpower" sheetId="11" r:id="rId6"/>
+    <sheet name="TIG Welder" sheetId="10" r:id="rId7"/>
+    <sheet name="Material" sheetId="2" r:id="rId8"/>
+    <sheet name="IT" sheetId="9" r:id="rId9"/>
+    <sheet name="CNC mill" sheetId="3" r:id="rId10"/>
+    <sheet name="Laser cutter" sheetId="5" r:id="rId11"/>
+    <sheet name="CNC lathes" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="383">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -902,9 +904,6 @@
     <t>Tooling kit V5</t>
   </si>
   <si>
-    <t>Roller Cabinet (2 V3 and 2 V5)</t>
-  </si>
-  <si>
     <t>OPE</t>
   </si>
   <si>
@@ -989,12 +988,6 @@
     <t>Setup time (fixture and tools) (min)</t>
   </si>
   <si>
-    <t>Yearly fixed cost</t>
-  </si>
-  <si>
-    <t>Fixed cost / hour</t>
-  </si>
-  <si>
     <t>People efficiency</t>
   </si>
   <si>
@@ -1091,15 +1084,9 @@
     <t>€/hour</t>
   </si>
   <si>
-    <t>Cost/hour running</t>
-  </si>
-  <si>
     <t>Cost of machining part (€/mm^3)</t>
   </si>
   <si>
-    <t>Cost of Setup</t>
-  </si>
-  <si>
     <t>Cost of programing part Technician(€/mm^3)</t>
   </si>
   <si>
@@ -1125,12 +1112,90 @@
   </si>
   <si>
     <t>https://www.siso.fr/produits/</t>
+  </si>
+  <si>
+    <t>Refilling/year (4times)</t>
+  </si>
+  <si>
+    <t>https://www.telecomsupplier.fr/avaya-3730-dect-combine.html</t>
+  </si>
+  <si>
+    <t>Mobile phone for shop floor</t>
+  </si>
+  <si>
+    <t>https://www.telecomsupplier.fr/avaya-1608-i-ip-telephone-paquet-de-4.html</t>
+  </si>
+  <si>
+    <t>4 phones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cost of Setup + cleaning</t>
+  </si>
+  <si>
+    <t>Yearly fixed cost of machine</t>
+  </si>
+  <si>
+    <t>Fixed cost of machine / hour</t>
+  </si>
+  <si>
+    <t>Cost of machine/hour running</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.francebureau.com/media/catalogue-mobilier/bureau-modulaire-kibo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angle worktable </t>
+  </si>
+  <si>
+    <t>Drawer</t>
+  </si>
+  <si>
+    <t>Armoire sans porte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armoire avec porte </t>
+  </si>
+  <si>
+    <t>Direction worktable</t>
+  </si>
+  <si>
+    <t>https://www.francebureau.com/media/catalogue-mobilier/bureau-direction-etretat.pdf</t>
+  </si>
+  <si>
+    <t>Meeting table</t>
+  </si>
+  <si>
+    <t>https://www.francebureau.com/media/catalogue-mobilier/table-reunion-modulable-arc-reunion.pdf</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>https://www.francebureau.com/alto-16.html</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/etabli-standard/p-G1359000849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard workstation </t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/etabli-standard/p-G1359000830</t>
+  </si>
+  <si>
+    <t>Standard workstation with drawer</t>
+  </si>
+  <si>
+    <t>Roller Cabinet (3 V3 and 3+ V5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -1184,7 +1249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,6 +1358,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1309,7 +1380,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1416,6 +1487,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,7 +1506,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1751,62 +1823,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="T1" s="53" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="T1" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-    </row>
-    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+    </row>
+    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1863,7 +1935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1881,10 +1953,10 @@
         <f>C3/D3</f>
         <v>232</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" t="s">
         <v>266</v>
       </c>
@@ -1912,7 +1984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>254</v>
@@ -1929,7 +2001,7 @@
         <v>183.84</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H4" s="9">
         <v>22.4</v>
@@ -1945,11 +2017,11 @@
         <v>3200</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" ref="N4:N6" si="1">L4/M4</f>
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" t="s">
@@ -1959,7 +2031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>253</v>
@@ -1976,7 +2048,7 @@
         <v>127.2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H5" s="40">
         <f>C49</f>
@@ -1993,11 +2065,11 @@
         <v>2500</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N5" s="24">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>34</v>
@@ -2006,7 +2078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2023,10 +2095,10 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H6" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -2053,7 +2125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>256</v>
@@ -2070,7 +2142,7 @@
         <v>320.96000000000004</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H7" s="45">
         <f>1/10000</f>
@@ -2083,7 +2155,7 @@
         <v>272</v>
       </c>
       <c r="K7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L7" s="33">
         <f>H4*0.8*C53</f>
@@ -2091,7 +2163,7 @@
       </c>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>257</v>
@@ -2108,7 +2180,7 @@
         <v>49.290039304557205</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H8" s="45">
         <f>H7*0.4</f>
@@ -2125,10 +2197,10 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="24">
         <f>Metrology!E25</f>
@@ -2142,7 +2214,7 @@
         <v>539</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" s="9">
         <v>15</v>
@@ -2154,14 +2226,14 @@
         <v>272</v>
       </c>
       <c r="K9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L9" s="2">
         <v>20</v>
       </c>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2170,11 +2242,11 @@
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="9" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="H10" s="48">
-        <f>SUM(N3:N6)</f>
-        <v>16773</v>
+        <f>SUM(N3:N6)+N10</f>
+        <v>17695.1024</v>
       </c>
       <c r="I10" t="s">
         <v>274</v>
@@ -2183,17 +2255,28 @@
         <v>272</v>
       </c>
       <c r="K10" t="s">
-        <v>279</v>
+        <v>357</v>
+      </c>
+      <c r="L10" s="24">
+        <f>4*'CNC mill'!F31</f>
+        <v>352.10239999999999</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" ref="N10" si="2">L10/M10</f>
+        <v>352.10239999999999</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="43" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C11" s="24">
         <f>Energies!B6</f>
@@ -2207,11 +2290,11 @@
         <v>2843.9040000000005</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="H11" s="48">
         <f>H10/(H5*C47*C48)+C59</f>
-        <v>26.510226878703875</v>
+        <v>27.505640522569635</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>69</v>
@@ -2220,10 +2303,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="43" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" s="2">
         <f>16*C47*C48*C53</f>
@@ -2237,18 +2320,18 @@
         <v>1999.4687999999999</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H12" s="48">
-        <f>H11+L10+L9+L7</f>
-        <v>47.913362878703872</v>
+        <f>H11+L9+L7</f>
+        <v>48.908776522569632</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="43"/>
       <c r="D13">
@@ -2261,7 +2344,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="42" t="s">
         <v>46</v>
@@ -2274,15 +2357,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H14" s="45">
         <f>(Manpower!H5+H12)*H7/60</f>
-        <v>1.0217807764662842E-4</v>
+        <v>1.038371003864047E-4</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="43" t="s">
         <v>47</v>
@@ -2295,28 +2378,28 @@
         <v>0</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H15" s="49">
         <f>(Manpower!H5)*H8/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="25"/>
       <c r="G16" s="44" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H16" s="49">
         <f>(Manpower!H6)*H8/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>49</v>
@@ -2329,36 +2412,40 @@
         <v>0</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H17" s="49">
         <f>(Manpower!H7)*H8/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>64</v>
       </c>
+      <c r="C18" s="24">
+        <f>'Office Furniture'!D2*2+'Office Furniture'!D3*2+'Office Furniture'!D4*2+'Office Furniture'!D5*2+'Office Furniture'!D6+'Office Furniture'!D7+'Office Furniture'!D8*10</f>
+        <v>10550</v>
+      </c>
       <c r="D18">
         <v>10</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H18" s="48">
-        <f>(Manpower!H5+H11)*H9/60</f>
-        <v>9.9759276469942666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <f>(Manpower!H5+H11)*(H9+H6)/60</f>
+        <v>17.041301763267843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>189</v>
@@ -2388,10 +2475,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C20" s="24">
         <f>C45*0.4</f>
@@ -2410,10 +2497,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C21" s="24">
         <f>Manpower!G8</f>
@@ -2432,10 +2519,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C22" s="24">
         <f>Manpower!B30</f>
@@ -2454,7 +2541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2478,7 +2565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>263</v>
@@ -2500,7 +2587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>264</v>
@@ -2522,7 +2609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>237</v>
@@ -2546,7 +2633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>238</v>
@@ -2568,7 +2655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>52</v>
@@ -2590,17 +2677,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>243</v>
       </c>
+      <c r="C29" s="24">
+        <f>IT!D23+IT!D22</f>
+        <v>381</v>
+      </c>
       <c r="D29" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76.2</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2608,7 +2699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -2628,7 +2719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="42" t="s">
         <v>55</v>
@@ -2645,7 +2736,7 @@
       </c>
       <c r="H31" s="9"/>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J31" t="s">
         <v>271</v>
@@ -2662,7 +2753,7 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="D32" s="37">
         <v>1</v>
@@ -2687,26 +2778,29 @@
         <v>10</v>
       </c>
       <c r="N32" s="24">
-        <f t="shared" ref="N32:N36" si="2">L32/M32</f>
+        <f t="shared" ref="N32:N36" si="3">L32/M32</f>
         <v>385.96</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>56</v>
       </c>
+      <c r="C33" s="57">
+        <v>100</v>
+      </c>
       <c r="D33" s="37">
         <v>1</v>
       </c>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
         <v>271</v>
@@ -2719,11 +2813,11 @@
         <v>5</v>
       </c>
       <c r="N33" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="17" t="s">
         <v>68</v>
@@ -2751,11 +2845,11 @@
         <v>2</v>
       </c>
       <c r="N34" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -2776,7 +2870,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
         <v>271</v>
@@ -2789,25 +2883,25 @@
         <v>10</v>
       </c>
       <c r="N35" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>857.9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="C36" s="24">
-        <f>'Tooling and small machinery'!F6*2+'Tooling and small machinery'!F7*2</f>
-        <v>5424.9679999999998</v>
+        <f>'Tooling and small machinery'!F6*3+'Tooling and small machinery'!F7*3</f>
+        <v>8137.4519999999993</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
       <c r="E36" s="25">
         <f t="shared" si="0"/>
-        <v>542.49680000000001</v>
+        <v>813.74519999999995</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2818,7 +2912,7 @@
         <v>271</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L36" s="24">
         <f>0.03*(L31+L32)</f>
@@ -2828,21 +2922,25 @@
         <v>1</v>
       </c>
       <c r="N36" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>63</v>
       </c>
+      <c r="C37" s="24">
+        <f>'Office Furniture'!D11*6+'Office Furniture'!D12*3</f>
+        <v>7066.95</v>
+      </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>706.69499999999994</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2856,12 +2954,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2879,14 +2977,14 @@
         <v>272</v>
       </c>
       <c r="K38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
         <v>272</v>
@@ -2895,16 +2993,16 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>39</v>
       </c>
@@ -2915,11 +3013,11 @@
         <v>73</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2933,7 +3031,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>75</v>
       </c>
@@ -2944,7 +3042,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>76</v>
       </c>
@@ -2955,7 +3053,7 @@
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -2966,7 +3064,7 @@
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -2977,7 +3075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>80</v>
       </c>
@@ -2988,7 +3086,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>81</v>
       </c>
@@ -2996,25 +3094,25 @@
         <v>0.75</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C50" s="28">
         <v>0.9</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C51" s="41">
         <f>C48*C47*C49*C57</f>
@@ -3023,7 +3121,7 @@
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3037,7 +3135,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>206</v>
       </c>
@@ -3047,12 +3145,12 @@
       </c>
       <c r="D53" s="37"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>235</v>
       </c>
@@ -3060,7 +3158,7 @@
         <v>1.12964</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>236</v>
       </c>
@@ -3070,33 +3168,33 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C57">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C58" s="25">
         <f>SUM(E3:E38)</f>
-        <v>122669.88090523001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124879.02430523002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C59" s="25">
         <f>C58/SUM(Manpower!B26:I26)</f>
-        <v>12.497695550383073</v>
+        <v>12.722764666262202</v>
       </c>
     </row>
   </sheetData>
@@ -3114,29 +3212,320 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2">
+        <f>97625+10395</f>
+        <v>108020</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2">
+        <f>97625+10395</f>
+        <v>108020</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>79.52</v>
+      </c>
+      <c r="E29">
+        <f>208*B29</f>
+        <v>8.32</v>
+      </c>
+      <c r="F29" s="24">
+        <f>$E$29*D29/C29</f>
+        <v>132.32128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>236.84</v>
+      </c>
+      <c r="F30" s="24">
+        <f>$E$29*D30/C30</f>
+        <v>98.525440000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>200</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2116</v>
+      </c>
+      <c r="F31" s="24">
+        <f>$E$29*D31/C31</f>
+        <v>88.025599999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -3159,12 +3548,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3180,49 +3569,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3230,43 +3619,43 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B4">
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B5">
         <f>24*0.8*3+16</f>
         <v>73.600000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
         <v>2843.9040000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -3276,27 +3665,328 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1295</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2/General!C55</f>
+        <v>1146.3829184518961</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="32">
+        <v>13995</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3/General!C55</f>
+        <v>12388.902659254276</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="32">
+        <v>395</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4/General!C55</f>
+        <v>349.66892107220002</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="F6" s="2">
+        <v>1079.0999999999999</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="E7" s="2">
+        <v>2041.73</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7*(1-General!C56)</f>
+        <v>1633.384</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="2">
+        <v>283.8</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2">
+        <v>173.75</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="F11" s="2">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7E6B60-DC9D-4150-9EB1-06C48ECFFEAA}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="2">
+        <v>619</v>
+      </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="2">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="2">
+        <v>320</v>
+      </c>
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="2">
+        <v>515</v>
+      </c>
+      <c r="E5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1851</v>
+      </c>
+      <c r="E7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="2">
+        <v>417</v>
+      </c>
+      <c r="E8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1001.67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="2">
+        <v>352.31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3316,7 +4006,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -3334,7 +4024,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3352,7 +4042,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3370,10 +4060,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -3388,7 +4078,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -3403,7 +4093,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -3418,10 +4108,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -3436,7 +4126,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -3448,7 +4138,7 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3463,10 +4153,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3484,7 +4174,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>179</v>
       </c>
@@ -3499,7 +4189,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>181</v>
       </c>
@@ -3514,7 +4204,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>183</v>
       </c>
@@ -3529,7 +4219,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3547,7 +4237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>251</v>
       </c>
@@ -3562,11 +4252,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -3588,668 +4278,498 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
         <v>297</v>
-      </c>
-      <c r="B23" t="s">
-        <v>298</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" t="s">
         <v>301</v>
-      </c>
-      <c r="B25" t="s">
-        <v>302</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="32">
-        <v>1295</v>
-      </c>
-      <c r="F2" s="2">
-        <f>D2/General!C55</f>
-        <v>1146.3829184518961</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="32">
-        <v>13995</v>
-      </c>
-      <c r="F3" s="2">
-        <f>D3/General!C55</f>
-        <v>12388.902659254276</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="32">
-        <v>395</v>
-      </c>
-      <c r="F4" s="2">
-        <f>D4/General!C55</f>
-        <v>349.66892107220002</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="F6" s="2">
-        <v>1079.0999999999999</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="E7" s="2">
-        <v>2041.73</v>
-      </c>
-      <c r="F7" s="2">
-        <f>E7*(1-General!C56)</f>
-        <v>1633.384</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="2">
-        <v>283.8</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="2">
-        <v>173.75</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="F11" s="2">
-        <v>153.08000000000001</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G11" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1592</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21376</v>
-      </c>
-      <c r="D5" s="2">
-        <f>C5*0.9</f>
-        <v>19238.400000000001</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="24">
-        <f>C5*0.1*F5</f>
-        <v>8550.4</v>
-      </c>
-      <c r="H5" s="24">
-        <f>C5*0.9/$B$28</f>
-        <v>13.393483709273186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2438</v>
-      </c>
-      <c r="C6" s="2">
-        <v>39809</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="0">C6*0.9</f>
-        <v>35828.1</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="24">
-        <f>C6*0.1*F6</f>
-        <v>11942.7</v>
-      </c>
-      <c r="H6" s="24">
-        <f>C6*0.9/$B$28</f>
-        <v>24.942982456140353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4104</v>
-      </c>
-      <c r="C7" s="2">
-        <v>69843</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>62858.700000000004</v>
-      </c>
-      <c r="F7">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="24">
-        <f>C7*0.1*F7</f>
-        <v>4190.58</v>
-      </c>
-      <c r="H7" s="24">
-        <f>C7*0.9/$B$28</f>
-        <v>43.761278195488728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8">
-        <f>SUM(F7+F6+F5)</f>
-        <v>7.6</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM(G7+G6+G5)</f>
-        <v>24683.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15">
-        <f>B11-B12-B13-B14</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="29">
-        <f>B15/5</f>
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>322</v>
-      </c>
-      <c r="F21" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" t="s">
-        <v>324</v>
-      </c>
-      <c r="H21" t="s">
-        <v>325</v>
-      </c>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22">
-        <v>0.85</v>
-      </c>
-      <c r="C22">
-        <v>0.85</v>
-      </c>
-      <c r="D22">
-        <v>0.85</v>
-      </c>
-      <c r="E22">
-        <v>0.85</v>
-      </c>
-      <c r="H22">
-        <v>0.2</v>
-      </c>
-      <c r="I22">
-        <v>0.2</v>
-      </c>
-      <c r="J22">
-        <v>0.2</v>
-      </c>
-      <c r="K22">
-        <f>SUM(B22:J22)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F23">
-        <v>0.9</v>
-      </c>
-      <c r="G23">
-        <v>0.9</v>
-      </c>
-      <c r="H23">
-        <v>0.4</v>
-      </c>
-      <c r="I23">
-        <v>0.7</v>
-      </c>
-      <c r="J23">
-        <v>0.1</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ref="K23:K25" si="1">SUM(B23:J23)</f>
-        <v>3.0000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>292</v>
-      </c>
-      <c r="H24">
-        <v>0.3</v>
-      </c>
-      <c r="I24">
-        <v>0.2</v>
-      </c>
-      <c r="J24">
-        <v>0.1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
-        <v>1220.9399999999998</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>1220.9399999999998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>1220.9399999999998</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>1220.9399999999998</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>1292.76</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1292.76</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>1292.76</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>1580.0399999999997</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>574.55999999999995</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>10916.639999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>329</v>
-      </c>
-      <c r="B26">
-        <f>General!$C$49*General!$C$48*General!$C$47</f>
-        <v>1197</v>
-      </c>
-      <c r="C26">
-        <f>General!$C$49*General!$C$48*General!$C$47</f>
-        <v>1197</v>
-      </c>
-      <c r="D26">
-        <f>General!$C$49*General!$C$48*General!$C$47</f>
-        <v>1197</v>
-      </c>
-      <c r="E26">
-        <f>General!$C$49*General!$C$48*General!$C$47</f>
-        <v>1197</v>
-      </c>
-      <c r="F26">
-        <f>General!$C$49*General!$C$48*General!$C$47</f>
-        <v>1197</v>
-      </c>
-      <c r="G26">
-        <f>General!$C$49*General!$C$48*General!$C$47</f>
-        <v>1197</v>
-      </c>
-      <c r="H26">
-        <f>0.4*B26*2+0.2*D26</f>
-        <v>1197</v>
-      </c>
-      <c r="I26">
-        <f>0.4*B26*3</f>
-        <v>1436.4</v>
-      </c>
-      <c r="J26">
-        <f>0.06*General!C47*General!C48*General!C57</f>
-        <v>574.56000000000006</v>
-      </c>
-      <c r="K26">
-        <f>SUM(B26:J26)</f>
-        <v>10389.959999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28">
-        <f>General!$C$50*General!$C$48*General!$C$47</f>
-        <v>1436.3999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="24">
-        <f>SUMPRODUCT(D5:D7*J22:J24)</f>
-        <v>13716.36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1592</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21376</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5*0.9</f>
+        <v>19238.400000000001</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24">
+        <f>C5*0.1*F5</f>
+        <v>8550.4</v>
+      </c>
+      <c r="H5" s="24">
+        <f>C5*0.9/$B$28</f>
+        <v>13.393483709273186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2438</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39809</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D7" si="0">C6*0.9</f>
+        <v>35828.1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="24">
+        <f>C6*0.1*F6</f>
+        <v>11942.7</v>
+      </c>
+      <c r="H6" s="24">
+        <f>C6*0.9/$B$28</f>
+        <v>24.942982456140353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4104</v>
+      </c>
+      <c r="C7" s="2">
+        <v>69843</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>62858.700000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="24">
+        <f>C7*0.1*F7</f>
+        <v>4190.58</v>
+      </c>
+      <c r="H7" s="24">
+        <f>C7*0.9/$B$28</f>
+        <v>43.761278195488728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F7+F6+F5)</f>
+        <v>7.6</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(G7+G6+G5)</f>
+        <v>24683.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15">
+        <f>B11-B12-B13-B14</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="29">
+        <f>B15/5</f>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22">
+        <v>0.85</v>
+      </c>
+      <c r="C22">
+        <v>0.85</v>
+      </c>
+      <c r="D22">
+        <v>0.85</v>
+      </c>
+      <c r="E22">
+        <v>0.85</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>0.2</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <f>SUM(B22:J22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23">
+        <v>0.9</v>
+      </c>
+      <c r="G23">
+        <v>0.9</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+      <c r="I23">
+        <v>0.7</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="1">SUM(B23:J23)</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24">
+        <v>0.3</v>
+      </c>
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1220.9399999999998</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1292.76</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1292.76</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1292.76</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1580.0399999999997</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>574.55999999999995</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>10916.639999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="C26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="D26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="E26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="F26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="G26">
+        <f>General!$C$49*General!$C$48*General!$C$47</f>
+        <v>1197</v>
+      </c>
+      <c r="H26">
+        <f>0.4*B26*2+0.2*D26</f>
+        <v>1197</v>
+      </c>
+      <c r="I26">
+        <f>0.4*B26*3</f>
+        <v>1436.4</v>
+      </c>
+      <c r="J26">
+        <f>0.06*General!C47*General!C48*General!C57</f>
+        <v>574.56000000000006</v>
+      </c>
+      <c r="K26">
+        <f>SUM(B26:J26)</f>
+        <v>10389.959999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28">
+        <f>General!$C$50*General!$C$48*General!$C$47</f>
+        <v>1436.3999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="24">
+        <f>SUMPRODUCT(D5:D7*J22:J24)</f>
+        <v>13716.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4272,7 +4792,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4283,18 +4803,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4302,10 +4822,10 @@
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -4316,7 +4836,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4327,7 +4847,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -4338,10 +4858,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4355,30 +4875,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4389,7 +4909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4433,7 +4953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>32</v>
       </c>
@@ -4480,7 +5000,7 @@
         <v>4.0624999999999998E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32</v>
       </c>
@@ -4527,7 +5047,7 @@
         <v>3.5859374999999996E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -4574,7 +5094,7 @@
         <v>3.1362499999999997E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -4621,7 +5141,7 @@
         <v>3.3296000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>40</v>
       </c>
@@ -4668,7 +5188,7 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -4715,7 +5235,7 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50</v>
       </c>
@@ -4762,7 +5282,7 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
@@ -4800,7 +5320,7 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -4816,23 +5336,23 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M14" t="s">
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -4844,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -4856,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -4866,8 +5386,8 @@
       <c r="D16" s="2">
         <v>5.14</v>
       </c>
-      <c r="E16" s="56">
-        <f>D16/(PI()*(B16/2)^2*C16)</f>
+      <c r="E16" s="50">
+        <f t="shared" ref="E16:E22" si="3">D16/(PI()*(B16/2)^2*C16)</f>
         <v>1.3088902519877471E-4</v>
       </c>
       <c r="N16">
@@ -4879,12 +5399,12 @@
       <c r="P16" s="2">
         <v>1.61</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="50">
         <f>P16/(PI()*(N16/2)^2*O16)</f>
         <v>1.6399325336188895E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>20</v>
       </c>
@@ -4894,8 +5414,8 @@
       <c r="D17" s="2">
         <v>8.35</v>
       </c>
-      <c r="E17" s="56">
-        <f>D17/(PI()*(B17/2)^2*C17)</f>
+      <c r="E17" s="50">
+        <f t="shared" si="3"/>
         <v>5.3157750992693033E-5</v>
       </c>
       <c r="N17">
@@ -4907,12 +5427,12 @@
       <c r="P17" s="2">
         <v>4.5</v>
       </c>
-      <c r="Q17" s="56">
+      <c r="Q17" s="50">
         <f>P17/(PI()*(N17/2)^2*O17)</f>
         <v>1.1459155902616463E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>20</v>
       </c>
@@ -4922,8 +5442,8 @@
       <c r="D18" s="2">
         <v>17.13</v>
       </c>
-      <c r="E18" s="56">
-        <f>D18/(PI()*(B18/2)^2*C18)</f>
+      <c r="E18" s="50">
+        <f t="shared" si="3"/>
         <v>5.5077256063922563E-5</v>
       </c>
       <c r="N18">
@@ -4935,12 +5455,12 @@
       <c r="P18" s="2">
         <v>4.8</v>
       </c>
-      <c r="Q18" s="56">
-        <f t="shared" ref="Q18:Q21" si="3">P18/(PI()*(N18/2)^2*O18)</f>
+      <c r="Q18" s="50">
+        <f t="shared" ref="Q18:Q20" si="4">P18/(PI()*(N18/2)^2*O18)</f>
         <v>5.432488724203361E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>25</v>
       </c>
@@ -4950,8 +5470,8 @@
       <c r="D19" s="2">
         <v>13.11</v>
       </c>
-      <c r="E19" s="56">
-        <f>D19/(PI()*(B19/2)^2*C19)</f>
+      <c r="E19" s="50">
+        <f t="shared" si="3"/>
         <v>5.3414945380729545E-5</v>
       </c>
       <c r="N19">
@@ -4963,12 +5483,12 @@
       <c r="P19" s="2">
         <v>6.36</v>
       </c>
-      <c r="Q19" s="56">
-        <f t="shared" si="3"/>
+      <c r="Q19" s="50">
+        <f t="shared" si="4"/>
         <v>4.9986441385898987E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>25</v>
       </c>
@@ -4978,8 +5498,8 @@
       <c r="D20" s="2">
         <v>26.99</v>
       </c>
-      <c r="E20" s="56">
-        <f>D20/(PI()*(B20/2)^2*C20)</f>
+      <c r="E20" s="50">
+        <f t="shared" si="3"/>
         <v>5.5538966161457841E-5</v>
       </c>
       <c r="N20">
@@ -4991,12 +5511,12 @@
       <c r="P20" s="2">
         <v>8.4</v>
       </c>
-      <c r="Q20" s="56">
-        <f t="shared" si="3"/>
+      <c r="Q20" s="50">
+        <f t="shared" si="4"/>
         <v>4.4195091635435405E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>30</v>
       </c>
@@ -5006,19 +5526,19 @@
       <c r="D21" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="E21" s="56">
-        <f>D21/(PI()*(B21/2)^2*C21)</f>
+      <c r="E21" s="50">
+        <f t="shared" si="3"/>
         <v>4.5440504640992695E-5</v>
       </c>
       <c r="P21" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21" s="50">
         <f>AVERAGE(Q16:Q20)</f>
         <v>8.541824653028432E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>35</v>
       </c>
@@ -5028,52 +5548,52 @@
       <c r="D22" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="E22" s="56">
-        <f>D22/(PI()*(B22/2)^2*C22)</f>
+      <c r="E22" s="50">
+        <f t="shared" si="3"/>
         <v>3.338486055256606E-5</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="50">
         <f>AVERAGE(E16:E22)</f>
         <v>6.0986186998733781E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>232</v>
       </c>
@@ -5084,7 +5604,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -5102,7 +5622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5117,11 +5637,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -5136,7 +5656,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -5151,7 +5671,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -5166,7 +5686,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -5178,7 +5698,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -5190,11 +5710,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -5209,7 +5729,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -5224,7 +5744,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -5239,11 +5759,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -5258,7 +5778,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>220</v>
       </c>
@@ -5273,7 +5793,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -5288,7 +5808,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -5303,7 +5823,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -5317,7 +5837,29 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="2">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="2">
+        <v>285</v>
+      </c>
+      <c r="E23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>5600*0.4</f>
         <v>2240</v>
@@ -5326,295 +5868,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2">
-        <f>97625+10395</f>
-        <v>108020</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="2">
-        <f>97625+10395</f>
-        <v>108020</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="2">
-        <v>80</v>
-      </c>
-      <c r="C23">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2500</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>79.52</v>
-      </c>
-      <c r="E29">
-        <f>208*B29</f>
-        <v>8.32</v>
-      </c>
-      <c r="F29" s="24">
-        <f>$E$29*D29/C29</f>
-        <v>132.32128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30" s="2">
-        <v>236.84</v>
-      </c>
-      <c r="F30" s="24">
-        <f>$E$29*D30/C30</f>
-        <v>98.525440000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>200</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2116</v>
-      </c>
-      <c r="F31" s="24">
-        <f>$E$29*D31/C31</f>
-        <v>88.025599999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D24" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902EA7E-DDD3-4281-A445-F0CA02F41562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="Laser cutter" sheetId="5" r:id="rId11"/>
     <sheet name="CNC lathes" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="388">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -1111,9 +1110,6 @@
     <t>Alu 7075 T651</t>
   </si>
   <si>
-    <t>https://www.siso.fr/produits/</t>
-  </si>
-  <si>
     <t>Refilling/year (4times)</t>
   </si>
   <si>
@@ -1190,12 +1186,30 @@
   </si>
   <si>
     <t>Roller Cabinet (3 V3 and 3+ V5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Hauteur (mm)</t>
+  </si>
+  <si>
+    <t>https://lemetal.fr/148-tole-plane-aluminium</t>
+  </si>
+  <si>
+    <t>Acier S325JR</t>
+  </si>
+  <si>
+    <t>https://rhmetal.fr/87-rond-acier-noir-s235</t>
+  </si>
+  <si>
+    <t>https://www.metalaladecoupe.com/francais/barres_rondes_5_50.asp?tbout=acier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -1380,7 +1394,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1488,6 +1502,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,7 +1521,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1823,62 +1840,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="T1" s="54" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="T1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-    </row>
-    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+    </row>
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1935,7 +1952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1953,10 +1970,10 @@
         <f>C3/D3</f>
         <v>232</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" t="s">
         <v>266</v>
       </c>
@@ -1984,7 +2001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>254</v>
@@ -2031,7 +2048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>253</v>
@@ -2078,7 +2095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>43</v>
@@ -2125,7 +2142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>256</v>
@@ -2163,7 +2180,7 @@
       </c>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>257</v>
@@ -2197,7 +2214,7 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>298</v>
@@ -2233,7 +2250,7 @@
       </c>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2242,7 +2259,7 @@
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H10" s="48">
         <f>SUM(N3:N6)+N10</f>
@@ -2255,7 +2272,7 @@
         <v>272</v>
       </c>
       <c r="K10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L10" s="24">
         <f>4*'CNC mill'!F31</f>
@@ -2273,7 +2290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="43" t="s">
         <v>342</v>
@@ -2290,7 +2307,7 @@
         <v>2843.9040000000005</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H11" s="48">
         <f>H10/(H5*C47*C48)+C59</f>
@@ -2303,7 +2320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="43" t="s">
         <v>343</v>
@@ -2320,7 +2337,7 @@
         <v>1999.4687999999999</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H12" s="48">
         <f>H11+L9+L7</f>
@@ -2331,7 +2348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="43"/>
       <c r="D13">
@@ -2344,7 +2361,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="42" t="s">
         <v>46</v>
@@ -2365,7 +2382,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="43" t="s">
         <v>47</v>
@@ -2385,7 +2402,7 @@
         <v>8.9289891395154577E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="31" t="s">
         <v>48</v>
@@ -2399,7 +2416,7 @@
         <v>1.6628654970760235E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>49</v>
@@ -2419,7 +2436,7 @@
         <v>2.9174185463659156E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>64</v>
@@ -2436,14 +2453,14 @@
         <v>1055</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H18" s="48">
         <f>(Manpower!H5+H11)*(H9+H6)/60</f>
         <v>17.041301763267843</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>335</v>
       </c>
@@ -2475,7 +2492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>323</v>
@@ -2497,7 +2514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>336</v>
@@ -2519,7 +2536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>337</v>
@@ -2541,7 +2558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -2565,7 +2582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>263</v>
@@ -2587,7 +2604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>264</v>
@@ -2609,7 +2626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>237</v>
@@ -2633,7 +2650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>238</v>
@@ -2655,7 +2672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>52</v>
@@ -2677,7 +2694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>243</v>
@@ -2699,7 +2716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -2719,7 +2736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="42" t="s">
         <v>55</v>
@@ -2753,7 +2770,7 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="D32" s="37">
         <v>1</v>
@@ -2782,12 +2799,12 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="51">
         <v>100</v>
       </c>
       <c r="D33" s="37">
@@ -2817,7 +2834,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="17" t="s">
         <v>68</v>
@@ -2849,7 +2866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -2887,10 +2904,10 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C36" s="24">
         <f>'Tooling and small machinery'!F6*3+'Tooling and small machinery'!F7*3</f>
@@ -2926,7 +2943,7 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>63</v>
@@ -2954,7 +2971,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>71</v>
       </c>
@@ -2980,7 +2997,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" t="s">
@@ -2993,16 +3010,16 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>39</v>
       </c>
@@ -3017,7 +3034,7 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3031,7 +3048,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>75</v>
       </c>
@@ -3042,7 +3059,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>76</v>
       </c>
@@ -3053,7 +3070,7 @@
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>77</v>
       </c>
@@ -3064,7 +3081,7 @@
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -3075,7 +3092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>80</v>
       </c>
@@ -3086,7 +3103,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>81</v>
       </c>
@@ -3098,7 +3115,7 @@
       </c>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>315</v>
       </c>
@@ -3110,7 +3127,7 @@
       </c>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>309</v>
       </c>
@@ -3121,7 +3138,7 @@
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3135,7 +3152,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>206</v>
       </c>
@@ -3145,12 +3162,12 @@
       </c>
       <c r="D53" s="37"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>235</v>
       </c>
@@ -3158,7 +3175,7 @@
         <v>1.12964</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>236</v>
       </c>
@@ -3168,7 +3185,7 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>308</v>
       </c>
@@ -3179,7 +3196,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>351</v>
       </c>
@@ -3188,7 +3205,7 @@
         <v>124879.02430523002</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>352</v>
       </c>
@@ -3212,25 +3229,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -3242,12 +3259,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3258,7 +3275,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -3266,7 +3283,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -3274,22 +3291,22 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3300,7 +3317,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>89</v>
       </c>
@@ -3308,7 +3325,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -3324,7 +3341,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -3332,7 +3349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3348,7 +3365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3356,7 +3373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -3367,7 +3384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>250</v>
       </c>
@@ -3378,7 +3395,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -3393,7 +3410,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -3407,7 +3424,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -3429,7 +3446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>108</v>
       </c>
@@ -3443,7 +3460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -3465,7 +3482,7 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -3480,7 +3497,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>200</v>
       </c>
@@ -3494,38 +3511,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -3548,12 +3565,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3569,49 +3586,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3619,17 +3636,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -3637,7 +3654,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -3646,7 +3663,7 @@
         <v>73.600000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>340</v>
       </c>
@@ -3655,7 +3672,7 @@
         <v>2843.9040000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -3665,27 +3682,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3708,7 +3725,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3723,7 +3740,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -3738,7 +3755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -3753,10 +3770,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>284</v>
       </c>
@@ -3771,7 +3788,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -3790,7 +3807,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -3804,7 +3821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>141</v>
       </c>
@@ -3815,7 +3832,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>144</v>
       </c>
@@ -3829,29 +3846,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7E6B60-DC9D-4150-9EB1-06C48ECFFEAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3865,106 +3882,106 @@
         <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>374</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>376</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="2">
         <v>1001.67</v>
       </c>
       <c r="E11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>379</v>
       </c>
       <c r="D12" s="2">
         <v>352.31</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3973,20 +3990,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4006,7 +4023,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -4024,7 +4041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -4042,7 +4059,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4060,10 +4077,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -4078,7 +4095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -4093,7 +4110,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -4108,10 +4125,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -4126,7 +4143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4138,7 +4155,7 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -4153,10 +4170,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -4174,7 +4191,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>179</v>
       </c>
@@ -4189,7 +4206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>181</v>
       </c>
@@ -4204,7 +4221,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>183</v>
       </c>
@@ -4219,7 +4236,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4237,7 +4254,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>251</v>
       </c>
@@ -4252,11 +4269,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -4278,7 +4295,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>296</v>
       </c>
@@ -4292,7 +4309,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>300</v>
       </c>
@@ -4308,41 +4325,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -4350,7 +4367,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -4358,7 +4375,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>193</v>
       </c>
@@ -4378,7 +4395,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>13.393483709273186</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>290</v>
       </c>
@@ -4430,7 +4447,7 @@
         <v>24.942982456140353</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -4456,7 +4473,7 @@
         <v>43.761278195488728</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>316</v>
       </c>
@@ -4469,7 +4486,7 @@
         <v>24683.68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>196</v>
       </c>
@@ -4477,7 +4494,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -4485,7 +4502,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -4493,7 +4510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -4501,7 +4518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -4509,7 +4526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -4518,7 +4535,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -4527,7 +4544,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>317</v>
       </c>
@@ -4559,7 +4576,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -4589,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>290</v>
       </c>
@@ -4613,7 +4630,7 @@
         <v>3.0000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>291</v>
       </c>
@@ -4631,7 +4648,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -4676,7 +4693,7 @@
         <v>10916.639999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -4721,7 +4738,7 @@
         <v>10389.959999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>329</v>
       </c>
@@ -4730,7 +4747,7 @@
         <v>1436.3999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>333</v>
       </c>
@@ -4739,37 +4756,37 @@
         <v>13716.36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="24"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4792,7 +4809,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4803,7 +4820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -4814,7 +4831,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4825,7 +4842,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -4836,7 +4853,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -4847,7 +4864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -4858,10 +4875,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4876,29 +4893,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4908,8 +4934,11 @@
       <c r="M2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="58">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4952,23 +4981,41 @@
       <c r="Q3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>382</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>383</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2">
-        <v>23.26</v>
+        <v>19.79</v>
       </c>
       <c r="E4" s="1">
         <f>D4/(A4*B4*C4)</f>
-        <v>4.1299715909090912E-5</v>
+        <v>3.9579999999999997E-5</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -4999,23 +5046,39 @@
         <f>P4/(M4*N4*O4)</f>
         <v>4.0624999999999998E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>1000</v>
+      </c>
+      <c r="U4">
+        <v>1000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>285.88</v>
+      </c>
+      <c r="W4" s="1">
+        <f>V4/(S4*T4*U4)</f>
+        <v>4.7646666666666666E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C5">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="D5" s="2">
-        <v>20.56</v>
+        <v>31.49</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E11" si="0">D5/(A5*B5*C5)</f>
-        <v>3.5694444444444444E-5</v>
+        <f t="shared" ref="E5:E7" si="0">D5/(A5*B5*C5)</f>
+        <v>4.1986666666666662E-5</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -5046,23 +5109,39 @@
         <f t="shared" ref="Q5:Q10" si="2">P5/(M5*N5*O5)</f>
         <v>3.5859374999999996E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>1000</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>379.84</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5:W6" si="3">V5/(S5*T5*U5)</f>
+        <v>4.7479999999999999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C6">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D6" s="2">
-        <v>31.82</v>
+        <v>57.83</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>3.6159090909090908E-5</v>
+        <v>3.8553333333333329E-5</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -5093,23 +5172,39 @@
         <f t="shared" si="2"/>
         <v>3.1362499999999997E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>1000</v>
+      </c>
+      <c r="U6">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="2">
+        <v>473.8</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7380000000000004E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="C7">
-        <v>265</v>
+        <v>500</v>
       </c>
       <c r="D7" s="2">
-        <v>15.91</v>
+        <v>96.39</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3.1269654088050312E-5</v>
+        <v>3.8556000000000002E-5</v>
       </c>
       <c r="G7">
         <v>30</v>
@@ -5140,23 +5235,30 @@
         <f t="shared" si="2"/>
         <v>3.3296000000000001E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="1">
+        <f>AVERAGE(W4:W6)</f>
+        <v>4.7502222222222225E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="D8" s="2">
-        <v>21.85</v>
+        <v>23.26</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7934027777777779E-5</v>
+        <f>D8/(A8*B8*C8)</f>
+        <v>4.1299715909090912E-5</v>
       </c>
       <c r="G8">
         <v>40</v>
@@ -5188,22 +5290,22 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
         <v>50</v>
       </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
       <c r="C9">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="D9" s="2">
-        <v>17.989999999999998</v>
+        <v>20.56</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5979999999999998E-5</v>
+        <f t="shared" ref="E9:E15" si="4">D9/(A9*B9*C9)</f>
+        <v>3.5694444444444444E-5</v>
       </c>
       <c r="G9">
         <v>40</v>
@@ -5235,22 +5337,22 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
         <v>50</v>
       </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
       <c r="C10">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D10" s="2">
-        <v>53.98</v>
+        <v>31.82</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5986666666666665E-5</v>
+        <f t="shared" si="4"/>
+        <v>3.6159090909090908E-5</v>
       </c>
       <c r="G10">
         <v>40</v>
@@ -5282,22 +5384,22 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="D11" s="2">
-        <v>83.54</v>
+        <v>15.91</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3416E-5</v>
+        <f t="shared" si="4"/>
+        <v>3.1269654088050312E-5</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -5320,13 +5422,22 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>8</v>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21.85</v>
       </c>
       <c r="E12" s="1">
-        <f>AVERAGE(E4:E11)</f>
-        <v>3.5967449974390129E-5</v>
+        <f t="shared" si="4"/>
+        <v>3.7934027777777779E-5</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -5336,264 +5447,555 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5979999999999998E-5</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14" s="2">
+        <v>53.98</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5986666666666665E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15" s="2">
+        <v>83.54</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3416E-5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
         <v>353</v>
       </c>
-      <c r="M14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <f>AVERAGE(E4:E15)</f>
+        <v>3.7201299982926756E-5</v>
+      </c>
+      <c r="N16" t="s">
         <v>354</v>
       </c>
-      <c r="C15" t="s">
+      <c r="O16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="P16" t="s">
         <v>109</v>
       </c>
-      <c r="E15" t="s">
+      <c r="Q16" t="s">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
-        <v>354</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>500</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.14</v>
-      </c>
-      <c r="E16" s="50">
-        <f t="shared" ref="E16:E22" si="3">D16/(PI()*(B16/2)^2*C16)</f>
-        <v>1.3088902519877471E-4</v>
-      </c>
-      <c r="N16">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N17">
         <v>5</v>
-      </c>
-      <c r="O16">
-        <v>500</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1.61</v>
-      </c>
-      <c r="Q16" s="50">
-        <f>P16/(PI()*(N16/2)^2*O16)</f>
-        <v>1.6399325336188895E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>500</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8.35</v>
-      </c>
-      <c r="E17" s="50">
-        <f t="shared" si="3"/>
-        <v>5.3157750992693033E-5</v>
-      </c>
-      <c r="N17">
-        <v>10</v>
       </c>
       <c r="O17">
         <v>500</v>
       </c>
       <c r="P17" s="2">
-        <v>4.5</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" s="50">
         <f>P17/(PI()*(N17/2)^2*O17)</f>
-        <v>1.1459155902616463E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>990</v>
-      </c>
-      <c r="D18" s="2">
-        <v>17.13</v>
-      </c>
-      <c r="E18" s="50">
-        <f t="shared" si="3"/>
-        <v>5.5077256063922563E-5</v>
-      </c>
+        <v>1.6399325336188895E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O18">
         <v>500</v>
       </c>
       <c r="P18" s="2">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" s="50">
-        <f t="shared" ref="Q18:Q20" si="4">P18/(PI()*(N18/2)^2*O18)</f>
-        <v>5.432488724203361E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>500</v>
-      </c>
-      <c r="D19" s="2">
-        <v>13.11</v>
-      </c>
-      <c r="E19" s="50">
-        <f t="shared" si="3"/>
-        <v>5.3414945380729545E-5</v>
+        <f>P18/(PI()*(N18/2)^2*O18)</f>
+        <v>1.1459155902616463E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" t="s">
+        <v>353</v>
       </c>
       <c r="N19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O19">
         <v>500</v>
       </c>
       <c r="P19" s="2">
-        <v>6.36</v>
+        <v>4.8</v>
       </c>
       <c r="Q19" s="50">
-        <f t="shared" si="4"/>
-        <v>4.9986441385898987E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>990</v>
-      </c>
-      <c r="D20" s="2">
-        <v>26.99</v>
-      </c>
-      <c r="E20" s="50">
-        <f t="shared" si="3"/>
-        <v>5.5538966161457841E-5</v>
+        <f t="shared" ref="Q19:Q21" si="5">P19/(PI()*(N19/2)^2*O19)</f>
+        <v>5.432488724203361E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O20">
         <v>500</v>
       </c>
       <c r="P20" s="2">
-        <v>8.4</v>
+        <v>6.36</v>
       </c>
       <c r="Q20" s="50">
-        <f t="shared" si="4"/>
-        <v>4.4195091635435405E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4.9986441385898987E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>500</v>
       </c>
       <c r="D21" s="2">
-        <v>16.059999999999999</v>
+        <v>5.14</v>
       </c>
       <c r="E21" s="50">
-        <f t="shared" si="3"/>
-        <v>4.5440504640992695E-5</v>
-      </c>
-      <c r="P21" t="s">
-        <v>8</v>
+        <f t="shared" ref="E21:E27" si="6">D21/(PI()*(B21/2)^2*C21)</f>
+        <v>1.3088902519877471E-4</v>
+      </c>
+      <c r="N21">
+        <v>22</v>
+      </c>
+      <c r="O21">
+        <v>500</v>
+      </c>
+      <c r="P21" s="2">
+        <v>8.4</v>
       </c>
       <c r="Q21" s="50">
-        <f>AVERAGE(Q16:Q20)</f>
-        <v>8.541824653028432E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4.4195091635435405E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="E22" s="50">
+        <f t="shared" si="6"/>
+        <v>5.3157750992693033E-5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="50">
+        <f>AVERAGE(Q17:Q21)</f>
+        <v>8.541824653028432E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>990</v>
+      </c>
+      <c r="D23" s="2">
+        <v>17.13</v>
+      </c>
+      <c r="E23" s="50">
+        <f t="shared" si="6"/>
+        <v>5.5077256063922563E-5</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24" s="2">
+        <v>13.11</v>
+      </c>
+      <c r="E24" s="50">
+        <f t="shared" si="6"/>
+        <v>5.3414945380729545E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>990</v>
+      </c>
+      <c r="D25" s="2">
+        <v>26.99</v>
+      </c>
+      <c r="E25" s="50">
+        <f t="shared" si="6"/>
+        <v>5.5538966161457841E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="E22" s="50">
-        <f t="shared" si="3"/>
+      <c r="E26" s="50">
+        <f t="shared" si="6"/>
+        <v>4.5440504640992695E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27" s="2">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E27" s="50">
+        <f t="shared" si="6"/>
         <v>3.338486055256606E-5</v>
       </c>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="50">
-        <f>AVERAGE(E16:E22)</f>
+      <c r="E28" s="50">
+        <f>AVERAGE(E21:E27)</f>
         <v>6.0986186998733781E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>356</v>
-      </c>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>354</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E33" s="50">
+        <f t="shared" ref="E33:E35" si="7">D33/(PI()*(B33/2)^2*C33)</f>
+        <v>2.6101410667070835E-4</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>300</v>
+      </c>
+      <c r="J33" s="2">
+        <v>9.41</v>
+      </c>
+      <c r="K33" s="50">
+        <f t="shared" ref="K33:K39" si="8">J33/(PI()*(H33/2)^2*I33)</f>
+        <v>3.9937280386526271E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="E34" s="50">
+        <f t="shared" si="7"/>
+        <v>2.2132484273716698E-4</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+      <c r="J34" s="2">
+        <v>15.77</v>
+      </c>
+      <c r="K34" s="50">
+        <f t="shared" si="8"/>
+        <v>2.6144515130824893E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>66.75</v>
+      </c>
+      <c r="E35" s="50">
+        <f t="shared" si="7"/>
+        <v>2.1247184902768027E-4</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>300</v>
+      </c>
+      <c r="J35" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="K35" s="50">
+        <f t="shared" si="8"/>
+        <v>2.4828171122335673E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>251.5</v>
+      </c>
+      <c r="E36" s="50">
+        <f t="shared" ref="E36:E39" si="9">D36/(PI()*(B36/2)^2*C36)</f>
+        <v>2.0013734093805838E-4</v>
+      </c>
+      <c r="H36">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>300</v>
+      </c>
+      <c r="J36" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="K36" s="50">
+        <f t="shared" si="8"/>
+        <v>2.1671598084346415E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>390</v>
+      </c>
+      <c r="E37" s="50">
+        <f t="shared" si="9"/>
+        <v>1.9862536897868538E-4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="50">
+        <f>AVERAGE(K33:K36)</f>
+        <v>2.8145391181008314E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>560</v>
+      </c>
+      <c r="E38" s="50">
+        <f t="shared" si="9"/>
+        <v>1.9805948473658087E-4</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>992.5</v>
+      </c>
+      <c r="E39" s="50">
+        <f t="shared" si="9"/>
+        <v>1.9745160127338264E-4</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="50">
+        <f>AVERAGE(E33:E39)</f>
+        <v>2.1272637062318042E-4</v>
+      </c>
+      <c r="K40" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="S1" r:id="rId2"/>
+    <hyperlink ref="G30" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>232</v>
       </c>
@@ -5604,7 +6006,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -5622,7 +6024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -5637,11 +6039,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -5656,7 +6058,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -5671,7 +6073,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -5686,7 +6088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -5698,7 +6100,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -5710,11 +6112,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -5729,7 +6131,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -5744,7 +6146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -5759,11 +6161,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -5778,7 +6180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>220</v>
       </c>
@@ -5793,7 +6195,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -5808,7 +6210,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -5823,7 +6225,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -5837,29 +6239,29 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>5600*0.4</f>
         <v>2240</v>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BFC163-A494-4F12-A672-B2F156106262}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C3EFE-5950-4F10-9BB9-D673A3BEB15B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="425">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Turning</t>
   </si>
   <si>
-    <t xml:space="preserve">Operator </t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Compressed Air</t>
-  </si>
-  <si>
     <t>Maintenance of building</t>
   </si>
   <si>
@@ -385,39 +379,12 @@
     <t>Baileigh</t>
   </si>
   <si>
-    <t>150cmx300cm</t>
-  </si>
-  <si>
-    <t>142000$</t>
-  </si>
-  <si>
-    <t>122cmx122cm</t>
-  </si>
-  <si>
-    <t>https://www.baileigh.com/water-jet-wj-4x4cnc#</t>
-  </si>
-  <si>
     <t>https://www.baileigh.com/cnc-laser-table-fl-510hd-500</t>
   </si>
   <si>
-    <t>Water jet</t>
-  </si>
-  <si>
     <t>Laser cutter</t>
   </si>
   <si>
-    <t>208995$</t>
-  </si>
-  <si>
-    <t>1000W</t>
-  </si>
-  <si>
-    <t>8mm max</t>
-  </si>
-  <si>
-    <t>Selon doc, 1000W pour aluminium</t>
-  </si>
-  <si>
     <t>https://www.baileigh.com/hydraulic-shop-press-hsp-10h</t>
   </si>
   <si>
@@ -1250,6 +1217,105 @@
   </si>
   <si>
     <t>Technician cost/hour</t>
+  </si>
+  <si>
+    <t>1000W for aluminium</t>
+  </si>
+  <si>
+    <t>150cmx300cmx8mm max</t>
+  </si>
+  <si>
+    <t>Removal rate (min/mm)</t>
+  </si>
+  <si>
+    <t>Programation time / mm (40% of machining time)</t>
+  </si>
+  <si>
+    <t>Measuring time / mm (30% of machining time)</t>
+  </si>
+  <si>
+    <t>Gas (O2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mild Steel </t>
+  </si>
+  <si>
+    <t>20ga</t>
+  </si>
+  <si>
+    <t>14ga</t>
+  </si>
+  <si>
+    <t>11ga</t>
+  </si>
+  <si>
+    <t>8ga</t>
+  </si>
+  <si>
+    <t>6ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ga </t>
+  </si>
+  <si>
+    <t>1/4"</t>
+  </si>
+  <si>
+    <t>5/16"</t>
+  </si>
+  <si>
+    <t>3/8"</t>
+  </si>
+  <si>
+    <t>in/min</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Thickness (mm)</t>
+  </si>
+  <si>
+    <t>mm/min</t>
+  </si>
+  <si>
+    <t>Stainless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20ga </t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Setup time (min)</t>
+  </si>
+  <si>
+    <t>https://www.haascnc.com/machines/lathes/st/models/y-axis/st-35y.html</t>
+  </si>
+  <si>
+    <t>HAAS ST35-Y</t>
+  </si>
+  <si>
+    <t>113L/min @ 6.9bar</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/compresseur-a-vis-lubrifie-serie-l/p-G3697000582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air compressor </t>
+  </si>
+  <si>
+    <t>10 bar 153000 l/h</t>
+  </si>
+  <si>
+    <t>Air compressor</t>
+  </si>
+  <si>
+    <t>Electricity for air compressor (15kW)</t>
+  </si>
+  <si>
+    <t>Other specific tools (scribing tool, eletrical pliers, simple measuring tools, …)</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1641,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1678,24 +1744,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,12 +1762,6 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1729,15 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1752,9 +1785,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1766,19 +1796,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1789,9 +1807,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1805,19 +1820,10 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,6 +1843,84 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1855,6 +1939,2900 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1513560804899383E-4"/>
+                  <c:y val="-0.16118839311752697"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Laser cutter'!$D$9:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5250000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Laser cutter'!$E$9:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2184.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1879.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1498.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>584.19999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFD1-49FF-B254-0D8DAECE63AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83841672"/>
+        <c:axId val="455681184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83841672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455681184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455681184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83841672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2804024496937875E-3"/>
+                  <c:y val="-9.6443205016039743E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Laser cutter'!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Laser cutter'!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5486.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1879.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1193.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>609.59999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7656-49EE-8B85-A3087D124D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573889736"/>
+        <c:axId val="573884160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573889736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573884160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573884160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573889736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9920384951881019E-2"/>
+                  <c:y val="-0.36496172353455819"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Laser cutter'!$D$23:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Laser cutter'!$E$23:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>711.19999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12EB-4ED3-9968-E380B51A4065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578354808"/>
+        <c:axId val="578357760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578354808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578357760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578357760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578354808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B725B47-22F5-4FDD-9D77-2484D4344FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>719137</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2A4E3E-38A7-45F7-B843-64F8166B9B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>719137</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018380E8-761B-438B-AD8E-A63499686143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2154,10 +5132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,67 +5165,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="A1" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="47"/>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
-      <c r="L1" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
+      <c r="L1" s="112" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
       <c r="R1" s="33"/>
       <c r="S1" s="33"/>
-      <c r="U1" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="Y1" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="U1" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="Y1" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>16</v>
@@ -2257,25 +5235,25 @@
         <v>17</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>18</v>
@@ -2291,22 +5269,22 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="59">
+      <c r="A3" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="53">
         <f>'Manpower &amp; time'!C5</f>
         <v>21376</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H3" s="24">
         <f>SUM(Metrology!E14:E17)</f>
@@ -2319,15 +5297,15 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="116"/>
       <c r="N3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="23">
         <f>'CNC mill'!B22</f>
@@ -2341,28 +5319,28 @@
         <v>10802</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="59">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="53">
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="53"/>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H4" s="24">
         <f>SUM(Metrology!E18:E19)</f>
@@ -2372,20 +5350,20 @@
         <v>10</v>
       </c>
       <c r="J4" s="24">
-        <f t="shared" ref="J4:J35" si="0">H4/I4</f>
+        <f t="shared" ref="J4:J36" si="0">H4/I4</f>
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M4" s="9">
         <v>22.4</v>
       </c>
       <c r="N4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="O4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="23">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
@@ -2400,25 +5378,25 @@
       </c>
       <c r="U4" s="13"/>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="59">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="53">
         <f>'Manpower &amp; time'!C7</f>
         <v>69843</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="53"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H5" s="24">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
@@ -2432,17 +5410,17 @@
         <v>127.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M5" s="38">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="23">
         <f>'CNC mill'!B24</f>
@@ -2456,25 +5434,25 @@
         <v>500</v>
       </c>
       <c r="U5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
         <v>31</v>
       </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="59">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="53">
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="53"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="23">
         <f>Metrology!E23</f>
@@ -2488,19 +5466,19 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M6" s="9">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="23">
         <f>0.05*Q3</f>
@@ -2515,23 +5493,23 @@
       </c>
       <c r="U6" s="14"/>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="C7" s="58">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="52">
         <v>6</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>302</v>
+      <c r="D7" s="52" t="s">
+        <v>291</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H7" s="24">
         <f>SUM(Metrology!E10:E12)</f>
@@ -2545,20 +5523,20 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="M7" s="42">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="32">
         <f>M4*0.8*C14</f>
@@ -2567,18 +5545,18 @@
       <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>72</v>
+      <c r="A8" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>35</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H8" s="24">
         <f>2*Metrology!E21</f>
@@ -2592,27 +5570,27 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="M8" s="42">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="O8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="50"/>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="28">
         <f>'Manpower &amp; time'!B16</f>
@@ -2621,7 +5599,7 @@
       <c r="D9" s="28"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H9" s="23">
         <f>Metrology!E25</f>
@@ -2635,20 +5613,20 @@
         <v>539</v>
       </c>
       <c r="L9" s="48" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M9" s="42">
         <f>M7*0.3</f>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="N9" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O9" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P9" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="2">
         <v>20</v>
@@ -2656,37 +5634,37 @@
       <c r="U9" s="14"/>
     </row>
     <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="50"/>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="27">
         <v>0.75</v>
       </c>
-      <c r="D10" s="69" t="s">
-        <v>322</v>
+      <c r="D10" s="61" t="s">
+        <v>311</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="60" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>42</v>
       </c>
       <c r="J10" s="24"/>
       <c r="L10" s="19" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="M10" s="19">
         <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="O10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P10" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="23">
         <f>1*'CNC mill'!F31</f>
@@ -2701,36 +5679,37 @@
       </c>
       <c r="U10" s="14"/>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="50"/>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C11" s="27">
         <v>0.9</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" s="24"/>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="86"/>
+      <c r="M11" s="111"/>
       <c r="N11" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="2">
+        <f>'CNC lathe'!B2</f>
         <v>133720</v>
       </c>
       <c r="R11">
@@ -2741,16 +5720,16 @@
         <v>13372</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="70" t="s">
-        <v>301</v>
+      <c r="A12" s="50"/>
+      <c r="B12" s="62" t="s">
+        <v>290</v>
       </c>
       <c r="C12" s="39">
         <f>C9*C8*C10*C7</f>
@@ -2759,29 +5738,24 @@
       <c r="D12" s="27"/>
       <c r="F12" s="5"/>
       <c r="G12" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="35">
-        <v>1</v>
-      </c>
-      <c r="J12" s="24">
-        <f>H12/I12</f>
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="24"/>
       <c r="L12" s="10" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M12" s="10">
         <v>29.8</v>
       </c>
       <c r="N12" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="O12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="23">
-        <f>12*'CNC lathe'!B4+6*'CNC lathe'!B5</f>
+        <f>12*'CNC lathe'!B6+6*'CNC lathe'!B7</f>
         <v>19200</v>
       </c>
       <c r="R12">
@@ -2793,24 +5767,24 @@
       </c>
       <c r="U12" s="18"/>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>379</v>
+      <c r="A13" s="54" t="s">
+        <v>368</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C13" s="23">
         <f>Energies!B6</f>
-        <v>2843.9040000000005</v>
+        <v>2874.8160000000003</v>
       </c>
       <c r="D13" s="23"/>
       <c r="F13" s="5"/>
       <c r="G13" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I13" s="35">
         <v>1</v>
@@ -2820,20 +5794,20 @@
         <v>0</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M13" s="43">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N13" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="O13" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="23">
-        <f>'CNC lathe'!B6*30</f>
+        <f>'CNC lathe'!B8*30</f>
         <v>4800</v>
       </c>
       <c r="R13">
@@ -2845,9 +5819,9 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="55"/>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C14" s="32">
         <f>Energies!B7</f>
@@ -2856,33 +5830,33 @@
       <c r="D14" s="35"/>
       <c r="F14" s="5"/>
       <c r="G14" s="41" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H14" s="23">
         <f>Energies!B6</f>
-        <v>2843.9040000000005</v>
+        <v>2874.8160000000003</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="0"/>
-        <v>2843.9040000000005</v>
+        <v>2874.8160000000003</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M14" s="10">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="2">
         <f>0.05*Q11</f>
@@ -2897,13 +5871,13 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="55"/>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="41" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H15" s="2">
         <f>16*C8*C9*C14</f>
@@ -2917,20 +5891,20 @@
         <v>1999.4687999999999</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="M15" s="44">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P15" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Q15" s="32">
         <f>M12*0.8*C14</f>
@@ -2938,18 +5912,18 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>380</v>
+      <c r="A16" s="57" t="s">
+        <v>369</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C16" s="35">
         <v>1.12964</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2959,20 +5933,20 @@
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="M16" s="44">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="57"/>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C17" s="27">
         <v>0.2</v>
@@ -2980,7 +5954,7 @@
       <c r="D17" s="27"/>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2990,38 +5964,38 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M17" s="10">
         <f>M15*0.3</f>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="N17" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O17" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P17" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="56"/>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C18" s="22">
         <v>0.2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H18" s="23">
         <f>C6</f>
@@ -3035,36 +6009,36 @@
         <v>39809</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="M18" s="10">
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="O18" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P18" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="23">
-        <f>'CNC lathe'!F12</f>
+        <f>'CNC lathe'!F14</f>
         <v>88.025599999999997</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" s="23">
-        <f>R18*Q18</f>
+        <f>Q18/R18</f>
         <v>88.025599999999997</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H19" s="23">
         <f>C5*0.4</f>
@@ -3077,18 +6051,32 @@
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="119"/>
+      <c r="N19" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" t="s">
-        <v>23</v>
+      <c r="O19" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>'Laser cutter'!G4</f>
+        <v>185010.26875818847</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19" s="23">
+        <f>Q19/R19</f>
+        <v>18501.026875818847</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H20" s="23">
         <f>'Manpower &amp; time'!G8</f>
@@ -3101,16 +6089,37 @@
         <f t="shared" si="0"/>
         <v>24683.68</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="M20" s="11">
+        <v>7.5</v>
+      </c>
       <c r="N20" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="O20" t="s">
+        <v>252</v>
+      </c>
+      <c r="P20" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="23">
+        <f>0.05*Q19</f>
+        <v>9250.5134379094234</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="23">
+        <f>Q20/R20</f>
+        <v>9250.5134379094234</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H21" s="23">
         <f>'Manpower &amp; time'!B30</f>
@@ -3123,18 +6132,33 @@
         <f t="shared" si="0"/>
         <v>13716.36</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="M21" s="120">
+        <f>C10</f>
+        <v>0.75</v>
+      </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>253</v>
+      </c>
+      <c r="P21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q21" s="32">
+        <f>M20*0.8*C14</f>
+        <v>0.4698</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="23">
         <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
@@ -3147,16 +6171,26 @@
         <f t="shared" si="0"/>
         <v>959.37599999999998</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="L22" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="M22" s="11">
+        <v>5</v>
+      </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>397</v>
+      </c>
+      <c r="O22" t="s">
+        <v>253</v>
+      </c>
+      <c r="P22" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F23" s="7"/>
       <c r="G23" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H23" s="23">
         <f>IT!D5</f>
@@ -3169,16 +6203,21 @@
         <f t="shared" si="0"/>
         <v>38.591999999999999</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" t="s">
-        <v>58</v>
-      </c>
+      <c r="L23" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M23" s="121"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H24" s="23">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
@@ -3191,32 +6230,21 @@
         <f t="shared" si="0"/>
         <v>277.54199999999997</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" t="s">
-        <v>294</v>
-      </c>
-      <c r="O24" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q24" s="23">
-        <f>Welding!F2+Welding!F3</f>
-        <v>5308.6</v>
-      </c>
-      <c r="R24">
-        <v>10</v>
-      </c>
-      <c r="S24" s="23">
-        <f>Q24/R24</f>
-        <v>530.86</v>
-      </c>
+      <c r="L24" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="M24" s="121"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="117"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H25" s="23">
         <f>IT!D3*12*3</f>
@@ -3229,30 +6257,21 @@
         <f t="shared" si="0"/>
         <v>316.8</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q25" s="23">
-        <f>Welding!F4</f>
-        <v>3859.6</v>
-      </c>
-      <c r="R25">
-        <v>10</v>
-      </c>
-      <c r="S25" s="23">
-        <f t="shared" ref="S25:S29" si="4">Q25/R25</f>
-        <v>385.96</v>
-      </c>
+      <c r="L25" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="M25" s="121"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H26" s="23">
         <f>IT!D2*2</f>
@@ -3265,30 +6284,20 @@
         <f t="shared" si="0"/>
         <v>796.80000000000007</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="122" t="s">
+        <v>415</v>
+      </c>
+      <c r="M26" s="122">
+        <v>10</v>
+      </c>
       <c r="N26" t="s">
-        <v>299</v>
-      </c>
-      <c r="O26" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q26" s="23">
-        <f>Welding!F6</f>
-        <v>146</v>
-      </c>
-      <c r="R26">
-        <v>5</v>
-      </c>
-      <c r="S26" s="23">
-        <f t="shared" si="4"/>
-        <v>29.2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F27" s="7"/>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H27" s="23">
         <f>12*IT!D20</f>
@@ -3301,30 +6310,32 @@
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="23">
-        <f>Welding!F6+Welding!F7</f>
-        <v>196</v>
+        <f>Welding!F2+Welding!F3</f>
+        <v>5308.6</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S27" s="23">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f>Q27/R27</f>
+        <v>530.86</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
       <c r="G28" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H28" s="23">
         <f>IT!D23+IT!D22</f>
@@ -3340,26 +6351,26 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" t="s">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="23">
-        <f>Welding!F5</f>
-        <v>8579</v>
+        <f>Welding!F4</f>
+        <v>3859.6</v>
       </c>
       <c r="R28">
         <v>10</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" si="4"/>
-        <v>857.9</v>
+        <f t="shared" ref="S28:S32" si="4">Q28/R28</f>
+        <v>385.96</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="I29" s="35">
         <v>1</v>
@@ -3371,30 +6382,27 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>263</v>
-      </c>
-      <c r="P29" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="Q29" s="23">
-        <f>0.03*(Q24+Q25)</f>
-        <v>275.04599999999999</v>
+        <f>Welding!F6</f>
+        <v>146</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S29" s="23">
         <f t="shared" si="4"/>
-        <v>275.04599999999999</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H30" s="46">
         <v>100</v>
@@ -3409,19 +6417,27 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>264</v>
-      </c>
-      <c r="P30" t="s">
-        <v>269</v>
+        <v>252</v>
+      </c>
+      <c r="Q30" s="23">
+        <f>Welding!F6+Welding!F7</f>
+        <v>196</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30" s="23">
+        <f t="shared" si="4"/>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="4"/>
       <c r="G31" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H31" s="23">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -3434,22 +6450,30 @@
         <f>H31/I31</f>
         <v>1055</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>264</v>
-      </c>
-      <c r="P31" t="s">
-        <v>285</v>
+        <v>252</v>
+      </c>
+      <c r="Q31" s="23">
+        <f>Welding!F5</f>
+        <v>8579</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31" s="23">
+        <f t="shared" si="4"/>
+        <v>857.9</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="4"/>
       <c r="G32" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I32" s="35">
         <v>10</v>
@@ -3458,24 +6482,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>287</v>
+      </c>
+      <c r="Q32" s="23">
+        <f>0.03*(Q27+Q28)</f>
+        <v>275.04599999999999</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="23">
+        <f t="shared" si="4"/>
+        <v>275.04599999999999</v>
       </c>
     </row>
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H33" s="23">
         <f>'Tooling and small machinery'!F3</f>
@@ -3488,11 +6523,22 @@
         <f t="shared" si="0"/>
         <v>1238.8902659254277</v>
       </c>
-    </row>
-    <row r="34" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" t="s">
+        <v>253</v>
+      </c>
+      <c r="P33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H34" s="23">
         <f>'Tooling and small machinery'!F6*3+'Tooling and small machinery'!F7*3</f>
@@ -3505,575 +6551,635 @@
         <f t="shared" si="0"/>
         <v>813.74519999999995</v>
       </c>
-    </row>
-    <row r="35" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" t="s">
+        <v>253</v>
+      </c>
+      <c r="P34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>424</v>
       </c>
       <c r="H35" s="23">
+        <f>0.5*H34</f>
+        <v>4068.7259999999997</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" s="24">
+        <f t="shared" si="0"/>
+        <v>406.87259999999998</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>253</v>
+      </c>
+      <c r="P35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="23">
         <f>Office!D11*6+Office!D12*3</f>
         <v>7066.95</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>10</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J36" s="24">
         <f t="shared" si="0"/>
         <v>706.69499999999994</v>
       </c>
-      <c r="L35" s="114" t="s">
-        <v>382</v>
-      </c>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="115"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="116"/>
-    </row>
-    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F36" s="5"/>
-      <c r="G36" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36">
+    </row>
+    <row r="37" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+      <c r="G37" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="H37" s="23">
+        <f>'Tooling and small machinery'!F13</f>
+        <v>12999</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" s="24">
+        <f>H37/I37</f>
+        <v>1299.9000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+      <c r="G38" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="H38" s="23">
+        <f>15*C14*C8*C9</f>
+        <v>1874.5019999999997</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="J36" s="24">
-        <f>H36/I36</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="107"/>
-      <c r="N36" s="90" t="s">
-        <v>351</v>
-      </c>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="92">
-        <f>SUM(S3:S6)+S10</f>
-        <v>17591.025600000001</v>
-      </c>
-    </row>
-    <row r="37" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="71"/>
-      <c r="G37" s="41"/>
-      <c r="J37" s="24"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="95" t="s">
-        <v>352</v>
-      </c>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="96">
-        <f>S36/(M5*C8*C9)+J40</f>
-        <v>27.418692485811075</v>
-      </c>
-    </row>
-    <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="74"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="95" t="s">
-        <v>353</v>
-      </c>
+      <c r="J38" s="24">
+        <f>H38/I38</f>
+        <v>1874.5019999999997</v>
+      </c>
+      <c r="L38" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
       <c r="O38" s="95"/>
       <c r="P38" s="95"/>
       <c r="Q38" s="95"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="96">
-        <f>S37+Q9+Q7</f>
-        <v>48.821828485811075</v>
-      </c>
-    </row>
-    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F39" s="75" t="s">
-        <v>386</v>
-      </c>
-      <c r="G39" s="66" t="s">
+      <c r="R38" s="95"/>
+      <c r="S38" s="96"/>
+    </row>
+    <row r="39" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="63"/>
+      <c r="G39" s="41"/>
+      <c r="J39" s="24"/>
+      <c r="L39" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="104"/>
+      <c r="N39" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="76">
+        <f>SUM(S3:S6)+S10</f>
+        <v>17591.025600000001</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="107"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="O40" s="97"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="79">
+        <f>S39/(M5*C8*C9)+J42</f>
+        <v>27.786704650368808</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F41" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="G41" s="109" t="s">
+        <v>372</v>
+      </c>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="58">
+        <f>SUM(J3:J38)</f>
+        <v>128491.21090522999</v>
+      </c>
+      <c r="L41" s="90"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="79">
+        <f>S40+Q9+Q7</f>
+        <v>49.189840650368801</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="68"/>
+      <c r="G42" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="69">
+        <f>J41/SUM('Manpower &amp; time'!B26:I26)</f>
+        <v>13.090776830819935</v>
+      </c>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="64">
-        <f>SUM(J3:J35)</f>
-        <v>124879.02430523002</v>
-      </c>
-      <c r="L39" s="110"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="S39" s="78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="79"/>
-      <c r="G40" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="81">
-        <f>J39/SUM('Manpower &amp; time'!B26:I26)</f>
-        <v>12.722764666262202</v>
-      </c>
-      <c r="L40" s="110"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="99">
-        <f>('Manpower &amp; time'!H5+S38)*M7/60</f>
-        <v>1.036921869918071E-4</v>
-      </c>
-      <c r="S40" s="100">
-        <f>R40*(1+C$18)</f>
-        <v>1.244306243901685E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="G41" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="83">
+      <c r="S42" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F43" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" s="109" t="s">
+        <v>377</v>
+      </c>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="71">
         <f>'Manpower &amp; time'!H5</f>
         <v>13.393483709273186</v>
       </c>
-      <c r="L41" s="110"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="99">
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="82">
+        <f>('Manpower &amp; time'!H5+S41)*M7/60</f>
+        <v>1.0430554059940332E-4</v>
+      </c>
+      <c r="S43" s="83">
+        <f>R43*(1+C$18)</f>
+        <v>1.2516664871928398E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F44" s="66"/>
+      <c r="G44" s="108" t="s">
+        <v>391</v>
+      </c>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="72">
+        <f>'Manpower &amp; time'!H6</f>
+        <v>24.942982456140353</v>
+      </c>
+      <c r="L44" s="90"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="82">
         <f>('Manpower &amp; time'!H5)*M8/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
-      <c r="S41" s="100">
-        <f t="shared" ref="S41:S47" si="5">R41*(1+C$18)</f>
+      <c r="S44" s="83">
+        <f t="shared" ref="S44:S50" si="5">R44*(1+C$18)</f>
         <v>1.071478696741855E-5</v>
       </c>
     </row>
-    <row r="42" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F42" s="77"/>
-      <c r="G42" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="84">
-        <f>'Manpower &amp; time'!H6</f>
-        <v>24.942982456140353</v>
-      </c>
-      <c r="L42" s="110"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="99">
+    <row r="45" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="59"/>
+      <c r="G45" s="110" t="s">
+        <v>378</v>
+      </c>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="73">
+        <f>'Manpower &amp; time'!H7</f>
+        <v>43.761278195488728</v>
+      </c>
+      <c r="L45" s="90"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="82">
         <f>('Manpower &amp; time'!H6)*M8/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
-      <c r="S42" s="100">
+      <c r="S45" s="83">
         <f t="shared" si="5"/>
         <v>1.9954385964912282E-5</v>
       </c>
     </row>
-    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="65"/>
-      <c r="G43" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="85">
-        <f>'Manpower &amp; time'!H7</f>
-        <v>43.761278195488728</v>
-      </c>
-      <c r="L43" s="110"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="95" t="s">
-        <v>340</v>
-      </c>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="99">
+    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J46" s="53"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="97" t="s">
+        <v>329</v>
+      </c>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="82">
         <f>('Manpower &amp; time'!H7)*M8/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
-      <c r="S43" s="100">
+      <c r="S46" s="83">
         <f t="shared" si="5"/>
         <v>3.5009022556390983E-5</v>
       </c>
     </row>
-    <row r="44" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J44" s="59"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="99">
+    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J47" s="53"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="97" t="s">
+        <v>380</v>
+      </c>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="82">
         <f>('Manpower &amp; time'!H5)*M$9/60</f>
         <v>6.6967418546365929E-6</v>
       </c>
-      <c r="S44" s="100">
+      <c r="S47" s="83">
         <f t="shared" si="5"/>
         <v>8.0360902255639118E-6</v>
       </c>
     </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J45" s="59"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="99">
+    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J48" s="53"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="91"/>
+      <c r="N48" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="O48" s="97"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="82">
         <f>('Manpower &amp; time'!H6)*M$9/60</f>
         <v>1.2471491228070177E-5</v>
       </c>
-      <c r="S45" s="100">
+      <c r="S48" s="83">
         <f t="shared" si="5"/>
         <v>1.4965789473684211E-5</v>
       </c>
     </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J46" s="59"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="99">
+    <row r="49" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J49" s="53"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" s="97"/>
+      <c r="P49" s="97"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="82">
         <f>('Manpower &amp; time'!H7)*M$9/60</f>
         <v>2.1880639097744365E-5</v>
       </c>
-      <c r="S46" s="100">
+      <c r="S49" s="83">
         <f t="shared" si="5"/>
         <v>2.6256766917293239E-5</v>
       </c>
     </row>
-    <row r="47" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J47" s="59"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="103" t="s">
-        <v>350</v>
-      </c>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="104">
-        <f>('Manpower &amp; time'!H5+S37)*(M10+M6)/60</f>
-        <v>13.604058731694753</v>
-      </c>
-      <c r="S47" s="105">
+    <row r="50" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="53"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="98" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" s="98"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="98"/>
+      <c r="R50" s="86">
+        <f>('Manpower &amp; time'!H5+S40)*(M10+M6)/60</f>
+        <v>13.726729453213999</v>
+      </c>
+      <c r="S50" s="87">
         <f t="shared" si="5"/>
-        <v>16.324870478033702</v>
-      </c>
-    </row>
-    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J48" s="59"/>
-      <c r="L48" s="88" t="s">
+        <v>16.472075343856798</v>
+      </c>
+    </row>
+    <row r="51" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L51" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="89"/>
-      <c r="N48" s="90" t="s">
-        <v>351</v>
-      </c>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="91"/>
-      <c r="S48" s="92">
+      <c r="M51" s="100"/>
+      <c r="N51" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="O51" s="101"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="76">
         <f>SUM(S11:S14)+S18</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="49" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L49" s="93"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="95" t="s">
-        <v>352</v>
-      </c>
-      <c r="O49" s="95"/>
-      <c r="P49" s="95"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="96">
-        <f>S48/(M13*C8*C9)+J40</f>
-        <v>31.959210447381672</v>
-      </c>
-    </row>
-    <row r="50" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J50" s="28"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="95" t="s">
-        <v>353</v>
-      </c>
-      <c r="O50" s="95"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="96">
-        <f>S49+Q17+Q15</f>
-        <v>41.825882447381673</v>
-      </c>
-    </row>
-    <row r="51" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J51" s="27"/>
-      <c r="L51" s="97"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="S51" s="78" t="s">
-        <v>395</v>
-      </c>
-    </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J52" s="27"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="98"/>
-      <c r="N52" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="99">
-        <f>(J41+S50)*M15/60</f>
-        <v>9.2032276927758112E-5</v>
-      </c>
-      <c r="S52" s="100">
-        <f>R52*(1+C$18)</f>
-        <v>1.1043873231330973E-4</v>
+      <c r="J52" s="28"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="79">
+        <f>S51/(M13*C8*C9)+J42</f>
+        <v>32.327222611939405</v>
       </c>
     </row>
     <row r="53" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J53" s="27"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="O53" s="95"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="95"/>
-      <c r="R53" s="99">
-        <f>(J41)*M$16/60</f>
+      <c r="L53" s="80"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="79">
+        <f>S52+Q17+Q15</f>
+        <v>42.193894611939406</v>
+      </c>
+    </row>
+    <row r="54" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J54" s="27"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="S54" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J55" s="27"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="O55" s="97"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="82">
+        <f>(J43+S53)*M15/60</f>
+        <v>9.2645630535354321E-5</v>
+      </c>
+      <c r="S55" s="83">
+        <f>R55*(1+C$18)</f>
+        <v>1.1117475664242518E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J56" s="23"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="O56" s="97"/>
+      <c r="P56" s="97"/>
+      <c r="Q56" s="97"/>
+      <c r="R56" s="82">
+        <f>(J43)*M$16/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
-      <c r="S53" s="100">
-        <f t="shared" ref="S53:S59" si="6">R53*(1+C$18)</f>
+      <c r="S56" s="83">
+        <f t="shared" ref="S56:S62" si="6">R56*(1+C$18)</f>
         <v>1.071478696741855E-5</v>
       </c>
     </row>
-    <row r="54" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J54" s="23"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="O54" s="95"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="99">
-        <f t="shared" ref="R54:R55" si="7">(J42)*M$16/60</f>
+    <row r="57" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L57" s="80"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="O57" s="97"/>
+      <c r="P57" s="97"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="82">
+        <f>(J44)*M$16/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
-      <c r="S54" s="100">
+      <c r="S57" s="83">
         <f t="shared" si="6"/>
         <v>1.9954385964912282E-5</v>
       </c>
     </row>
-    <row r="55" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L55" s="97"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="95" t="s">
-        <v>340</v>
-      </c>
-      <c r="O55" s="95"/>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="99">
-        <f t="shared" si="7"/>
+    <row r="58" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L58" s="80"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="97" t="s">
+        <v>329</v>
+      </c>
+      <c r="O58" s="97"/>
+      <c r="P58" s="97"/>
+      <c r="Q58" s="97"/>
+      <c r="R58" s="82">
+        <f>(J45)*M$16/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
-      <c r="S55" s="100">
+      <c r="S58" s="83">
         <f t="shared" si="6"/>
         <v>3.5009022556390983E-5</v>
       </c>
     </row>
-    <row r="56" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L56" s="97"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="O56" s="95"/>
-      <c r="P56" s="95"/>
-      <c r="Q56" s="95"/>
-      <c r="R56" s="99">
-        <f>(J41)*M$17/60</f>
+    <row r="59" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L59" s="80"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="97" t="s">
+        <v>380</v>
+      </c>
+      <c r="O59" s="97"/>
+      <c r="P59" s="97"/>
+      <c r="Q59" s="97"/>
+      <c r="R59" s="82">
+        <f>(J43)*M$17/60</f>
         <v>6.6967418546365929E-6</v>
       </c>
-      <c r="S56" s="100">
+      <c r="S59" s="83">
         <f t="shared" si="6"/>
         <v>8.0360902255639118E-6</v>
       </c>
     </row>
-    <row r="57" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L57" s="97"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="95"/>
-      <c r="R57" s="99">
-        <f t="shared" ref="R57:R58" si="8">(J42)*M$17/60</f>
+    <row r="60" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J60" s="27"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="O60" s="97"/>
+      <c r="P60" s="97"/>
+      <c r="Q60" s="97"/>
+      <c r="R60" s="82">
+        <f>(J44)*M$17/60</f>
         <v>1.2471491228070177E-5</v>
       </c>
-      <c r="S57" s="100">
+      <c r="S60" s="83">
         <f t="shared" si="6"/>
         <v>1.4965789473684211E-5</v>
       </c>
     </row>
-    <row r="58" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J58" s="27"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="98"/>
-      <c r="N58" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="95"/>
-      <c r="R58" s="99">
-        <f t="shared" si="8"/>
+    <row r="61" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L61" s="80"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="O61" s="97"/>
+      <c r="P61" s="97"/>
+      <c r="Q61" s="97"/>
+      <c r="R61" s="82">
+        <f>(J45)*M$17/60</f>
         <v>2.1880639097744365E-5</v>
       </c>
-      <c r="S58" s="100">
+      <c r="S61" s="83">
         <f t="shared" si="6"/>
         <v>2.6256766917293239E-5</v>
       </c>
     </row>
-    <row r="59" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L59" s="101"/>
-      <c r="M59" s="102"/>
-      <c r="N59" s="103" t="s">
-        <v>350</v>
-      </c>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="103"/>
-      <c r="R59" s="104">
-        <f>(J41+S49)*(M14+M18)/60</f>
-        <v>11.338173539163714</v>
-      </c>
-      <c r="S59" s="105">
+    <row r="62" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="41"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="98" t="s">
+        <v>339</v>
+      </c>
+      <c r="O62" s="98"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="98"/>
+      <c r="R62" s="86">
+        <f>(J43+S52)*(M14+M18)/60</f>
+        <v>11.430176580303147</v>
+      </c>
+      <c r="S62" s="87">
         <f t="shared" si="6"/>
-        <v>13.605808246996457</v>
-      </c>
-    </row>
-    <row r="60" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F60" s="41"/>
+        <v>13.716211896363776</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4085,75 +7191,351 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4">
+        <v>208995</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4/Summary!C16</f>
+        <v>185010.26875818847</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9">
+        <v>780</v>
+      </c>
+      <c r="D9">
+        <v>0.81</v>
+      </c>
+      <c r="E9">
+        <f>C9*25.4</f>
+        <v>19812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10">
+        <v>230</v>
+      </c>
+      <c r="D10">
+        <v>1.63</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E25" si="0">C10*25.4</f>
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>2.31</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>3.26</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2184.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>4.12</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1879.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>5.82</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1498.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>6.35</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>9.5250000000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>584.19999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18">
+        <v>780</v>
+      </c>
+      <c r="D18">
+        <v>0.81</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>19812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19">
+        <v>216</v>
+      </c>
+      <c r="D19">
+        <v>1.63</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5486.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>2.31</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1879.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>3.26</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1193.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>4.12</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>609.59999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23">
+        <v>300</v>
+      </c>
+      <c r="D23">
+        <v>0.81</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
+      <c r="D24">
+        <v>1.63</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>2.31</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>711.19999999999993</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{284B0583-049F-4389-BE7D-FA4F2FEAC644}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{284B0583-049F-4389-BE7D-FA4F2FEAC644}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4176,91 +7558,91 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
         <v>241</v>
-      </c>
-      <c r="F1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2">
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4268,11 +7650,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +7691,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4370,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -4379,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -4893,7 +8275,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -4905,13 +8287,13 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
@@ -4949,10 +8331,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -4970,13 +8352,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -5132,47 +8514,47 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G31" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
@@ -5375,7 +8757,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,43 +8780,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -5460,7 +8842,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -5486,7 +8868,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B7" s="2">
         <v>4104</v>
@@ -5512,7 +8894,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F8">
         <f>SUM(F7+F6+F5)</f>
@@ -5525,15 +8907,15 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B11">
         <v>365</v>
@@ -5541,7 +8923,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -5549,7 +8931,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -5557,7 +8939,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -5565,7 +8947,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
@@ -5574,7 +8956,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B16" s="28">
         <f>B15/5</f>
@@ -5583,39 +8965,39 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H21" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B22">
         <v>0.85</v>
@@ -5645,7 +9027,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F23">
         <v>0.9</v>
@@ -5669,7 +9051,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H24">
         <v>0.3</v>
@@ -5687,7 +9069,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
@@ -5732,7 +9114,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B26">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
@@ -5777,7 +9159,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B28">
         <f>Summary!$C$11*Summary!$C$9*Summary!$C$8</f>
@@ -5786,7 +9168,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B30" s="23">
         <f>SUMPRODUCT(D5:D7*J22:J24)</f>
@@ -5816,8 +9198,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,25 +9209,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>38.64</v>
@@ -5853,25 +9235,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B5">
-        <f>24*0.8*3+16</f>
-        <v>73.600000000000009</v>
+        <f>(24*2 + 7.5)*0.8+16+14</f>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
-        <v>2843.9040000000005</v>
+        <v>2874.8160000000003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B7" s="29">
         <v>7.8299999999999995E-2</v>
@@ -5904,30 +9286,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" t="s">
         <v>241</v>
-      </c>
-      <c r="E1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D2" s="26">
         <v>149</v>
@@ -5937,12 +9319,12 @@
         <v>119.2</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -5955,12 +9337,12 @@
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -5973,7 +9355,7 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5981,7 +9363,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D6" s="26">
         <v>392</v>
@@ -5991,12 +9373,12 @@
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D7" s="26">
         <v>167</v>
@@ -6006,12 +9388,12 @@
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D8" s="26">
         <v>94</v>
@@ -6021,7 +9403,7 @@
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,7 +9411,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26">
         <v>282</v>
@@ -6039,12 +9421,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D11" s="26">
         <v>408</v>
@@ -6056,7 +9438,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D12" s="26">
         <v>3322</v>
@@ -6066,7 +9448,7 @@
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6074,10 +9456,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D14" s="26">
         <v>1390</v>
@@ -6087,12 +9469,12 @@
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D15" s="26">
         <v>1202</v>
@@ -6102,12 +9484,12 @@
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D16" s="26">
         <v>146</v>
@@ -6117,12 +9499,12 @@
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D17" s="26">
         <v>162</v>
@@ -6132,15 +9514,15 @@
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D18" s="26">
         <v>1623</v>
@@ -6150,12 +9532,12 @@
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D19" s="26">
         <v>675</v>
@@ -6165,7 +9547,7 @@
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6174,10 +9556,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C21" s="31">
         <v>348</v>
@@ -6191,35 +9573,35 @@
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6253,21 +9635,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -6277,22 +9659,22 @@
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6301,7 +9683,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -6311,12 +9693,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -6326,12 +9708,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -6341,31 +9723,31 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6374,7 +9756,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -6384,12 +9766,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -6399,12 +9781,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -6414,7 +9796,7 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,7 +9805,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -6433,12 +9815,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -6448,12 +9830,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -6463,12 +9845,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -6478,43 +9860,43 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -6536,7 +9918,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6546,118 +9928,122 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D11" s="2">
         <v>1001.67</v>
       </c>
-      <c r="E11" t="s">
-        <v>366</v>
+      <c r="E11" s="21" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D12" s="2">
         <v>352.31</v>
       </c>
-      <c r="E12" t="s">
-        <v>368</v>
+      <c r="E12" s="21" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{606ACE81-A91B-4D0C-8BF4-CA0E20B51DE2}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{F802F9F2-F856-4426-A074-F1AD7AFF3C7D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6667,44 +10053,45 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
         <v>241</v>
-      </c>
-      <c r="F1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="31">
         <v>1295</v>
@@ -6714,12 +10101,12 @@
         <v>1146.3829184518961</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="31">
         <v>13995</v>
@@ -6729,12 +10116,12 @@
         <v>12388.902659254276</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D4" s="31">
         <v>395</v>
@@ -6744,7 +10131,7 @@
         <v>349.66892107220002</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6752,25 +10139,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C6" s="21"/>
       <c r="F6" s="2">
         <v>1079.0999999999999</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C7" s="21"/>
       <c r="E7" s="2">
@@ -6781,44 +10168,58 @@
         <v>1633.384</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2">
         <v>283.8</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F10" s="2">
         <v>173.75</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C11" s="25"/>
       <c r="F11" s="2">
         <v>153.08000000000001</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>135</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -6843,7 +10244,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,27 +10260,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>1016</v>
@@ -6887,7 +10288,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>660</v>
@@ -6895,7 +10296,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>635</v>
@@ -6903,25 +10304,25 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>1372</v>
@@ -6929,7 +10330,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>610</v>
@@ -6937,77 +10338,77 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -7017,12 +10418,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -7031,12 +10432,12 @@
         <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -7045,34 +10446,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
       <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
         <v>102</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="22">
         <v>0.04</v>
@@ -7094,7 +10495,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -7135,15 +10536,16 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7152,124 +10554,145 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="74" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="2">
+        <f>133720</f>
+        <v>133720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2">
         <v>600</v>
       </c>
-      <c r="C4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="C6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
-      <c r="C5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B6" s="2">
-        <v>160</v>
-      </c>
-      <c r="C6" t="s">
-        <v>400</v>
+      <c r="C7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>104</v>
+        <v>387</v>
+      </c>
+      <c r="B8" s="2">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="22">
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="22">
         <v>0.04</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D12" s="2">
         <v>79.52</v>
       </c>
-      <c r="E10">
-        <f>208*B10</f>
+      <c r="E12">
+        <f>208*B12</f>
         <v>8.32</v>
       </c>
-      <c r="F10" s="23">
-        <f>$B$2*$B$10*D10/C10</f>
+      <c r="F12" s="23">
+        <f>$B$4*$B$12*D12/C12</f>
         <v>132.32128</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>236.84</v>
       </c>
-      <c r="F11" s="23">
-        <f t="shared" ref="F11:F12" si="0">$B$2*$B$10*D11/C11</f>
+      <c r="F13" s="23">
+        <f t="shared" ref="F13:F14" si="0">$B$4*$B$12*D13/C13</f>
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>200</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>2116</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>88.025599999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7277,5 +10700,6 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C3EFE-5950-4F10-9BB9-D673A3BEB15B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27093CD-4CC6-49D1-AF77-A703F21B2098}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Metrology" sheetId="12" r:id="rId4"/>
     <sheet name="IT" sheetId="9" r:id="rId5"/>
     <sheet name="Office" sheetId="14" r:id="rId6"/>
-    <sheet name="Tooling and small machinery" sheetId="8" r:id="rId7"/>
+    <sheet name="Manufacturing" sheetId="8" r:id="rId7"/>
     <sheet name="CNC mill" sheetId="3" r:id="rId8"/>
     <sheet name="CNC lathe" sheetId="4" r:id="rId9"/>
     <sheet name="Laser cutter" sheetId="5" r:id="rId10"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="444">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>Band Saw</t>
-  </si>
-  <si>
     <t>Torque Wrench</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Storage??</t>
-  </si>
-  <si>
     <t>Sanding</t>
   </si>
   <si>
@@ -715,9 +709,6 @@
     <t>https://www.officedepot.fr/a/pb/Papier-Office-Depot-A3-80-g-m2-Blanc-Everyday-2500-Feuilles/pr=&amp;id=3057842/</t>
   </si>
   <si>
-    <t>Telephone/mobile phone</t>
-  </si>
-  <si>
     <t>/month</t>
   </si>
   <si>
@@ -772,9 +763,6 @@
     <t>Quote</t>
   </si>
   <si>
-    <t>Amortissement (année)</t>
-  </si>
-  <si>
     <t>Printer</t>
   </si>
   <si>
@@ -1165,9 +1153,6 @@
     <t>Worktable &amp; office storage</t>
   </si>
   <si>
-    <t xml:space="preserve">Office </t>
-  </si>
-  <si>
     <t>Fixed Cost</t>
   </si>
   <si>
@@ -1316,6 +1301,78 @@
   </si>
   <si>
     <t>Other specific tools (scribing tool, eletrical pliers, simple measuring tools, …)</t>
+  </si>
+  <si>
+    <t>Power tools</t>
+  </si>
+  <si>
+    <t>Consumables (saw blades, drill bits, taps, abrasives, …)</t>
+  </si>
+  <si>
+    <t>https://www.baileigh.com/variable-speed-drill-press-dp-1200vs</t>
+  </si>
+  <si>
+    <t>Drill Press</t>
+  </si>
+  <si>
+    <t>Band Saw/Drill Press/Sheet metal bender/Hydraulic press</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/vestiaire-ventile-sur-socle/r-PR_1012867?</t>
+  </si>
+  <si>
+    <t>Locker</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/fond-tole-rayonnage-a-tablettes-tolees-g-robust/p-G1408010697</t>
+  </si>
+  <si>
+    <t>Shelves</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/rayonnage-mi-lourd-double-face-horizontale-g-lever/r-PR_G1408014469?</t>
+  </si>
+  <si>
+    <t>Stock Shelves</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/desserte-de-transport/p-G1359000463</t>
+  </si>
+  <si>
+    <t>Small boxes cart</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/systemes-cn/p-G1359000803</t>
+  </si>
+  <si>
+    <t>Tool holder cart</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/armoire-a-portes-battantes/p-G1359000412</t>
+  </si>
+  <si>
+    <t>Closed drawer</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Storage equipment (Shelves, drawer, tool cart, boxes, …)</t>
+  </si>
+  <si>
+    <t>Storage boxes</t>
+  </si>
+  <si>
+    <t>https://www.orexad.com/fr/bac-rako/p-G1383000092</t>
+  </si>
+  <si>
+    <t>6persons</t>
+  </si>
+  <si>
+    <t>Depreciation time (year)</t>
+  </si>
+  <si>
+    <t>Phone/mobile phone</t>
   </si>
 </sst>
 </file>
@@ -1375,18 +1432,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1481,12 +1532,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,11 +1686,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1657,10 +1705,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1669,10 +1717,10 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1681,18 +1729,14 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1702,67 +1746,66 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1803,70 +1846,37 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1874,6 +1884,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1885,42 +1949,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -5132,10 +5176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,52 +5209,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="47"/>
-      <c r="F1" s="114" t="s">
+      <c r="A1" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="L1" s="112" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="U1" s="113" t="s">
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="L1" s="117" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="U1" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="Y1" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="Y1" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>270</v>
+      <c r="C2" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>266</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -5221,33 +5265,33 @@
       <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>246</v>
+      <c r="I2" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>242</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>257</v>
+      <c r="O2" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>253</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>246</v>
+      <c r="R2" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>16</v>
@@ -5269,52 +5313,52 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="51">
         <f>'Manpower &amp; time'!C5</f>
         <v>21376</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="24">
+        <v>233</v>
+      </c>
+      <c r="H3" s="23">
         <f>SUM(Metrology!E14:E17)</f>
         <v>2320</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="34">
         <v>10</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="116"/>
+      <c r="M3" s="103"/>
       <c r="N3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q3" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q3" s="22">
         <f>'CNC mill'!B22</f>
         <v>108020</v>
       </c>
       <c r="R3">
         <v>10</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <f>Q3/R3</f>
         <v>10802</v>
       </c>
@@ -5322,57 +5366,57 @@
         <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="53">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="51">
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="51"/>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="24">
+        <v>232</v>
+      </c>
+      <c r="H4" s="23">
         <f>SUM(Metrology!E18:E19)</f>
         <v>1838.4</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="34">
         <v>10</v>
       </c>
-      <c r="J4" s="24">
-        <f t="shared" ref="J4:J36" si="0">H4/I4</f>
+      <c r="J4" s="23">
+        <f t="shared" ref="J4:J38" si="0">H4/I4</f>
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M4" s="9">
         <v>22.4</v>
       </c>
       <c r="N4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q4" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q4" s="22">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
         <v>4000</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="22">
         <f t="shared" ref="S4:S6" si="1">Q4/R4</f>
         <v>800</v>
       </c>
@@ -5381,55 +5425,55 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="53">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="51">
         <f>'Manpower &amp; time'!C7</f>
         <v>69843</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="24">
+        <v>231</v>
+      </c>
+      <c r="H5" s="23">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
         <v>1272</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="34">
         <v>10</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <f t="shared" si="0"/>
         <v>127.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="M5" s="38">
+        <v>264</v>
+      </c>
+      <c r="M5" s="37">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O5" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q5" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q5" s="22">
         <f>'CNC mill'!B24</f>
         <v>2500</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="22">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -5441,32 +5485,32 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="53">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="51">
         <f>'Manpower &amp; time'!C6</f>
         <v>39809</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="51"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <f>Metrology!E23</f>
         <v>48334.81</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="34">
         <v>10</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <f t="shared" si="0"/>
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M6" s="9">
         <v>5</v>
@@ -5475,19 +5519,19 @@
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q6" s="23">
+        <v>257</v>
+      </c>
+      <c r="Q6" s="22">
         <f>0.05*Q3</f>
         <v>5401</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="22">
         <f t="shared" si="1"/>
         <v>5401</v>
       </c>
@@ -5497,35 +5541,35 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="52">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="50">
         <v>6</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>291</v>
+      <c r="D7" s="50" t="s">
+        <v>287</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="24">
+        <v>234</v>
+      </c>
+      <c r="H7" s="23">
         <f>SUM(Metrology!E10:E12)</f>
         <v>3209.6000000000004</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="34">
         <v>10</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="M7" s="42">
+        <v>288</v>
+      </c>
+      <c r="M7" s="41">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
@@ -5533,100 +5577,100 @@
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q7" s="32">
+        <v>315</v>
+      </c>
+      <c r="Q7" s="31">
         <f>M4*0.8*C14</f>
         <v>1.4031359999999997</v>
       </c>
       <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>70</v>
+      <c r="A8" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>35</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H8" s="24">
+        <v>235</v>
+      </c>
+      <c r="H8" s="23">
         <f>2*Metrology!E21</f>
         <v>492.90039304557206</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <v>10</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <f t="shared" si="0"/>
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="M8" s="42">
+        <v>289</v>
+      </c>
+      <c r="M8" s="41">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="48"/>
       <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="28">
+        <v>70</v>
+      </c>
+      <c r="C9" s="27">
         <f>'Manpower &amp; time'!B16</f>
         <v>45.6</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" s="23">
+        <v>275</v>
+      </c>
+      <c r="H9" s="22">
         <f>Metrology!E25</f>
         <v>5390</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>10</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f t="shared" si="0"/>
         <v>539</v>
       </c>
-      <c r="L9" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="M9" s="42">
+      <c r="L9" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="M9" s="41">
         <f>M7*0.3</f>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="2">
         <v>20</v>
@@ -5634,46 +5678,46 @@
       <c r="U9" s="14"/>
     </row>
     <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="48"/>
       <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="27">
+        <v>71</v>
+      </c>
+      <c r="C10" s="26">
         <v>0.75</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>311</v>
+      <c r="D10" s="59" t="s">
+        <v>307</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="L10" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="M10" s="19">
+      <c r="J10" s="23"/>
+      <c r="L10" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="M10" s="18">
         <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P10" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q10" s="23">
+        <v>362</v>
+      </c>
+      <c r="Q10" s="22">
         <f>1*'CNC mill'!F31</f>
         <v>88.025599999999997</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="22">
         <f t="shared" ref="S10" si="2">Q10/R10</f>
         <v>88.025599999999997</v>
       </c>
@@ -5683,30 +5727,30 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="48"/>
       <c r="B11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="27">
+        <v>291</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.9</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>312</v>
+      <c r="D11" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="L11" s="111" t="s">
+      <c r="J11" s="23"/>
+      <c r="L11" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="116"/>
       <c r="N11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="O11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="2">
         <f>'CNC lathe'!B2</f>
@@ -5715,136 +5759,136 @@
       <c r="R11">
         <v>10</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="22">
         <f>Q11/R11</f>
         <v>13372</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="A12" s="48"/>
+      <c r="B12" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="38">
         <f>C9*C8*C10*C7</f>
         <v>7182</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="23"/>
       <c r="L12" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M12" s="10">
         <v>29.8</v>
       </c>
       <c r="N12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q12" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q12" s="22">
         <f>12*'CNC lathe'!B6+6*'CNC lathe'!B7</f>
         <v>19200</v>
       </c>
       <c r="R12">
         <v>10</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="22">
         <f>Q12/R12</f>
         <v>1920</v>
       </c>
-      <c r="U12" s="18"/>
+      <c r="U12" s="17"/>
       <c r="V12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>368</v>
+      <c r="A13" s="52" t="s">
+        <v>364</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="23">
+        <v>184</v>
+      </c>
+      <c r="C13" s="22">
         <f>Energies!B6</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="22"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <v>1</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <f>H13/I13</f>
         <v>0</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="M13" s="43">
+        <v>264</v>
+      </c>
+      <c r="M13" s="42">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N13" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O13" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q13" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q13" s="22">
         <f>'CNC lathe'!B8*30</f>
         <v>4800</v>
       </c>
       <c r="R13">
         <v>5</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="22">
         <f t="shared" ref="S13:S14" si="3">Q13/R13</f>
         <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="53"/>
       <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="32">
+        <v>185</v>
+      </c>
+      <c r="C14" s="31">
         <f>Energies!B7</f>
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="34"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="H14" s="22">
         <f>Energies!B6</f>
         <v>2874.8160000000003</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="23">
         <f t="shared" si="0"/>
         <v>2874.8160000000003</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M14" s="10">
         <v>5</v>
@@ -5853,10 +5897,10 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="2">
         <f>0.05*Q11</f>
@@ -5865,19 +5909,19 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="22">
         <f t="shared" si="3"/>
         <v>6686</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="41" t="s">
-        <v>323</v>
+      <c r="G15" s="40" t="s">
+        <v>319</v>
       </c>
       <c r="H15" s="2">
         <f>16*C8*C9*C14</f>
@@ -5886,14 +5930,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="23">
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="M15" s="44">
+        <v>288</v>
+      </c>
+      <c r="M15" s="43">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
@@ -5901,57 +5945,57 @@
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P15" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q15" s="32">
+        <v>315</v>
+      </c>
+      <c r="Q15" s="31">
         <f>M12*0.8*C14</f>
         <v>1.8666720000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>369</v>
+      <c r="A16" s="55" t="s">
+        <v>365</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="35">
+        <v>214</v>
+      </c>
+      <c r="C16" s="34">
         <v>1.12964</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>42</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="M16" s="44">
+        <v>289</v>
+      </c>
+      <c r="M16" s="43">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="55"/>
       <c r="B17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="27">
+        <v>215</v>
+      </c>
+      <c r="C17" s="26">
         <v>0.2</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="26"/>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
         <v>44</v>
@@ -5959,78 +6003,78 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M17" s="10">
         <f>M15*0.3</f>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="N17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="54"/>
       <c r="B18" t="s">
-        <v>370</v>
-      </c>
-      <c r="C18" s="22">
+        <v>366</v>
+      </c>
+      <c r="C18" s="21">
         <v>0.2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="23">
+        <v>168</v>
+      </c>
+      <c r="H18" s="22">
         <f>C6</f>
         <v>39809</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="34">
         <v>1</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="23">
         <f t="shared" si="0"/>
         <v>39809</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M18" s="10">
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P18" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q18" s="23">
+        <v>362</v>
+      </c>
+      <c r="Q18" s="22">
         <f>'CNC lathe'!F14</f>
         <v>88.025599999999997</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="22">
         <f>Q18/R18</f>
         <v>88.025599999999997</v>
       </c>
@@ -6038,37 +6082,37 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>303</v>
-      </c>
-      <c r="H19" s="23">
+        <v>299</v>
+      </c>
+      <c r="H19" s="22">
         <f>C5*0.4</f>
         <v>27937.200000000001</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <v>1</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="23">
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="L19" s="119" t="s">
+      <c r="L19" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="119"/>
+      <c r="M19" s="104"/>
       <c r="N19" t="s">
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q19" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q19" s="22">
         <f>'Laser cutter'!G4</f>
         <v>185010.26875818847</v>
       </c>
       <c r="R19">
         <v>10</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="22">
         <f>Q19/R19</f>
         <v>18501.026875818847</v>
       </c>
@@ -6076,21 +6120,21 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="23">
+        <v>312</v>
+      </c>
+      <c r="H20" s="22">
         <f>'Manpower &amp; time'!G8</f>
         <v>24683.68</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <v>1</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="23">
         <f t="shared" si="0"/>
         <v>24683.68</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M20" s="11">
         <v>7.5</v>
@@ -6099,19 +6143,19 @@
         <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q20" s="23">
+        <v>257</v>
+      </c>
+      <c r="Q20" s="22">
         <f>0.05*Q19</f>
         <v>9250.5134379094234</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="22">
         <f>Q20/R20</f>
         <v>9250.5134379094234</v>
       </c>
@@ -6119,23 +6163,23 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" t="s">
-        <v>317</v>
-      </c>
-      <c r="H21" s="23">
+        <v>313</v>
+      </c>
+      <c r="H21" s="22">
         <f>'Manpower &amp; time'!B30</f>
         <v>13716.36</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <v>1</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <f t="shared" si="0"/>
         <v>13716.36</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="M21" s="120">
+        <v>264</v>
+      </c>
+      <c r="M21" s="97">
         <f>C10</f>
         <v>0.75</v>
       </c>
@@ -6143,12 +6187,12 @@
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P21" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q21" s="32">
+        <v>315</v>
+      </c>
+      <c r="Q21" s="31">
         <f>M20*0.8*C14</f>
         <v>0.4698</v>
       </c>
@@ -6160,138 +6204,138 @@
       <c r="G22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
         <v>4796.88</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="34">
         <v>5</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="23">
         <f t="shared" si="0"/>
         <v>959.37599999999998</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M22" s="11">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="O22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F23" s="7"/>
       <c r="G23" t="s">
-        <v>244</v>
-      </c>
-      <c r="H23" s="23">
+        <v>240</v>
+      </c>
+      <c r="H23" s="22">
         <f>IT!D5</f>
         <v>192.96</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="34">
         <v>5</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="23">
         <f t="shared" si="0"/>
         <v>38.591999999999999</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M23" s="121"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
+        <v>389</v>
+      </c>
+      <c r="M23" s="98"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="23">
+        <v>241</v>
+      </c>
+      <c r="H24" s="22">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
         <v>277.54199999999997</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="34">
         <v>1</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="23">
         <f t="shared" si="0"/>
         <v>277.54199999999997</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="M24" s="121"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="117"/>
+        <v>390</v>
+      </c>
+      <c r="M24" s="98"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="95"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
       <c r="G25" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="23">
+        <v>216</v>
+      </c>
+      <c r="H25" s="22">
         <f>IT!D3*12*3</f>
         <v>316.8</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="34">
         <v>1</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="23">
         <f t="shared" si="0"/>
         <v>316.8</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="M25" s="121"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
+        <v>391</v>
+      </c>
+      <c r="M25" s="98"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="G26" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="23">
+        <v>217</v>
+      </c>
+      <c r="H26" s="22">
         <f>IT!D2*2</f>
         <v>796.80000000000007</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="34">
         <v>1</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="23">
         <f t="shared" si="0"/>
         <v>796.80000000000007</v>
       </c>
-      <c r="L26" s="122" t="s">
-        <v>415</v>
-      </c>
-      <c r="M26" s="122">
+      <c r="L26" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="M26" s="99">
         <v>10</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -6299,14 +6343,14 @@
       <c r="G27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <f>12*IT!D20</f>
         <v>1224</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="34">
         <v>1</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="23">
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>
@@ -6315,19 +6359,19 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O27" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q27" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q27" s="22">
         <f>Welding!F2+Welding!F3</f>
         <v>5308.6</v>
       </c>
       <c r="R27">
         <v>10</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="22">
         <f>Q27/R27</f>
         <v>530.86</v>
       </c>
@@ -6335,16 +6379,16 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
       <c r="G28" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="23">
+        <v>443</v>
+      </c>
+      <c r="H28" s="22">
         <f>IT!D23+IT!D22</f>
         <v>381</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="34">
         <v>5</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="23">
         <f t="shared" si="0"/>
         <v>76.2</v>
       </c>
@@ -6354,47 +6398,53 @@
         <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q28" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q28" s="22">
         <f>Welding!F4</f>
         <v>3859.6</v>
       </c>
       <c r="R28">
         <v>10</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="22">
         <f t="shared" ref="S28:S32" si="4">Q28/R28</f>
         <v>385.96</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I29" s="35">
+        <v>437</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="121">
+        <v>200</v>
+      </c>
+      <c r="I29" s="34">
         <v>1</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q29" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q29" s="22">
         <f>Welding!F6</f>
         <v>146</v>
       </c>
       <c r="R29">
         <v>5</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="22">
         <f t="shared" si="4"/>
         <v>29.2</v>
       </c>
@@ -6402,17 +6452,18 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
       <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="46">
-        <v>100</v>
-      </c>
-      <c r="I30" s="35">
-        <v>1</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>369</v>
+      </c>
+      <c r="H30" s="22">
+        <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
+        <v>10550</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30" s="23">
+        <f>H30/I30</f>
+        <v>1055</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -6420,67 +6471,73 @@
         <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q30" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q30" s="22">
         <f>Welding!F6+Welding!F7</f>
         <v>196</v>
       </c>
       <c r="R30">
         <v>2</v>
       </c>
-      <c r="S30" s="23">
+      <c r="S30" s="22">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F31" s="4"/>
+      <c r="F31" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="G31" t="s">
-        <v>373</v>
-      </c>
-      <c r="H31" s="23">
-        <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
-        <v>10550</v>
+        <v>424</v>
+      </c>
+      <c r="H31" s="22">
+        <f>SUM(Manufacturing!F2:F5)</f>
+        <v>17244.431854396091</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
-      <c r="J31" s="24">
-        <f>H31/I31</f>
-        <v>1055</v>
+      <c r="J31" s="23">
+        <f t="shared" si="0"/>
+        <v>1724.4431854396091</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q31" s="23">
+        <v>248</v>
+      </c>
+      <c r="Q31" s="22">
         <f>Welding!F5</f>
         <v>8579</v>
       </c>
       <c r="R31">
         <v>10</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="22">
         <f t="shared" si="4"/>
         <v>857.9</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
-      <c r="G32" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="35">
+      <c r="F32" s="5"/>
+      <c r="G32" t="s">
+        <v>355</v>
+      </c>
+      <c r="H32" s="22">
+        <f>Manufacturing!F7*3+Manufacturing!F8*3</f>
+        <v>8137.4519999999993</v>
+      </c>
+      <c r="I32">
         <v>10</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>813.74519999999995</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -6488,40 +6545,38 @@
         <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P32" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q32" s="23">
+        <v>283</v>
+      </c>
+      <c r="Q32" s="22">
         <f>0.03*(Q27+Q28)</f>
         <v>275.04599999999999</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" s="23">
+      <c r="S32" s="22">
         <f t="shared" si="4"/>
         <v>275.04599999999999</v>
       </c>
     </row>
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F33" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="23">
-        <f>'Tooling and small machinery'!F3</f>
-        <v>12388.902659254276</v>
+        <v>419</v>
+      </c>
+      <c r="H33" s="22">
+        <f>0.5*H32</f>
+        <v>4068.7259999999997</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="23">
         <f t="shared" si="0"/>
-        <v>1238.8902659254277</v>
+        <v>406.87259999999998</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -6529,644 +6584,647 @@
         <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>359</v>
-      </c>
-      <c r="H34" s="23">
-        <f>'Tooling and small machinery'!F6*3+'Tooling and small machinery'!F7*3</f>
-        <v>8137.4519999999993</v>
+        <v>420</v>
+      </c>
+      <c r="H34" s="22">
+        <v>4000</v>
       </c>
       <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34" s="24">
+        <v>5</v>
+      </c>
+      <c r="J34" s="23">
         <f t="shared" si="0"/>
-        <v>813.74519999999995</v>
-      </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+        <v>800</v>
+      </c>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
       <c r="N34" t="s">
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P34" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>424</v>
-      </c>
-      <c r="H35" s="23">
-        <f>0.5*H34</f>
-        <v>4068.7259999999997</v>
+        <v>421</v>
+      </c>
+      <c r="H35" s="22">
+        <v>3000</v>
       </c>
       <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35" s="24">
+        <v>1</v>
+      </c>
+      <c r="J35" s="23">
         <f t="shared" si="0"/>
-        <v>406.87259999999998</v>
-      </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+        <v>3000</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="23">
-        <f>Office!D11*6+Office!D12*3</f>
-        <v>7066.95</v>
+        <v>426</v>
+      </c>
+      <c r="H36" s="22">
+        <f>Manufacturing!F20</f>
+        <v>2302.5700000000002</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="23">
+        <f t="shared" si="0"/>
+        <v>230.25700000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="22">
+        <f>Manufacturing!F17*6+Manufacturing!F18*3</f>
+        <v>7066.95</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" s="23">
         <f t="shared" si="0"/>
         <v>706.69499999999994</v>
       </c>
     </row>
-    <row r="37" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="5"/>
-      <c r="G37" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="H37" s="23">
-        <f>'Tooling and small machinery'!F13</f>
-        <v>12999</v>
-      </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37" s="24">
-        <f>H37/I37</f>
-        <v>1299.9000000000001</v>
-      </c>
-    </row>
     <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="5"/>
-      <c r="G38" s="41" t="s">
-        <v>423</v>
-      </c>
-      <c r="H38" s="23">
+      <c r="G38" t="s">
+        <v>438</v>
+      </c>
+      <c r="H38" s="22">
+        <f>Manufacturing!F22*5+Manufacturing!F23+Manufacturing!F24+Manufacturing!F25+Manufacturing!F26*3+Manufacturing!F27*30</f>
+        <v>7110.13</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38" s="23">
+        <f t="shared" si="0"/>
+        <v>711.01300000000003</v>
+      </c>
+      <c r="L38" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="94"/>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+      <c r="G39" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="H39" s="22">
+        <f>Manufacturing!F14</f>
+        <v>12999</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39" s="23">
+        <f>H39/I39</f>
+        <v>1299.9000000000001</v>
+      </c>
+      <c r="L39" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="109"/>
+      <c r="N39" s="118" t="s">
+        <v>336</v>
+      </c>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="74">
+        <f>SUM(S3:S6)+S10</f>
+        <v>17591.025600000001</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+      <c r="G40" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="H40" s="22">
         <f>15*C14*C8*C9</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>1</v>
       </c>
-      <c r="J38" s="24">
-        <f>H38/I38</f>
+      <c r="J40" s="23">
+        <f>H40/I40</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L38" s="94" t="s">
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="106" t="s">
+        <v>337</v>
+      </c>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="77">
+        <f>S39/(M5*C8*C9)+J44</f>
+        <v>28.329405194362351</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="61"/>
+      <c r="G41" s="40"/>
+      <c r="J41" s="23"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="106" t="s">
+        <v>338</v>
+      </c>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="77">
+        <f>S40+Q9+Q7</f>
+        <v>49.732541194362348</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="110" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="112"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="S42" s="65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F43" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" s="114" t="s">
+        <v>368</v>
+      </c>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="56">
+        <f>SUM(J3:J40)</f>
+        <v>133818.0338247442</v>
+      </c>
+      <c r="L43" s="88"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="80">
+        <f>('Manpower &amp; time'!H5+S41)*M7/60</f>
+        <v>1.0521004150605921E-4</v>
+      </c>
+      <c r="S43" s="81">
+        <f>R43*(1+C$18)</f>
+        <v>1.2625204980727106E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="66"/>
+      <c r="G44" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="67">
+        <f>J43/SUM('Manpower &amp; time'!B26:I26)</f>
+        <v>13.633477374813477</v>
+      </c>
+      <c r="L44" s="88"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="80">
+        <f>('Manpower &amp; time'!H5)*M8/60</f>
+        <v>8.9289891395154577E-6</v>
+      </c>
+      <c r="S44" s="81">
+        <f t="shared" ref="S44:S50" si="5">R44*(1+C$18)</f>
+        <v>1.071478696741855E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F45" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="96"/>
-    </row>
-    <row r="39" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="63"/>
-      <c r="G39" s="41"/>
-      <c r="J39" s="24"/>
-      <c r="L39" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="101" t="s">
-        <v>340</v>
-      </c>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="76">
-        <f>SUM(S3:S6)+S10</f>
-        <v>17591.025600000001</v>
-      </c>
-    </row>
-    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="105" t="s">
-        <v>371</v>
-      </c>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="107"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="97" t="s">
-        <v>341</v>
-      </c>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="79">
-        <f>S39/(M5*C8*C9)+J42</f>
-        <v>27.786704650368808</v>
-      </c>
-    </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="G41" s="109" t="s">
+      <c r="G45" s="114" t="s">
         <v>372</v>
       </c>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="58">
-        <f>SUM(J3:J38)</f>
-        <v>128491.21090522999</v>
-      </c>
-      <c r="L41" s="90"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="97" t="s">
-        <v>342</v>
-      </c>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="79">
-        <f>S40+Q9+Q7</f>
-        <v>49.189840650368801</v>
-      </c>
-    </row>
-    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="68"/>
-      <c r="G42" s="108" t="s">
-        <v>331</v>
-      </c>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="69">
-        <f>J41/SUM('Manpower &amp; time'!B26:I26)</f>
-        <v>13.090776830819935</v>
-      </c>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="S42" s="67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F43" s="65" t="s">
-        <v>376</v>
-      </c>
-      <c r="G43" s="109" t="s">
-        <v>377</v>
-      </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="71">
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="69">
         <f>'Manpower &amp; time'!H5</f>
         <v>13.393483709273186</v>
       </c>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="82">
-        <f>('Manpower &amp; time'!H5+S41)*M7/60</f>
-        <v>1.0430554059940332E-4</v>
-      </c>
-      <c r="S43" s="83">
-        <f>R43*(1+C$18)</f>
-        <v>1.2516664871928398E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F44" s="66"/>
-      <c r="G44" s="108" t="s">
-        <v>391</v>
-      </c>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="72">
+      <c r="L45" s="88"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="80">
+        <f>('Manpower &amp; time'!H6)*M8/60</f>
+        <v>1.6628654970760235E-5</v>
+      </c>
+      <c r="S45" s="81">
+        <f t="shared" si="5"/>
+        <v>1.9954385964912282E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F46" s="64"/>
+      <c r="G46" s="113" t="s">
+        <v>386</v>
+      </c>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="70">
         <f>'Manpower &amp; time'!H6</f>
         <v>24.942982456140353</v>
       </c>
-      <c r="L44" s="90"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="97" t="s">
-        <v>330</v>
-      </c>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="82">
-        <f>('Manpower &amp; time'!H5)*M8/60</f>
-        <v>8.9289891395154577E-6</v>
-      </c>
-      <c r="S44" s="83">
-        <f t="shared" ref="S44:S50" si="5">R44*(1+C$18)</f>
-        <v>1.071478696741855E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="59"/>
-      <c r="G45" s="110" t="s">
-        <v>378</v>
-      </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="73">
+      <c r="L46" s="88"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="80">
+        <f>('Manpower &amp; time'!H7)*M8/60</f>
+        <v>2.9174185463659156E-5</v>
+      </c>
+      <c r="S46" s="81">
+        <f t="shared" si="5"/>
+        <v>3.5009022556390983E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="57"/>
+      <c r="G47" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="71">
         <f>'Manpower &amp; time'!H7</f>
         <v>43.761278195488728</v>
       </c>
-      <c r="L45" s="90"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="97" t="s">
-        <v>328</v>
-      </c>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="82">
-        <f>('Manpower &amp; time'!H6)*M8/60</f>
-        <v>1.6628654970760235E-5</v>
-      </c>
-      <c r="S45" s="83">
-        <f t="shared" si="5"/>
-        <v>1.9954385964912282E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J46" s="53"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="82">
-        <f>('Manpower &amp; time'!H7)*M8/60</f>
-        <v>2.9174185463659156E-5</v>
-      </c>
-      <c r="S46" s="83">
-        <f t="shared" si="5"/>
-        <v>3.5009022556390983E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J47" s="53"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="97" t="s">
-        <v>380</v>
-      </c>
-      <c r="O47" s="97"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="82">
+      <c r="L47" s="88"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="80">
         <f>('Manpower &amp; time'!H5)*M$9/60</f>
         <v>6.6967418546365929E-6</v>
       </c>
-      <c r="S47" s="83">
+      <c r="S47" s="81">
         <f t="shared" si="5"/>
         <v>8.0360902255639118E-6</v>
       </c>
     </row>
     <row r="48" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J48" s="53"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="O48" s="97"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="82">
+      <c r="J48" s="51"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="80">
         <f>('Manpower &amp; time'!H6)*M$9/60</f>
         <v>1.2471491228070177E-5</v>
       </c>
-      <c r="S48" s="83">
+      <c r="S48" s="81">
         <f t="shared" si="5"/>
         <v>1.4965789473684211E-5</v>
       </c>
     </row>
     <row r="49" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J49" s="53"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="97" t="s">
-        <v>382</v>
-      </c>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="82">
+      <c r="J49" s="51"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" s="106"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="80">
         <f>('Manpower &amp; time'!H7)*M$9/60</f>
         <v>2.1880639097744365E-5</v>
       </c>
-      <c r="S49" s="83">
+      <c r="S49" s="81">
         <f t="shared" si="5"/>
         <v>2.6256766917293239E-5</v>
       </c>
     </row>
     <row r="50" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J50" s="53"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="98" t="s">
-        <v>339</v>
-      </c>
-      <c r="O50" s="98"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="98"/>
-      <c r="R50" s="86">
+      <c r="J50" s="51"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="105" t="s">
+        <v>335</v>
+      </c>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="84">
         <f>('Manpower &amp; time'!H5+S40)*(M10+M6)/60</f>
-        <v>13.726729453213999</v>
-      </c>
-      <c r="S50" s="87">
+        <v>13.907629634545177</v>
+      </c>
+      <c r="S50" s="85">
         <f t="shared" si="5"/>
-        <v>16.472075343856798</v>
+        <v>16.689155561454211</v>
       </c>
     </row>
     <row r="51" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L51" s="99" t="s">
+      <c r="J51" s="51"/>
+      <c r="L51" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="100"/>
-      <c r="N51" s="101" t="s">
-        <v>340</v>
-      </c>
-      <c r="O51" s="101"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="76">
+      <c r="M51" s="120"/>
+      <c r="N51" s="118" t="s">
+        <v>336</v>
+      </c>
+      <c r="O51" s="118"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="118"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="74">
         <f>SUM(S11:S14)+S18</f>
         <v>23026.025600000001</v>
       </c>
     </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J52" s="28"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="97" t="s">
-        <v>341</v>
-      </c>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="79">
-        <f>S51/(M13*C8*C9)+J42</f>
-        <v>32.327222611939405</v>
+      <c r="J52" s="51"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="106" t="s">
+        <v>337</v>
+      </c>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="77">
+        <f>S51/(M13*C8*C9)+J44</f>
+        <v>32.869923155932945</v>
       </c>
     </row>
     <row r="53" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J53" s="27"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="97" t="s">
-        <v>342</v>
-      </c>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="79">
+      <c r="L53" s="78"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="106" t="s">
+        <v>338</v>
+      </c>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="106"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="77">
         <f>S52+Q17+Q15</f>
-        <v>42.193894611939406</v>
+        <v>42.736595155932946</v>
       </c>
     </row>
     <row r="54" spans="6:19" x14ac:dyDescent="0.25">
       <c r="J54" s="27"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="S54" s="67" t="s">
-        <v>384</v>
+      <c r="L54" s="78"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="S54" s="65" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J55" s="27"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="82">
-        <f>(J43+S53)*M15/60</f>
-        <v>9.2645630535354321E-5</v>
-      </c>
-      <c r="S55" s="83">
+      <c r="J55" s="26"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="O55" s="106"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="106"/>
+      <c r="R55" s="80">
+        <f>(J45+S53)*M15/60</f>
+        <v>9.3550131442010227E-5</v>
+      </c>
+      <c r="S55" s="81">
         <f>R55*(1+C$18)</f>
-        <v>1.1117475664242518E-4</v>
+        <v>1.1226015773041227E-4</v>
       </c>
     </row>
     <row r="56" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J56" s="23"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="97" t="s">
-        <v>330</v>
-      </c>
-      <c r="O56" s="97"/>
-      <c r="P56" s="97"/>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="82">
-        <f>(J43)*M$16/60</f>
+      <c r="J56" s="26"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="O56" s="106"/>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="80">
+        <f>(J45)*M$16/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
-      <c r="S56" s="83">
+      <c r="S56" s="81">
         <f t="shared" ref="S56:S62" si="6">R56*(1+C$18)</f>
         <v>1.071478696741855E-5</v>
       </c>
     </row>
     <row r="57" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L57" s="80"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="97" t="s">
-        <v>328</v>
-      </c>
-      <c r="O57" s="97"/>
-      <c r="P57" s="97"/>
-      <c r="Q57" s="97"/>
-      <c r="R57" s="82">
-        <f>(J44)*M$16/60</f>
+      <c r="J57" s="26"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="80">
+        <f>(J46)*M$16/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
-      <c r="S57" s="83">
+      <c r="S57" s="81">
         <f t="shared" si="6"/>
         <v>1.9954385964912282E-5</v>
       </c>
     </row>
     <row r="58" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L58" s="80"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="82">
-        <f>(J45)*M$16/60</f>
+      <c r="J58" s="22"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="80">
+        <f>(J47)*M$16/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
-      <c r="S58" s="83">
+      <c r="S58" s="81">
         <f t="shared" si="6"/>
         <v>3.5009022556390983E-5</v>
       </c>
     </row>
     <row r="59" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L59" s="80"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="97" t="s">
-        <v>380</v>
-      </c>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
-      <c r="Q59" s="97"/>
-      <c r="R59" s="82">
-        <f>(J43)*M$17/60</f>
+      <c r="L59" s="78"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="80">
+        <f>(J45)*M$17/60</f>
         <v>6.6967418546365929E-6</v>
       </c>
-      <c r="S59" s="83">
+      <c r="S59" s="81">
         <f t="shared" si="6"/>
         <v>8.0360902255639118E-6</v>
       </c>
     </row>
     <row r="60" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J60" s="27"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="82">
-        <f>(J44)*M$17/60</f>
+      <c r="L60" s="78"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="80">
+        <f>(J46)*M$17/60</f>
         <v>1.2471491228070177E-5</v>
       </c>
-      <c r="S60" s="83">
+      <c r="S60" s="81">
         <f t="shared" si="6"/>
         <v>1.4965789473684211E-5</v>
       </c>
     </row>
     <row r="61" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="L61" s="80"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="97" t="s">
-        <v>382</v>
-      </c>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="97"/>
-      <c r="R61" s="82">
-        <f>(J45)*M$17/60</f>
+      <c r="L61" s="78"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="O61" s="106"/>
+      <c r="P61" s="106"/>
+      <c r="Q61" s="106"/>
+      <c r="R61" s="80">
+        <f>(J47)*M$17/60</f>
         <v>2.1880639097744365E-5</v>
       </c>
-      <c r="S61" s="83">
+      <c r="S61" s="81">
         <f t="shared" si="6"/>
         <v>2.6256766917293239E-5</v>
       </c>
     </row>
     <row r="62" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="41"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="98" t="s">
-        <v>339</v>
-      </c>
-      <c r="O62" s="98"/>
-      <c r="P62" s="98"/>
-      <c r="Q62" s="98"/>
-      <c r="R62" s="86">
-        <f>(J43+S52)*(M14+M18)/60</f>
-        <v>11.430176580303147</v>
-      </c>
-      <c r="S62" s="87">
+      <c r="J62" s="26"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="105" t="s">
+        <v>335</v>
+      </c>
+      <c r="O62" s="105"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="105"/>
+      <c r="R62" s="84">
+        <f>(J45+S52)*(M14+M18)/60</f>
+        <v>11.565851716301532</v>
+      </c>
+      <c r="S62" s="85">
         <f t="shared" si="6"/>
-        <v>13.716211896363776</v>
-      </c>
+        <v>13.879022059561839</v>
+      </c>
+    </row>
+    <row r="64" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F64" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q43"/>
     <mergeCell ref="N61:Q61"/>
     <mergeCell ref="N62:Q62"/>
     <mergeCell ref="L51:M51"/>
@@ -7180,6 +7238,33 @@
     <mergeCell ref="N53:Q53"/>
     <mergeCell ref="N54:Q54"/>
     <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7206,39 +7291,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -7247,30 +7332,30 @@
         <f>E4/Summary!C16</f>
         <v>185010.26875818847</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>112</v>
+      <c r="H4" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C9">
         <v>780</v>
@@ -7285,7 +7370,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C10">
         <v>230</v>
@@ -7300,7 +7385,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C11">
         <v>125</v>
@@ -7315,7 +7400,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C12">
         <v>86</v>
@@ -7330,7 +7415,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C13">
         <v>74</v>
@@ -7345,7 +7430,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C14">
         <v>59</v>
@@ -7360,7 +7445,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -7375,7 +7460,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -7390,7 +7475,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C17">
         <v>23</v>
@@ -7405,10 +7490,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C18">
         <v>780</v>
@@ -7423,7 +7508,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C19">
         <v>216</v>
@@ -7438,7 +7523,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C20">
         <v>74</v>
@@ -7453,7 +7538,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C21">
         <v>47</v>
@@ -7468,7 +7553,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C22">
         <v>24</v>
@@ -7483,10 +7568,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C23">
         <v>300</v>
@@ -7501,7 +7586,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C24">
         <v>120</v>
@@ -7516,7 +7601,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C25">
         <v>28</v>
@@ -7561,44 +7646,44 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7609,40 +7694,40 @@
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7650,11 +7735,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -7687,11 +7772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="21" t="s">
-        <v>362</v>
+      <c r="S1" s="20" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -7704,7 +7789,7 @@
       <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="47">
         <v>5754</v>
       </c>
     </row>
@@ -7752,7 +7837,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -7761,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -8275,7 +8360,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -8287,13 +8372,13 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
@@ -8309,7 +8394,7 @@
       <c r="P17" s="2">
         <v>1.61</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="44">
         <f>P17/(PI()*(N17/2)^2*O17)</f>
         <v>1.6399325336188895E-4</v>
       </c>
@@ -8324,17 +8409,17 @@
       <c r="P18" s="2">
         <v>4.5</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="44">
         <f>P18/(PI()*(N18/2)^2*O18)</f>
         <v>1.1459155902616463E-4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -8345,20 +8430,20 @@
       <c r="P19" s="2">
         <v>4.8</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="44">
         <f t="shared" ref="Q19:Q21" si="5">P19/(PI()*(N19/2)^2*O19)</f>
         <v>5.432488724203361E-5</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -8372,7 +8457,7 @@
       <c r="P20" s="2">
         <v>6.36</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="44">
         <f t="shared" si="5"/>
         <v>4.9986441385898987E-5</v>
       </c>
@@ -8387,7 +8472,7 @@
       <c r="D21" s="2">
         <v>5.14</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="44">
         <f t="shared" ref="E21:E27" si="6">D21/(PI()*(B21/2)^2*C21)</f>
         <v>1.3088902519877471E-4</v>
       </c>
@@ -8400,7 +8485,7 @@
       <c r="P21" s="2">
         <v>8.4</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="44">
         <f t="shared" si="5"/>
         <v>4.4195091635435405E-5</v>
       </c>
@@ -8415,14 +8500,14 @@
       <c r="D22" s="2">
         <v>8.35</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="44">
         <f t="shared" si="6"/>
         <v>5.3157750992693033E-5</v>
       </c>
       <c r="P22" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="44">
         <f>AVERAGE(Q17:Q21)</f>
         <v>8.541824653028432E-5</v>
       </c>
@@ -8437,7 +8522,7 @@
       <c r="D23" s="2">
         <v>17.13</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="44">
         <f t="shared" si="6"/>
         <v>5.5077256063922563E-5</v>
       </c>
@@ -8453,7 +8538,7 @@
       <c r="D24" s="2">
         <v>13.11</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="44">
         <f t="shared" si="6"/>
         <v>5.3414945380729545E-5</v>
       </c>
@@ -8468,7 +8553,7 @@
       <c r="D25" s="2">
         <v>26.99</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <f t="shared" si="6"/>
         <v>5.5538966161457841E-5</v>
       </c>
@@ -8483,7 +8568,7 @@
       <c r="D26" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="44">
         <f t="shared" si="6"/>
         <v>4.5440504640992695E-5</v>
       </c>
@@ -8498,7 +8583,7 @@
       <c r="D27" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="44">
         <f t="shared" si="6"/>
         <v>3.338486055256606E-5</v>
       </c>
@@ -8507,54 +8592,54 @@
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="44">
         <f>AVERAGE(E21:E27)</f>
         <v>6.0986186998733781E-5</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>364</v>
+      <c r="A30" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
@@ -8570,7 +8655,7 @@
       <c r="D33" s="2">
         <v>20.5</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="44">
         <f t="shared" ref="E33:E35" si="7">D33/(PI()*(B33/2)^2*C33)</f>
         <v>2.6101410667070835E-4</v>
       </c>
@@ -8583,7 +8668,7 @@
       <c r="J33" s="2">
         <v>9.41</v>
       </c>
-      <c r="K33" s="45">
+      <c r="K33" s="44">
         <f t="shared" ref="K33:K36" si="8">J33/(PI()*(H33/2)^2*I33)</f>
         <v>3.9937280386526271E-4</v>
       </c>
@@ -8598,7 +8683,7 @@
       <c r="D34" s="2">
         <v>44.5</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="44">
         <f t="shared" si="7"/>
         <v>2.2132484273716698E-4</v>
       </c>
@@ -8611,7 +8696,7 @@
       <c r="J34" s="2">
         <v>15.77</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="44">
         <f t="shared" si="8"/>
         <v>2.6144515130824893E-4</v>
       </c>
@@ -8626,7 +8711,7 @@
       <c r="D35" s="2">
         <v>66.75</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="44">
         <f t="shared" si="7"/>
         <v>2.1247184902768027E-4</v>
       </c>
@@ -8639,7 +8724,7 @@
       <c r="J35" s="2">
         <v>23.4</v>
       </c>
-      <c r="K35" s="45">
+      <c r="K35" s="44">
         <f t="shared" si="8"/>
         <v>2.4828171122335673E-4</v>
       </c>
@@ -8654,7 +8739,7 @@
       <c r="D36" s="2">
         <v>251.5</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="44">
         <f t="shared" ref="E36:E39" si="9">D36/(PI()*(B36/2)^2*C36)</f>
         <v>2.0013734093805838E-4</v>
       </c>
@@ -8667,7 +8752,7 @@
       <c r="J36" s="2">
         <v>81.7</v>
       </c>
-      <c r="K36" s="45">
+      <c r="K36" s="44">
         <f t="shared" si="8"/>
         <v>2.1671598084346415E-4</v>
       </c>
@@ -8682,14 +8767,14 @@
       <c r="D37" s="2">
         <v>390</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="44">
         <f t="shared" si="9"/>
         <v>1.9862536897868538E-4</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="44">
         <f>AVERAGE(K33:K36)</f>
         <v>2.8145391181008314E-4</v>
       </c>
@@ -8704,12 +8789,12 @@
       <c r="D38" s="2">
         <v>560</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="44">
         <f t="shared" si="9"/>
         <v>1.9805948473658087E-4</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="45"/>
+      <c r="K38" s="44"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39">
@@ -8721,22 +8806,22 @@
       <c r="D39" s="2">
         <v>992.5</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="44">
         <f t="shared" si="9"/>
         <v>1.9745160127338264E-4</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="45"/>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="44">
         <f>AVERAGE(E33:E39)</f>
         <v>2.1272637062318042E-4</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8780,43 +8865,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>128</v>
+        <v>169</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>129</v>
+        <v>170</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -8831,18 +8916,18 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <f>C5*0.1*F5</f>
         <v>8550.4</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <f>C5*0.9/$B$28</f>
         <v>13.393483709273186</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -8857,18 +8942,18 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f>C6*0.1*F6</f>
         <v>11942.7</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <f>C6*0.9/$B$28</f>
         <v>24.942982456140353</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2">
         <v>4104</v>
@@ -8883,18 +8968,18 @@
       <c r="F7">
         <v>0.6</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <f>C7*0.1*F7</f>
         <v>4190.58</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <f>C7*0.9/$B$28</f>
         <v>43.761278195488728</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8">
         <f>SUM(F7+F6+F5)</f>
@@ -8907,15 +8992,15 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11">
         <v>365</v>
@@ -8923,7 +9008,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -8931,7 +9016,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -8939,7 +9024,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -8947,7 +9032,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
@@ -8956,34 +9041,34 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="28">
+        <v>181</v>
+      </c>
+      <c r="B16" s="27">
         <f>B15/5</f>
         <v>45.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -8992,12 +9077,12 @@
         <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B22">
         <v>0.85</v>
@@ -9027,7 +9112,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F23">
         <v>0.9</v>
@@ -9051,7 +9136,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H24">
         <v>0.3</v>
@@ -9069,7 +9154,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
@@ -9114,7 +9199,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B26">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
@@ -9159,7 +9244,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B28">
         <f>Summary!$C$11*Summary!$C$9*Summary!$C$8</f>
@@ -9168,18 +9253,18 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>313</v>
-      </c>
-      <c r="B30" s="23">
+        <v>309</v>
+      </c>
+      <c r="B30" s="22">
         <f>SUMPRODUCT(D5:D7*J22:J24)</f>
         <v>13716.36</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
+      <c r="B31" s="22"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
+      <c r="B32" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9211,23 +9296,23 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>184</v>
+      <c r="B1" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B4">
         <v>38.64</v>
@@ -9235,7 +9320,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
@@ -9244,7 +9329,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
@@ -9253,9 +9338,9 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="29">
+        <v>183</v>
+      </c>
+      <c r="B7" s="28">
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
@@ -9289,55 +9374,55 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" t="s">
-        <v>231</v>
-      </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="26">
+        <v>138</v>
+      </c>
+      <c r="D2" s="25">
         <v>149</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <f>D2*(1-Summary!$C$17)</f>
         <v>119.2</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>139</v>
+      <c r="F2" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3">
         <v>0.01</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>129</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <f>D3*(1-Summary!$C$17)</f>
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9347,174 +9432,174 @@
       <c r="B4">
         <v>0.01</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>60</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <f>D4*(1-Summary!$C$17)</f>
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="24"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="26">
+        <v>144</v>
+      </c>
+      <c r="D6" s="25">
         <v>392</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f>D6*(1-Summary!$C$17)</f>
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="26">
+        <v>148</v>
+      </c>
+      <c r="D7" s="25">
         <v>167</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f>D7*(1-Summary!$C$17)</f>
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="26">
+        <v>147</v>
+      </c>
+      <c r="D8" s="25">
         <v>94</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f>D8*(1-Summary!$C$17)</f>
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="24"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="26">
+        <v>149</v>
+      </c>
+      <c r="D10" s="25">
         <v>282</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f>D10*(1-Summary!$C$17)</f>
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="26">
+        <v>152</v>
+      </c>
+      <c r="D11" s="25">
         <v>408</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f>D11*(1-Summary!$C$17)</f>
         <v>326.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="26">
+        <v>153</v>
+      </c>
+      <c r="D12" s="25">
         <v>3322</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f>D12*(1-Summary!$C$17)</f>
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="24"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="26">
+        <v>155</v>
+      </c>
+      <c r="D14" s="25">
         <v>1390</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f>D14*(1-Summary!$C$17)</f>
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="26">
+        <v>158</v>
+      </c>
+      <c r="D15" s="25">
         <v>1202</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <f>D15*(1-Summary!$C$17)</f>
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="26">
+        <v>160</v>
+      </c>
+      <c r="D16" s="25">
         <v>146</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <f>D16*(1-Summary!$C$17)</f>
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="26">
         <v>162</v>
       </c>
-      <c r="E17" s="24">
+      <c r="D17" s="25">
+        <v>162</v>
+      </c>
+      <c r="E17" s="23">
         <f>D17*(1-Summary!$C$17)</f>
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9522,86 +9607,86 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="26">
+        <v>164</v>
+      </c>
+      <c r="D18" s="25">
         <v>1623</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f>D18*(1-Summary!$C$17)</f>
         <v>1298.4000000000001</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>165</v>
+      <c r="F18" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="26">
+      <c r="B19" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="25">
         <v>675</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <f>D19*(1-Summary!$C$17)</f>
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="31">
+      <c r="C21" s="30">
         <v>348</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <f>Metrology!C21/(Summary!C16)</f>
         <v>308.06274565348252</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f>D21*(1-Summary!$C$17)</f>
         <v>246.45019652278603</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>168</v>
+      <c r="F21" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -9635,21 +9720,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -9659,22 +9744,22 @@
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9683,7 +9768,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -9693,12 +9778,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -9708,12 +9793,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -9723,31 +9808,31 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9756,7 +9841,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -9766,12 +9851,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -9781,12 +9866,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -9796,7 +9881,7 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9805,7 +9890,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -9815,12 +9900,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -9830,12 +9915,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -9845,12 +9930,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -9860,43 +9945,43 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -9915,10 +10000,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A11" sqref="A11:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9928,122 +10013,96 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1001.67</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" s="2">
-        <v>352.31</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{606ACE81-A91B-4D0C-8BF4-CA0E20B51DE2}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{F802F9F2-F856-4426-A074-F1AD7AFF3C7D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10053,10 +10112,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10071,166 +10130,304 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="31">
+        <v>104</v>
+      </c>
+      <c r="D2" s="30">
         <v>1295</v>
       </c>
       <c r="F2" s="2">
         <f>D2/Summary!C16</f>
         <v>1146.3829184518961</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>107</v>
+      <c r="G2" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="31">
+        <v>108</v>
+      </c>
+      <c r="D3" s="30">
         <v>13995</v>
       </c>
       <c r="F3" s="2">
         <f>D3/Summary!C16</f>
         <v>12388.902659254276</v>
       </c>
-      <c r="G3" t="s">
-        <v>108</v>
+      <c r="G3" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="31">
+        <v>113</v>
+      </c>
+      <c r="D4" s="30">
         <v>395</v>
       </c>
       <c r="F4" s="2">
         <f>D4/Summary!C16</f>
         <v>349.66892107220002</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>114</v>
+      <c r="G4" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
+      <c r="A5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3795</v>
+      </c>
+      <c r="F5" s="2">
+        <f>D5/Summary!C16</f>
+        <v>3359.4773556177188</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="F6" s="2">
-        <v>1079.0999999999999</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="E7" s="2">
+        <v>262</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="F7" s="2">
+        <v>1079.0999999999999</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="E8" s="2">
         <v>2041.73</v>
       </c>
-      <c r="F7" s="2">
-        <f>E7*(1-Summary!C17)</f>
+      <c r="F8" s="2">
+        <f>E8*(1-Summary!C17)</f>
         <v>1633.384</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G8" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="2">
+        <v>283.8</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="2">
-        <v>283.8</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F11" s="2">
+        <v>173.75</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="F12" s="2">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="2">
-        <v>173.75</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="F11" s="2">
-        <v>153.08000000000001</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>420</v>
-      </c>
-      <c r="B13" t="s">
-        <v>421</v>
-      </c>
-      <c r="F13" s="2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="2">
         <v>12999</v>
       </c>
-      <c r="G13" t="s">
-        <v>419</v>
+      <c r="G14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1001.67</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F18" s="2">
+        <v>352.31</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2302.5700000000002</v>
+      </c>
+      <c r="G20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1433.25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1866.02</v>
+      </c>
+      <c r="G24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>859.65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>699.07</v>
+      </c>
+      <c r="G26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G27" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{49A19C45-DA94-4D35-8FFA-24E09D55B357}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{606ACE81-A91B-4D0C-8BF4-CA0E20B51DE2}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{F802F9F2-F856-4426-A074-F1AD7AFF3C7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10254,33 +10451,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>77</v>
+      <c r="C2" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>1016</v>
@@ -10288,7 +10485,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>660</v>
@@ -10296,7 +10493,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>635</v>
@@ -10304,25 +10501,25 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>1372</v>
@@ -10330,7 +10527,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>610</v>
@@ -10338,42 +10535,42 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10381,34 +10578,34 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
         <v>136</v>
-      </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -10418,12 +10615,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -10431,13 +10628,13 @@
       <c r="C23">
         <v>40</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>137</v>
+      <c r="D23" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -10445,37 +10642,37 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>105</v>
+      <c r="D24" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
       <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
         <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="22">
+        <v>96</v>
+      </c>
+      <c r="B29" s="21">
         <v>0.04</v>
       </c>
       <c r="C29">
@@ -10488,14 +10685,14 @@
         <f>208*B29</f>
         <v>8.32</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <f>$E$29*D29/C29</f>
         <v>132.32128</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -10503,7 +10700,7 @@
       <c r="D30" s="2">
         <v>236.84</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <f>$E$29*D30/C30</f>
         <v>98.525440000000003</v>
       </c>
@@ -10515,7 +10712,7 @@
       <c r="D31" s="2">
         <v>2116</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <f>$E$29*D31/C31</f>
         <v>88.025599999999997</v>
       </c>
@@ -10549,29 +10746,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>417</v>
+      <c r="A2" s="72" t="s">
+        <v>412</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>390</v>
+      <c r="A4" s="72" t="s">
+        <v>385</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -10579,73 +10776,73 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
         <v>99</v>
       </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
       <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
         <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="22">
+        <v>96</v>
+      </c>
+      <c r="B12" s="21">
         <v>0.04</v>
       </c>
       <c r="C12">
@@ -10658,14 +10855,14 @@
         <f>208*B12</f>
         <v>8.32</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <f>$B$4*$B$12*D12/C12</f>
         <v>132.32128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -10673,7 +10870,7 @@
       <c r="D13" s="2">
         <v>236.84</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <f t="shared" ref="F13:F14" si="0">$B$4*$B$12*D13/C13</f>
         <v>98.525440000000003</v>
       </c>
@@ -10685,14 +10882,14 @@
       <c r="D14" s="2">
         <v>2116</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <f t="shared" si="0"/>
         <v>88.025599999999997</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27093CD-4CC6-49D1-AF77-A703F21B2098}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF75922-9BC5-46E7-9287-16645723B65D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="447">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -1373,6 +1373,15 @@
   </si>
   <si>
     <t>Phone/mobile phone</t>
+  </si>
+  <si>
+    <t>Measuring and deflash time / mm^3 (40% of machining time)</t>
+  </si>
+  <si>
+    <t>Programation time and supply order / mm^3 (50% of machining time)</t>
+  </si>
+  <si>
+    <t>Lifting equipment</t>
   </si>
 </sst>
 </file>
@@ -1901,25 +1910,20 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1955,16 +1959,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -5176,10 +5185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:I45"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,7 +5203,7 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.85546875" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -5209,39 +5218,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="45"/>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="L1" s="117" t="s">
+      <c r="L1" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
-      <c r="U1" s="100" t="s">
+      <c r="U1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="Y1" s="102" t="s">
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="Y1" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -5341,10 +5350,10 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="103"/>
+      <c r="M3" s="120"/>
       <c r="N3" t="s">
         <v>243</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="s">
         <v>58</v>
@@ -5394,7 +5403,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="23">
-        <f t="shared" ref="J4:J38" si="0">H4/I4</f>
+        <f t="shared" ref="J4:J39" si="0">H4/I4</f>
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -5614,11 +5623,11 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="M8" s="41">
-        <f>M7*0.4</f>
-        <v>4.0000000000000003E-5</v>
+        <f>M7*0.5</f>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="N8" t="s">
         <v>250</v>
@@ -5657,11 +5666,11 @@
         <v>539</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="M9" s="41">
-        <f>M7*0.3</f>
-        <v>3.0000000000000001E-5</v>
+        <f>M7*0.4</f>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="N9" t="s">
         <v>252</v>
@@ -5699,7 +5708,7 @@
         <v>290</v>
       </c>
       <c r="M10" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
         <v>251</v>
@@ -5742,10 +5751,10 @@
         <v>43</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="L11" s="116" t="s">
+      <c r="L11" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="116"/>
+      <c r="M11" s="115"/>
       <c r="N11" t="s">
         <v>380</v>
       </c>
@@ -6024,7 +6033,7 @@
         <v>315</v>
       </c>
       <c r="Q17" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -6033,7 +6042,7 @@
         <v>366</v>
       </c>
       <c r="C18" s="21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>311</v>
@@ -6095,10 +6104,10 @@
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="L19" s="104" t="s">
+      <c r="L19" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="104"/>
+      <c r="M19" s="121"/>
       <c r="N19" t="s">
         <v>22</v>
       </c>
@@ -6419,7 +6428,7 @@
       <c r="G29" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="121">
+      <c r="H29" s="100">
         <v>200</v>
       </c>
       <c r="I29" s="34">
@@ -6526,19 +6535,10 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>355</v>
-      </c>
-      <c r="H32" s="22">
-        <f>Manufacturing!F7*3+Manufacturing!F8*3</f>
-        <v>8137.4519999999993</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32" s="23">
-        <f t="shared" si="0"/>
-        <v>813.74519999999995</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="J32" s="23"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" t="s">
@@ -6565,18 +6565,18 @@
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="H33" s="22">
-        <f>0.5*H32</f>
-        <v>4068.7259999999997</v>
+        <f>Manufacturing!F7*3+Manufacturing!F8*3</f>
+        <v>8137.4519999999993</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33" s="23">
         <f t="shared" si="0"/>
-        <v>406.87259999999998</v>
+        <v>813.74519999999995</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -6593,17 +6593,18 @@
     <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H34" s="22">
-        <v>4000</v>
+        <f>0.5*H33</f>
+        <v>4068.7259999999997</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J34" s="23">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>406.87259999999998</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -6620,17 +6621,17 @@
     <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H35" s="22">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" s="23">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
@@ -6647,52 +6648,51 @@
     <row r="36" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H36" s="22">
-        <f>Manufacturing!F20</f>
-        <v>2302.5700000000002</v>
+        <v>3000</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J36" s="23">
         <f t="shared" si="0"/>
-        <v>230.25700000000001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="37" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F37" s="5"/>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>426</v>
       </c>
       <c r="H37" s="22">
-        <f>Manufacturing!F17*6+Manufacturing!F18*3</f>
-        <v>7066.95</v>
+        <f>Manufacturing!F20</f>
+        <v>2302.5700000000002</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37" s="23">
         <f t="shared" si="0"/>
-        <v>706.69499999999994</v>
+        <v>230.25700000000001</v>
       </c>
     </row>
     <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="5"/>
       <c r="G38" t="s">
-        <v>438</v>
+        <v>56</v>
       </c>
       <c r="H38" s="22">
-        <f>Manufacturing!F22*5+Manufacturing!F23+Manufacturing!F24+Manufacturing!F25+Manufacturing!F26*3+Manufacturing!F27*30</f>
-        <v>7110.13</v>
+        <f>Manufacturing!F17*6+Manufacturing!F18*3</f>
+        <v>7066.95</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38" s="23">
         <f t="shared" si="0"/>
-        <v>711.01300000000003</v>
+        <v>706.69499999999994</v>
       </c>
       <c r="L38" s="92" t="s">
         <v>367</v>
@@ -6707,30 +6707,30 @@
     </row>
     <row r="39" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
-      <c r="G39" s="40" t="s">
-        <v>417</v>
+      <c r="G39" t="s">
+        <v>438</v>
       </c>
       <c r="H39" s="22">
-        <f>Manufacturing!F14</f>
-        <v>12999</v>
+        <f>Manufacturing!F22*5+Manufacturing!F23+Manufacturing!F24+Manufacturing!F25+Manufacturing!F26*3+Manufacturing!F27*30</f>
+        <v>7110.13</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
       <c r="J39" s="23">
-        <f>H39/I39</f>
-        <v>1299.9000000000001</v>
-      </c>
-      <c r="L39" s="108" t="s">
+        <f t="shared" si="0"/>
+        <v>711.01300000000003</v>
+      </c>
+      <c r="L39" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="109"/>
-      <c r="N39" s="118" t="s">
+      <c r="M39" s="108"/>
+      <c r="N39" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="118"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
       <c r="R39" s="73"/>
       <c r="S39" s="74">
         <f>SUM(S3:S6)+S10</f>
@@ -6740,45 +6740,57 @@
     <row r="40" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="G40" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="H40" s="22">
+        <f>Manufacturing!F14</f>
+        <v>12999</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40" s="23">
+        <f>H40/I40</f>
+        <v>1299.9000000000001</v>
+      </c>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="77">
+        <f>S39/(M5*C8*C9)+J45</f>
+        <v>28.329405194362351</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+      <c r="G41" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H41" s="22">
         <f>15*C14*C8*C9</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="J40" s="23">
-        <f>H40/I40</f>
+      <c r="J41" s="23">
+        <f>H41/I41</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L40" s="86"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="106" t="s">
-        <v>337</v>
-      </c>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="77">
-        <f>S39/(M5*C8*C9)+J44</f>
-        <v>28.329405194362351</v>
-      </c>
-    </row>
-    <row r="41" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="61"/>
-      <c r="G41" s="40"/>
-      <c r="J41" s="23"/>
       <c r="L41" s="88"/>
       <c r="M41" s="89"/>
-      <c r="N41" s="106" t="s">
+      <c r="N41" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
       <c r="R41" s="68"/>
       <c r="S41" s="77">
         <f>S40+Q9+Q7</f>
@@ -6786,19 +6798,15 @@
       </c>
     </row>
     <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="110" t="s">
-        <v>367</v>
-      </c>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="112"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="40"/>
+      <c r="J42" s="23"/>
       <c r="L42" s="88"/>
       <c r="M42" s="89"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
       <c r="R42" s="68" t="s">
         <v>378</v>
       </c>
@@ -6806,264 +6814,270 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F43" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="G43" s="114" t="s">
-        <v>368</v>
-      </c>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="56">
-        <f>SUM(J3:J40)</f>
-        <v>133818.0338247442</v>
-      </c>
+    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="111"/>
       <c r="L43" s="88"/>
       <c r="M43" s="89"/>
-      <c r="N43" s="106" t="s">
+      <c r="N43" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
       <c r="R43" s="80">
         <f>('Manpower &amp; time'!H5+S41)*M7/60</f>
         <v>1.0521004150605921E-4</v>
       </c>
       <c r="S43" s="81">
         <f>R43*(1+C$18)</f>
-        <v>1.2625204980727106E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="66"/>
+        <v>1.0521004150605921E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F44" s="62" t="s">
+        <v>370</v>
+      </c>
       <c r="G44" s="113" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="H44" s="113"/>
       <c r="I44" s="113"/>
-      <c r="J44" s="67">
-        <f>J43/SUM('Manpower &amp; time'!B26:I26)</f>
-        <v>13.633477374813477</v>
+      <c r="J44" s="56">
+        <f>SUM(J3:J41)</f>
+        <v>133818.0338247442</v>
       </c>
       <c r="L44" s="88"/>
       <c r="M44" s="89"/>
-      <c r="N44" s="106" t="s">
+      <c r="N44" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
       <c r="R44" s="80">
         <f>('Manpower &amp; time'!H5)*M8/60</f>
-        <v>8.9289891395154577E-6</v>
+        <v>1.1161236424394321E-5</v>
       </c>
       <c r="S44" s="81">
         <f t="shared" ref="S44:S50" si="5">R44*(1+C$18)</f>
-        <v>1.071478696741855E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="63" t="s">
+        <v>1.1161236424394321E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="66"/>
+      <c r="G45" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="67">
+        <f>J44/SUM('Manpower &amp; time'!B26:I26)</f>
+        <v>13.633477374813477</v>
+      </c>
+      <c r="L45" s="88"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" s="101"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="80">
+        <f>('Manpower &amp; time'!H6)*M8/60</f>
+        <v>2.0785818713450294E-5</v>
+      </c>
+      <c r="S45" s="81">
+        <f t="shared" si="5"/>
+        <v>2.0785818713450294E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F46" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="G45" s="114" t="s">
+      <c r="G46" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="69">
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="69">
         <f>'Manpower &amp; time'!H5</f>
         <v>13.393483709273186</v>
       </c>
-      <c r="L45" s="88"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="80">
-        <f>('Manpower &amp; time'!H6)*M8/60</f>
-        <v>1.6628654970760235E-5</v>
-      </c>
-      <c r="S45" s="81">
+      <c r="L46" s="88"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="O46" s="101"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="80">
+        <f>('Manpower &amp; time'!H7)*M8/60</f>
+        <v>3.6467731829573939E-5</v>
+      </c>
+      <c r="S46" s="81">
         <f t="shared" si="5"/>
-        <v>1.9954385964912282E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F46" s="64"/>
-      <c r="G46" s="113" t="s">
+        <v>3.6467731829573939E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F47" s="64"/>
+      <c r="G47" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="70">
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="70">
         <f>'Manpower &amp; time'!H6</f>
         <v>24.942982456140353</v>
       </c>
-      <c r="L46" s="88"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="106" t="s">
-        <v>325</v>
-      </c>
-      <c r="O46" s="106"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="106"/>
-      <c r="R46" s="80">
-        <f>('Manpower &amp; time'!H7)*M8/60</f>
-        <v>2.9174185463659156E-5</v>
-      </c>
-      <c r="S46" s="81">
+      <c r="L47" s="88"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="O47" s="101"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="80">
+        <f>('Manpower &amp; time'!H5)*M$9/60</f>
+        <v>8.9289891395154577E-6</v>
+      </c>
+      <c r="S47" s="81">
         <f t="shared" si="5"/>
-        <v>3.5009022556390983E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="57"/>
-      <c r="G47" s="115" t="s">
+        <v>8.9289891395154577E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="57"/>
+      <c r="G48" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="71">
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="71">
         <f>'Manpower &amp; time'!H7</f>
         <v>43.761278195488728</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="106" t="s">
-        <v>375</v>
-      </c>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="80">
-        <f>('Manpower &amp; time'!H5)*M$9/60</f>
-        <v>6.6967418546365929E-6</v>
-      </c>
-      <c r="S47" s="81">
-        <f t="shared" si="5"/>
-        <v>8.0360902255639118E-6</v>
-      </c>
-    </row>
-    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J48" s="51"/>
       <c r="L48" s="88"/>
       <c r="M48" s="89"/>
-      <c r="N48" s="106" t="s">
+      <c r="N48" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="101"/>
       <c r="R48" s="80">
         <f>('Manpower &amp; time'!H6)*M$9/60</f>
-        <v>1.2471491228070177E-5</v>
+        <v>1.6628654970760235E-5</v>
       </c>
       <c r="S48" s="81">
         <f t="shared" si="5"/>
-        <v>1.4965789473684211E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="6:19" x14ac:dyDescent="0.25">
+        <v>1.6628654970760235E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J49" s="51"/>
       <c r="L49" s="88"/>
       <c r="M49" s="89"/>
-      <c r="N49" s="106" t="s">
+      <c r="N49" s="101" t="s">
         <v>377</v>
       </c>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
       <c r="R49" s="80">
         <f>('Manpower &amp; time'!H7)*M$9/60</f>
-        <v>2.1880639097744365E-5</v>
+        <v>2.9174185463659156E-5</v>
       </c>
       <c r="S49" s="81">
         <f t="shared" si="5"/>
-        <v>2.6256766917293239E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.9174185463659156E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J50" s="51"/>
       <c r="L50" s="90"/>
       <c r="M50" s="91"/>
-      <c r="N50" s="105" t="s">
+      <c r="N50" s="102" t="s">
         <v>335</v>
       </c>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
       <c r="R50" s="84">
         <f>('Manpower &amp; time'!H5+S40)*(M10+M6)/60</f>
-        <v>13.907629634545177</v>
+        <v>17.384537043181474</v>
       </c>
       <c r="S50" s="85">
         <f t="shared" si="5"/>
-        <v>16.689155561454211</v>
-      </c>
-    </row>
-    <row r="51" spans="6:19" x14ac:dyDescent="0.25">
+        <v>17.384537043181474</v>
+      </c>
+    </row>
+    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J51" s="51"/>
-      <c r="L51" s="119" t="s">
+      <c r="L51" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="120"/>
-      <c r="N51" s="118" t="s">
+      <c r="M51" s="104"/>
+      <c r="N51" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="118"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
       <c r="R51" s="73"/>
       <c r="S51" s="74">
         <f>SUM(S11:S14)+S18</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="52" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J52" s="51"/>
       <c r="L52" s="75"/>
       <c r="M52" s="76"/>
-      <c r="N52" s="106" t="s">
+      <c r="N52" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="O52" s="106"/>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="106"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
       <c r="R52" s="68"/>
       <c r="S52" s="77">
-        <f>S51/(M13*C8*C9)+J44</f>
+        <f>S51/(M13*C8*C9)+J45</f>
         <v>32.869923155932945</v>
       </c>
     </row>
-    <row r="53" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J53" s="51"/>
       <c r="L53" s="78"/>
       <c r="M53" s="79"/>
-      <c r="N53" s="106" t="s">
+      <c r="N53" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
+      <c r="O53" s="101"/>
+      <c r="P53" s="101"/>
+      <c r="Q53" s="101"/>
       <c r="R53" s="68"/>
       <c r="S53" s="77">
         <f>S52+Q17+Q15</f>
-        <v>42.736595155932946</v>
-      </c>
-    </row>
-    <row r="54" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J54" s="27"/>
+        <v>44.736595155932946</v>
+      </c>
+    </row>
+    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
       <c r="L54" s="78"/>
       <c r="M54" s="79"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="106"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="101"/>
+      <c r="Q54" s="101"/>
       <c r="R54" s="68" t="s">
         <v>378</v>
       </c>
@@ -7071,160 +7085,190 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J55" s="26"/>
+    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J55" s="27"/>
       <c r="L55" s="78"/>
       <c r="M55" s="79"/>
-      <c r="N55" s="106" t="s">
+      <c r="N55" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="O55" s="106"/>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
       <c r="R55" s="80">
-        <f>(J45+S53)*M15/60</f>
-        <v>9.3550131442010227E-5</v>
+        <f>(J46+S53)*M15/60</f>
+        <v>9.6883464775343551E-5</v>
       </c>
       <c r="S55" s="81">
         <f>R55*(1+C$18)</f>
-        <v>1.1226015773041227E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="6:19" x14ac:dyDescent="0.25">
+        <v>9.6883464775343551E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J56" s="26"/>
       <c r="L56" s="78"/>
       <c r="M56" s="79"/>
-      <c r="N56" s="106" t="s">
+      <c r="N56" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="O56" s="106"/>
-      <c r="P56" s="106"/>
-      <c r="Q56" s="106"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
       <c r="R56" s="80">
-        <f>(J45)*M$16/60</f>
+        <f>(J46)*M$16/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
       <c r="S56" s="81">
         <f t="shared" ref="S56:S62" si="6">R56*(1+C$18)</f>
-        <v>1.071478696741855E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="6:19" x14ac:dyDescent="0.25">
+        <v>8.9289891395154577E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J57" s="26"/>
       <c r="L57" s="78"/>
       <c r="M57" s="79"/>
-      <c r="N57" s="106" t="s">
+      <c r="N57" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
       <c r="R57" s="80">
-        <f>(J46)*M$16/60</f>
+        <f>(J47)*M$16/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
       <c r="S57" s="81">
         <f t="shared" si="6"/>
-        <v>1.9954385964912282E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="J58" s="22"/>
+        <v>1.6628654970760235E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J58" s="26"/>
       <c r="L58" s="78"/>
       <c r="M58" s="79"/>
-      <c r="N58" s="106" t="s">
+      <c r="N58" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="O58" s="106"/>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="106"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
       <c r="R58" s="80">
-        <f>(J47)*M$16/60</f>
+        <f>(J48)*M$16/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
       <c r="S58" s="81">
         <f t="shared" si="6"/>
-        <v>3.5009022556390983E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="6:19" x14ac:dyDescent="0.25">
+        <v>2.9174185463659156E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J59" s="22"/>
       <c r="L59" s="78"/>
       <c r="M59" s="79"/>
-      <c r="N59" s="106" t="s">
+      <c r="N59" s="101" t="s">
         <v>375</v>
       </c>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+      <c r="Q59" s="101"/>
       <c r="R59" s="80">
-        <f>(J45)*M$17/60</f>
+        <f>(J46)*M$17/60</f>
         <v>6.6967418546365929E-6</v>
       </c>
       <c r="S59" s="81">
         <f t="shared" si="6"/>
-        <v>8.0360902255639118E-6</v>
-      </c>
-    </row>
-    <row r="60" spans="6:19" x14ac:dyDescent="0.25">
+        <v>6.6967418546365929E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="10:19" x14ac:dyDescent="0.25">
       <c r="L60" s="78"/>
       <c r="M60" s="79"/>
-      <c r="N60" s="106" t="s">
+      <c r="N60" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="O60" s="106"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+      <c r="Q60" s="101"/>
       <c r="R60" s="80">
-        <f>(J46)*M$17/60</f>
+        <f>(J47)*M$17/60</f>
         <v>1.2471491228070177E-5</v>
       </c>
       <c r="S60" s="81">
         <f t="shared" si="6"/>
-        <v>1.4965789473684211E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="6:19" x14ac:dyDescent="0.25">
+        <v>1.2471491228070177E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="10:19" x14ac:dyDescent="0.25">
       <c r="L61" s="78"/>
       <c r="M61" s="79"/>
-      <c r="N61" s="106" t="s">
+      <c r="N61" s="101" t="s">
         <v>377</v>
       </c>
-      <c r="O61" s="106"/>
-      <c r="P61" s="106"/>
-      <c r="Q61" s="106"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="101"/>
       <c r="R61" s="80">
-        <f>(J47)*M$17/60</f>
+        <f>(J48)*M$17/60</f>
         <v>2.1880639097744365E-5</v>
       </c>
       <c r="S61" s="81">
         <f t="shared" si="6"/>
-        <v>2.6256766917293239E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J62" s="26"/>
+        <v>2.1880639097744365E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L62" s="82"/>
       <c r="M62" s="83"/>
-      <c r="N62" s="105" t="s">
+      <c r="N62" s="102" t="s">
         <v>335</v>
       </c>
-      <c r="O62" s="105"/>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="105"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
       <c r="R62" s="84">
-        <f>(J45+S52)*(M14+M18)/60</f>
+        <f>(J46+S52)*(M14+M18)/60</f>
         <v>11.565851716301532</v>
       </c>
       <c r="S62" s="85">
         <f t="shared" si="6"/>
-        <v>13.879022059561839</v>
-      </c>
-    </row>
-    <row r="64" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F64" s="40"/>
+        <v>11.565851716301532</v>
+      </c>
+    </row>
+    <row r="63" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J63" s="26"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N43:Q43"/>
     <mergeCell ref="N61:Q61"/>
     <mergeCell ref="N62:Q62"/>
     <mergeCell ref="L51:M51"/>
@@ -7238,33 +7282,6 @@
     <mergeCell ref="N53:Q53"/>
     <mergeCell ref="N54:Q54"/>
     <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7279,7 +7296,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7632,7 +7649,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7704,7 +7721,7 @@
       <c r="F5" s="2">
         <v>8579</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="20" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7743,6 +7760,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{06BC7319-11A9-4EA9-AAAF-3E18C8182945}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF75922-9BC5-46E7-9287-16645723B65D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904FF0DE-DA28-443D-9E15-BB669879365E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="474">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Shop floor</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Maintenance of building</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>Chip managment</t>
   </si>
   <si>
-    <t>Scrap</t>
-  </si>
-  <si>
     <t>Workstations</t>
   </si>
   <si>
@@ -910,9 +904,6 @@
     <t>Removal rate (min/mm^3)</t>
   </si>
   <si>
-    <t>Programation time / mm^3 (40% of machining time)</t>
-  </si>
-  <si>
     <t>Setup time (fixture and tools) (min)</t>
   </si>
   <si>
@@ -928,12 +919,6 @@
     <t>CNC lathe</t>
   </si>
   <si>
-    <t>Assembly 1</t>
-  </si>
-  <si>
-    <t>Assembly 2</t>
-  </si>
-  <si>
     <t>Welding/Assembly</t>
   </si>
   <si>
@@ -1165,9 +1150,6 @@
     <t>Engineer cost/hour</t>
   </si>
   <si>
-    <t>Measuring time / mm^3 (30% of machining time)</t>
-  </si>
-  <si>
     <t>Cost of measuring part Operator (€/mm^3)</t>
   </si>
   <si>
@@ -1177,12 +1159,6 @@
     <t>Cost of measuring part Engineer (€/mm^3)</t>
   </si>
   <si>
-    <t>Without margin</t>
-  </si>
-  <si>
-    <t>With margin</t>
-  </si>
-  <si>
     <t>CNC lathe with Y Axis</t>
   </si>
   <si>
@@ -1213,15 +1189,6 @@
     <t>Removal rate (min/mm)</t>
   </si>
   <si>
-    <t>Programation time / mm (40% of machining time)</t>
-  </si>
-  <si>
-    <t>Measuring time / mm (30% of machining time)</t>
-  </si>
-  <si>
-    <t>Gas (O2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mild Steel </t>
   </si>
   <si>
@@ -1315,9 +1282,6 @@
     <t>Drill Press</t>
   </si>
   <si>
-    <t>Band Saw/Drill Press/Sheet metal bender/Hydraulic press</t>
-  </si>
-  <si>
     <t>https://www.orexad.com/fr/vestiaire-ventile-sur-socle/r-PR_1012867?</t>
   </si>
   <si>
@@ -1382,6 +1346,123 @@
   </si>
   <si>
     <t>Lifting equipment</t>
+  </si>
+  <si>
+    <t>https://www.manutan.fr/fr/maf/pack-portique-d-atelier-chariot-palan-force-1600-kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crane </t>
+  </si>
+  <si>
+    <t>1600kg 4m height, 4m width</t>
+  </si>
+  <si>
+    <t>Industrial Hoover</t>
+  </si>
+  <si>
+    <t>Industrial hoover</t>
+  </si>
+  <si>
+    <t>https://www.manutan.fr/fr/maf/aspirateur-eau-et-poussieres-nt-70-2-me-tc-karcher</t>
+  </si>
+  <si>
+    <t>Disc and belt grinder</t>
+  </si>
+  <si>
+    <t>https://www.manutan.fr/fr/maf/ponceuse-combinee-disque-bande-jsg-233-promac-230-v</t>
+  </si>
+  <si>
+    <t>Drill press vise</t>
+  </si>
+  <si>
+    <t>https://www.manutan.fr/fr/maf/etau-de-perceuse-rohm-machoire-largeur-100-mm-ouverture-95-mm</t>
+  </si>
+  <si>
+    <t>https://www.manutan.fr/fr/maf/etau-magnat</t>
+  </si>
+  <si>
+    <t>Vise</t>
+  </si>
+  <si>
+    <t>Band Saw/Drill Press/Sheet metal bender/Hydraulic press/belt and disc grinder/Vise</t>
+  </si>
+  <si>
+    <t>Conventionnal machining</t>
+  </si>
+  <si>
+    <t>Laser Cutting (Operator needed for 0.5*time running )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly </t>
+  </si>
+  <si>
+    <t>Oxygen 45CFM@90PSI</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>m^3/h</t>
+  </si>
+  <si>
+    <t>m^3/s</t>
+  </si>
+  <si>
+    <t>N/mm²</t>
+  </si>
+  <si>
+    <t>https://www.cedeo.fr/p/outillage-et-equipements/oxygene-grande-bouteille-10-6m3-ref-g110-i1001l50r2a001-A1204487</t>
+  </si>
+  <si>
+    <t>Assist gas O2</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>10.6m^3 @ 200bar</t>
+  </si>
+  <si>
+    <t>4.5hours of cutting</t>
+  </si>
+  <si>
+    <t>Assist Gas O2 or air</t>
+  </si>
+  <si>
+    <t>Programation time and supply order/ mm^3 (50% of machining time)</t>
+  </si>
+  <si>
+    <t>Laser cutting</t>
+  </si>
+  <si>
+    <t>Programation time / mm (50% of machining time)</t>
+  </si>
+  <si>
+    <t>Measuring time / mm (40% of machining time)</t>
+  </si>
+  <si>
+    <t>Cost of machining part (€/mm)</t>
+  </si>
+  <si>
+    <t>Cost of programing part Operator (€/mm)</t>
+  </si>
+  <si>
+    <t>Cost of programing part Technician(€/mm)</t>
+  </si>
+  <si>
+    <t>Cost of measuring part Operator (€/mm)</t>
+  </si>
+  <si>
+    <t>Cost of measuring part Technician(€/mm)</t>
+  </si>
+  <si>
+    <t>http://www.eau-direct.fr/gestion/prix.html</t>
+  </si>
+  <si>
+    <t>Eau/m^3</t>
+  </si>
+  <si>
+    <t>Water (60m^3)</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1776,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1831,16 +1912,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1849,9 +1924,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,16 +1938,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1974,6 +2038,15 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2009,6 +2082,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34595122484689411"/>
+          <c:y val="7.8703703703703706E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2121,7 +2202,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$D$9:$D$17</c:f>
+              <c:f>'Laser cutter'!$D$10:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2157,7 +2238,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$E$9:$E$17</c:f>
+              <c:f>'Laser cutter'!$E$10:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2512,7 +2593,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$D$18:$D$22</c:f>
+              <c:f>'Laser cutter'!$D$19:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2536,7 +2617,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$E$18:$E$22</c:f>
+              <c:f>'Laser cutter'!$E$19:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2879,7 +2960,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$D$23:$D$25</c:f>
+              <c:f>'Laser cutter'!$D$24:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2897,7 +2978,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$E$23:$E$25</c:f>
+              <c:f>'Laser cutter'!$E$24:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4779,16 +4860,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5185,10 +5266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="L3" zoomScale="104" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5198,7 +5279,7 @@
     <col min="4" max="4" width="57.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
@@ -5218,39 +5299,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="A1" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="45"/>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="L1" s="116" t="s">
-        <v>244</v>
-      </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+      <c r="L1" s="109" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
-      <c r="U1" s="117" t="s">
+      <c r="U1" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="Y1" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="Y1" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -5260,10 +5341,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>35</v>
@@ -5275,10 +5356,10 @@
         <v>18</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>16</v>
@@ -5288,19 +5369,19 @@
         <v>17</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>16</v>
@@ -5323,7 +5404,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>29</v>
@@ -5337,7 +5418,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H3" s="23">
         <f>SUM(Metrology!E14:E17)</f>
@@ -5350,15 +5431,15 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="120"/>
+      <c r="M3" s="113"/>
       <c r="N3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="22">
         <f>'CNC mill'!B22</f>
@@ -5378,13 +5459,13 @@
         <v>29</v>
       </c>
       <c r="Z3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="51">
         <f>'Manpower &amp; time'!C6</f>
@@ -5393,7 +5474,7 @@
       <c r="D4" s="51"/>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H4" s="23">
         <f>SUM(Metrology!E18:E19)</f>
@@ -5407,16 +5488,16 @@
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M4" s="9">
         <v>22.4</v>
       </c>
       <c r="N4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="22">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
@@ -5434,13 +5515,13 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="51">
         <f>'Manpower &amp; time'!C7</f>
@@ -5449,7 +5530,7 @@
       <c r="D5" s="51"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H5" s="23">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
@@ -5463,17 +5544,17 @@
         <v>127.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M5" s="37">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N5" t="s">
+        <v>244</v>
+      </c>
+      <c r="O5" t="s">
         <v>246</v>
-      </c>
-      <c r="O5" t="s">
-        <v>248</v>
       </c>
       <c r="Q5" s="22">
         <f>'CNC mill'!B24</f>
@@ -5496,7 +5577,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="51">
         <f>'Manpower &amp; time'!C6</f>
@@ -5519,7 +5600,7 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M6" s="9">
         <v>5</v>
@@ -5528,10 +5609,10 @@
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="22">
         <f>0.05*Q3</f>
@@ -5552,17 +5633,17 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="50">
+        <v>5</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>285</v>
-      </c>
-      <c r="C7" s="50">
-        <v>6</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>287</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H7" s="23">
         <f>SUM(Metrology!E10:E12)</f>
@@ -5576,7 +5657,7 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M7" s="41">
         <f>1/10000</f>
@@ -5586,10 +5667,10 @@
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="31">
         <f>M4*0.8*C14</f>
@@ -5599,17 +5680,17 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>35</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H8" s="23">
         <f>2*Metrology!E21</f>
@@ -5623,27 +5704,27 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="M8" s="41">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="27">
         <f>'Manpower &amp; time'!B16</f>
@@ -5652,7 +5733,7 @@
       <c r="D9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H9" s="22">
         <f>Metrology!E25</f>
@@ -5666,20 +5747,20 @@
         <v>539</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="M9" s="41">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="2">
         <v>20</v>
@@ -5689,13 +5770,13 @@
     <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="26">
         <v>0.75</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>40</v>
@@ -5705,19 +5786,19 @@
       </c>
       <c r="J10" s="23"/>
       <c r="L10" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M10" s="18">
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="22">
         <f>1*'CNC mill'!F31</f>
@@ -5738,28 +5819,28 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C11" s="26">
         <v>0.9</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="L11" s="115" t="s">
+      <c r="L11" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="115"/>
+      <c r="M11" s="108"/>
       <c r="N11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="O11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="2">
         <f>'CNC lathe'!B2</f>
@@ -5773,39 +5854,39 @@
         <v>13372</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" s="38">
         <f>C9*C8*C10*C7</f>
-        <v>7182</v>
+        <v>5985</v>
       </c>
       <c r="D12" s="26"/>
       <c r="F12" s="5"/>
       <c r="G12" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="23"/>
       <c r="L12" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M12" s="10">
         <v>29.8</v>
       </c>
       <c r="N12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="22">
         <f>12*'CNC lathe'!B6+6*'CNC lathe'!B7</f>
@@ -5825,10 +5906,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" s="22">
         <f>Energies!B6</f>
@@ -5837,7 +5918,7 @@
       <c r="D13" s="22"/>
       <c r="F13" s="5"/>
       <c r="G13" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="34">
         <v>1</v>
@@ -5847,17 +5928,17 @@
         <v>0</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M13" s="42">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N13" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="22">
         <f>'CNC lathe'!B8*30</f>
@@ -5874,7 +5955,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="31">
         <f>Energies!B7</f>
@@ -5883,7 +5964,7 @@
       <c r="D14" s="34"/>
       <c r="F14" s="5"/>
       <c r="G14" s="40" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H14" s="22">
         <f>Energies!B6</f>
@@ -5897,7 +5978,7 @@
         <v>2874.8160000000003</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M14" s="10">
         <v>5</v>
@@ -5906,10 +5987,10 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="2">
         <f>0.05*Q11</f>
@@ -5926,11 +6007,11 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="40" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H15" s="2">
         <f>16*C8*C9*C14</f>
@@ -5944,7 +6025,7 @@
         <v>1999.4687999999999</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M15" s="43">
         <f>1/10000</f>
@@ -5954,10 +6035,10 @@
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="31">
         <f>M12*0.8*C14</f>
@@ -5966,40 +6047,44 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" s="34">
         <v>1.12964</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="39" t="s">
-        <v>42</v>
+      <c r="G16" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="H16" s="2">
+        <f>Energies!C10*60</f>
+        <v>132.96</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132.96</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>289</v>
+        <v>462</v>
       </c>
       <c r="M16" s="43">
-        <f>M15*0.4</f>
-        <v>4.0000000000000003E-5</v>
+        <f>M15*0.5</f>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" s="26">
         <v>0.2</v>
@@ -6007,7 +6092,7 @@
       <c r="D17" s="26"/>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6017,20 +6102,20 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="M17" s="10">
-        <f>M15*0.3</f>
-        <v>3.0000000000000001E-5</v>
+        <v>432</v>
+      </c>
+      <c r="M17" s="43">
+        <f>M15*0.4</f>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="N17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="2">
         <v>10</v>
@@ -6039,16 +6124,16 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="22">
         <f>C6</f>
@@ -6062,19 +6147,19 @@
         <v>39809</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M18" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P18" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="22">
         <f>'CNC lathe'!F14</f>
@@ -6091,7 +6176,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H19" s="22">
         <f>C5*0.4</f>
@@ -6104,15 +6189,15 @@
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="L19" s="121" t="s">
+      <c r="L19" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="121"/>
+      <c r="M19" s="114"/>
       <c r="N19" t="s">
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="22">
         <f>'Laser cutter'!G4</f>
@@ -6129,21 +6214,21 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H20" s="22">
         <f>'Manpower &amp; time'!G8</f>
-        <v>24683.68</v>
+        <v>20702.78</v>
       </c>
       <c r="I20" s="34">
         <v>1</v>
       </c>
       <c r="J20" s="23">
         <f t="shared" si="0"/>
-        <v>24683.68</v>
+        <v>20702.78</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M20" s="11">
         <v>7.5</v>
@@ -6152,10 +6237,10 @@
         <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="22">
         <f>0.05*Q19</f>
@@ -6172,7 +6257,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H21" s="22">
         <f>'Manpower &amp; time'!B30</f>
@@ -6186,9 +6271,9 @@
         <v>13716.36</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="M21" s="97">
+        <v>262</v>
+      </c>
+      <c r="M21" s="90">
         <f>C10</f>
         <v>0.75</v>
       </c>
@@ -6196,10 +6281,10 @@
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q21" s="31">
         <f>M20*0.8*C14</f>
@@ -6208,10 +6293,10 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
         <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
       </c>
       <c r="H22" s="22">
         <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
@@ -6225,25 +6310,29 @@
         <v>959.37599999999998</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M22" s="11">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="O22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P22" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="Q22" s="22">
+        <f>'Laser cutter'!G5/20</f>
+        <v>5.0728</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F23" s="7"/>
       <c r="G23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H23" s="22">
         <f>IT!D5</f>
@@ -6257,9 +6346,11 @@
         <v>38.591999999999999</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="M23" s="98"/>
+        <v>381</v>
+      </c>
+      <c r="M23" s="91">
+        <v>4.4999999999999999E-4</v>
+      </c>
       <c r="N23" s="61"/>
       <c r="O23" s="61"/>
       <c r="P23" s="61"/>
@@ -6270,7 +6361,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H24" s="22">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
@@ -6284,20 +6375,23 @@
         <v>277.54199999999997</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="M24" s="98"/>
+        <v>464</v>
+      </c>
+      <c r="M24" s="91">
+        <f>M23*0.5</f>
+        <v>2.2499999999999999E-4</v>
+      </c>
       <c r="N24" s="61"/>
-      <c r="O24" s="95"/>
+      <c r="O24" s="88"/>
       <c r="P24" s="61"/>
-      <c r="Q24" s="95"/>
+      <c r="Q24" s="88"/>
       <c r="R24" s="61"/>
-      <c r="S24" s="95"/>
+      <c r="S24" s="88"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H25" s="22">
         <f>IT!D3*12*3</f>
@@ -6311,20 +6405,23 @@
         <v>316.8</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="M25" s="98"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
+        <v>465</v>
+      </c>
+      <c r="M25" s="91">
+        <f>M23*0.4</f>
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H26" s="22">
         <f>IT!D2*2</f>
@@ -6337,20 +6434,17 @@
         <f t="shared" si="0"/>
         <v>796.80000000000007</v>
       </c>
-      <c r="L26" s="99" t="s">
-        <v>410</v>
-      </c>
-      <c r="M26" s="99">
+      <c r="L26" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="M26" s="92">
         <v>10</v>
-      </c>
-      <c r="N26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F27" s="7"/>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="22">
         <f>12*IT!D20</f>
@@ -6368,10 +6462,10 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q27" s="22">
         <f>Welding!F2+Welding!F3</f>
@@ -6388,7 +6482,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
       <c r="G28" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H28" s="22">
         <f>IT!D23+IT!D22</f>
@@ -6404,10 +6498,10 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="22">
         <f>Welding!F4</f>
@@ -6423,12 +6517,12 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="100">
+        <v>49</v>
+      </c>
+      <c r="H29" s="93">
         <v>200</v>
       </c>
       <c r="I29" s="34">
@@ -6441,10 +6535,10 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="22">
         <f>Welding!F6</f>
@@ -6461,7 +6555,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
       <c r="G30" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H30" s="22">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -6480,7 +6574,7 @@
         <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q30" s="22">
         <f>Welding!F6+Welding!F7</f>
@@ -6496,29 +6590,29 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="H31" s="22">
-        <f>SUM(Manufacturing!F2:F5)</f>
-        <v>17244.431854396091</v>
+        <f>SUM(Manufacturing!F2:F7)+Manufacturing!F8*4</f>
+        <v>19442.431854396091</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31" s="23">
         <f t="shared" si="0"/>
-        <v>1724.4431854396091</v>
+        <v>1944.2431854396091</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="22">
         <f>Welding!F5</f>
@@ -6535,20 +6629,29 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>446</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="J32" s="23"/>
+        <v>434</v>
+      </c>
+      <c r="H32" s="22">
+        <f>Manufacturing!F32</f>
+        <v>3259</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32" s="23">
+        <f t="shared" si="0"/>
+        <v>325.89999999999998</v>
+      </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" t="s">
         <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="22">
         <f>0.03*(Q27+Q28)</f>
@@ -6562,13 +6665,13 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H33" s="22">
-        <f>Manufacturing!F7*3+Manufacturing!F8*3</f>
+        <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
         <v>8137.4519999999993</v>
       </c>
       <c r="I33">
@@ -6584,16 +6687,16 @@
         <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H34" s="22">
         <f>0.5*H33</f>
@@ -6612,16 +6715,16 @@
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H35" s="22">
         <v>4000</v>
@@ -6636,19 +6739,19 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="H36" s="22">
         <v>3000</v>
@@ -6661,13 +6764,13 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F37" s="5"/>
       <c r="G37" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H37" s="22">
-        <f>Manufacturing!F20</f>
+        <f>Manufacturing!F23</f>
         <v>2302.5700000000002</v>
       </c>
       <c r="I37">
@@ -6678,13 +6781,13 @@
         <v>230.25700000000001</v>
       </c>
     </row>
-    <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="5"/>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H38" s="22">
-        <f>Manufacturing!F17*6+Manufacturing!F18*3</f>
+        <f>Manufacturing!F20*6+Manufacturing!F21*3</f>
         <v>7066.95</v>
       </c>
       <c r="I38">
@@ -6694,24 +6797,23 @@
         <f t="shared" si="0"/>
         <v>706.69499999999994</v>
       </c>
-      <c r="L38" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="94"/>
-    </row>
-    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L38" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="87"/>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="G39" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="H39" s="22">
-        <f>Manufacturing!F22*5+Manufacturing!F23+Manufacturing!F24+Manufacturing!F25+Manufacturing!F26*3+Manufacturing!F27*30</f>
+        <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
         <v>7110.13</v>
       </c>
       <c r="I39">
@@ -6721,29 +6823,28 @@
         <f t="shared" si="0"/>
         <v>711.01300000000003</v>
       </c>
-      <c r="L39" s="107" t="s">
+      <c r="L39" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="108"/>
-      <c r="N39" s="105" t="s">
-        <v>336</v>
-      </c>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="74">
+      <c r="M39" s="101"/>
+      <c r="N39" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="71">
         <f>SUM(S3:S6)+S10</f>
         <v>17591.025600000001</v>
       </c>
     </row>
-    <row r="40" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="G40" s="40" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="H40" s="22">
-        <f>Manufacturing!F14</f>
+        <f>Manufacturing!F17</f>
         <v>12999</v>
       </c>
       <c r="I40">
@@ -6753,24 +6854,23 @@
         <f>H40/I40</f>
         <v>1299.9000000000001</v>
       </c>
-      <c r="L40" s="86"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="77">
-        <f>S39/(M5*C8*C9)+J45</f>
-        <v>28.329405194362351</v>
-      </c>
-    </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="L40" s="79"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="74">
+        <f>R39/(M5*C8*C9)+J46</f>
+        <v>29.583452887875005</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="G41" s="40" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H41" s="22">
         <f>15*C14*C8*C9</f>
@@ -6783,465 +6883,566 @@
         <f>H41/I41</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L41" s="88"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="101" t="s">
-        <v>338</v>
-      </c>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="77">
-        <f>S40+Q9+Q7</f>
-        <v>49.732541194362348</v>
-      </c>
-    </row>
-    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="61"/>
-      <c r="G42" s="40"/>
-      <c r="J42" s="23"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="68" t="s">
-        <v>378</v>
-      </c>
-      <c r="S42" s="65" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="109" t="s">
-        <v>367</v>
-      </c>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="111"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="101" t="s">
-        <v>323</v>
-      </c>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="80">
-        <f>('Manpower &amp; time'!H5+S41)*M7/60</f>
-        <v>1.0521004150605921E-4</v>
-      </c>
-      <c r="S43" s="81">
-        <f>R43*(1+C$18)</f>
-        <v>1.0521004150605921E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F44" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="G44" s="113" t="s">
-        <v>368</v>
-      </c>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="56">
-        <f>SUM(J3:J41)</f>
-        <v>133818.0338247442</v>
-      </c>
-      <c r="L44" s="88"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="101" t="s">
-        <v>326</v>
-      </c>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="80">
+      <c r="L41" s="81"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="74">
+        <f>R40+Q9+Q7</f>
+        <v>50.986588887875001</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F42" s="5"/>
+      <c r="G42" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="H42" s="22">
+        <f>Manufacturing!F34</f>
+        <v>1075</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42" s="23">
+        <f>H42/I42</f>
+        <v>107.5</v>
+      </c>
+      <c r="L42" s="81"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="115"/>
+    </row>
+    <row r="43" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="61"/>
+      <c r="G43" s="40"/>
+      <c r="J43" s="23"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="94" t="s">
+        <v>318</v>
+      </c>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="116">
+        <f>('Manpower &amp; time'!H5+R41)*M7/60</f>
+        <v>1.0730012099524699E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="102" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="104"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="116">
         <f>('Manpower &amp; time'!H5)*M8/60</f>
         <v>1.1161236424394321E-5</v>
       </c>
-      <c r="S44" s="81">
-        <f t="shared" ref="S44:S50" si="5">R44*(1+C$18)</f>
-        <v>1.1161236424394321E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="66"/>
-      <c r="G45" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="67">
-        <f>J44/SUM('Manpower &amp; time'!B26:I26)</f>
-        <v>13.633477374813477</v>
-      </c>
-      <c r="L45" s="88"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="80">
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F45" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="G45" s="106" t="s">
+        <v>363</v>
+      </c>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="56">
+        <f>SUM(J3:J42)</f>
+        <v>130623.29382474418</v>
+      </c>
+      <c r="L45" s="81"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="116">
         <f>('Manpower &amp; time'!H6)*M8/60</f>
         <v>2.0785818713450294E-5</v>
       </c>
-      <c r="S45" s="81">
-        <f t="shared" si="5"/>
-        <v>2.0785818713450294E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F46" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="G46" s="113" t="s">
-        <v>372</v>
-      </c>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="69">
+    </row>
+    <row r="46" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="65"/>
+      <c r="G46" s="105" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="66">
+        <f>J45/SUM('Manpower &amp; time'!B26:I26)</f>
+        <v>14.887525068326132</v>
+      </c>
+      <c r="L46" s="81"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="94" t="s">
+        <v>320</v>
+      </c>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="116">
+        <f>('Manpower &amp; time'!H7)*M8/60</f>
+        <v>3.6467731829573939E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F47" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="67">
         <f>'Manpower &amp; time'!H5</f>
         <v>13.393483709273186</v>
       </c>
-      <c r="L46" s="88"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="80">
-        <f>('Manpower &amp; time'!H7)*M8/60</f>
-        <v>3.6467731829573939E-5</v>
-      </c>
-      <c r="S46" s="81">
-        <f t="shared" si="5"/>
-        <v>3.6467731829573939E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F47" s="64"/>
-      <c r="G47" s="112" t="s">
-        <v>386</v>
-      </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="70">
+      <c r="L47" s="81"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="94" t="s">
+        <v>369</v>
+      </c>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="116">
+        <f>('Manpower &amp; time'!H5)*M$9/60</f>
+        <v>8.9289891395154577E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F48" s="64"/>
+      <c r="G48" s="105" t="s">
+        <v>378</v>
+      </c>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="68">
         <f>'Manpower &amp; time'!H6</f>
         <v>24.942982456140353</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="80">
-        <f>('Manpower &amp; time'!H5)*M$9/60</f>
-        <v>8.9289891395154577E-6</v>
-      </c>
-      <c r="S47" s="81">
-        <f t="shared" si="5"/>
-        <v>8.9289891395154577E-6</v>
-      </c>
-    </row>
-    <row r="48" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="57"/>
-      <c r="G48" s="114" t="s">
-        <v>373</v>
-      </c>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="71">
+      <c r="L48" s="81"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="94" t="s">
+        <v>370</v>
+      </c>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="116">
+        <f>('Manpower &amp; time'!H6)*M$9/60</f>
+        <v>1.6628654970760235E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="57"/>
+      <c r="G49" s="107" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="69">
         <f>'Manpower &amp; time'!H7</f>
         <v>43.761278195488728</v>
       </c>
-      <c r="L48" s="88"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="101" t="s">
-        <v>376</v>
-      </c>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="80">
-        <f>('Manpower &amp; time'!H6)*M$9/60</f>
-        <v>1.6628654970760235E-5</v>
-      </c>
-      <c r="S48" s="81">
-        <f t="shared" si="5"/>
-        <v>1.6628654970760235E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J49" s="51"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="101" t="s">
-        <v>377</v>
-      </c>
-      <c r="O49" s="101"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="80">
+      <c r="L49" s="81"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="116">
         <f>('Manpower &amp; time'!H7)*M$9/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
-      <c r="S49" s="81">
-        <f t="shared" si="5"/>
-        <v>2.9174185463659156E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J50" s="51"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="O50" s="102"/>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="102"/>
-      <c r="R50" s="84">
-        <f>('Manpower &amp; time'!H5+S40)*(M10+M6)/60</f>
-        <v>17.384537043181474</v>
-      </c>
-      <c r="S50" s="85">
-        <f t="shared" si="5"/>
-        <v>17.384537043181474</v>
-      </c>
-    </row>
-    <row r="51" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="L50" s="83"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="117">
+        <f>('Manpower &amp; time'!H5+R40)*(M10+M6)/60</f>
+        <v>17.90705691547841</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J51" s="51"/>
-      <c r="L51" s="103" t="s">
+      <c r="L51" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="104"/>
-      <c r="N51" s="105" t="s">
-        <v>336</v>
-      </c>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="74">
+      <c r="M51" s="97"/>
+      <c r="N51" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="71">
         <f>SUM(S11:S14)+S18</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="52" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J52" s="51"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="77">
-        <f>S51/(M13*C8*C9)+J45</f>
-        <v>32.869923155932945</v>
-      </c>
-    </row>
-    <row r="53" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="L52" s="72"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="74">
+        <f>R51/(M13*C8*C9)+J46</f>
+        <v>34.123970849445598</v>
+      </c>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J53" s="51"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="101" t="s">
-        <v>338</v>
-      </c>
-      <c r="O53" s="101"/>
-      <c r="P53" s="101"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="77">
-        <f>S52+Q17+Q15</f>
-        <v>44.736595155932946</v>
-      </c>
-    </row>
-    <row r="54" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="L54" s="78"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="68" t="s">
-        <v>378</v>
-      </c>
-      <c r="S54" s="65" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="55" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J55" s="27"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="101" t="s">
-        <v>323</v>
-      </c>
-      <c r="O55" s="101"/>
-      <c r="P55" s="101"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="80">
-        <f>(J46+S53)*M15/60</f>
-        <v>9.6883464775343551E-5</v>
-      </c>
-      <c r="S55" s="81">
-        <f>R55*(1+C$18)</f>
-        <v>9.6883464775343551E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J56" s="26"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="101" t="s">
-        <v>326</v>
-      </c>
-      <c r="O56" s="101"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="80">
-        <f>(J46)*M$16/60</f>
+      <c r="L53" s="75"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="O53" s="94"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="74">
+        <f>R52+Q17+Q15</f>
+        <v>45.990642849445599</v>
+      </c>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J54" s="51"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="115"/>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L55" s="75"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="94" t="s">
+        <v>318</v>
+      </c>
+      <c r="O55" s="94"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="116">
+        <f>(J47+R53)*M15/60</f>
+        <v>9.8973544264531314E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J56" s="27"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="116">
+        <f>(J47)*M$16/60</f>
+        <v>1.1161236424394321E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J57" s="26"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="116">
+        <f>(J48)*M$16/60</f>
+        <v>2.0785818713450294E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J58" s="26"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="94" t="s">
+        <v>320</v>
+      </c>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="116">
+        <f>(J49)*M$16/60</f>
+        <v>3.6467731829573939E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J59" s="26"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="94" t="s">
+        <v>369</v>
+      </c>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="116">
+        <f>(J47)*M$17/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
-      <c r="S56" s="81">
-        <f t="shared" ref="S56:S62" si="6">R56*(1+C$18)</f>
-        <v>8.9289891395154577E-6</v>
-      </c>
-    </row>
-    <row r="57" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J57" s="26"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="80">
-        <f>(J47)*M$16/60</f>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J60" s="22"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="94" t="s">
+        <v>370</v>
+      </c>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="116">
+        <f>(J48)*M$17/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
-      <c r="S57" s="81">
-        <f t="shared" si="6"/>
-        <v>1.6628654970760235E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J58" s="26"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="O58" s="101"/>
-      <c r="P58" s="101"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="80">
-        <f>(J48)*M$16/60</f>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L61" s="75"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="O61" s="94"/>
+      <c r="P61" s="94"/>
+      <c r="Q61" s="94"/>
+      <c r="R61" s="116">
+        <f>(J49)*M$17/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
-      <c r="S58" s="81">
-        <f t="shared" si="6"/>
-        <v>2.9174185463659156E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J59" s="22"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="101" t="s">
-        <v>375</v>
-      </c>
-      <c r="O59" s="101"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="80">
-        <f>(J46)*M$17/60</f>
-        <v>6.6967418546365929E-6</v>
-      </c>
-      <c r="S59" s="81">
-        <f t="shared" si="6"/>
-        <v>6.6967418546365929E-6</v>
-      </c>
-    </row>
-    <row r="60" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="L60" s="78"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="101" t="s">
-        <v>376</v>
-      </c>
-      <c r="O60" s="101"/>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="80">
-        <f>(J47)*M$17/60</f>
-        <v>1.2471491228070177E-5</v>
-      </c>
-      <c r="S60" s="81">
-        <f t="shared" si="6"/>
-        <v>1.2471491228070177E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="L61" s="78"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="101" t="s">
-        <v>377</v>
-      </c>
-      <c r="O61" s="101"/>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="80">
-        <f>(J48)*M$17/60</f>
-        <v>2.1880639097744365E-5</v>
-      </c>
-      <c r="S61" s="81">
-        <f t="shared" si="6"/>
-        <v>2.1880639097744365E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L62" s="82"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="O62" s="102"/>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="84">
-        <f>(J46+S52)*(M14+M18)/60</f>
-        <v>11.565851716301532</v>
-      </c>
-      <c r="S62" s="85">
-        <f t="shared" si="6"/>
-        <v>11.565851716301532</v>
-      </c>
-    </row>
-    <row r="63" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J63" s="26"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="40"/>
+    </row>
+    <row r="62" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="77"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="O62" s="95"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="95"/>
+      <c r="R62" s="117">
+        <f>(J47+R52)*(M14+M18)/60</f>
+        <v>15.839151519572928</v>
+      </c>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L63" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="M63" s="97"/>
+      <c r="N63" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="O63" s="98"/>
+      <c r="P63" s="98"/>
+      <c r="Q63" s="98"/>
+      <c r="R63" s="71">
+        <f>S19+S20</f>
+        <v>27751.54031372827</v>
+      </c>
+    </row>
+    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J64" s="26"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="O64" s="94"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="74">
+        <f>R63/(M21*C8*C9)+J46</f>
+        <v>38.071769273612908</v>
+      </c>
+    </row>
+    <row r="65" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L65" s="75"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="74">
+        <f>R64+Q21+Q22</f>
+        <v>43.614369273612908</v>
+      </c>
+    </row>
+    <row r="66" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F66" s="40"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="94"/>
+      <c r="O66" s="94"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="94"/>
+      <c r="R66" s="115"/>
+    </row>
+    <row r="67" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L67" s="75"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="116">
+        <f>(J47*0.5+R65)*M23/60</f>
+        <v>3.7733333346187128E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L68" s="75"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="94" t="s">
+        <v>467</v>
+      </c>
+      <c r="O68" s="94"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="116">
+        <f>(J47)*M$24/60</f>
+        <v>5.0225563909774447E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L69" s="75"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="O69" s="94"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="116">
+        <f>(J48)*M$24/60</f>
+        <v>9.3536184210526329E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L70" s="75"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="116"/>
+    </row>
+    <row r="71" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L71" s="75"/>
+      <c r="M71" s="76"/>
+      <c r="N71" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="116">
+        <f>(J47)*M$25/60</f>
+        <v>4.0180451127819561E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L72" s="75"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="116">
+        <f>(J48)*M$25/60</f>
+        <v>7.4828947368421053E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L73" s="75"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="94"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="116"/>
+    </row>
+    <row r="74" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="77"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="O74" s="95"/>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="95"/>
+      <c r="R74" s="117">
+        <f>(J47+R64)*(M26+M22)/60</f>
+        <v>12.866313245721523</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="53">
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="N66:Q66"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="Y1:AA1"/>
@@ -7251,12 +7452,12 @@
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="N45:Q45"/>
@@ -7293,10 +7494,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,42 +7506,43 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -7350,294 +7552,439 @@
         <v>185010.26875818847</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>452</v>
+      </c>
+      <c r="R4" t="s">
+        <v>454</v>
+      </c>
+      <c r="S4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5">
+        <v>126.82</v>
+      </c>
+      <c r="G5" s="2">
+        <f>(1-Summary!C17)*'Laser cutter'!F5</f>
+        <v>101.456</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="O5" t="s">
+        <v>451</v>
+      </c>
+      <c r="P5">
+        <v>76.5</v>
+      </c>
+      <c r="Q5">
+        <v>6.2</v>
+      </c>
+      <c r="R5">
+        <f>P5/3600</f>
+        <v>2.1250000000000002E-2</v>
+      </c>
+      <c r="S5">
+        <f>Q5/10</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>458</v>
+      </c>
+      <c r="R6">
+        <v>10.6</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f>R6*S6/S7</f>
+        <v>341.93548387096774</v>
+      </c>
+      <c r="S7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f>R7/R5/3600</f>
+        <v>4.4697448872021921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>393</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" t="s">
         <v>394</v>
       </c>
-      <c r="C9">
+      <c r="E9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10">
         <v>780</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.81</v>
       </c>
-      <c r="E9">
-        <f>C9*25.4</f>
+      <c r="E10">
+        <f>C10*25.4</f>
         <v>19812</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C10">
+      <c r="F10">
+        <f t="shared" ref="F10:F11" si="0">1/E10</f>
+        <v>5.0474459923278822E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11">
         <v>230</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>1.63</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E25" si="0">C10*25.4</f>
+      <c r="E11">
+        <f t="shared" ref="E11:E26" si="1">C11*25.4</f>
         <v>5842</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.7117425539198904E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12">
+        <v>125</v>
+      </c>
+      <c r="D12">
+        <v>2.31</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3175</v>
+      </c>
+      <c r="F12">
+        <f>1/E12</f>
+        <v>3.1496062992125983E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>3.26</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2184.4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F26" si="2">1/E13</f>
+        <v>4.5779161325764511E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>4.12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1879.6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>5.3202809108320926E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>5.82</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1498.6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>6.672894701721607E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>6.35</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1270</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>7.874015748031496E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.3123359580052493E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>9.5250000000000004</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>584.19999999999993</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.7117425539198907E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>396</v>
       </c>
-      <c r="C11">
-        <v>125</v>
-      </c>
-      <c r="D11">
+      <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19">
+        <v>780</v>
+      </c>
+      <c r="D19">
+        <v>0.81</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>19812</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>5.0474459923278822E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20">
+        <v>216</v>
+      </c>
+      <c r="D20">
+        <v>1.63</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5486.4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.8226888305628464E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21">
+        <v>74</v>
+      </c>
+      <c r="D21">
         <v>2.31</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1879.6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>5.3202809108320926E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>3.26</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1193.8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>8.3766124979058477E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>4.12</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>609.59999999999991</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.6404199475065619E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" t="s">
         <v>397</v>
       </c>
-      <c r="C12">
-        <v>86</v>
-      </c>
-      <c r="D12">
-        <v>3.26</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>2184.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>4.12</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1879.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14">
-        <v>59</v>
-      </c>
-      <c r="D14">
-        <v>5.82</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1498.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15">
-        <v>6.35</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>7.9379999999999997</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>9.5250000000000004</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>584.19999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C18">
-        <v>780</v>
-      </c>
-      <c r="D18">
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24">
         <v>0.81</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>19812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19">
-        <v>216</v>
-      </c>
-      <c r="D19">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>7620</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.3123359580052493E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>1.63</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>5486.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20">
-        <v>74</v>
-      </c>
-      <c r="D20">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>3048</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3.2808398950131233E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
         <v>2.31</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1879.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>397</v>
-      </c>
-      <c r="C21">
-        <v>47</v>
-      </c>
-      <c r="D21">
-        <v>3.26</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1193.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>4.12</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>609.59999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>409</v>
-      </c>
-      <c r="B23" t="s">
-        <v>408</v>
-      </c>
-      <c r="C23">
-        <v>300</v>
-      </c>
-      <c r="D23">
-        <v>0.81</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>7620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>395</v>
-      </c>
-      <c r="C24">
-        <v>120</v>
-      </c>
-      <c r="D24">
-        <v>1.63</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <v>2.31</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
+      <c r="E26">
+        <f t="shared" si="1"/>
         <v>711.19999999999993</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.4060742407199101E-3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{284B0583-049F-4389-BE7D-FA4F2FEAC644}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{95648CDF-1B96-4374-8E88-DCE4FC1C4B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7649,7 +7996,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7663,88 +8010,88 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>130</v>
+      <c r="G7" s="20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7752,16 +8099,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{06BC7319-11A9-4EA9-AAAF-3E18C8182945}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{8F91EF48-444A-41DF-8DC8-2E9D6CAE2C44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7796,7 +8144,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -7857,7 +8205,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -7866,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -8380,7 +8728,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -8392,13 +8740,13 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
@@ -8436,10 +8784,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -8457,13 +8805,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -8619,47 +8967,47 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G31" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
@@ -8862,7 +9210,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8870,7 +9218,7 @@
     <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
@@ -8885,43 +9233,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -8947,7 +9295,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -8960,11 +9308,11 @@
         <v>35828.1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="22">
         <f>C6*0.1*F6</f>
-        <v>11942.7</v>
+        <v>7961.8</v>
       </c>
       <c r="H6" s="22">
         <f>C6*0.9/$B$28</f>
@@ -8973,7 +9321,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" s="2">
         <v>4104</v>
@@ -8999,28 +9347,28 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F8">
         <f>SUM(F7+F6+F5)</f>
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="G8" s="2">
         <f>SUM(G7+G6+G5)</f>
-        <v>24683.68</v>
+        <v>20702.78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11">
         <v>365</v>
@@ -9028,7 +9376,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -9036,7 +9384,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -9044,7 +9392,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -9052,7 +9400,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
@@ -9061,7 +9409,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" s="27">
         <f>B15/5</f>
@@ -9070,25 +9418,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" t="s">
+        <v>448</v>
+      </c>
+      <c r="G21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" t="s">
         <v>293</v>
-      </c>
-      <c r="C21" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>295</v>
-      </c>
-      <c r="F21" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" t="s">
-        <v>297</v>
-      </c>
-      <c r="H21" t="s">
-        <v>298</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -9097,12 +9445,12 @@
         <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22">
         <v>0.85</v>
@@ -9111,10 +9459,13 @@
         <v>0.85</v>
       </c>
       <c r="D22">
-        <v>0.85</v>
+        <v>0.45</v>
       </c>
       <c r="E22">
         <v>0.85</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
       </c>
       <c r="H22">
         <v>0.2</v>
@@ -9132,37 +9483,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F23">
-        <v>0.9</v>
+        <v>265</v>
       </c>
       <c r="G23">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J23">
         <v>0.1</v>
       </c>
       <c r="K23">
         <f t="shared" ref="K23:K25" si="1">SUM(B23:J23)</f>
-        <v>3.0000000000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H24">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I24">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -9174,7 +9522,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
@@ -9186,7 +9534,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>1220.9399999999998</v>
+        <v>646.38</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
@@ -9194,19 +9542,19 @@
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>1292.76</v>
+        <v>574.55999999999995</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1292.76</v>
+        <v>1149.1199999999999</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>1292.76</v>
+        <v>1508.2199999999996</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>1580.0399999999997</v>
+        <v>1364.58</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
@@ -9214,12 +9562,12 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>10916.639999999998</v>
+        <v>9480.24</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B26">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
@@ -9230,41 +9578,41 @@
         <v>1197</v>
       </c>
       <c r="D26">
-        <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
-        <v>1197</v>
+        <f>Summary!$C$10*Summary!$C$9*Summary!$C$8*0.5</f>
+        <v>598.5</v>
       </c>
       <c r="E26">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
         <v>1197</v>
       </c>
       <c r="F26">
-        <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
-        <v>1197</v>
+        <f>F25</f>
+        <v>574.55999999999995</v>
       </c>
       <c r="G26">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
         <v>1197</v>
       </c>
       <c r="H26">
-        <f>0.4*B26*2+0.2*D26</f>
-        <v>1197</v>
+        <f>0.5*B26*2+2*0.25*D26</f>
+        <v>1496.25</v>
       </c>
       <c r="I26">
-        <f>0.4*B26*3</f>
-        <v>1436.4</v>
+        <f>2*0.4*B26+0.3*B26</f>
+        <v>1316.7</v>
       </c>
       <c r="J26">
         <f>0.06*Summary!C8*Summary!C9*Summary!C7</f>
-        <v>574.56000000000006</v>
+        <v>478.8</v>
       </c>
       <c r="K26">
         <f>SUM(B26:J26)</f>
-        <v>10389.959999999999</v>
+        <v>9252.81</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B28">
         <f>Summary!$C$11*Summary!$C$9*Summary!$C$8</f>
@@ -9273,7 +9621,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B30" s="22">
         <f>SUMPRODUCT(D5:D7*J22:J24)</f>
@@ -9301,10 +9649,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9312,61 +9660,85 @@
     <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B4">
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
         <v>2874.8160000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" s="28">
         <v>7.8299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="C10" s="2">
+        <f>B10*(1-Summary!C17)</f>
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{25978C36-4366-4D35-A345-F4D3FAF5DAC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9394,27 +9766,27 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" t="s">
-        <v>228</v>
-      </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="25">
         <v>149</v>
@@ -9424,12 +9796,12 @@
         <v>119.2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -9442,7 +9814,7 @@
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9460,7 +9832,7 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9468,7 +9840,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="25">
         <v>392</v>
@@ -9478,12 +9850,12 @@
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="25">
         <v>167</v>
@@ -9493,12 +9865,12 @@
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="25">
         <v>94</v>
@@ -9508,7 +9880,7 @@
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9516,7 +9888,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="25">
         <v>282</v>
@@ -9526,12 +9898,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="25">
         <v>408</v>
@@ -9543,7 +9915,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="25">
         <v>3322</v>
@@ -9553,7 +9925,7 @@
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9561,10 +9933,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="25">
         <v>1390</v>
@@ -9574,12 +9946,12 @@
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="25">
         <v>1202</v>
@@ -9589,12 +9961,12 @@
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="25">
         <v>146</v>
@@ -9604,12 +9976,12 @@
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D17" s="25">
         <v>162</v>
@@ -9619,7 +9991,7 @@
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9627,7 +9999,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" s="25">
         <v>1623</v>
@@ -9637,12 +10009,12 @@
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" s="25">
         <v>675</v>
@@ -9652,7 +10024,7 @@
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9661,10 +10033,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" t="s">
         <v>165</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
       </c>
       <c r="C21" s="30">
         <v>348</v>
@@ -9678,35 +10050,35 @@
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -9740,21 +10112,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -9764,22 +10136,22 @@
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9788,7 +10160,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -9798,12 +10170,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -9813,12 +10185,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -9828,31 +10200,31 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9861,7 +10233,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -9871,12 +10243,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -9886,12 +10258,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -9901,7 +10273,7 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9910,7 +10282,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -9920,12 +10292,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -9935,12 +10307,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -9950,12 +10322,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -9965,43 +10337,43 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -10033,93 +10405,93 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -10132,10 +10504,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10150,27 +10522,27 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="30">
         <v>1295</v>
@@ -10180,12 +10552,12 @@
         <v>1146.3829184518961</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="30">
         <v>13995</v>
@@ -10195,12 +10567,12 @@
         <v>12388.902659254276</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="30">
         <v>395</v>
@@ -10210,12 +10582,12 @@
         <v>349.66892107220002</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D5" s="30">
         <v>3795</v>
@@ -10225,229 +10597,290 @@
         <v>3359.4773556177188</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
+      <c r="A6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="F6" s="2">
+        <v>119</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="20"/>
+        <v>441</v>
+      </c>
+      <c r="D7" s="30"/>
       <c r="F7" s="2">
-        <v>1079.0999999999999</v>
+        <v>379</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>117</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="E8" s="2">
-        <v>2041.73</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="D8" s="30"/>
       <c r="F8" s="2">
-        <f>E8*(1-Summary!C17)</f>
-        <v>1633.384</v>
+        <v>425</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>236</v>
-      </c>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="F10" s="2">
+        <v>1079.0999999999999</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="E11" s="2">
+        <v>2041.73</v>
+      </c>
+      <c r="F11" s="2">
+        <f>E11*(1-Summary!C17)</f>
+        <v>1633.384</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="2">
+        <v>283.8</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="2">
-        <v>283.8</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F14" s="2">
+        <v>173.75</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="F15" s="2">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="F11" s="2">
-        <v>173.75</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="F12" s="2">
-        <v>153.08000000000001</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" t="s">
-        <v>416</v>
-      </c>
-      <c r="F14" s="2">
-        <v>12999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>404</v>
+      </c>
+      <c r="B17" t="s">
+        <v>405</v>
       </c>
       <c r="F17" s="2">
-        <v>1001.67</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>352</v>
-      </c>
-      <c r="F18" s="2">
-        <v>352.31</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>353</v>
+        <v>12999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>426</v>
-      </c>
-      <c r="B20" t="s">
-        <v>441</v>
+        <v>349</v>
       </c>
       <c r="F20" s="2">
-        <v>2302.5700000000002</v>
-      </c>
-      <c r="G20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>428</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="G22" t="s">
-        <v>427</v>
+        <v>1001.67</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="2">
+        <v>352.31</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>430</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>414</v>
+      </c>
+      <c r="B23" t="s">
+        <v>429</v>
       </c>
       <c r="F23" s="2">
-        <v>1433.25</v>
+        <v>2302.5700000000002</v>
       </c>
       <c r="G23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>432</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1866.02</v>
-      </c>
-      <c r="G24" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2">
-        <v>859.65</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="G25" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>699.07</v>
+        <v>1433.25</v>
       </c>
       <c r="G26" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1866.02</v>
+      </c>
+      <c r="G27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>859.65</v>
+      </c>
+      <c r="G28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>699.07</v>
+      </c>
+      <c r="G29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" t="s">
+        <v>437</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3259</v>
+      </c>
+      <c r="G32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>439</v>
       </c>
-      <c r="B27">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F34" s="2">
+        <v>1075</v>
+      </c>
+      <c r="G34" t="s">
         <v>440</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G12" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
     <hyperlink ref="G3" r:id="rId8" xr:uid="{49A19C45-DA94-4D35-8FFA-24E09D55B357}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{606ACE81-A91B-4D0C-8BF4-CA0E20B51DE2}"/>
-    <hyperlink ref="G18" r:id="rId10" xr:uid="{F802F9F2-F856-4426-A074-F1AD7AFF3C7D}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{606ACE81-A91B-4D0C-8BF4-CA0E20B51DE2}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{F802F9F2-F856-4426-A074-F1AD7AFF3C7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10477,27 +10910,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>1016</v>
@@ -10505,7 +10938,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>660</v>
@@ -10513,7 +10946,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>635</v>
@@ -10521,25 +10954,25 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>1372</v>
@@ -10547,7 +10980,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>610</v>
@@ -10555,42 +10988,42 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10598,34 +11031,34 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
         <v>134</v>
-      </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -10635,12 +11068,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -10649,12 +11082,12 @@
         <v>40</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -10663,34 +11096,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
       <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
         <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="21">
         <v>0.04</v>
@@ -10712,7 +11145,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -10771,24 +11204,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>412</v>
+      <c r="A2" s="70" t="s">
+        <v>401</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>385</v>
+      <c r="A4" s="70" t="s">
+        <v>377</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -10796,71 +11229,71 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
       <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
         <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="21">
         <v>0.04</v>
@@ -10882,7 +11315,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -10909,7 +11342,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904FF0DE-DA28-443D-9E15-BB669879365E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="Welding" sheetId="10" r:id="rId11"/>
     <sheet name="Material" sheetId="2" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="517">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -145,9 +144,6 @@
     <t>Specific PPE</t>
   </si>
   <si>
-    <t>Filler</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -805,9 +801,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Volume/time</t>
-  </si>
-  <si>
     <t>5 % of initial cost /year</t>
   </si>
   <si>
@@ -847,9 +840,6 @@
     <t>Specific workstation and tooling</t>
   </si>
   <si>
-    <t>weight/length</t>
-  </si>
-  <si>
     <t>Gaz</t>
   </si>
   <si>
@@ -1463,16 +1453,155 @@
   </si>
   <si>
     <t>Water (60m^3)</t>
+  </si>
+  <si>
+    <t>Neutral gas : Argon, quality 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price for one bottle </t>
+  </si>
+  <si>
+    <t>Bery Inox</t>
+  </si>
+  <si>
+    <t>Consumption (unity = bottles, for 1 year)</t>
+  </si>
+  <si>
+    <t>Consumption for exhaust system (unity = bottles)</t>
+  </si>
+  <si>
+    <t>Lenght of welding for exhaust system (m)</t>
+  </si>
+  <si>
+    <t>Price (€/m)</t>
+  </si>
+  <si>
+    <t>Metal rod : Ø 0,8 mm TIG inox</t>
+  </si>
+  <si>
+    <t>Price (€/kg, HT)</t>
+  </si>
+  <si>
+    <t>Consumption for exhaust system (m)</t>
+  </si>
+  <si>
+    <t>Weight by welding rod (g/m)</t>
+  </si>
+  <si>
+    <t>Price of consumption (€/m, HT)</t>
+  </si>
+  <si>
+    <t>Metal rod : Ø 2 mm TIG aluminium</t>
+  </si>
+  <si>
+    <t>https://www.promeca.com/soudage-et-accessoires/consommables-de-soudage/metaux-d-apport-soudage-tig/kg-de-metal-d-apport-aluminium-o-2-0-x-1000-mm</t>
+  </si>
+  <si>
+    <t>Consumption (m of metal rod / m of welding)</t>
+  </si>
+  <si>
+    <t>https://www.acier-detail-decoupe.fr/27-rond#/alliage-25cd4</t>
+  </si>
+  <si>
+    <t>Acier 25CD4</t>
+  </si>
+  <si>
+    <t>https://www.metalaladecoupe.com/francais/toles.asp?tbout=acier</t>
+  </si>
+  <si>
+    <t>Acier S235</t>
+  </si>
+  <si>
+    <t>Plaque</t>
+  </si>
+  <si>
+    <t>Retours La Mache usinage</t>
+  </si>
+  <si>
+    <t>Retours La Mache laser toles</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Volume (mm^3)</t>
+  </si>
+  <si>
+    <t>Prix (/kg)</t>
+  </si>
+  <si>
+    <t>Densité (kg/mm^3)</t>
+  </si>
+  <si>
+    <t>Brut 2017A</t>
+  </si>
+  <si>
+    <t>S235</t>
+  </si>
+  <si>
+    <t>Rond plein 2017A</t>
+  </si>
+  <si>
+    <t>S355</t>
+  </si>
+  <si>
+    <t>Rond plein S355J2</t>
+  </si>
+  <si>
+    <t>S700</t>
+  </si>
+  <si>
+    <t>Brut S235</t>
+  </si>
+  <si>
+    <t>AU4G A4</t>
+  </si>
+  <si>
+    <t>Brut Alu 7075T6</t>
+  </si>
+  <si>
+    <t>Rond plein Alu 7075T6</t>
+  </si>
+  <si>
+    <t>Welding (set up, Tack welding, welding and verification)</t>
+  </si>
+  <si>
+    <t>Time (min/m)</t>
+  </si>
+  <si>
+    <t>Cost of operator (€/min)</t>
+  </si>
+  <si>
+    <t>Cost of operator (€/m)</t>
+  </si>
+  <si>
+    <t>€/length</t>
+  </si>
+  <si>
+    <t>Filler (aluminium)</t>
+  </si>
+  <si>
+    <t>Filler (Inox)</t>
+  </si>
+  <si>
+    <t>Welding speed (min/m)</t>
+  </si>
+  <si>
+    <t>Cost of aluminium welding part (€/m)</t>
+  </si>
+  <si>
+    <t>Cost of steel welding part (€/m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
@@ -1644,7 +1773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1769,14 +1898,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1975,10 +2120,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,16 +2170,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2038,18 +2212,10 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Milliers" xfId="4" builtinId="3"/>
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
@@ -2424,6 +2590,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2431,7 +2598,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2791,6 +2957,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2798,7 +2965,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3146,6 +3312,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3153,7 +3320,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5265,89 +5431,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" zoomScale="104" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="J56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R87" sqref="P85:R87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="45"/>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="L1" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
+      <c r="L1" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
-      <c r="U1" s="110" t="s">
+      <c r="U1" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="Y1" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-    </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="Y1" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+    </row>
+    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -5356,10 +5522,10 @@
         <v>18</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>16</v>
@@ -5369,19 +5535,19 @@
         <v>17</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>16</v>
@@ -5402,9 +5568,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>29</v>
@@ -5415,10 +5581,10 @@
       </c>
       <c r="D3" s="51"/>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H3" s="23">
         <f>SUM(Metrology!E14:E17)</f>
@@ -5431,15 +5597,15 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="113"/>
+      <c r="M3" s="130"/>
       <c r="N3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="22">
         <f>'CNC mill'!B22</f>
@@ -5459,13 +5625,13 @@
         <v>29</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="51">
         <f>'Manpower &amp; time'!C6</f>
@@ -5474,7 +5640,7 @@
       <c r="D4" s="51"/>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H4" s="23">
         <f>SUM(Metrology!E18:E19)</f>
@@ -5488,16 +5654,16 @@
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M4" s="9">
         <v>22.4</v>
       </c>
       <c r="N4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="22">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
@@ -5515,13 +5681,13 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
       <c r="B5" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="51">
         <f>'Manpower &amp; time'!C7</f>
@@ -5530,7 +5696,7 @@
       <c r="D5" s="51"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H5" s="23">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
@@ -5544,17 +5710,17 @@
         <v>127.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M5" s="37">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="22">
         <f>'CNC mill'!B24</f>
@@ -5574,10 +5740,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="51">
         <f>'Manpower &amp; time'!C6</f>
@@ -5586,7 +5752,7 @@
       <c r="D6" s="51"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="22">
         <f>Metrology!E23</f>
@@ -5600,7 +5766,7 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M6" s="9">
         <v>5</v>
@@ -5609,10 +5775,10 @@
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="22">
         <f>0.05*Q3</f>
@@ -5630,20 +5796,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="49"/>
       <c r="B7" s="50" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C7" s="50">
         <v>5</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H7" s="23">
         <f>SUM(Metrology!E10:E12)</f>
@@ -5657,7 +5823,7 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M7" s="41">
         <f>1/10000</f>
@@ -5667,10 +5833,10 @@
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="31">
         <f>M4*0.8*C14</f>
@@ -5678,19 +5844,19 @@
       </c>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
       </c>
       <c r="C8">
         <v>35</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H8" s="23">
         <f>2*Metrology!E21</f>
@@ -5704,27 +5870,27 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M8" s="41">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="27">
         <f>'Manpower &amp; time'!B16</f>
@@ -5733,7 +5899,7 @@
       <c r="D9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H9" s="22">
         <f>Metrology!E25</f>
@@ -5747,58 +5913,58 @@
         <v>539</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M9" s="41">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q9" s="2">
         <v>20</v>
       </c>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="26">
         <v>0.75</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="58" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>41</v>
       </c>
       <c r="J10" s="23"/>
       <c r="L10" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M10" s="18">
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="22">
         <f>1*'CNC mill'!F31</f>
@@ -5816,31 +5982,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C11" s="26">
         <v>0.9</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="L11" s="108" t="s">
+      <c r="L11" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="108"/>
+      <c r="M11" s="125"/>
       <c r="N11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="2">
         <f>'CNC lathe'!B2</f>
@@ -5854,16 +6020,16 @@
         <v>13372</v>
       </c>
       <c r="U11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" t="s">
         <v>58</v>
       </c>
-      <c r="V11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C12" s="38">
         <f>C9*C8*C10*C7</f>
@@ -5872,21 +6038,21 @@
       <c r="D12" s="26"/>
       <c r="F12" s="5"/>
       <c r="G12" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="23"/>
       <c r="L12" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M12" s="10">
         <v>29.8</v>
       </c>
       <c r="N12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="22">
         <f>12*'CNC lathe'!B6+6*'CNC lathe'!B7</f>
@@ -5904,12 +6070,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="22">
         <f>Energies!B6</f>
@@ -5918,7 +6084,7 @@
       <c r="D13" s="22"/>
       <c r="F13" s="5"/>
       <c r="G13" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="34">
         <v>1</v>
@@ -5928,17 +6094,17 @@
         <v>0</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M13" s="42">
         <f>C10</f>
         <v>0.75</v>
       </c>
       <c r="N13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="22">
         <f>'CNC lathe'!B8*30</f>
@@ -5952,10 +6118,10 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="31">
         <f>Energies!B7</f>
@@ -5964,7 +6130,7 @@
       <c r="D14" s="34"/>
       <c r="F14" s="5"/>
       <c r="G14" s="40" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H14" s="22">
         <f>Energies!B6</f>
@@ -5978,7 +6144,7 @@
         <v>2874.8160000000003</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M14" s="10">
         <v>5</v>
@@ -5987,10 +6153,10 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="2">
         <f>0.05*Q11</f>
@@ -6004,14 +6170,14 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="40" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H15" s="2">
         <f>16*C8*C9*C14</f>
@@ -6025,7 +6191,7 @@
         <v>1999.4687999999999</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M15" s="43">
         <f>1/10000</f>
@@ -6035,29 +6201,29 @@
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q15" s="31">
         <f>M12*0.8*C14</f>
         <v>1.8666720000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="34">
         <v>1.12964</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="40" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H16" s="2">
         <f>Energies!C10*60</f>
@@ -6071,20 +6237,20 @@
         <v>132.96</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M16" s="43">
         <f>M15*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="26">
         <v>0.2</v>
@@ -6092,7 +6258,7 @@
       <c r="D17" s="26"/>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6102,38 +6268,38 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M17" s="43">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" s="22">
         <f>C6</f>
@@ -6147,19 +6313,19 @@
         <v>39809</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M18" s="10">
         <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q18" s="22">
         <f>'CNC lathe'!F14</f>
@@ -6173,10 +6339,10 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H19" s="22">
         <f>C5*0.4</f>
@@ -6189,15 +6355,15 @@
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="L19" s="114" t="s">
+      <c r="L19" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="114"/>
+      <c r="M19" s="131"/>
       <c r="N19" t="s">
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="22">
         <f>'Laser cutter'!G4</f>
@@ -6211,10 +6377,10 @@
         <v>18501.026875818847</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H20" s="22">
         <f>'Manpower &amp; time'!G8</f>
@@ -6228,7 +6394,7 @@
         <v>20702.78</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M20" s="11">
         <v>7.5</v>
@@ -6237,10 +6403,10 @@
         <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="22">
         <f>0.05*Q19</f>
@@ -6254,10 +6420,10 @@
         <v>9250.5134379094234</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F21" s="6"/>
       <c r="G21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H21" s="22">
         <f>'Manpower &amp; time'!B30</f>
@@ -6271,7 +6437,7 @@
         <v>13716.36</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M21" s="90">
         <f>C10</f>
@@ -6281,22 +6447,22 @@
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q21" s="31">
         <f>M20*0.8*C14</f>
         <v>0.4698</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
         <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
       </c>
       <c r="H22" s="22">
         <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
@@ -6310,29 +6476,29 @@
         <v>959.37599999999998</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M22" s="11">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="O22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="22">
         <f>'Laser cutter'!G5/20</f>
         <v>5.0728</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F23" s="7"/>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H23" s="22">
         <f>IT!D5</f>
@@ -6346,7 +6512,7 @@
         <v>38.591999999999999</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M23" s="91">
         <v>4.4999999999999999E-4</v>
@@ -6358,10 +6524,10 @@
       <c r="R23" s="61"/>
       <c r="S23" s="61"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H24" s="22">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
@@ -6375,7 +6541,7 @@
         <v>277.54199999999997</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M24" s="91">
         <f>M23*0.5</f>
@@ -6388,10 +6554,10 @@
       <c r="R24" s="61"/>
       <c r="S24" s="88"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F25" s="7"/>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H25" s="22">
         <f>IT!D3*12*3</f>
@@ -6405,7 +6571,7 @@
         <v>316.8</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M25" s="91">
         <f>M23*0.4</f>
@@ -6418,10 +6584,10 @@
       <c r="R25" s="89"/>
       <c r="S25" s="89"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F26" s="7"/>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="22">
         <f>IT!D2*2</f>
@@ -6435,16 +6601,16 @@
         <v>796.80000000000007</v>
       </c>
       <c r="L26" s="92" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M26" s="92">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F27" s="7"/>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="22">
         <f>12*IT!D20</f>
@@ -6462,10 +6628,10 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q27" s="22">
         <f>Welding!F2+Welding!F3</f>
@@ -6479,10 +6645,10 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F28" s="7"/>
       <c r="G28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H28" s="22">
         <f>IT!D23+IT!D22</f>
@@ -6495,13 +6661,15 @@
         <f t="shared" si="0"/>
         <v>76.2</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q28" s="22">
         <f>Welding!F4</f>
@@ -6515,12 +6683,12 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F29" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="93">
         <v>200</v>
@@ -6532,13 +6700,17 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" s="37">
+        <v>0.75</v>
+      </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="22">
         <f>Welding!F6</f>
@@ -6552,10 +6724,10 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F30" s="4"/>
       <c r="G30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H30" s="22">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -6568,13 +6740,18 @@
         <f>H30/I30</f>
         <v>1055</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="L30" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="M30" s="107">
+        <f>Welding!B32</f>
+        <v>140.43083213990764</v>
+      </c>
       <c r="N30" t="s">
         <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="22">
         <f>Welding!F6+Welding!F7</f>
@@ -6588,12 +6765,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H31" s="22">
         <f>SUM(Manufacturing!F2:F7)+Manufacturing!F8*4</f>
@@ -6609,10 +6786,10 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q31" s="22">
         <f>Welding!F5</f>
@@ -6626,10 +6803,10 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H32" s="22">
         <f>Manufacturing!F32</f>
@@ -6648,10 +6825,10 @@
         <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q32" s="22">
         <f>0.03*(Q27+Q28)</f>
@@ -6665,10 +6842,10 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H33" s="22">
         <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
@@ -6687,16 +6864,16 @@
         <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H34" s="22">
         <f>0.5*H33</f>
@@ -6712,19 +6889,23 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" t="s">
-        <v>247</v>
-      </c>
-      <c r="P34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="O34" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="P34" s="112" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q34" s="22">
+        <f>Welding!B29</f>
+        <v>8.5247116655159064E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H35" s="22">
         <v>4000</v>
@@ -6739,19 +6920,19 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" t="s">
-        <v>269</v>
-      </c>
-      <c r="O35" t="s">
-        <v>247</v>
-      </c>
-      <c r="P35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="O35" s="111"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="22">
+        <f>Welding!B23</f>
+        <v>5.0185057685504804E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H36" s="22">
         <v>3000</v>
@@ -6763,11 +6944,24 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N36" t="s">
+        <v>266</v>
+      </c>
+      <c r="O36" t="s">
+        <v>246</v>
+      </c>
+      <c r="P36" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q36" s="22">
+        <f>Welding!B17</f>
+        <v>14.354066985645932</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37" s="5"/>
       <c r="G37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H37" s="22">
         <f>Manufacturing!F23</f>
@@ -6781,10 +6975,10 @@
         <v>230.25700000000001</v>
       </c>
     </row>
-    <row r="38" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F38" s="5"/>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="22">
         <f>Manufacturing!F20*6+Manufacturing!F21*3</f>
@@ -6798,7 +6992,7 @@
         <v>706.69499999999994</v>
       </c>
       <c r="L38" s="85" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M38" s="86"/>
       <c r="N38" s="86"/>
@@ -6807,10 +7001,10 @@
       <c r="Q38" s="86"/>
       <c r="R38" s="87"/>
     </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F39" s="5"/>
       <c r="G39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H39" s="22">
         <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
@@ -6823,25 +7017,25 @@
         <f t="shared" si="0"/>
         <v>711.01300000000003</v>
       </c>
-      <c r="L39" s="100" t="s">
+      <c r="L39" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="101"/>
-      <c r="N39" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
       <c r="R39" s="71">
         <f>SUM(S3:S6)+S10</f>
         <v>17591.025600000001</v>
       </c>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F40" s="5"/>
       <c r="G40" s="40" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H40" s="22">
         <f>Manufacturing!F17</f>
@@ -6856,21 +7050,21 @@
       </c>
       <c r="L40" s="79"/>
       <c r="M40" s="80"/>
-      <c r="N40" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
+      <c r="N40" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
       <c r="R40" s="74">
         <f>R39/(M5*C8*C9)+J46</f>
         <v>29.583452887875005</v>
       </c>
     </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F41" s="5"/>
       <c r="G41" s="40" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H41" s="22">
         <f>15*C14*C8*C9</f>
@@ -6885,21 +7079,21 @@
       </c>
       <c r="L41" s="81"/>
       <c r="M41" s="82"/>
-      <c r="N41" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
+      <c r="N41" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="O41" s="109"/>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
       <c r="R41" s="74">
         <f>R40+Q9+Q7</f>
         <v>50.986588887875001</v>
       </c>
     </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F42" s="5"/>
       <c r="G42" s="40" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H42" s="22">
         <f>Manufacturing!F34</f>
@@ -6914,522 +7108,619 @@
       </c>
       <c r="L42" s="81"/>
       <c r="M42" s="82"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="115"/>
-    </row>
-    <row r="43" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="109"/>
+      <c r="O42" s="109"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="94"/>
+    </row>
+    <row r="43" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="61"/>
       <c r="G43" s="40"/>
       <c r="J43" s="23"/>
       <c r="L43" s="81"/>
       <c r="M43" s="82"/>
-      <c r="N43" s="94" t="s">
-        <v>318</v>
-      </c>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="116">
+      <c r="N43" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="95">
         <f>('Manpower &amp; time'!H5+R41)*M7/60</f>
         <v>1.0730012099524699E-4</v>
       </c>
     </row>
-    <row r="44" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="102" t="s">
-        <v>362</v>
-      </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="104"/>
+    <row r="44" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="119" t="s">
+        <v>359</v>
+      </c>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="121"/>
       <c r="L44" s="81"/>
       <c r="M44" s="82"/>
-      <c r="N44" s="94" t="s">
-        <v>321</v>
-      </c>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="116">
+      <c r="N44" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="95">
         <f>('Manpower &amp; time'!H5)*M8/60</f>
         <v>1.1161236424394321E-5</v>
       </c>
     </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F45" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="G45" s="106" t="s">
-        <v>363</v>
-      </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
+        <v>362</v>
+      </c>
+      <c r="G45" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
       <c r="J45" s="56">
         <f>SUM(J3:J42)</f>
         <v>130623.29382474418</v>
       </c>
       <c r="L45" s="81"/>
       <c r="M45" s="82"/>
-      <c r="N45" s="94" t="s">
-        <v>319</v>
-      </c>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="116">
+      <c r="N45" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="O45" s="109"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="95">
         <f>('Manpower &amp; time'!H6)*M8/60</f>
         <v>2.0785818713450294E-5</v>
       </c>
     </row>
-    <row r="46" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" s="65"/>
-      <c r="G46" s="105" t="s">
-        <v>322</v>
-      </c>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
+      <c r="G46" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
       <c r="J46" s="66">
         <f>J45/SUM('Manpower &amp; time'!B26:I26)</f>
         <v>14.887525068326132</v>
       </c>
       <c r="L46" s="81"/>
       <c r="M46" s="82"/>
-      <c r="N46" s="94" t="s">
-        <v>320</v>
-      </c>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="116">
+      <c r="N46" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="O46" s="109"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="95">
         <f>('Manpower &amp; time'!H7)*M8/60</f>
         <v>3.6467731829573939E-5</v>
       </c>
     </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F47" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="G47" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
+        <v>363</v>
+      </c>
+      <c r="G47" s="123" t="s">
+        <v>364</v>
+      </c>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
       <c r="J47" s="67">
         <f>'Manpower &amp; time'!H5</f>
         <v>13.393483709273186</v>
       </c>
       <c r="L47" s="81"/>
       <c r="M47" s="82"/>
-      <c r="N47" s="94" t="s">
-        <v>369</v>
-      </c>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="116">
+      <c r="N47" s="109" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" s="109"/>
+      <c r="P47" s="109"/>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="95">
         <f>('Manpower &amp; time'!H5)*M$9/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
     </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F48" s="64"/>
-      <c r="G48" s="105" t="s">
-        <v>378</v>
-      </c>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
+      <c r="G48" s="122" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
       <c r="J48" s="68">
         <f>'Manpower &amp; time'!H6</f>
         <v>24.942982456140353</v>
       </c>
       <c r="L48" s="81"/>
       <c r="M48" s="82"/>
-      <c r="N48" s="94" t="s">
-        <v>370</v>
-      </c>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="116">
+      <c r="N48" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="95">
         <f>('Manpower &amp; time'!H6)*M$9/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
     </row>
-    <row r="49" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F49" s="57"/>
-      <c r="G49" s="107" t="s">
-        <v>368</v>
-      </c>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
+      <c r="G49" s="124" t="s">
+        <v>365</v>
+      </c>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
       <c r="J49" s="69">
         <f>'Manpower &amp; time'!H7</f>
         <v>43.761278195488728</v>
       </c>
       <c r="L49" s="81"/>
       <c r="M49" s="82"/>
-      <c r="N49" s="94" t="s">
-        <v>371</v>
-      </c>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="116">
+      <c r="N49" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" s="109"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="109"/>
+      <c r="R49" s="95">
         <f>('Manpower &amp; time'!H7)*M$9/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
     </row>
-    <row r="50" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J50" s="51"/>
       <c r="L50" s="83"/>
       <c r="M50" s="84"/>
-      <c r="N50" s="95" t="s">
-        <v>330</v>
-      </c>
-      <c r="O50" s="95"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="117">
+      <c r="N50" s="110" t="s">
+        <v>327</v>
+      </c>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="96">
         <f>('Manpower &amp; time'!H5+R40)*(M10+M6)/60</f>
         <v>17.90705691547841</v>
       </c>
     </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J51" s="51"/>
-      <c r="L51" s="96" t="s">
+      <c r="L51" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="97"/>
-      <c r="N51" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="O51" s="98"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="98"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="O51" s="115"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="115"/>
       <c r="R51" s="71">
         <f>SUM(S11:S14)+S18</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J52" s="51"/>
       <c r="L52" s="72"/>
       <c r="M52" s="73"/>
-      <c r="N52" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
+      <c r="N52" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="O52" s="109"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
       <c r="R52" s="74">
         <f>R51/(M13*C8*C9)+J46</f>
         <v>34.123970849445598</v>
       </c>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J53" s="51"/>
       <c r="L53" s="75"/>
       <c r="M53" s="76"/>
-      <c r="N53" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
+      <c r="N53" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="O53" s="109"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="109"/>
       <c r="R53" s="74">
         <f>R52+Q17+Q15</f>
         <v>45.990642849445599</v>
       </c>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J54" s="51"/>
       <c r="L54" s="75"/>
       <c r="M54" s="76"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="115"/>
-    </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="N54" s="109"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="94"/>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L55" s="75"/>
       <c r="M55" s="76"/>
-      <c r="N55" s="94" t="s">
-        <v>318</v>
-      </c>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="116">
+      <c r="N55" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="O55" s="109"/>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="109"/>
+      <c r="R55" s="95">
         <f>(J47+R53)*M15/60</f>
         <v>9.8973544264531314E-5</v>
       </c>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J56" s="27"/>
       <c r="L56" s="75"/>
       <c r="M56" s="76"/>
-      <c r="N56" s="94" t="s">
-        <v>321</v>
-      </c>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="116">
+      <c r="N56" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="95">
         <f>(J47)*M$16/60</f>
         <v>1.1161236424394321E-5</v>
       </c>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J57" s="26"/>
       <c r="L57" s="75"/>
       <c r="M57" s="76"/>
-      <c r="N57" s="94" t="s">
-        <v>319</v>
-      </c>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="116">
+      <c r="N57" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="O57" s="109"/>
+      <c r="P57" s="109"/>
+      <c r="Q57" s="109"/>
+      <c r="R57" s="95">
         <f>(J48)*M$16/60</f>
         <v>2.0785818713450294E-5</v>
       </c>
     </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J58" s="26"/>
       <c r="L58" s="75"/>
       <c r="M58" s="76"/>
-      <c r="N58" s="94" t="s">
-        <v>320</v>
-      </c>
-      <c r="O58" s="94"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="116">
+      <c r="N58" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="95">
         <f>(J49)*M$16/60</f>
         <v>3.6467731829573939E-5</v>
       </c>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J59" s="26"/>
       <c r="L59" s="75"/>
       <c r="M59" s="76"/>
-      <c r="N59" s="94" t="s">
-        <v>369</v>
-      </c>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
-      <c r="R59" s="116">
+      <c r="N59" s="109" t="s">
+        <v>366</v>
+      </c>
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="95">
         <f>(J47)*M$17/60</f>
         <v>8.9289891395154577E-6</v>
       </c>
     </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J60" s="22"/>
       <c r="L60" s="75"/>
       <c r="M60" s="76"/>
-      <c r="N60" s="94" t="s">
-        <v>370</v>
-      </c>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="116">
+      <c r="N60" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="O60" s="109"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="95">
         <f>(J48)*M$17/60</f>
         <v>1.6628654970760235E-5</v>
       </c>
     </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:18" x14ac:dyDescent="0.3">
       <c r="L61" s="75"/>
       <c r="M61" s="76"/>
-      <c r="N61" s="94" t="s">
-        <v>371</v>
-      </c>
-      <c r="O61" s="94"/>
-      <c r="P61" s="94"/>
-      <c r="Q61" s="94"/>
-      <c r="R61" s="116">
+      <c r="N61" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="O61" s="109"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="109"/>
+      <c r="R61" s="95">
         <f>(J49)*M$17/60</f>
         <v>2.9174185463659156E-5</v>
       </c>
     </row>
-    <row r="62" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L62" s="77"/>
       <c r="M62" s="78"/>
-      <c r="N62" s="95" t="s">
-        <v>330</v>
-      </c>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="95"/>
-      <c r="R62" s="117">
+      <c r="N62" s="110" t="s">
+        <v>327</v>
+      </c>
+      <c r="O62" s="110"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="110"/>
+      <c r="R62" s="96">
         <f>(J47+R52)*(M14+M18)/60</f>
         <v>15.839151519572928</v>
       </c>
     </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L63" s="96" t="s">
-        <v>463</v>
-      </c>
-      <c r="M63" s="97"/>
-      <c r="N63" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="O63" s="98"/>
-      <c r="P63" s="98"/>
-      <c r="Q63" s="98"/>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L63" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="M63" s="117"/>
+      <c r="N63" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="O63" s="115"/>
+      <c r="P63" s="115"/>
+      <c r="Q63" s="115"/>
       <c r="R63" s="71">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:18" x14ac:dyDescent="0.3">
       <c r="J64" s="26"/>
       <c r="L64" s="72"/>
       <c r="M64" s="73"/>
-      <c r="N64" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="O64" s="94"/>
-      <c r="P64" s="94"/>
-      <c r="Q64" s="94"/>
+      <c r="N64" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="O64" s="109"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
       <c r="R64" s="74">
         <f>R63/(M21*C8*C9)+J46</f>
         <v>38.071769273612908</v>
       </c>
     </row>
-    <row r="65" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L65" s="75"/>
       <c r="M65" s="76"/>
-      <c r="N65" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="O65" s="94"/>
-      <c r="P65" s="94"/>
-      <c r="Q65" s="94"/>
+      <c r="N65" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="O65" s="109"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
       <c r="R65" s="74">
         <f>R64+Q21+Q22</f>
         <v>43.614369273612908</v>
       </c>
     </row>
-    <row r="66" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F66" s="40"/>
       <c r="L66" s="75"/>
       <c r="M66" s="76"/>
-      <c r="N66" s="94"/>
-      <c r="O66" s="94"/>
-      <c r="P66" s="94"/>
-      <c r="Q66" s="94"/>
-      <c r="R66" s="115"/>
-    </row>
-    <row r="67" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="N66" s="109"/>
+      <c r="O66" s="109"/>
+      <c r="P66" s="109"/>
+      <c r="Q66" s="109"/>
+      <c r="R66" s="94"/>
+    </row>
+    <row r="67" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L67" s="75"/>
       <c r="M67" s="76"/>
-      <c r="N67" s="94" t="s">
-        <v>466</v>
-      </c>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="116">
+      <c r="N67" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="O67" s="109"/>
+      <c r="P67" s="109"/>
+      <c r="Q67" s="109"/>
+      <c r="R67" s="95">
         <f>(J47*0.5+R65)*M23/60</f>
         <v>3.7733333346187128E-4</v>
       </c>
     </row>
-    <row r="68" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L68" s="75"/>
       <c r="M68" s="76"/>
-      <c r="N68" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="O68" s="94"/>
-      <c r="P68" s="94"/>
-      <c r="Q68" s="94"/>
-      <c r="R68" s="116">
+      <c r="N68" s="109" t="s">
+        <v>464</v>
+      </c>
+      <c r="O68" s="109"/>
+      <c r="P68" s="109"/>
+      <c r="Q68" s="109"/>
+      <c r="R68" s="95">
         <f>(J47)*M$24/60</f>
         <v>5.0225563909774447E-5</v>
       </c>
     </row>
-    <row r="69" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L69" s="75"/>
       <c r="M69" s="76"/>
-      <c r="N69" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="O69" s="94"/>
-      <c r="P69" s="94"/>
-      <c r="Q69" s="94"/>
-      <c r="R69" s="116">
+      <c r="N69" s="109" t="s">
+        <v>465</v>
+      </c>
+      <c r="O69" s="109"/>
+      <c r="P69" s="109"/>
+      <c r="Q69" s="109"/>
+      <c r="R69" s="95">
         <f>(J48)*M$24/60</f>
         <v>9.3536184210526329E-5</v>
       </c>
     </row>
-    <row r="70" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L70" s="75"/>
       <c r="M70" s="76"/>
-      <c r="N70" s="94"/>
-      <c r="O70" s="94"/>
-      <c r="P70" s="94"/>
-      <c r="Q70" s="94"/>
-      <c r="R70" s="116"/>
-    </row>
-    <row r="71" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="N70" s="109"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="95"/>
+    </row>
+    <row r="71" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L71" s="75"/>
       <c r="M71" s="76"/>
-      <c r="N71" s="94" t="s">
-        <v>469</v>
-      </c>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
-      <c r="R71" s="116">
+      <c r="N71" s="109" t="s">
+        <v>466</v>
+      </c>
+      <c r="O71" s="109"/>
+      <c r="P71" s="109"/>
+      <c r="Q71" s="109"/>
+      <c r="R71" s="95">
         <f>(J47)*M$25/60</f>
         <v>4.0180451127819561E-5</v>
       </c>
     </row>
-    <row r="72" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L72" s="75"/>
       <c r="M72" s="76"/>
-      <c r="N72" s="94" t="s">
-        <v>470</v>
-      </c>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="116">
+      <c r="N72" s="109" t="s">
+        <v>467</v>
+      </c>
+      <c r="O72" s="109"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="95">
         <f>(J48)*M$25/60</f>
         <v>7.4828947368421053E-5</v>
       </c>
     </row>
-    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:19" x14ac:dyDescent="0.3">
       <c r="L73" s="75"/>
       <c r="M73" s="76"/>
-      <c r="N73" s="94"/>
-      <c r="O73" s="94"/>
-      <c r="P73" s="94"/>
-      <c r="Q73" s="94"/>
-      <c r="R73" s="116"/>
-    </row>
-    <row r="74" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N73" s="109"/>
+      <c r="O73" s="109"/>
+      <c r="P73" s="109"/>
+      <c r="Q73" s="109"/>
+      <c r="R73" s="95"/>
+    </row>
+    <row r="74" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L74" s="77"/>
       <c r="M74" s="78"/>
-      <c r="N74" s="95" t="s">
-        <v>330</v>
-      </c>
-      <c r="O74" s="95"/>
-      <c r="P74" s="95"/>
-      <c r="Q74" s="95"/>
-      <c r="R74" s="117">
+      <c r="N74" s="110" t="s">
+        <v>327</v>
+      </c>
+      <c r="O74" s="110"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="110"/>
+      <c r="R74" s="96">
         <f>(J47+R64)*(M26+M22)/60</f>
         <v>12.866313245721523</v>
       </c>
     </row>
+    <row r="75" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="L75" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" s="114"/>
+      <c r="N75" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="O75" s="115"/>
+      <c r="P75" s="115"/>
+      <c r="Q75" s="115"/>
+      <c r="R75" s="105">
+        <f>SUM(S27:S32)</f>
+        <v>2176.9659999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="L76" s="79"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="O76" s="109"/>
+      <c r="P76" s="109"/>
+      <c r="Q76" s="109"/>
+      <c r="R76" s="66">
+        <f>R75/(M29*C8*C9)+J46</f>
+        <v>16.706210114274334</v>
+      </c>
+    </row>
+    <row r="77" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="L77" s="81"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="O77" s="109"/>
+      <c r="P77" s="109"/>
+      <c r="Q77" s="109"/>
+      <c r="R77" s="66">
+        <f>R76+Q33</f>
+        <v>16.706210114274334</v>
+      </c>
+    </row>
+    <row r="78" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="L78" s="81"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="109"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
+      <c r="R78" s="103"/>
+    </row>
+    <row r="79" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="L79" s="81"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="109" t="s">
+        <v>515</v>
+      </c>
+      <c r="O79" s="109"/>
+      <c r="P79" s="109"/>
+      <c r="Q79" s="109"/>
+      <c r="R79" s="106">
+        <f>Q34+Q36+(R77+J48)*M30/60</f>
+        <v>111.91982694594431</v>
+      </c>
+    </row>
+    <row r="80" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="L80" s="81"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="109" t="s">
+        <v>516</v>
+      </c>
+      <c r="O80" s="109"/>
+      <c r="P80" s="109"/>
+      <c r="Q80" s="109"/>
+      <c r="R80" s="66">
+        <f>Q35+Q36+(R77+J48)*M30/60</f>
+        <v>111.88476488697465</v>
+      </c>
+      <c r="S80" s="23"/>
+    </row>
+    <row r="81" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L81" s="83"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="110"/>
+      <c r="O81" s="110"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="110"/>
+      <c r="R81" s="104"/>
+    </row>
+    <row r="83" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="Q83" s="22"/>
+    </row>
+    <row r="85" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="Q85" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="63">
     <mergeCell ref="N72:Q72"/>
     <mergeCell ref="N73:Q73"/>
     <mergeCell ref="N74:Q74"/>
@@ -7448,13 +7739,6 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G45:I45"/>
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="G49:I49"/>
@@ -7464,25 +7748,42 @@
     <mergeCell ref="N46:Q46"/>
     <mergeCell ref="N47:Q47"/>
     <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N60:Q60"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N39:Q39"/>
     <mergeCell ref="N40:Q40"/>
     <mergeCell ref="N41:Q41"/>
     <mergeCell ref="N42:Q42"/>
     <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N44:Q44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7490,7 +7791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -7500,49 +7801,49 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
         <v>225</v>
       </c>
-      <c r="G3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -7552,30 +7853,30 @@
         <v>185010.26875818847</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q4" t="s">
+        <v>449</v>
+      </c>
+      <c r="R4" t="s">
+        <v>451</v>
+      </c>
+      <c r="S4" t="s">
         <v>452</v>
       </c>
-      <c r="R4" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>454</v>
       </c>
-      <c r="S4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" t="s">
         <v>457</v>
-      </c>
-      <c r="B5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C5" t="s">
-        <v>460</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -7585,10 +7886,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="O5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -7605,9 +7906,9 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -7616,7 +7917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R7">
         <f>R6*S6/S7</f>
         <v>341.93548387096774</v>
@@ -7625,32 +7926,32 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="R8">
         <f>R7/R5/3600</f>
         <v>4.4697448872021921</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" t="s">
         <v>392</v>
       </c>
-      <c r="D9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -7667,9 +7968,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -7686,9 +7987,9 @@
         <v>1.7117425539198904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -7705,9 +8006,9 @@
         <v>3.1496062992125983E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -7724,9 +8025,9 @@
         <v>4.5779161325764511E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -7743,9 +8044,9 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -7762,9 +8063,9 @@
         <v>6.672894701721607E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -7781,9 +8082,9 @@
         <v>7.874015748031496E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -7800,9 +8101,9 @@
         <v>1.3123359580052493E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -7819,12 +8120,12 @@
         <v>1.7117425539198907E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -7841,9 +8142,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -7860,9 +8161,9 @@
         <v>1.8226888305628464E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -7879,9 +8180,9 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -7898,9 +8199,9 @@
         <v>8.3766124979058477E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -7917,12 +8218,12 @@
         <v>1.6404199475065619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -7939,9 +8240,9 @@
         <v>1.3123359580052493E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -7958,9 +8259,9 @@
         <v>3.2808398950131233E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -7979,9 +8280,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{284B0583-049F-4389-BE7D-FA4F2FEAC644}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{95648CDF-1B96-4374-8E88-DCE4FC1C4B45}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -7989,165 +8290,374 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s">
-        <v>226</v>
-      </c>
       <c r="G1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2">
         <v>3859.6</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
+      <c r="G9" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="97" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="99">
+        <v>200</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="98" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" s="98">
+        <v>18</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="98" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="100">
+        <f>B14*5/228</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="C15" s="98"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="98" t="s">
+        <v>476</v>
+      </c>
+      <c r="B16" s="98">
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="98"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="98" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" s="101">
+        <f>B15*B13/B16</f>
+        <v>14.354066985645932</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="98">
+        <v>12.8</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="98" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="98">
+        <v>11</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" s="98">
+        <f>PI()*0.04*0.04*100*7.8</f>
+        <v>3.9207076316800622</v>
+      </c>
+      <c r="C22" s="98"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="99">
+        <f>B20*B22/1000</f>
+        <v>5.0185057685504804E-2</v>
+      </c>
+      <c r="C23" s="98"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="97" t="s">
+        <v>483</v>
+      </c>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="98" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" s="98">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="98">
+        <v>2</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="98" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28" s="98">
+        <f>PI()*0.1*0.1*100*2.7</f>
+        <v>8.4823001646924432</v>
+      </c>
+      <c r="C28" s="98"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" s="99">
+        <f>B26*B28/1000</f>
+        <v>8.5247116655159064E-2</v>
+      </c>
+      <c r="C29" s="98"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="97"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="98" t="s">
+        <v>507</v>
+      </c>
+      <c r="B31" s="98"/>
+      <c r="C31" s="97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="98" t="s">
+        <v>508</v>
+      </c>
+      <c r="B32" s="108">
+        <f>30/(2*PI()*0.034)</f>
+        <v>140.43083213990764</v>
+      </c>
+      <c r="C32" s="98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="B33" s="101">
+        <f>'Manpower &amp; time'!H6/60</f>
+        <v>0.41571637426900587</v>
+      </c>
+      <c r="C33" s="98"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="98" t="s">
+        <v>510</v>
+      </c>
+      <c r="B34" s="101">
+        <f>B33*B32</f>
+        <v>58.379396372781784</v>
+      </c>
+      <c r="C34" s="98"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{06BC7319-11A9-4EA9-AAAF-3E18C8182945}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{8F91EF48-444A-41DF-8DC8-2E9D6CAE2C44}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:W40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8161,7 +8671,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8205,7 +8715,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -8214,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -8223,7 +8733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -8286,7 +8796,7 @@
         <v>4.7646666666666666E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -8349,7 +8859,7 @@
         <v>4.7479999999999999E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -8412,7 +8922,7 @@
         <v>4.7380000000000004E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -8466,7 +8976,7 @@
         <v>4.7502222222222225E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32</v>
       </c>
@@ -8513,7 +9023,7 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32</v>
       </c>
@@ -8560,7 +9070,7 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>32</v>
       </c>
@@ -8607,7 +9117,7 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>32</v>
       </c>
@@ -8645,7 +9155,7 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>40</v>
       </c>
@@ -8670,7 +9180,7 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -8689,7 +9199,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -8707,7 +9217,7 @@
         <v>3.5986666666666665E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -8728,10 +9238,10 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>8</v>
       </c>
@@ -8740,19 +9250,19 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N17">
         <v>5</v>
       </c>
@@ -8767,7 +9277,7 @@
         <v>1.6399325336188895E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N18">
         <v>10</v>
       </c>
@@ -8782,12 +9292,12 @@
         <v>1.1459155902616463E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -8803,15 +9313,15 @@
         <v>5.432488724203361E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -8830,7 +9340,7 @@
         <v>4.9986441385898987E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10</v>
       </c>
@@ -8858,7 +9368,7 @@
         <v>4.4195091635435405E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -8880,7 +9390,7 @@
         <v>8.541824653028432E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -8896,7 +9406,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>25</v>
       </c>
@@ -8911,7 +9421,7 @@
         <v>5.3414945380729545E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>25</v>
       </c>
@@ -8926,7 +9436,7 @@
         <v>5.5538966161457841E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>30</v>
       </c>
@@ -8941,7 +9451,7 @@
         <v>4.5440504640992695E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>35</v>
       </c>
@@ -8956,7 +9466,7 @@
         <v>3.338486055256606E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -8965,55 +9475,76 @@
         <v>6.0986186998733781E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H31" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="N31" t="s">
+        <v>487</v>
+      </c>
+      <c r="O31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>321</v>
+      </c>
+      <c r="P32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
@@ -9024,7 +9555,7 @@
         <v>20.5</v>
       </c>
       <c r="E33" s="44">
-        <f t="shared" ref="E33:E35" si="7">D33/(PI()*(B33/2)^2*C33)</f>
+        <f t="shared" ref="E33:E39" si="7">D33/(PI()*(B33/2)^2*C33)</f>
         <v>2.6101410667070835E-4</v>
       </c>
       <c r="H33">
@@ -9040,8 +9571,21 @@
         <f t="shared" ref="K33:K36" si="8">J33/(PI()*(H33/2)^2*I33)</f>
         <v>3.9937280386526271E-4</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>5.89</v>
+      </c>
+      <c r="R33" s="44">
+        <f t="shared" ref="R33:R38" si="9">Q33/(PI()*(O33/2)^2*P33)</f>
+        <v>2.9294456712851987E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>16</v>
       </c>
@@ -9068,8 +9612,21 @@
         <f t="shared" si="8"/>
         <v>2.6144515130824893E-4</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34">
+        <v>1000</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>9.23</v>
+      </c>
+      <c r="R34" s="44">
+        <f t="shared" si="9"/>
+        <v>2.938000249476388E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>20</v>
       </c>
@@ -9096,8 +9653,21 @@
         <f t="shared" si="8"/>
         <v>2.4828171122335673E-4</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>25</v>
+      </c>
+      <c r="P35">
+        <v>1000</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>14.44</v>
+      </c>
+      <c r="R35" s="44">
+        <f t="shared" si="9"/>
+        <v>2.9416926441561197E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>40</v>
       </c>
@@ -9108,7 +9678,7 @@
         <v>251.5</v>
       </c>
       <c r="E36" s="44">
-        <f t="shared" ref="E36:E39" si="9">D36/(PI()*(B36/2)^2*C36)</f>
+        <f t="shared" si="7"/>
         <v>2.0013734093805838E-4</v>
       </c>
       <c r="H36">
@@ -9124,8 +9694,21 @@
         <f t="shared" si="8"/>
         <v>2.1671598084346415E-4</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>40</v>
+      </c>
+      <c r="P36">
+        <v>1000</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="R36" s="44">
+        <f t="shared" si="9"/>
+        <v>2.7748664328071946E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>50</v>
       </c>
@@ -9136,7 +9719,7 @@
         <v>390</v>
       </c>
       <c r="E37" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9862536897868538E-4</v>
       </c>
       <c r="J37" t="s">
@@ -9146,8 +9729,21 @@
         <f>AVERAGE(K33:K36)</f>
         <v>2.8145391181008314E-4</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>60</v>
+      </c>
+      <c r="P37">
+        <v>1000</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>83.14</v>
+      </c>
+      <c r="R37" s="44">
+        <f t="shared" si="9"/>
+        <v>2.9404759930355956E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>60</v>
       </c>
@@ -9158,13 +9754,26 @@
         <v>560</v>
       </c>
       <c r="E38" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9805948473658087E-4</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>80</v>
+      </c>
+      <c r="P38">
+        <v>1000</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>139.55000000000001</v>
+      </c>
+      <c r="R38" s="44">
+        <f t="shared" si="9"/>
+        <v>2.7762590385592491E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>80</v>
       </c>
@@ -9175,13 +9784,20 @@
         <v>992.5</v>
       </c>
       <c r="E39" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.9745160127338264E-4</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="44"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39" s="44">
+        <f>AVERAGE(R33:R38)</f>
+        <v>2.8834566715532905E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>8</v>
       </c>
@@ -9191,85 +9807,401 @@
       </c>
       <c r="K40" s="44"/>
     </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1.5</v>
+      </c>
+      <c r="B46">
+        <v>1000</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="E46" s="1">
+        <f>D46/(A46*B46*C46)</f>
+        <v>2.3E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>491</v>
+      </c>
+      <c r="G48" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>493</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>494</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>493</v>
+      </c>
+      <c r="H49" t="s">
+        <v>495</v>
+      </c>
+      <c r="I49" t="s">
+        <v>496</v>
+      </c>
+      <c r="J49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>497</v>
+      </c>
+      <c r="B50" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="C50">
+        <f>60*25*3020</f>
+        <v>4530000</v>
+      </c>
+      <c r="D50" s="1">
+        <f>B50/C50</f>
+        <v>1.9072847682119207E-5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>498</v>
+      </c>
+      <c r="H50" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <f>7770/(POWER(1000,3))</f>
+        <v>7.7700000000000001E-6</v>
+      </c>
+      <c r="J50" s="1">
+        <f>I50*H50</f>
+        <v>8.5470000000000013E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>499</v>
+      </c>
+      <c r="B51" s="2">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <f>PI()*10*10*12000</f>
+        <v>3769911.1843077517</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" ref="D51:D60" si="10">B51/C51</f>
+        <v>1.5915494309189534E-5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>500</v>
+      </c>
+      <c r="H51" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" ref="I51:I52" si="11">7770/(POWER(1000,3))</f>
+        <v>7.7700000000000001E-6</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" ref="J51:J53" si="12">I51*H51</f>
+        <v>1.9425000000000001E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>501</v>
+      </c>
+      <c r="B52" s="2">
+        <v>28.32</v>
+      </c>
+      <c r="C52">
+        <f>PI()*17.5*17.5*3000</f>
+        <v>2886338.2504856223</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="10"/>
+        <v>9.8117398386121925E-6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>502</v>
+      </c>
+      <c r="H52" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="11"/>
+        <v>7.7700000000000001E-6</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9425000000000001E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>503</v>
+      </c>
+      <c r="B53" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="C53">
+        <f>80*15*3000</f>
+        <v>3600000</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="10"/>
+        <v>9.8333333333333329E-6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>504</v>
+      </c>
+      <c r="H53" s="31">
+        <v>18</v>
+      </c>
+      <c r="I53" s="1">
+        <f>2700/(POWER(1000,3))</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="12"/>
+        <v>4.8600000000000002E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>503</v>
+      </c>
+      <c r="B54" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C54">
+        <f>70*20*6000</f>
+        <v>8400000</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="10"/>
+        <v>9.7142857142857135E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <f>30*30*100</f>
+        <v>90000</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="10"/>
+        <v>8.8888888888888893E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" s="2">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <f>140*50*285</f>
+        <v>1995000</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="10"/>
+        <v>2.5062656641604011E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B57" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="C57">
+        <f>160*50*260</f>
+        <v>2080000</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="10"/>
+        <v>2.2211538461538464E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>506</v>
+      </c>
+      <c r="B58" s="2">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <f>PI()*65*65*103</f>
+        <v>1367142.5830259381</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0480672862977284E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>506</v>
+      </c>
+      <c r="B59" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C59">
+        <f>PI()*65*65*113</f>
+        <v>1499874.8726401068</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="10"/>
+        <v>2.380198551973887E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>506</v>
+      </c>
+      <c r="B60" s="2">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <f>PI()*10*10*2000</f>
+        <v>628318.5307179587</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="10"/>
+        <v>2.0690142601946392E-5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="S1" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="S1" r:id="rId2"/>
+    <hyperlink ref="G30" r:id="rId3"/>
+    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
+    <hyperlink ref="A43" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>169</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -9293,9 +10225,9 @@
         <v>13.393483709273186</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -9319,9 +10251,9 @@
         <v>24.942982456140353</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" s="2">
         <v>4104</v>
@@ -9345,9 +10277,9 @@
         <v>43.761278195488728</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F8">
         <f>SUM(F7+F6+F5)</f>
@@ -9358,99 +10290,99 @@
         <v>20702.78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>173</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>174</v>
       </c>
       <c r="B11">
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <f>B11-B12-B13-B14</f>
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="27">
         <f>B15/5</f>
         <v>45.6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G21" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" t="s">
         <v>290</v>
       </c>
-      <c r="C21" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E21" t="s">
-        <v>450</v>
-      </c>
-      <c r="F21" t="s">
-        <v>448</v>
-      </c>
-      <c r="G21" t="s">
-        <v>292</v>
-      </c>
-      <c r="H21" t="s">
-        <v>293</v>
-      </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>0.85</v>
@@ -9481,9 +10413,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G23">
         <v>0.8</v>
@@ -9502,9 +10434,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H24">
         <v>0.35</v>
@@ -9520,9 +10452,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
@@ -9565,9 +10497,9 @@
         <v>9480.24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B26">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
@@ -9610,42 +10542,42 @@
         <v>9252.81</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B28">
         <f>Summary!$C$11*Summary!$C$9*Summary!$C$8</f>
         <v>1436.3999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B30" s="22">
         <f>SUMPRODUCT(D5:D7*J22:J24)</f>
         <v>13716.36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9655,74 +10587,74 @@
       <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B4">
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
         <v>2874.8160000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="28">
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B10" s="2">
         <v>2.77</v>
@@ -9732,20 +10664,20 @@
         <v>2.2160000000000002</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{25978C36-4366-4D35-A345-F4D3FAF5DAC5}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -9755,38 +10687,38 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
         <v>223</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" t="s">
-        <v>226</v>
-      </c>
       <c r="F1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="25">
         <v>149</v>
@@ -9796,12 +10728,12 @@
         <v>119.2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -9814,12 +10746,12 @@
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -9832,15 +10764,15 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="25">
         <v>392</v>
@@ -9850,12 +10782,12 @@
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="25">
         <v>167</v>
@@ -9865,12 +10797,12 @@
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="25">
         <v>94</v>
@@ -9880,15 +10812,15 @@
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="25">
         <v>282</v>
@@ -9898,12 +10830,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="25">
         <v>408</v>
@@ -9913,9 +10845,9 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="25">
         <v>3322</v>
@@ -9925,18 +10857,18 @@
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
         <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
       </c>
       <c r="D14" s="25">
         <v>1390</v>
@@ -9946,12 +10878,12 @@
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="25">
         <v>1202</v>
@@ -9961,12 +10893,12 @@
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="25">
         <v>146</v>
@@ -9976,12 +10908,12 @@
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="25">
         <v>162</v>
@@ -9991,15 +10923,15 @@
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="25">
         <v>1623</v>
@@ -10009,12 +10941,12 @@
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="25">
         <v>675</v>
@@ -10024,19 +10956,19 @@
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="30">
         <v>348</v>
@@ -10050,49 +10982,49 @@
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10102,31 +11034,31 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>209</v>
-      </c>
-      <c r="C1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -10136,31 +11068,31 @@
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -10170,12 +11102,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -10185,12 +11117,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -10200,40 +11132,40 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>218</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -10243,12 +11175,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -10258,12 +11190,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -10273,16 +11205,16 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -10292,12 +11224,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -10307,12 +11239,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -10322,12 +11254,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>200</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -10337,46 +11269,46 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>329</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>5600*0.4</f>
         <v>2240</v>
@@ -10388,7 +11320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10398,100 +11330,100 @@
       <selection activeCell="A11" sqref="A11:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>338</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -10500,7 +11432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10510,39 +11442,39 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s">
-        <v>226</v>
-      </c>
       <c r="G1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="30">
         <v>1295</v>
@@ -10552,12 +11484,12 @@
         <v>1146.3829184518961</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="30">
         <v>13995</v>
@@ -10567,12 +11499,12 @@
         <v>12388.902659254276</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="30">
         <v>395</v>
@@ -10582,12 +11514,12 @@
         <v>349.66892107220002</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D5" s="30">
         <v>3795</v>
@@ -10597,69 +11529,69 @@
         <v>3359.4773556177188</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D6" s="30"/>
       <c r="F6" s="2">
         <v>119</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D7" s="30"/>
       <c r="F7" s="2">
         <v>379</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D8" s="30"/>
       <c r="F8" s="2">
         <v>425</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C10" s="20"/>
       <c r="F10" s="2">
         <v>1079.0999999999999</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" t="s">
         <v>259</v>
-      </c>
-      <c r="B11" t="s">
-        <v>261</v>
       </c>
       <c r="C11" s="20"/>
       <c r="E11" s="2">
@@ -10670,99 +11602,99 @@
         <v>1633.384</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2">
         <v>283.8</v>
       </c>
       <c r="G13" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>118</v>
       </c>
       <c r="F14" s="2">
         <v>173.75</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="24"/>
       <c r="F15" s="2">
         <v>153.08000000000001</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F17" s="2">
         <v>12999</v>
       </c>
       <c r="G17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F20" s="2">
         <v>1001.67</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F21" s="2">
         <v>352.31</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F23" s="2">
         <v>2302.5700000000002</v>
       </c>
       <c r="G23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>416</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -10771,12 +11703,12 @@
         <v>69.400000000000006</v>
       </c>
       <c r="G25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>418</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10785,12 +11717,12 @@
         <v>1433.25</v>
       </c>
       <c r="G26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>420</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -10799,12 +11731,12 @@
         <v>1866.02</v>
       </c>
       <c r="G27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>422</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -10813,12 +11745,12 @@
         <v>859.65</v>
       </c>
       <c r="G28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>424</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -10827,12 +11759,12 @@
         <v>699.07</v>
       </c>
       <c r="G29" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -10841,53 +11773,53 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B32" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F32" s="2">
         <v>3259</v>
       </c>
       <c r="G32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F34" s="2">
         <v>1075</v>
       </c>
       <c r="G34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{49A19C45-DA94-4D35-8FFA-24E09D55B357}"/>
-    <hyperlink ref="G20" r:id="rId9" xr:uid="{606ACE81-A91B-4D0C-8BF4-CA0E20B51DE2}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{F802F9F2-F856-4426-A074-F1AD7AFF3C7D}"/>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="G3" r:id="rId8"/>
+    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="G21" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10897,168 +11829,168 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
       </c>
       <c r="C4">
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
         <v>132</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>133</v>
       </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" t="s">
         <v>235</v>
       </c>
-      <c r="D21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -11068,12 +12000,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -11082,12 +12014,12 @@
         <v>40</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -11096,34 +12028,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>94</v>
       </c>
       <c r="B29" s="21">
         <v>0.04</v>
@@ -11143,9 +12075,9 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -11158,7 +12090,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>200</v>
       </c>
@@ -11172,17 +12104,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{39CBACE1-ACE8-43A9-BD03-1EA92D50704A}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D24" r:id="rId3"/>
+    <hyperlink ref="D23" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -11192,108 +12124,108 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="70"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B4">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
       </c>
       <c r="B12" s="21">
         <v>0.04</v>
@@ -11313,9 +12245,9 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -11328,7 +12260,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>200</v>
       </c>
@@ -11340,14 +12272,14 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\CBOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C871A3-868B-484C-8D1C-8B1F7E15B350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -23,9 +24,10 @@
     <sheet name="CNC lathe" sheetId="4" r:id="rId9"/>
     <sheet name="Laser cutter" sheetId="5" r:id="rId10"/>
     <sheet name="Welding" sheetId="10" r:id="rId11"/>
-    <sheet name="Material" sheetId="2" r:id="rId12"/>
+    <sheet name="Conventionnal machinning" sheetId="15" r:id="rId12"/>
+    <sheet name="Material" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="531">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -249,9 +251,6 @@
     <t>Base OPE</t>
   </si>
   <si>
-    <t>Water rate</t>
-  </si>
-  <si>
     <t xml:space="preserve">VF-3SSYT </t>
   </si>
   <si>
@@ -927,15 +926,9 @@
     <t>Required  (hrs)</t>
   </si>
   <si>
-    <t>Fixed cost (10% of the time)</t>
-  </si>
-  <si>
     <t>Variable cost for 1 op (€/hour)</t>
   </si>
   <si>
-    <t>Manwork availability (90%) /year (hrs)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shopfloor allocation </t>
   </si>
   <si>
@@ -954,9 +947,6 @@
     <t>Manwork</t>
   </si>
   <si>
-    <t>10% of manwork OPE</t>
-  </si>
-  <si>
     <t>Maintenance manwork</t>
   </si>
   <si>
@@ -1122,9 +1112,6 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Sum of fixed cost/year</t>
-  </si>
-  <si>
     <t>Worktable &amp; office storage</t>
   </si>
   <si>
@@ -1591,20 +1578,77 @@
   </si>
   <si>
     <t>Cost of steel welding part (€/m)</t>
+  </si>
+  <si>
+    <t>Conventionnal milling machine</t>
+  </si>
+  <si>
+    <t>https://www.machineseeker.fr/mss/schaublin+13</t>
+  </si>
+  <si>
+    <t>https://www.surplex.com/fr/vente/c/tours-paralleles-4340.html</t>
+  </si>
+  <si>
+    <t>Convetionnal mill and basic tooling</t>
+  </si>
+  <si>
+    <t>Conventionnal Lathe and basic tooling</t>
+  </si>
+  <si>
+    <t>Price Exc VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conventionnal turning machine </t>
+  </si>
+  <si>
+    <t>3 % of initial cost /year</t>
+  </si>
+  <si>
+    <t>Water rate/m^3</t>
+  </si>
+  <si>
+    <t>Removal rate (include measuring) (min/mm^3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutting tools </t>
+  </si>
+  <si>
+    <t>Sum of fixed cost/year (with +5% extra equipment)</t>
+  </si>
+  <si>
+    <t>Welder + Grade II C</t>
+  </si>
+  <si>
+    <t>Welder - Grade II C</t>
+  </si>
+  <si>
+    <t>Welder cost/hour</t>
+  </si>
+  <si>
+    <t>Manwork availability (95%) /year (hrs)</t>
+  </si>
+  <si>
+    <t>10% of manwork OPE on shopfloor</t>
+  </si>
+  <si>
+    <t>Fixed cost (5% of the time)</t>
+  </si>
+  <si>
+    <t>Tool holders and fixtures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1919,9 +1963,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1980,10 +2024,10 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,25 +2187,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,31 +2202,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2212,6 +2220,62 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2590,7 +2654,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2598,6 +2661,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2957,7 +3021,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2965,6 +3028,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3312,7 +3376,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3320,6 +3383,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5431,75 +5495,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R87" sqref="P85:R87"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.88671875" customWidth="1"/>
-    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="45"/>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="L1" s="126" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
+      <c r="L1" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
-      <c r="U1" s="127" t="s">
+      <c r="U1" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="Y1" s="129" t="s">
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="Y1" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-    </row>
-    <row r="2" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+    </row>
+    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>34</v>
       </c>
@@ -5510,7 +5574,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>34</v>
@@ -5522,10 +5586,10 @@
         <v>18</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>16</v>
@@ -5535,19 +5599,19 @@
         <v>17</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>16</v>
@@ -5568,7 +5632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>61</v>
       </c>
@@ -5584,7 +5648,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H3" s="23">
         <f>SUM(Metrology!E14:E17)</f>
@@ -5597,15 +5661,15 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="130" t="s">
+      <c r="L3" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="130"/>
+      <c r="M3" s="118"/>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q3" s="22">
         <f>'CNC mill'!B22</f>
@@ -5628,7 +5692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="50" t="s">
         <v>62</v>
@@ -5640,7 +5704,7 @@
       <c r="D4" s="51"/>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H4" s="23">
         <f>SUM(Metrology!E18:E19)</f>
@@ -5654,16 +5718,16 @@
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M4" s="9">
         <v>22.4</v>
       </c>
       <c r="N4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="22">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
@@ -5684,19 +5748,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="51">
-        <f>'Manpower &amp; time'!C7</f>
+        <f>'Manpower &amp; time'!C8</f>
         <v>69843</v>
       </c>
       <c r="D5" s="51"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" s="23">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
@@ -5710,17 +5774,17 @@
         <v>127.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M5" s="37">
         <f>C10</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="22">
         <f>'CNC mill'!B24</f>
@@ -5740,7 +5804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="50" t="s">
         <v>64</v>
@@ -5766,7 +5830,7 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M6" s="9">
         <v>5</v>
@@ -5775,10 +5839,10 @@
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="22">
         <f>0.05*Q3</f>
@@ -5796,20 +5860,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="50">
         <v>5</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H7" s="23">
         <f>SUM(Metrology!E10:E12)</f>
@@ -5823,7 +5887,7 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M7" s="41">
         <f>1/10000</f>
@@ -5833,10 +5897,10 @@
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="31">
         <f>M4*0.8*C14</f>
@@ -5844,7 +5908,7 @@
       </c>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>65</v>
       </c>
@@ -5856,7 +5920,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H8" s="23">
         <f>2*Metrology!E21</f>
@@ -5870,36 +5934,36 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M8" s="41">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="27">
-        <f>'Manpower &amp; time'!B16</f>
+        <f>'Manpower &amp; time'!B17</f>
         <v>45.6</v>
       </c>
       <c r="D9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="22">
         <f>Metrology!E25</f>
@@ -5913,36 +5977,36 @@
         <v>539</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M9" s="41">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q9" s="2">
         <v>20</v>
       </c>
       <c r="U9" s="14"/>
     </row>
-    <row r="10" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="26">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>39</v>
@@ -5952,19 +6016,19 @@
       </c>
       <c r="J10" s="23"/>
       <c r="L10" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M10" s="18">
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="22">
         <f>1*'CNC mill'!F31</f>
@@ -5982,31 +6046,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="26">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="29" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="L11" s="125" t="s">
+      <c r="L11" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="125"/>
+      <c r="M11" s="123"/>
       <c r="N11" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="2">
         <f>'CNC lathe'!B2</f>
@@ -6026,14 +6090,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" s="38">
         <f>C9*C8*C10*C7</f>
-        <v>5985</v>
+        <v>6384.0000000000009</v>
       </c>
       <c r="D12" s="26"/>
       <c r="F12" s="5"/>
@@ -6043,16 +6107,16 @@
       <c r="I12" s="34"/>
       <c r="J12" s="23"/>
       <c r="L12" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M12" s="10">
         <v>29.8</v>
       </c>
       <c r="N12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="22">
         <f>12*'CNC lathe'!B6+6*'CNC lathe'!B7</f>
@@ -6070,12 +6134,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="22">
         <f>Energies!B6</f>
@@ -6094,17 +6158,17 @@
         <v>0</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M13" s="42">
         <f>C10</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N13" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="22">
         <f>'CNC lathe'!B8*30</f>
@@ -6118,10 +6182,10 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="31">
         <f>Energies!B7</f>
@@ -6130,7 +6194,7 @@
       <c r="D14" s="34"/>
       <c r="F14" s="5"/>
       <c r="G14" s="40" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H14" s="22">
         <f>Energies!B6</f>
@@ -6144,7 +6208,7 @@
         <v>2874.8160000000003</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M14" s="10">
         <v>5</v>
@@ -6153,10 +6217,10 @@
         <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="2">
         <f>0.05*Q11</f>
@@ -6170,14 +6234,18 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>520</v>
+      </c>
+      <c r="C15" s="22">
+        <f>Energies!C10</f>
+        <v>2.2160000000000002</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="40" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H15" s="2">
         <f>16*C8*C9*C14</f>
@@ -6191,7 +6259,7 @@
         <v>1999.4687999999999</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M15" s="43">
         <f>1/10000</f>
@@ -6201,29 +6269,29 @@
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q15" s="31">
         <f>M12*0.8*C14</f>
         <v>1.8666720000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="34">
         <v>1.12964</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H16" s="2">
         <f>Energies!C10*60</f>
@@ -6237,7 +6305,7 @@
         <v>132.96</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M16" s="43">
         <f>M15*0.5</f>
@@ -6247,10 +6315,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="26">
         <v>0.2</v>
@@ -6268,38 +6336,38 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M17" s="43">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="22">
         <f>C6</f>
@@ -6313,19 +6381,19 @@
         <v>39809</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M18" s="10">
         <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q18" s="22">
         <f>'CNC lathe'!F14</f>
@@ -6339,10 +6407,10 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H19" s="22">
         <f>C5*0.4</f>
@@ -6355,15 +6423,15 @@
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="L19" s="131" t="s">
+      <c r="L19" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="131"/>
+      <c r="M19" s="119"/>
       <c r="N19" t="s">
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="22">
         <f>'Laser cutter'!G4</f>
@@ -6377,24 +6445,24 @@
         <v>18501.026875818847</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>528</v>
       </c>
       <c r="H20" s="22">
-        <f>'Manpower &amp; time'!G8</f>
-        <v>20702.78</v>
+        <f>'Manpower &amp; time'!G9</f>
+        <v>10868.89</v>
       </c>
       <c r="I20" s="34">
         <v>1</v>
       </c>
       <c r="J20" s="23">
         <f t="shared" si="0"/>
-        <v>20702.78</v>
+        <v>10868.89</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M20" s="11">
         <v>7.5</v>
@@ -6403,10 +6471,10 @@
         <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="22">
         <f>0.05*Q19</f>
@@ -6420,44 +6488,44 @@
         <v>9250.5134379094234</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H21" s="22">
-        <f>'Manpower &amp; time'!B30</f>
-        <v>13716.36</v>
+        <f>'Manpower &amp; time'!B32</f>
+        <v>13108.788</v>
       </c>
       <c r="I21" s="34">
         <v>1</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="0"/>
-        <v>13716.36</v>
+        <v>13108.788</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M21" s="90">
         <f>C10</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N21" t="s">
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q21" s="31">
         <f>M20*0.8*C14</f>
         <v>0.4698</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
         <v>43</v>
       </c>
@@ -6476,29 +6544,29 @@
         <v>959.37599999999998</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M22" s="11">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="22">
         <f>'Laser cutter'!G5/20</f>
         <v>5.0728</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F23" s="7"/>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H23" s="22">
         <f>IT!D5</f>
@@ -6512,7 +6580,7 @@
         <v>38.591999999999999</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M23" s="91">
         <v>4.4999999999999999E-4</v>
@@ -6524,10 +6592,10 @@
       <c r="R23" s="61"/>
       <c r="S23" s="61"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H24" s="22">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
@@ -6541,7 +6609,7 @@
         <v>277.54199999999997</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M24" s="91">
         <f>M23*0.5</f>
@@ -6554,10 +6622,10 @@
       <c r="R24" s="61"/>
       <c r="S24" s="88"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H25" s="22">
         <f>IT!D3*12*3</f>
@@ -6571,7 +6639,7 @@
         <v>316.8</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M25" s="91">
         <f>M23*0.4</f>
@@ -6584,10 +6652,10 @@
       <c r="R25" s="89"/>
       <c r="S25" s="89"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H26" s="22">
         <f>IT!D2*2</f>
@@ -6601,13 +6669,13 @@
         <v>796.80000000000007</v>
       </c>
       <c r="L26" s="92" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M26" s="92">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F27" s="7"/>
       <c r="G27" t="s">
         <v>45</v>
@@ -6628,10 +6696,10 @@
       </c>
       <c r="M27" s="9"/>
       <c r="N27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q27" s="22">
         <f>Welding!F2+Welding!F3</f>
@@ -6645,10 +6713,10 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
       <c r="G28" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H28" s="22">
         <f>IT!D23+IT!D22</f>
@@ -6662,14 +6730,14 @@
         <v>76.2</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" t="s">
         <v>49</v>
       </c>
       <c r="O28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="22">
         <f>Welding!F4</f>
@@ -6683,9 +6751,9 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G29" t="s">
         <v>48</v>
@@ -6701,16 +6769,17 @@
         <v>200</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M29" s="37">
-        <v>0.75</v>
+        <f>C10</f>
+        <v>0.8</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="22">
         <f>Welding!F6</f>
@@ -6724,10 +6793,10 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
       <c r="G30" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H30" s="22">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -6741,7 +6810,7 @@
         <v>1055</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M30" s="107">
         <f>Welding!B32</f>
@@ -6751,7 +6820,7 @@
         <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q30" s="22">
         <f>Welding!F6+Welding!F7</f>
@@ -6765,12 +6834,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H31" s="22">
         <f>SUM(Manufacturing!F2:F7)+Manufacturing!F8*4</f>
@@ -6786,10 +6855,10 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q31" s="22">
         <f>Welding!F5</f>
@@ -6803,10 +6872,10 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H32" s="22">
         <f>Manufacturing!F32</f>
@@ -6825,10 +6894,10 @@
         <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q32" s="22">
         <f>0.03*(Q27+Q28)</f>
@@ -6842,10 +6911,10 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H33" s="22">
         <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
@@ -6864,16 +6933,16 @@
         <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H34" s="22">
         <f>0.5*H33</f>
@@ -6889,23 +6958,23 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" t="s">
-        <v>512</v>
-      </c>
-      <c r="O34" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="P34" s="112" t="s">
-        <v>511</v>
+        <v>507</v>
+      </c>
+      <c r="O34" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" s="132" t="s">
+        <v>506</v>
       </c>
       <c r="Q34" s="22">
         <f>Welding!B29</f>
         <v>8.5247116655159064E-2</v>
       </c>
     </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H35" s="22">
         <v>4000</v>
@@ -6920,19 +6989,19 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" t="s">
-        <v>513</v>
-      </c>
-      <c r="O35" s="111"/>
-      <c r="P35" s="112"/>
+        <v>508</v>
+      </c>
+      <c r="O35" s="131"/>
+      <c r="P35" s="132"/>
       <c r="Q35" s="22">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
       </c>
     </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H36" s="22">
         <v>3000</v>
@@ -6944,24 +7013,26 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
       <c r="N36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q36" s="22">
         <f>Welding!B17</f>
         <v>14.354066985645932</v>
       </c>
     </row>
-    <row r="37" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F37" s="5"/>
       <c r="G37" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H37" s="22">
         <f>Manufacturing!F23</f>
@@ -6974,8 +7045,29 @@
         <f t="shared" si="0"/>
         <v>230.25700000000001</v>
       </c>
-    </row>
-    <row r="38" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L37" s="123" t="s">
+        <v>440</v>
+      </c>
+      <c r="M37" s="123"/>
+      <c r="N37" t="s">
+        <v>512</v>
+      </c>
+      <c r="O37" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>'Conventionnal machinning'!B2</f>
+        <v>15000</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37" s="22">
+        <f>Q37/R37</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F38" s="5"/>
       <c r="G38" t="s">
         <v>53</v>
@@ -6991,20 +7083,34 @@
         <f t="shared" si="0"/>
         <v>706.69499999999994</v>
       </c>
-      <c r="L38" s="85" t="s">
-        <v>359</v>
-      </c>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="87"/>
-    </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L38" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" s="109">
+        <v>10</v>
+      </c>
+      <c r="N38" t="s">
+        <v>518</v>
+      </c>
+      <c r="O38" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q38" s="22">
+        <f>'Conventionnal machinning'!B4</f>
+        <v>10000</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38" s="22">
+        <f>Q38/R38</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="G39" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H39" s="22">
         <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
@@ -7017,25 +7123,34 @@
         <f t="shared" si="0"/>
         <v>711.01300000000003</v>
       </c>
-      <c r="L39" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="114"/>
-      <c r="N39" s="115" t="s">
-        <v>328</v>
-      </c>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
-      <c r="R39" s="71">
-        <f>SUM(S3:S6)+S10</f>
-        <v>17591.025600000001</v>
-      </c>
-    </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L39" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="M39" s="42">
+        <v>0.44</v>
+      </c>
+      <c r="N39" t="s">
+        <v>530</v>
+      </c>
+      <c r="O39" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q39" s="22">
+        <f>(Q5+Q4+Q12+Q13)*0.25</f>
+        <v>7625</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39" s="22">
+        <f t="shared" ref="S39:S40" si="5">Q39/R39</f>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="G40" s="40" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H40" s="22">
         <f>Manufacturing!F17</f>
@@ -7048,23 +7163,37 @@
         <f>H40/I40</f>
         <v>1299.9000000000001</v>
       </c>
-      <c r="L40" s="79"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="74">
-        <f>R39/(M5*C8*C9)+J46</f>
-        <v>29.583452887875005</v>
-      </c>
-    </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L40" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="M40" s="109">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>0.03*(Q38+Q37)</f>
+        <v>750</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40" s="22">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="G41" s="40" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H41" s="22">
         <f>15*C14*C8*C9</f>
@@ -7077,23 +7206,31 @@
         <f>H41/I41</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L41" s="81"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="O41" s="109"/>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="74">
-        <f>R40+Q9+Q7</f>
-        <v>50.986588887875001</v>
-      </c>
-    </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L41" s="109" t="s">
+        <v>521</v>
+      </c>
+      <c r="M41" s="43">
+        <f>2*1/10000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" t="s">
+        <v>245</v>
+      </c>
+      <c r="P41" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q41" s="31">
+        <f>M38*0.8*C14</f>
+        <v>0.62639999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
       <c r="G42" s="40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H42" s="22">
         <f>Manufacturing!F34</f>
@@ -7106,684 +7243,855 @@
         <f>H42/I42</f>
         <v>107.5</v>
       </c>
-      <c r="L42" s="81"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="109"/>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="94"/>
-    </row>
-    <row r="43" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="M42" s="109">
+        <v>10</v>
+      </c>
+      <c r="N42" t="s">
+        <v>522</v>
+      </c>
+      <c r="O42" t="s">
+        <v>245</v>
+      </c>
+      <c r="P42" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F43" s="61"/>
       <c r="G43" s="40"/>
       <c r="J43" s="23"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="109" t="s">
+    </row>
+    <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="128" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="130"/>
+      <c r="L44" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="87"/>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F45" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="120" t="s">
+        <v>523</v>
+      </c>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="56">
+        <f>SUM(J3:J42)*1.05</f>
+        <v>126190.92341598139</v>
+      </c>
+      <c r="L45" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="127"/>
+      <c r="N45" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="71">
+        <f>SUM(S3:S6)+S10</f>
+        <v>17591.025600000001</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="65"/>
+      <c r="G46" s="121" t="s">
         <v>315</v>
       </c>
-      <c r="O43" s="109"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="95">
-        <f>('Manpower &amp; time'!H5+R41)*M7/60</f>
-        <v>1.0730012099524699E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="119" t="s">
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="66">
+        <f>J45/SUM('Manpower &amp; time'!B28:I28)</f>
+        <v>13.5388689420449</v>
+      </c>
+      <c r="L46" s="79"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="74">
+        <f>R45/(M5*C8*C9)+J46</f>
+        <v>27.316301272871968</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F47" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" s="120" t="s">
         <v>359</v>
       </c>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="121"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="109" t="s">
-        <v>318</v>
-      </c>
-      <c r="O44" s="109"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="95">
-        <f>('Manpower &amp; time'!H5)*M8/60</f>
-        <v>1.1161236424394321E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F45" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="G45" s="123" t="s">
-        <v>360</v>
-      </c>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="56">
-        <f>SUM(J3:J42)</f>
-        <v>130623.29382474418</v>
-      </c>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="109" t="s">
-        <v>316</v>
-      </c>
-      <c r="O45" s="109"/>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="95">
-        <f>('Manpower &amp; time'!H6)*M8/60</f>
-        <v>2.0785818713450294E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F46" s="65"/>
-      <c r="G46" s="122" t="s">
-        <v>319</v>
-      </c>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="66">
-        <f>J45/SUM('Manpower &amp; time'!B26:I26)</f>
-        <v>14.887525068326132</v>
-      </c>
-      <c r="L46" s="81"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="109" t="s">
-        <v>317</v>
-      </c>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="95">
-        <f>('Manpower &amp; time'!H7)*M8/60</f>
-        <v>3.6467731829573939E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F47" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="G47" s="123" t="s">
-        <v>364</v>
-      </c>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
       <c r="J47" s="67">
         <f>'Manpower &amp; time'!H5</f>
-        <v>13.393483709273186</v>
+        <v>12.68856351404828</v>
       </c>
       <c r="L47" s="81"/>
       <c r="M47" s="82"/>
-      <c r="N47" s="109" t="s">
-        <v>366</v>
-      </c>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="95">
-        <f>('Manpower &amp; time'!H5)*M$9/60</f>
-        <v>8.9289891395154577E-6</v>
-      </c>
-    </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="N47" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="74">
+        <f>R46+Q9+Q7</f>
+        <v>48.719437272871964</v>
+      </c>
+    </row>
+    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F48" s="64"/>
-      <c r="G48" s="122" t="s">
-        <v>375</v>
-      </c>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
+      <c r="G48" s="121" t="s">
+        <v>370</v>
+      </c>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
       <c r="J48" s="68">
         <f>'Manpower &amp; time'!H6</f>
-        <v>24.942982456140353</v>
+        <v>23.630193905817173</v>
       </c>
       <c r="L48" s="81"/>
       <c r="M48" s="82"/>
-      <c r="N48" s="109" t="s">
-        <v>367</v>
-      </c>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="95">
-        <f>('Manpower &amp; time'!H6)*M$9/60</f>
-        <v>1.6628654970760235E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F49" s="57"/>
-      <c r="G49" s="124" t="s">
-        <v>365</v>
-      </c>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="69">
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="94"/>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F49" s="64"/>
+      <c r="G49" s="121" t="s">
+        <v>526</v>
+      </c>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="68">
         <f>'Manpower &amp; time'!H7</f>
-        <v>43.761278195488728</v>
+        <v>29.773842500989314</v>
       </c>
       <c r="L49" s="81"/>
       <c r="M49" s="82"/>
-      <c r="N49" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="109"/>
+      <c r="N49" s="110" t="s">
+        <v>311</v>
+      </c>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
       <c r="R49" s="95">
-        <f>('Manpower &amp; time'!H7)*M$9/60</f>
-        <v>2.9174185463659156E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J50" s="51"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="84"/>
+        <f>('Manpower &amp; time'!H5+R47)*M7/60</f>
+        <v>1.0234666797820041E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="57"/>
+      <c r="G50" s="122" t="s">
+        <v>360</v>
+      </c>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="69">
+        <f>'Manpower &amp; time'!H8</f>
+        <v>41.458053027305105</v>
+      </c>
+      <c r="L50" s="81"/>
+      <c r="M50" s="82"/>
       <c r="N50" s="110" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="O50" s="110"/>
       <c r="P50" s="110"/>
       <c r="Q50" s="110"/>
-      <c r="R50" s="96">
-        <f>('Manpower &amp; time'!H5+R40)*(M10+M6)/60</f>
-        <v>17.90705691547841</v>
-      </c>
-    </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="R50" s="95">
+        <f>('Manpower &amp; time'!H5)*M8/60</f>
+        <v>1.0573802928373568E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J51" s="51"/>
-      <c r="L51" s="116" t="s">
+      <c r="L51" s="81"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="110" t="s">
+        <v>312</v>
+      </c>
+      <c r="O51" s="110"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="110"/>
+      <c r="R51" s="95">
+        <f>('Manpower &amp; time'!H6)*M8/60</f>
+        <v>1.9691828254847643E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J52" s="51"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="110" t="s">
+        <v>313</v>
+      </c>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="95">
+        <f>('Manpower &amp; time'!H8)*M8/60</f>
+        <v>3.4548377522754257E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J53" s="51"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="110" t="s">
+        <v>361</v>
+      </c>
+      <c r="O53" s="110"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="95">
+        <f>('Manpower &amp; time'!H5)*M$9/60</f>
+        <v>8.4590423426988525E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J54" s="51"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="110" t="s">
+        <v>362</v>
+      </c>
+      <c r="O54" s="110"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="110"/>
+      <c r="R54" s="95">
+        <f>('Manpower &amp; time'!H6)*M$9/60</f>
+        <v>1.5753462603878117E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J55" s="51"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="95">
+        <f>('Manpower &amp; time'!H8)*M$9/60</f>
+        <v>2.7638702018203404E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="83"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="O56" s="111"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="96">
+        <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
+        <v>16.668693661216771</v>
+      </c>
+    </row>
+    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J57" s="27"/>
+      <c r="L57" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="117"/>
-      <c r="N51" s="115" t="s">
-        <v>328</v>
-      </c>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="71">
+      <c r="M57" s="113"/>
+      <c r="N57" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="O57" s="114"/>
+      <c r="P57" s="114"/>
+      <c r="Q57" s="114"/>
+      <c r="R57" s="71">
         <f>SUM(S11:S14)+S18</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="J52" s="51"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="O52" s="109"/>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="74">
-        <f>R51/(M13*C8*C9)+J46</f>
-        <v>34.123970849445598</v>
-      </c>
-    </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="J53" s="51"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="74">
-        <f>R52+Q17+Q15</f>
-        <v>45.990642849445599</v>
-      </c>
-    </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="J54" s="51"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="94"/>
-    </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="L55" s="75"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="109" t="s">
-        <v>315</v>
-      </c>
-      <c r="O55" s="109"/>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="95">
-        <f>(J47+R53)*M15/60</f>
-        <v>9.8973544264531314E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="J56" s="27"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="109" t="s">
-        <v>318</v>
-      </c>
-      <c r="O56" s="109"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="95">
-        <f>(J47)*M$16/60</f>
-        <v>1.1161236424394321E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="J57" s="26"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="109" t="s">
-        <v>316</v>
-      </c>
-      <c r="O57" s="109"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="95">
-        <f>(J48)*M$16/60</f>
-        <v>2.0785818713450294E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J58" s="26"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="109" t="s">
-        <v>317</v>
-      </c>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="95">
-        <f>(J49)*M$16/60</f>
-        <v>3.6467731829573939E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="L58" s="72"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="74">
+        <f>R57/(M13*C8*C9)+J46</f>
+        <v>31.5730368618444</v>
+      </c>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J59" s="26"/>
       <c r="L59" s="75"/>
       <c r="M59" s="76"/>
-      <c r="N59" s="109" t="s">
-        <v>366</v>
-      </c>
-      <c r="O59" s="109"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="109"/>
-      <c r="R59" s="95">
-        <f>(J47)*M$17/60</f>
-        <v>8.9289891395154577E-6</v>
-      </c>
-    </row>
-    <row r="60" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="J60" s="22"/>
+      <c r="N59" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="O59" s="110"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="110"/>
+      <c r="R59" s="74">
+        <f>R58+Q17+Q15</f>
+        <v>43.439708861844402</v>
+      </c>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J60" s="26"/>
       <c r="L60" s="75"/>
       <c r="M60" s="76"/>
-      <c r="N60" s="109" t="s">
-        <v>367</v>
-      </c>
-      <c r="O60" s="109"/>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="95">
-        <f>(J48)*M$17/60</f>
-        <v>1.6628654970760235E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="N60" s="110"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="94"/>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J61" s="22"/>
       <c r="L61" s="75"/>
       <c r="M61" s="76"/>
-      <c r="N61" s="109" t="s">
-        <v>368</v>
-      </c>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
+      <c r="N61" s="110" t="s">
+        <v>311</v>
+      </c>
+      <c r="O61" s="110"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
       <c r="R61" s="95">
-        <f>(J49)*M$17/60</f>
-        <v>2.9174185463659156E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="6:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L62" s="77"/>
-      <c r="M62" s="78"/>
+        <f>(J47+R59)*M15/60</f>
+        <v>9.3547120626487793E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L62" s="75"/>
+      <c r="M62" s="76"/>
       <c r="N62" s="110" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="O62" s="110"/>
       <c r="P62" s="110"/>
       <c r="Q62" s="110"/>
-      <c r="R62" s="96">
-        <f>(J47+R52)*(M14+M18)/60</f>
-        <v>15.839151519572928</v>
-      </c>
-    </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="L63" s="116" t="s">
-        <v>460</v>
-      </c>
-      <c r="M63" s="117"/>
-      <c r="N63" s="115" t="s">
-        <v>328</v>
-      </c>
-      <c r="O63" s="115"/>
-      <c r="P63" s="115"/>
-      <c r="Q63" s="115"/>
-      <c r="R63" s="71">
+      <c r="R62" s="95">
+        <f>(J47)*M$16/60</f>
+        <v>1.0573802928373568E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L63" s="75"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="110" t="s">
+        <v>312</v>
+      </c>
+      <c r="O63" s="110"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="110"/>
+      <c r="R63" s="95">
+        <f>(J48)*M$16/60</f>
+        <v>1.9691828254847643E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L64" s="75"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="110" t="s">
+        <v>313</v>
+      </c>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="95">
+        <f>(J50)*M$16/60</f>
+        <v>3.4548377522754257E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J65" s="26"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="110" t="s">
+        <v>361</v>
+      </c>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="95">
+        <f>(J47)*M$17/60</f>
+        <v>8.4590423426988525E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L66" s="75"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="110" t="s">
+        <v>362</v>
+      </c>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="95">
+        <f>(J48)*M$17/60</f>
+        <v>1.5753462603878117E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F67" s="40"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="O67" s="110"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
+      <c r="R67" s="95">
+        <f>(J50)*M$17/60</f>
+        <v>2.7638702018203404E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="77"/>
+      <c r="M68" s="78"/>
+      <c r="N68" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="O68" s="111"/>
+      <c r="P68" s="111"/>
+      <c r="Q68" s="111"/>
+      <c r="R68" s="96">
+        <f>(J47+R58)*(M14+M18)/60</f>
+        <v>14.753866791964226</v>
+      </c>
+    </row>
+    <row r="69" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L69" s="134" t="s">
+        <v>455</v>
+      </c>
+      <c r="M69" s="135"/>
+      <c r="N69" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="71">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="J64" s="26"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="O64" s="109"/>
-      <c r="P64" s="109"/>
-      <c r="Q64" s="109"/>
-      <c r="R64" s="74">
-        <f>R63/(M21*C8*C9)+J46</f>
-        <v>38.071769273612908</v>
-      </c>
-    </row>
-    <row r="65" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L65" s="75"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="O65" s="109"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="109"/>
-      <c r="R65" s="74">
-        <f>R64+Q21+Q22</f>
-        <v>43.614369273612908</v>
-      </c>
-    </row>
-    <row r="66" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F66" s="40"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="109"/>
-      <c r="O66" s="109"/>
-      <c r="P66" s="109"/>
-      <c r="Q66" s="109"/>
-      <c r="R66" s="94"/>
-    </row>
-    <row r="67" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L67" s="75"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="109" t="s">
-        <v>463</v>
-      </c>
-      <c r="O67" s="109"/>
-      <c r="P67" s="109"/>
-      <c r="Q67" s="109"/>
-      <c r="R67" s="95">
-        <f>(J47*0.5+R65)*M23/60</f>
-        <v>3.7733333346187128E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L68" s="75"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="109" t="s">
-        <v>464</v>
-      </c>
-      <c r="O68" s="109"/>
-      <c r="P68" s="109"/>
-      <c r="Q68" s="109"/>
-      <c r="R68" s="95">
-        <f>(J47)*M$24/60</f>
-        <v>5.0225563909774447E-5</v>
-      </c>
-    </row>
-    <row r="69" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L69" s="75"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="109" t="s">
-        <v>465</v>
-      </c>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="95">
-        <f>(J48)*M$24/60</f>
-        <v>9.3536184210526329E-5</v>
-      </c>
-    </row>
-    <row r="70" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L70" s="75"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="109"/>
-      <c r="O70" s="109"/>
-      <c r="P70" s="109"/>
-      <c r="Q70" s="109"/>
-      <c r="R70" s="95"/>
-    </row>
-    <row r="71" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L71" s="75"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="109" t="s">
-        <v>466</v>
-      </c>
-      <c r="O71" s="109"/>
-      <c r="P71" s="109"/>
-      <c r="Q71" s="109"/>
-      <c r="R71" s="95">
-        <f>(J47)*M$25/60</f>
-        <v>4.0180451127819561E-5</v>
-      </c>
-    </row>
-    <row r="72" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L72" s="75"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="109" t="s">
-        <v>467</v>
-      </c>
-      <c r="O72" s="109"/>
-      <c r="P72" s="109"/>
-      <c r="Q72" s="109"/>
-      <c r="R72" s="95">
-        <f>(J48)*M$25/60</f>
-        <v>7.4828947368421053E-5</v>
-      </c>
-    </row>
-    <row r="73" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L73" s="75"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="109"/>
-      <c r="O73" s="109"/>
-      <c r="P73" s="109"/>
-      <c r="Q73" s="109"/>
-      <c r="R73" s="95"/>
-    </row>
-    <row r="74" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L74" s="77"/>
-      <c r="M74" s="78"/>
+    <row r="70" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L70" s="136"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="O70" s="110"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="110"/>
+      <c r="R70" s="74">
+        <f>R69/(M21*C8*C9)+J46</f>
+        <v>35.274097884501252</v>
+      </c>
+    </row>
+    <row r="71" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L71" s="138"/>
+      <c r="M71" s="139"/>
+      <c r="N71" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="O71" s="110"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="74">
+        <f>R70+Q21+Q22</f>
+        <v>40.816697884501252</v>
+      </c>
+    </row>
+    <row r="72" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L72" s="138"/>
+      <c r="M72" s="139"/>
+      <c r="N72" s="110"/>
+      <c r="O72" s="110"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
+      <c r="R72" s="94"/>
+    </row>
+    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L73" s="138"/>
+      <c r="M73" s="139"/>
+      <c r="N73" s="110" t="s">
+        <v>458</v>
+      </c>
+      <c r="O73" s="110"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="110"/>
+      <c r="R73" s="95">
+        <f>(J47*0.5+R71)*M23/60</f>
+        <v>3.5370734731144049E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L74" s="138"/>
+      <c r="M74" s="139"/>
       <c r="N74" s="110" t="s">
-        <v>327</v>
+        <v>459</v>
       </c>
       <c r="O74" s="110"/>
       <c r="P74" s="110"/>
       <c r="Q74" s="110"/>
-      <c r="R74" s="96">
-        <f>(J47+R64)*(M26+M22)/60</f>
-        <v>12.866313245721523</v>
-      </c>
-    </row>
-    <row r="75" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L75" s="113" t="s">
+      <c r="R74" s="95">
+        <f>(J47)*M$24/60</f>
+        <v>4.7582113177681053E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L75" s="138"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="110" t="s">
+        <v>460</v>
+      </c>
+      <c r="O75" s="110"/>
+      <c r="P75" s="110"/>
+      <c r="Q75" s="110"/>
+      <c r="R75" s="95">
+        <f>(J48)*M$24/60</f>
+        <v>8.8613227146814392E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L76" s="138"/>
+      <c r="M76" s="139"/>
+      <c r="N76" s="110"/>
+      <c r="O76" s="110"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="110"/>
+      <c r="R76" s="95"/>
+    </row>
+    <row r="77" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L77" s="138"/>
+      <c r="M77" s="139"/>
+      <c r="N77" s="110" t="s">
+        <v>461</v>
+      </c>
+      <c r="O77" s="110"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
+      <c r="R77" s="95">
+        <f>(J47)*M$25/60</f>
+        <v>3.8065690542144844E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L78" s="138"/>
+      <c r="M78" s="139"/>
+      <c r="N78" s="110" t="s">
+        <v>462</v>
+      </c>
+      <c r="O78" s="110"/>
+      <c r="P78" s="110"/>
+      <c r="Q78" s="110"/>
+      <c r="R78" s="95">
+        <f>(J48)*M$25/60</f>
+        <v>7.0890581717451519E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L79" s="138"/>
+      <c r="M79" s="139"/>
+      <c r="N79" s="110"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="110"/>
+      <c r="R79" s="95"/>
+    </row>
+    <row r="80" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="140"/>
+      <c r="M80" s="141"/>
+      <c r="N80" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="O80" s="111"/>
+      <c r="P80" s="111"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="96">
+        <f>(J47+R70)*(M26+M22)/60</f>
+        <v>11.990665349637384</v>
+      </c>
+    </row>
+    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L81" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="M75" s="114"/>
-      <c r="N75" s="115" t="s">
-        <v>328</v>
-      </c>
-      <c r="O75" s="115"/>
-      <c r="P75" s="115"/>
-      <c r="Q75" s="115"/>
-      <c r="R75" s="105">
+      <c r="M81" s="127"/>
+      <c r="N81" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
+      <c r="R81" s="105">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
       </c>
     </row>
-    <row r="76" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L76" s="79"/>
-      <c r="M76" s="80"/>
-      <c r="N76" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="O76" s="109"/>
-      <c r="P76" s="109"/>
-      <c r="Q76" s="109"/>
-      <c r="R76" s="66">
-        <f>R75/(M29*C8*C9)+J46</f>
-        <v>16.706210114274334</v>
-      </c>
-    </row>
-    <row r="77" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L77" s="81"/>
-      <c r="M77" s="82"/>
-      <c r="N77" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="O77" s="109"/>
-      <c r="P77" s="109"/>
-      <c r="Q77" s="109"/>
-      <c r="R77" s="66">
-        <f>R76+Q33</f>
-        <v>16.706210114274334</v>
-      </c>
-    </row>
-    <row r="78" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L78" s="81"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
-      <c r="R78" s="103"/>
-    </row>
-    <row r="79" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L79" s="81"/>
-      <c r="M79" s="82"/>
-      <c r="N79" s="109" t="s">
-        <v>515</v>
-      </c>
-      <c r="O79" s="109"/>
-      <c r="P79" s="109"/>
-      <c r="Q79" s="109"/>
-      <c r="R79" s="106">
-        <f>Q34+Q36+(R77+J48)*M30/60</f>
-        <v>111.91982694594431</v>
-      </c>
-    </row>
-    <row r="80" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="L80" s="81"/>
-      <c r="M80" s="82"/>
-      <c r="N80" s="109" t="s">
-        <v>516</v>
-      </c>
-      <c r="O80" s="109"/>
-      <c r="P80" s="109"/>
-      <c r="Q80" s="109"/>
-      <c r="R80" s="66">
-        <f>Q35+Q36+(R77+J48)*M30/60</f>
-        <v>111.88476488697465</v>
-      </c>
-      <c r="S80" s="23"/>
-    </row>
-    <row r="81" spans="12:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L81" s="83"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="110"/>
-      <c r="O81" s="110"/>
-      <c r="P81" s="110"/>
-      <c r="Q81" s="110"/>
-      <c r="R81" s="104"/>
-    </row>
-    <row r="83" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="Q83" s="22"/>
-    </row>
-    <row r="85" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="Q85" s="23"/>
+    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L82" s="79"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="O82" s="110"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="110"/>
+      <c r="R82" s="66">
+        <f>R81/(M29*C8*C9)+J46</f>
+        <v>15.243886172621341</v>
+      </c>
+    </row>
+    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L83" s="81"/>
+      <c r="M83" s="82"/>
+      <c r="N83" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="O83" s="110"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="110"/>
+      <c r="R83" s="66">
+        <f>R82+Q33</f>
+        <v>15.243886172621341</v>
+      </c>
+    </row>
+    <row r="84" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L84" s="81"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="110"/>
+      <c r="O84" s="110"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
+      <c r="R84" s="103"/>
+    </row>
+    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L85" s="81"/>
+      <c r="M85" s="82"/>
+      <c r="N85" s="110" t="s">
+        <v>510</v>
+      </c>
+      <c r="O85" s="110"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="106">
+        <f>Q34+Q36+(R83+J49)*M30/60</f>
+        <v>119.8039324136965</v>
+      </c>
+    </row>
+    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L86" s="81"/>
+      <c r="M86" s="82"/>
+      <c r="N86" s="110" t="s">
+        <v>511</v>
+      </c>
+      <c r="O86" s="110"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
+      <c r="R86" s="66">
+        <f>Q35+Q36+(R83+J49)*M30/60</f>
+        <v>119.76887035472684</v>
+      </c>
+      <c r="S86" s="23"/>
+    </row>
+    <row r="87" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="83"/>
+      <c r="M87" s="84"/>
+      <c r="N87" s="111"/>
+      <c r="O87" s="111"/>
+      <c r="P87" s="111"/>
+      <c r="Q87" s="111"/>
+      <c r="R87" s="104"/>
+    </row>
+    <row r="88" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L88" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="M88" s="113"/>
+      <c r="N88" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="71">
+        <f>SUM(S37:S40)</f>
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L89" s="72"/>
+      <c r="M89" s="73"/>
+      <c r="N89" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="O89" s="110"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="110"/>
+      <c r="R89" s="74">
+        <f>R88/(M39*C8*C9)+J46</f>
+        <v>20.338538570661896</v>
+      </c>
+    </row>
+    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L90" s="75"/>
+      <c r="M90" s="76"/>
+      <c r="N90" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="O90" s="110"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="110"/>
+      <c r="R90" s="74">
+        <f>R89+Q42+Q41</f>
+        <v>30.964938570661896</v>
+      </c>
+    </row>
+    <row r="91" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L91" s="75"/>
+      <c r="M91" s="76"/>
+      <c r="N91" s="110"/>
+      <c r="O91" s="110"/>
+      <c r="P91" s="110"/>
+      <c r="Q91" s="110"/>
+      <c r="R91" s="94"/>
+    </row>
+    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L92" s="75"/>
+      <c r="M92" s="76"/>
+      <c r="N92" s="110" t="s">
+        <v>311</v>
+      </c>
+      <c r="O92" s="110"/>
+      <c r="P92" s="110"/>
+      <c r="Q92" s="110"/>
+      <c r="R92" s="95">
+        <f>(J47+R90)*M41/60</f>
+        <v>1.455116736157006E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="77"/>
+      <c r="M93" s="78"/>
+      <c r="N93" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="O93" s="111"/>
+      <c r="P93" s="111"/>
+      <c r="Q93" s="111"/>
+      <c r="R93" s="96">
+        <f>(J47+R89)*(M40+M42)/60</f>
+        <v>8.2567755211775449</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N74:Q74"/>
+  <mergeCells count="72">
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N85:Q85"/>
     <mergeCell ref="N67:Q67"/>
     <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N62:Q62"/>
     <mergeCell ref="N63:Q63"/>
     <mergeCell ref="N64:Q64"/>
     <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N74:Q74"/>
     <mergeCell ref="N75:Q75"/>
     <mergeCell ref="N76:Q76"/>
     <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N44:Q44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7791,7 +8099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -7801,49 +8109,49 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
         <v>224</v>
       </c>
-      <c r="G3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -7853,30 +8161,30 @@
         <v>185010.26875818847</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q4" t="s">
+        <v>444</v>
+      </c>
+      <c r="R4" t="s">
+        <v>446</v>
+      </c>
+      <c r="S4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>449</v>
       </c>
-      <c r="R4" t="s">
+      <c r="B5" t="s">
         <v>451</v>
       </c>
-      <c r="S4" t="s">
+      <c r="C5" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C5" t="s">
-        <v>457</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -7886,10 +8194,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -7906,9 +8214,9 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -7917,7 +8225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R7">
         <f>R6*S6/S7</f>
         <v>341.93548387096774</v>
@@ -7926,32 +8234,32 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R8">
         <f>R7/R5/3600</f>
         <v>4.4697448872021921</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -7968,9 +8276,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -7987,9 +8295,9 @@
         <v>1.7117425539198904E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -8006,9 +8314,9 @@
         <v>3.1496062992125983E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -8025,9 +8333,9 @@
         <v>4.5779161325764511E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -8044,9 +8352,9 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -8063,9 +8371,9 @@
         <v>6.672894701721607E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -8082,9 +8390,9 @@
         <v>7.874015748031496E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -8101,9 +8409,9 @@
         <v>1.3123359580052493E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -8120,12 +8428,12 @@
         <v>1.7117425539198907E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -8142,9 +8450,9 @@
         <v>5.0474459923278822E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -8161,9 +8469,9 @@
         <v>1.8226888305628464E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -8180,9 +8488,9 @@
         <v>5.3202809108320926E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -8199,9 +8507,9 @@
         <v>8.3766124979058477E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -8218,12 +8526,12 @@
         <v>1.6404199475065619E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -8240,9 +8548,9 @@
         <v>1.3123359580052493E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -8259,9 +8567,9 @@
         <v>3.2808398950131233E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -8280,9 +8588,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -8290,157 +8598,157 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
         <v>224</v>
       </c>
-      <c r="F1" t="s">
-        <v>225</v>
-      </c>
       <c r="G1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="2">
         <v>3859.6</v>
       </c>
-      <c r="G4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B12" s="97"/>
       <c r="C12" s="97" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="98" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B13" s="99">
         <v>200</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B14" s="98">
         <v>18</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B15" s="100">
         <f>B14*5/228</f>
@@ -8448,18 +8756,18 @@
       </c>
       <c r="C15" s="98"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="98" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B16" s="98">
         <v>5.5</v>
       </c>
       <c r="C16" s="98"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="98" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B17" s="101">
         <f>B15*B13/B16</f>
@@ -8468,40 +8776,40 @@
       <c r="C17" s="98"/>
       <c r="D17" s="22"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B19" s="97"/>
       <c r="C19" s="97" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="98" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B20" s="98">
         <v>12.8</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="98" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B21" s="98">
         <v>11</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="98" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B22" s="98">
         <f>PI()*0.04*0.04*100*7.8</f>
@@ -8509,9 +8817,9 @@
       </c>
       <c r="C22" s="98"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="98" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B23" s="99">
         <f>B20*B22/1000</f>
@@ -8519,40 +8827,40 @@
       </c>
       <c r="C23" s="98"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="97" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="98" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B26" s="98">
         <v>10.050000000000001</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="98" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B27" s="98">
         <v>2</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="98" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B28" s="98">
         <f>PI()*0.1*0.1*100*2.7</f>
@@ -8560,9 +8868,9 @@
       </c>
       <c r="C28" s="98"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B29" s="99">
         <f>B26*B28/1000</f>
@@ -8570,94 +8878,153 @@
       </c>
       <c r="C29" s="98"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="97"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="98" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B31" s="98"/>
       <c r="C31" s="97" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="98" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B32" s="108">
         <f>30/(2*PI()*0.034)</f>
         <v>140.43083213990764</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="98" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B33" s="101">
         <f>'Manpower &amp; time'!H6/60</f>
-        <v>0.41571637426900587</v>
+        <v>0.39383656509695286</v>
       </c>
       <c r="C33" s="98"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="98" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B34" s="101">
         <f>B33*B32</f>
-        <v>58.379396372781784</v>
+        <v>55.306796563687996</v>
       </c>
       <c r="C34" s="98"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
-    <hyperlink ref="C26" r:id="rId3"/>
-    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{A7CB420C-120D-4873-B0E6-A54279E786F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905929B2-E7E3-4D8E-80FB-E87BA576AB08}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{70D459D2-CA46-460D-8BCB-C766AE981AF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="22" width="14.44140625" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8671,7 +9038,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8715,7 +9082,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -8724,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -8733,7 +9100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -8796,7 +9163,7 @@
         <v>4.7646666666666666E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -8859,7 +9226,7 @@
         <v>4.7479999999999999E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -8922,7 +9289,7 @@
         <v>4.7380000000000004E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -8976,7 +9343,7 @@
         <v>4.7502222222222225E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -9023,7 +9390,7 @@
         <v>3.6720000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
@@ -9070,7 +9437,7 @@
         <v>3.2127777777777776E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
@@ -9117,7 +9484,7 @@
         <v>3.348687883863763E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -9155,7 +9522,7 @@
         <v>3.478250451663077E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
@@ -9180,7 +9547,7 @@
         <v>1.4970377000558874E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -9199,7 +9566,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -9217,7 +9584,7 @@
         <v>3.5986666666666665E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50</v>
       </c>
@@ -9238,10 +9605,10 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>8</v>
       </c>
@@ -9250,19 +9617,19 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N17">
         <v>5</v>
       </c>
@@ -9277,7 +9644,7 @@
         <v>1.6399325336188895E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N18">
         <v>10</v>
       </c>
@@ -9292,12 +9659,12 @@
         <v>1.1459155902616463E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -9313,15 +9680,15 @@
         <v>5.432488724203361E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -9340,7 +9707,7 @@
         <v>4.9986441385898987E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>10</v>
       </c>
@@ -9368,7 +9735,7 @@
         <v>4.4195091635435405E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -9390,7 +9757,7 @@
         <v>8.541824653028432E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -9406,7 +9773,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>25</v>
       </c>
@@ -9421,7 +9788,7 @@
         <v>5.3414945380729545E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>25</v>
       </c>
@@ -9436,7 +9803,7 @@
         <v>5.5538966161457841E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>30</v>
       </c>
@@ -9451,7 +9818,7 @@
         <v>4.5440504640992695E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>35</v>
       </c>
@@ -9466,7 +9833,7 @@
         <v>3.338486055256606E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -9475,76 +9842,76 @@
         <v>6.0986186998733781E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H31" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P32" t="s">
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10</v>
       </c>
@@ -9585,7 +9952,7 @@
         <v>2.9294456712851987E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>16</v>
       </c>
@@ -9626,7 +9993,7 @@
         <v>2.938000249476388E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>20</v>
       </c>
@@ -9667,7 +10034,7 @@
         <v>2.9416926441561197E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>40</v>
       </c>
@@ -9708,7 +10075,7 @@
         <v>2.7748664328071946E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>50</v>
       </c>
@@ -9743,7 +10110,7 @@
         <v>2.9404759930355956E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>60</v>
       </c>
@@ -9773,7 +10140,7 @@
         <v>2.7762590385592491E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>80</v>
       </c>
@@ -9797,7 +10164,7 @@
         <v>2.8834566715532905E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>8</v>
       </c>
@@ -9807,20 +10174,20 @@
       </c>
       <c r="K40" s="44"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B44" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -9837,7 +10204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -9855,43 +10222,43 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G48" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H49" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="I49" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B50" s="2">
         <v>86.4</v>
@@ -9905,7 +10272,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H50" s="31">
         <v>1.1000000000000001</v>
@@ -9919,9 +10286,9 @@
         <v>8.5470000000000013E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B51" s="2">
         <v>60</v>
@@ -9935,7 +10302,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H51" s="31">
         <v>2.5</v>
@@ -9949,9 +10316,9 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B52" s="2">
         <v>28.32</v>
@@ -9965,7 +10332,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H52" s="31">
         <v>2.5</v>
@@ -9979,9 +10346,9 @@
         <v>1.9425000000000001E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B53" s="2">
         <v>35.4</v>
@@ -9995,7 +10362,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H53" s="31">
         <v>18</v>
@@ -10009,9 +10376,9 @@
         <v>4.8600000000000002E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B54" s="2">
         <v>81.599999999999994</v>
@@ -10025,9 +10392,9 @@
         <v>9.7142857142857135E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -10041,9 +10408,9 @@
         <v>8.8888888888888893E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -10057,9 +10424,9 @@
         <v>2.5062656641604011E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B57" s="2">
         <v>46.2</v>
@@ -10073,9 +10440,9 @@
         <v>2.2211538461538464E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B58" s="2">
         <v>28</v>
@@ -10089,9 +10456,9 @@
         <v>2.0480672862977284E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B59" s="2">
         <v>35.700000000000003</v>
@@ -10105,9 +10472,9 @@
         <v>2.380198551973887E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -10123,11 +10490,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="S1" r:id="rId2"/>
-    <hyperlink ref="G30" r:id="rId3"/>
-    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4"/>
-    <hyperlink ref="A43" r:id="rId5"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="N30" r:id="rId4" location="/alliage-25cd4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="A43" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -10135,73 +10502,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>168</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -10217,17 +10584,17 @@
         <v>4</v>
       </c>
       <c r="G5" s="22">
-        <f>C5*0.1*F5</f>
-        <v>8550.4</v>
+        <f>C5*0.05*F5</f>
+        <v>4275.2</v>
       </c>
       <c r="H5" s="22">
-        <f>C5*0.9/$B$28</f>
-        <v>13.393483709273186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <f>C5*0.9/$B$30</f>
+        <v>12.68856351404828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -10236,425 +10603,463 @@
         <v>39809</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="0">C6*0.9</f>
+        <f t="shared" ref="D6:D8" si="0">C6*0.9</f>
         <v>35828.1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="22">
-        <f>C6*0.1*F6</f>
-        <v>7961.8</v>
+        <f t="shared" ref="G6:G8" si="1">C6*0.05*F6</f>
+        <v>1990.45</v>
       </c>
       <c r="H6" s="22">
-        <f>C6*0.9/$B$28</f>
-        <v>24.942982456140353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <f>C6*0.9/$B$30</f>
+        <v>23.630193905817173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>525</v>
       </c>
       <c r="B7" s="2">
-        <v>4104</v>
+        <v>3077</v>
       </c>
       <c r="C7" s="2">
-        <v>69843</v>
+        <v>50159</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
+        <v>45143.1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>2507.9500000000003</v>
+      </c>
+      <c r="H7" s="22">
+        <f>C7*0.9/$B$30</f>
+        <v>29.773842500989314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4104</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69843</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
         <v>62858.700000000004</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="22">
-        <f>C7*0.1*F7</f>
-        <v>4190.58</v>
-      </c>
-      <c r="H7" s="22">
-        <f>C7*0.9/$B$28</f>
-        <v>43.761278195488728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>2095.29</v>
+      </c>
+      <c r="H8" s="22">
+        <f>C8*0.9/$B$30</f>
+        <v>41.458053027305105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9">
+        <f>SUM(F8+F6+F5)</f>
+        <v>5.6</v>
+      </c>
+      <c r="G9" s="2">
+        <f>G8+G6+G5+G7</f>
+        <v>10868.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <f>B12-B13-B14-B15</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="27">
+        <f>B16/5</f>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>286</v>
       </c>
-      <c r="F8">
-        <f>SUM(F7+F6+F5)</f>
-        <v>6.6</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM(G7+G6+G5)</f>
-        <v>20702.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15">
-        <f>B11-B12-B13-B14</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="27">
-        <f>B15/5</f>
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>287</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22" t="s">
+        <v>440</v>
+      </c>
+      <c r="G22" t="s">
         <v>288</v>
       </c>
-      <c r="D21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E21" t="s">
-        <v>447</v>
-      </c>
-      <c r="F21" t="s">
-        <v>445</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H22" t="s">
         <v>289</v>
       </c>
-      <c r="H21" t="s">
-        <v>290</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>35</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23">
+        <v>0.85</v>
+      </c>
+      <c r="C23">
+        <v>0.85</v>
+      </c>
+      <c r="D23">
+        <v>0.43</v>
+      </c>
+      <c r="E23">
+        <v>0.85</v>
+      </c>
+      <c r="F23">
+        <v>0.47</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>0.23</v>
+      </c>
+      <c r="J23">
+        <v>0.12</v>
+      </c>
+      <c r="K23">
+        <f>SUM(B23:J23)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K27" si="2">SUM(B24:J24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25">
+        <v>0.85</v>
+      </c>
+      <c r="I25">
+        <v>0.05</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26">
+        <v>0.35</v>
+      </c>
+      <c r="I26">
+        <v>0.15</v>
+      </c>
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22">
-        <v>0.85</v>
-      </c>
-      <c r="C22">
-        <v>0.85</v>
-      </c>
-      <c r="D22">
-        <v>0.45</v>
-      </c>
-      <c r="E22">
-        <v>0.85</v>
-      </c>
-      <c r="F22">
-        <v>0.4</v>
-      </c>
-      <c r="H22">
-        <v>0.2</v>
-      </c>
-      <c r="I22">
-        <v>0.2</v>
-      </c>
-      <c r="J22">
-        <v>0.2</v>
-      </c>
-      <c r="K22">
-        <f>SUM(B22:J22)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>263</v>
-      </c>
-      <c r="G23">
-        <v>0.8</v>
-      </c>
-      <c r="H23">
-        <v>0.5</v>
-      </c>
-      <c r="I23">
-        <v>0.6</v>
-      </c>
-      <c r="J23">
-        <v>0.1</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ref="K23:K25" si="1">SUM(B23:J23)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>264</v>
-      </c>
-      <c r="H24">
-        <v>0.35</v>
-      </c>
-      <c r="I24">
-        <v>0.15</v>
-      </c>
-      <c r="J24">
-        <v>0.1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B27">
+        <f t="shared" ref="B27:J27" si="3">$B$30*SUM(B23:B26)</f>
+        <v>1288.77</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>1288.77</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>651.96600000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>1288.77</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>712.61400000000003</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>1288.77</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1592.0099999999998</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1410.066</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>485.18400000000003</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>10006.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>293</v>
       </c>
-      <c r="B25">
-        <f t="shared" ref="B25:J25" si="2">$B$28*SUM(B22:B24)</f>
-        <v>1220.9399999999998</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>1220.9399999999998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>646.38</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>1220.9399999999998</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>574.55999999999995</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1149.1199999999999</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>1508.2199999999996</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>1364.58</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>574.55999999999995</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>9480.24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>294</v>
-      </c>
-      <c r="B26">
+      <c r="B28">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
-        <v>1197</v>
-      </c>
-      <c r="C26">
+        <v>1276.8000000000002</v>
+      </c>
+      <c r="C28">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
-        <v>1197</v>
-      </c>
-      <c r="D26">
+        <v>1276.8000000000002</v>
+      </c>
+      <c r="D28">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8*0.5</f>
-        <v>598.5</v>
-      </c>
-      <c r="E26">
+        <v>638.40000000000009</v>
+      </c>
+      <c r="E28">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
-        <v>1197</v>
-      </c>
-      <c r="F26">
-        <f>F25</f>
-        <v>574.55999999999995</v>
-      </c>
-      <c r="G26">
+        <v>1276.8000000000002</v>
+      </c>
+      <c r="F28">
+        <f>0.44*Summary!$C$9*Summary!$C$8</f>
+        <v>702.24</v>
+      </c>
+      <c r="G28">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
-        <v>1197</v>
-      </c>
-      <c r="H26">
-        <f>0.5*B26*2+2*0.25*D26</f>
-        <v>1496.25</v>
-      </c>
-      <c r="I26">
-        <f>2*0.4*B26+0.3*B26</f>
-        <v>1316.7</v>
-      </c>
-      <c r="J26">
+        <v>1276.8000000000002</v>
+      </c>
+      <c r="H28">
+        <f>0.5*B28*2+0.3*D28</f>
+        <v>1468.3200000000002</v>
+      </c>
+      <c r="I28">
+        <f>2*0.4*B28+0.3*B28</f>
+        <v>1404.4800000000002</v>
+      </c>
+      <c r="J28">
         <f>0.06*Summary!C8*Summary!C9*Summary!C7</f>
         <v>478.8</v>
       </c>
-      <c r="K26">
-        <f>SUM(B26:J26)</f>
-        <v>9252.81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>297</v>
-      </c>
-      <c r="B28">
+      <c r="K28">
+        <f>SUM(B28:J28)</f>
+        <v>9799.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>527</v>
+      </c>
+      <c r="B30">
         <f>Summary!$C$11*Summary!$C$9*Summary!$C$8</f>
-        <v>1436.3999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>301</v>
-      </c>
-      <c r="B30" s="22">
-        <f>SUMPRODUCT(D5:D7*J22:J24)</f>
-        <v>13716.36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
+        <v>1516.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="22">
+        <f>SUMPRODUCT(D5:D8*J23:J26)</f>
+        <v>13108.788</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B4">
         <v>38.64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
         <v>2874.8160000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="28">
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B10" s="2">
         <v>2.77</v>
@@ -10664,20 +11069,20 @@
         <v>2.2160000000000002</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10687,38 +11092,38 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>224</v>
       </c>
-      <c r="E1" t="s">
-        <v>225</v>
-      </c>
       <c r="F1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="25">
         <v>149</v>
@@ -10728,12 +11133,12 @@
         <v>119.2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -10746,10 +11151,10 @@
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -10764,15 +11169,15 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="25">
         <v>392</v>
@@ -10782,12 +11187,12 @@
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="25">
         <v>167</v>
@@ -10797,12 +11202,12 @@
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="25">
         <v>94</v>
@@ -10812,15 +11217,15 @@
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="25">
         <v>282</v>
@@ -10830,12 +11235,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="25">
         <v>408</v>
@@ -10845,9 +11250,9 @@
         <v>326.40000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="25">
         <v>3322</v>
@@ -10857,18 +11262,18 @@
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
         <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>152</v>
       </c>
       <c r="D14" s="25">
         <v>1390</v>
@@ -10878,12 +11283,12 @@
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="25">
         <v>1202</v>
@@ -10893,12 +11298,12 @@
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="25">
         <v>146</v>
@@ -10908,12 +11313,12 @@
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="25">
         <v>162</v>
@@ -10923,15 +11328,15 @@
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="25">
         <v>1623</v>
@@ -10941,12 +11346,12 @@
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" s="25">
         <v>675</v>
@@ -10956,19 +11361,19 @@
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="30">
         <v>348</v>
@@ -10982,49 +11387,49 @@
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" t="s">
         <v>268</v>
-      </c>
-      <c r="B23" t="s">
-        <v>269</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
         <v>272</v>
-      </c>
-      <c r="B25" t="s">
-        <v>273</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F21" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11034,31 +11439,31 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -11068,31 +11473,31 @@
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -11102,12 +11507,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -11117,12 +11522,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -11132,40 +11537,40 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>217</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -11175,12 +11580,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -11190,12 +11595,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -11205,16 +11610,16 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -11224,12 +11629,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -11239,12 +11644,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -11254,12 +11659,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>199</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -11269,46 +11674,46 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>5600*0.4</f>
         <v>2240</v>
@@ -11320,7 +11725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11330,100 +11735,100 @@
       <selection activeCell="A11" sqref="A11:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>336</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -11432,7 +11837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -11442,39 +11847,39 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
         <v>224</v>
       </c>
-      <c r="F1" t="s">
-        <v>225</v>
-      </c>
       <c r="G1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="30">
         <v>1295</v>
@@ -11484,12 +11889,12 @@
         <v>1146.3829184518961</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="30">
         <v>13995</v>
@@ -11499,12 +11904,12 @@
         <v>12388.902659254276</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="30">
         <v>395</v>
@@ -11514,12 +11919,12 @@
         <v>349.66892107220002</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D5" s="30">
         <v>3795</v>
@@ -11529,69 +11934,69 @@
         <v>3359.4773556177188</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D6" s="30"/>
       <c r="F6" s="2">
         <v>119</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D7" s="30"/>
       <c r="F7" s="2">
         <v>379</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D8" s="30"/>
       <c r="F8" s="2">
         <v>425</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
         <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
       </c>
       <c r="C10" s="20"/>
       <c r="F10" s="2">
         <v>1079.0999999999999</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" s="20"/>
       <c r="E11" s="2">
@@ -11602,99 +12007,99 @@
         <v>1633.384</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="2">
         <v>283.8</v>
       </c>
       <c r="G13" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>117</v>
       </c>
       <c r="F14" s="2">
         <v>173.75</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="24"/>
       <c r="F15" s="2">
         <v>153.08000000000001</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F17" s="2">
         <v>12999</v>
       </c>
       <c r="G17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F20" s="2">
         <v>1001.67</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F21" s="2">
         <v>352.31</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B23" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F23" s="2">
         <v>2302.5700000000002</v>
       </c>
       <c r="G23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -11703,12 +12108,12 @@
         <v>69.400000000000006</v>
       </c>
       <c r="G25" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -11717,12 +12122,12 @@
         <v>1433.25</v>
       </c>
       <c r="G26" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11731,12 +12136,12 @@
         <v>1866.02</v>
       </c>
       <c r="G27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11745,12 +12150,12 @@
         <v>859.65</v>
       </c>
       <c r="G28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -11759,12 +12164,12 @@
         <v>699.07</v>
       </c>
       <c r="G29" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -11773,53 +12178,53 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B32" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F32" s="2">
         <v>3259</v>
       </c>
       <c r="G32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F34" s="2">
         <v>1075</v>
       </c>
       <c r="G34" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="G13" r:id="rId5"/>
-    <hyperlink ref="G14" r:id="rId6"/>
-    <hyperlink ref="G15" r:id="rId7"/>
-    <hyperlink ref="G3" r:id="rId8"/>
-    <hyperlink ref="G20" r:id="rId9"/>
-    <hyperlink ref="G21" r:id="rId10"/>
+    <hyperlink ref="G10" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11829,168 +12234,168 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
       </c>
       <c r="C4">
         <v>1016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>1372</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
         <v>131</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>132</v>
       </c>
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
         <v>234</v>
       </c>
-      <c r="D21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -12000,12 +12405,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -12014,12 +12419,12 @@
         <v>40</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -12028,34 +12433,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>93</v>
       </c>
       <c r="B29" s="21">
         <v>0.04</v>
@@ -12075,9 +12480,9 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -12090,7 +12495,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>200</v>
       </c>
@@ -12104,17 +12509,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D24" r:id="rId3"/>
-    <hyperlink ref="D23" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -12124,108 +12529,108 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B4">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>93</v>
       </c>
       <c r="B12" s="21">
         <v>0.04</v>
@@ -12245,9 +12650,9 @@
         <v>132.32128</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -12260,7 +12665,7 @@
         <v>98.525440000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>200</v>
       </c>
@@ -12272,14 +12677,14 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/CR - Cost Report/CBOM/Cost.xlsx
+++ b/CR - Cost Report/CBOM/Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C871A3-868B-484C-8D1C-8B1F7E15B350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54946B6-7997-438C-81C4-1C966C5C5C84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="538">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Overheads cost</t>
   </si>
   <si>
-    <t>Milling</t>
-  </si>
-  <si>
     <t>OP</t>
   </si>
   <si>
@@ -674,9 +671,6 @@
     <t>/month/user</t>
   </si>
   <si>
-    <t>Taux Euro --&gt; Dollar</t>
-  </si>
-  <si>
     <t xml:space="preserve">TVA </t>
   </si>
   <si>
@@ -887,12 +881,6 @@
     <t>Total time of production of machin or station per year (in hours)</t>
   </si>
   <si>
-    <t>Welding/assy , CNC mill, CNC lathe, Laser Cutting, 2 Assembly</t>
-  </si>
-  <si>
-    <t>Removal rate (min/mm^3)</t>
-  </si>
-  <si>
     <t>Setup time (fixture and tools) (min)</t>
   </si>
   <si>
@@ -1106,9 +1094,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Margin</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -1163,9 +1148,6 @@
     <t>150cmx300cmx8mm max</t>
   </si>
   <si>
-    <t>Removal rate (min/mm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mild Steel </t>
   </si>
   <si>
@@ -1607,15 +1589,9 @@
     <t>Water rate/m^3</t>
   </si>
   <si>
-    <t>Removal rate (include measuring) (min/mm^3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cutting tools </t>
   </si>
   <si>
-    <t>Sum of fixed cost/year (with +5% extra equipment)</t>
-  </si>
-  <si>
     <t>Welder + Grade II C</t>
   </si>
   <si>
@@ -1635,6 +1611,51 @@
   </si>
   <si>
     <t>Tool holders and fixtures</t>
+  </si>
+  <si>
+    <t>Euro --&gt; Dollar Rate</t>
+  </si>
+  <si>
+    <t>Welding/assy , CNC mill, CNC lathe, Laser Cutting, Assembly</t>
+  </si>
+  <si>
+    <t>Manpower part of machining cost</t>
+  </si>
+  <si>
+    <t>Sum of fixed cost/year (+5% extra equipment integrated)</t>
+  </si>
+  <si>
+    <t>Medium removal rate steel</t>
+  </si>
+  <si>
+    <t>Medium removal rate aluminium</t>
+  </si>
+  <si>
+    <t>Multiplicator for al cutting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milling </t>
+  </si>
+  <si>
+    <t>Removal rate (for Aluminium) (min/mm^3)</t>
+  </si>
+  <si>
+    <t>Removal rate (for steel) (min/mm)</t>
+  </si>
+  <si>
+    <t>Removal rate (for aluminium) (include measuring) (min/mm^3)</t>
+  </si>
+  <si>
+    <t>For aluminium as standard</t>
+  </si>
+  <si>
+    <t>For steel as standard</t>
+  </si>
+  <si>
+    <t>Price for cutting aluminium</t>
+  </si>
+  <si>
+    <t>Price for cutting Steel</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1813,6 +1834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1965,7 +1992,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2078,7 +2105,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2190,10 +2216,16 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,6 +2235,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2220,62 +2288,52 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2390,14 +2448,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.1513560804899383E-4"/>
-                  <c:y val="-0.16118839311752697"/>
+                  <c:x val="1.0405949256342957E-2"/>
+                  <c:y val="-0.33558435403907844"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2432,35 +2490,29 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$D$10:$D$18</c:f>
+              <c:f>'Laser cutter'!$D$12:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.81</c:v>
+                  <c:v>2.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.63</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.31</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.26</c:v>
+                  <c:v>5.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.12</c:v>
+                  <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.82</c:v>
+                  <c:v>7.9379999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9379999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>9.5250000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -2468,35 +2520,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Laser cutter'!$E$10:$E$18</c:f>
+              <c:f>'Laser cutter'!$E$12:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19812</c:v>
+                  <c:v>3175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5842</c:v>
+                  <c:v>2184.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3175</c:v>
+                  <c:v>1879.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2184.4</c:v>
+                  <c:v>1498.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1879.6</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1498.6</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1270</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>762</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>584.19999999999993</c:v>
                 </c:pt>
               </c:numCache>
@@ -5496,10 +5542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA93"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5529,115 +5575,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="A1" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="45"/>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="L1" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
+      <c r="L1" s="129" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
-      <c r="U1" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="Y1" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
+      <c r="U1" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="Y1" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="35" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="R2" s="36" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="U2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AA2" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="51">
         <f>'Manpower &amp; time'!C5</f>
@@ -5645,10 +5691,10 @@
       </c>
       <c r="D3" s="51"/>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H3" s="23">
         <f>SUM(Metrology!E14:E17)</f>
@@ -5661,15 +5707,15 @@
         <f>H3/I3</f>
         <v>232</v>
       </c>
-      <c r="L3" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="118"/>
+      <c r="L3" s="133" t="s">
+        <v>530</v>
+      </c>
+      <c r="M3" s="133"/>
       <c r="N3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="22">
         <f>'CNC mill'!B22</f>
@@ -5683,19 +5729,19 @@
         <v>10802</v>
       </c>
       <c r="U3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
         <v>28</v>
       </c>
-      <c r="V3" t="s">
-        <v>29</v>
-      </c>
       <c r="Z3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="51">
         <f>'Manpower &amp; time'!C6</f>
@@ -5704,7 +5750,7 @@
       <c r="D4" s="51"/>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="23">
         <f>SUM(Metrology!E18:E19)</f>
@@ -5718,16 +5764,16 @@
         <v>183.84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M4" s="9">
         <v>22.4</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="22">
         <f>'CNC mill'!B23*'CNC mill'!C23</f>
@@ -5742,16 +5788,16 @@
       </c>
       <c r="U4" s="13"/>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="51">
         <f>'Manpower &amp; time'!C8</f>
@@ -5760,7 +5806,7 @@
       <c r="D5" s="51"/>
       <c r="F5" s="4"/>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H5" s="23">
         <f>SUM(Metrology!E2:E8)+Metrology!E2+Metrology!E4+Metrology!E3+Metrology!E7+Metrology!E8</f>
@@ -5774,17 +5820,17 @@
         <v>127.2</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M5" s="37">
         <f>C10</f>
         <v>0.8</v>
       </c>
       <c r="N5" t="s">
+        <v>240</v>
+      </c>
+      <c r="O5" t="s">
         <v>242</v>
-      </c>
-      <c r="O5" t="s">
-        <v>244</v>
       </c>
       <c r="Q5" s="22">
         <f>'CNC mill'!B24</f>
@@ -5798,16 +5844,16 @@
         <v>500</v>
       </c>
       <c r="U5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" t="s">
         <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="51">
         <f>'Manpower &amp; time'!C6</f>
@@ -5816,7 +5862,7 @@
       <c r="D6" s="51"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="22">
         <f>Metrology!E23</f>
@@ -5830,19 +5876,19 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M6" s="9">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="22">
         <f>0.05*Q3</f>
@@ -5857,23 +5903,23 @@
       </c>
       <c r="U6" s="14"/>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C7" s="50">
         <v>5</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>281</v>
+        <v>524</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H7" s="23">
         <f>SUM(Metrology!E10:E12)</f>
@@ -5887,20 +5933,20 @@
         <v>320.96000000000004</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>282</v>
+        <v>531</v>
       </c>
       <c r="M7" s="41">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="31">
         <f>M4*0.8*C14</f>
@@ -5910,17 +5956,17 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
       </c>
       <c r="C8">
         <v>35</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H8" s="23">
         <f>2*Metrology!E21</f>
@@ -5934,27 +5980,27 @@
         <v>49.290039304557205</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M8" s="41">
         <f>M7*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="27">
         <f>'Manpower &amp; time'!B17</f>
@@ -5963,7 +6009,7 @@
       <c r="D9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H9" s="22">
         <f>Metrology!E25</f>
@@ -5977,20 +6023,20 @@
         <v>539</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M9" s="41">
         <f>M7*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="2">
         <v>20</v>
@@ -6000,35 +6046,35 @@
     <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="26">
         <v>0.8</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>296</v>
+      <c r="D10" s="58" t="s">
+        <v>292</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>40</v>
       </c>
       <c r="J10" s="23"/>
       <c r="L10" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M10" s="18">
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="22">
         <f>1*'CNC mill'!F31</f>
@@ -6043,34 +6089,34 @@
       </c>
       <c r="U10" s="14"/>
       <c r="V10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C11" s="26">
         <v>0.95</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="L11" s="123" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="123"/>
+      <c r="L11" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="127"/>
       <c r="N11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="2">
         <f>'CNC lathe'!B2</f>
@@ -6084,16 +6130,16 @@
         <v>13372</v>
       </c>
       <c r="U11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" t="s">
         <v>57</v>
-      </c>
-      <c r="V11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
-      <c r="B12" s="60" t="s">
-        <v>280</v>
+      <c r="B12" s="59" t="s">
+        <v>278</v>
       </c>
       <c r="C12" s="38">
         <f>C9*C8*C10*C7</f>
@@ -6102,21 +6148,21 @@
       <c r="D12" s="26"/>
       <c r="F12" s="5"/>
       <c r="G12" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="23"/>
       <c r="L12" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M12" s="10">
         <v>29.8</v>
       </c>
       <c r="N12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="22">
         <f>12*'CNC lathe'!B6+6*'CNC lathe'!B7</f>
@@ -6131,15 +6177,15 @@
       </c>
       <c r="U12" s="17"/>
       <c r="V12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="22">
         <f>Energies!B6</f>
@@ -6148,7 +6194,7 @@
       <c r="D13" s="22"/>
       <c r="F13" s="5"/>
       <c r="G13" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="34">
         <v>1</v>
@@ -6158,17 +6204,17 @@
         <v>0</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M13" s="42">
         <f>C10</f>
         <v>0.8</v>
       </c>
       <c r="N13" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="22">
         <f>'CNC lathe'!B8*30</f>
@@ -6185,7 +6231,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="31">
         <f>Energies!B7</f>
@@ -6194,7 +6240,7 @@
       <c r="D14" s="34"/>
       <c r="F14" s="5"/>
       <c r="G14" s="40" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H14" s="22">
         <f>Energies!B6</f>
@@ -6208,19 +6254,19 @@
         <v>2874.8160000000003</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M14" s="10">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="2">
         <f>0.05*Q11</f>
@@ -6237,7 +6283,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C15" s="22">
         <f>Energies!C10</f>
@@ -6245,7 +6291,7 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="40" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H15" s="2">
         <f>16*C8*C9*C14</f>
@@ -6259,20 +6305,20 @@
         <v>1999.4687999999999</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>282</v>
+        <v>531</v>
       </c>
       <c r="M15" s="43">
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q15" s="31">
         <f>M12*0.8*C14</f>
@@ -6280,18 +6326,18 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>353</v>
+      <c r="A16" s="54" t="s">
+        <v>349</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>523</v>
       </c>
       <c r="C16" s="34">
         <v>1.12964</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="40" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H16" s="2">
         <f>Energies!C10*60</f>
@@ -6305,20 +6351,20 @@
         <v>132.96</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M16" s="43">
         <f>M15*0.5</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="54"/>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C17" s="26">
         <v>0.2</v>
@@ -6326,7 +6372,7 @@
       <c r="D17" s="26"/>
       <c r="F17" s="5"/>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6336,38 +6382,31 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M17" s="43">
         <f>M15*0.4</f>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="N17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="22">
         <f>C6</f>
@@ -6381,19 +6420,19 @@
         <v>39809</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M18" s="10">
         <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="22">
         <f>'CNC lathe'!F14</f>
@@ -6410,7 +6449,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F19" s="6"/>
       <c r="G19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H19" s="22">
         <f>C5*0.4</f>
@@ -6423,15 +6462,15 @@
         <f t="shared" si="0"/>
         <v>27937.200000000001</v>
       </c>
-      <c r="L19" s="119" t="s">
+      <c r="L19" s="134" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="134"/>
+      <c r="N19" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="119"/>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
       <c r="O19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="22">
         <f>'Laser cutter'!G4</f>
@@ -6448,7 +6487,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
       <c r="G20" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H20" s="22">
         <f>'Manpower &amp; time'!G9</f>
@@ -6462,19 +6501,19 @@
         <v>10868.89</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M20" s="11">
         <v>7.5</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="22">
         <f>0.05*Q19</f>
@@ -6491,7 +6530,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H21" s="22">
         <f>'Manpower &amp; time'!B32</f>
@@ -6505,20 +6544,20 @@
         <v>13108.788</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="M21" s="90">
+        <v>257</v>
+      </c>
+      <c r="M21" s="89">
         <f>C10</f>
         <v>0.8</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="31">
         <f>M20*0.8*C14</f>
@@ -6527,10 +6566,10 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
         <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
       </c>
       <c r="H22" s="22">
         <f>IT!D11+IT!D12+IT!D13+4*IT!D15+IT!D16+3*IT!D17+IT!D18</f>
@@ -6544,19 +6583,19 @@
         <v>959.37599999999998</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M22" s="11">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="22">
         <f>'Laser cutter'!G5/20</f>
@@ -6566,7 +6605,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F23" s="7"/>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H23" s="22">
         <f>IT!D5</f>
@@ -6580,22 +6619,22 @@
         <v>38.591999999999999</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="M23" s="91">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
+        <v>532</v>
+      </c>
+      <c r="M23" s="90">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H24" s="22">
         <f>2*IT!D6+IT!D7+2*IT!D8+IT!D9</f>
@@ -6609,23 +6648,23 @@
         <v>277.54199999999997</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="M24" s="91">
+        <v>450</v>
+      </c>
+      <c r="M24" s="90">
         <f>M23*0.5</f>
-        <v>2.2499999999999999E-4</v>
-      </c>
-      <c r="N24" s="61"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="88"/>
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="N24" s="60"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="87"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
       <c r="G25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H25" s="22">
         <f>IT!D3*12*3</f>
@@ -6639,23 +6678,23 @@
         <v>316.8</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M25" s="91">
+        <v>451</v>
+      </c>
+      <c r="M25" s="90">
         <f>M23*0.4</f>
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
+        <v>1.8400000000000003E-4</v>
+      </c>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="G26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H26" s="22">
         <f>IT!D2*2</f>
@@ -6668,17 +6707,17 @@
         <f t="shared" si="0"/>
         <v>796.80000000000007</v>
       </c>
-      <c r="L26" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="M26" s="92">
-        <v>10</v>
+      <c r="L26" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="M26" s="91">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F27" s="7"/>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="22">
         <f>12*IT!D20</f>
@@ -6692,14 +6731,14 @@
         <v>1224</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="22">
         <f>Welding!F2+Welding!F3</f>
@@ -6716,7 +6755,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
       <c r="G28" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H28" s="22">
         <f>IT!D23+IT!D22</f>
@@ -6730,14 +6769,14 @@
         <v>76.2</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="22">
         <f>Welding!F4</f>
@@ -6753,12 +6792,12 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="93">
+        <v>47</v>
+      </c>
+      <c r="H29" s="92">
         <v>200</v>
       </c>
       <c r="I29" s="34">
@@ -6769,17 +6808,17 @@
         <v>200</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M29" s="37">
         <f>C10</f>
         <v>0.8</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="22">
         <f>Welding!F6</f>
@@ -6796,7 +6835,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
       <c r="G30" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H30" s="22">
         <f>Office!D2*2+Office!D3*2+Office!D4*2+Office!D5*2+Office!D6+Office!D7+Office!D8*10</f>
@@ -6810,17 +6849,17 @@
         <v>1055</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="M30" s="107">
+        <v>503</v>
+      </c>
+      <c r="M30" s="106">
         <f>Welding!B32</f>
         <v>140.43083213990764</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q30" s="22">
         <f>Welding!F6+Welding!F7</f>
@@ -6836,10 +6875,10 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H31" s="22">
         <f>SUM(Manufacturing!F2:F7)+Manufacturing!F8*4</f>
@@ -6855,10 +6894,10 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q31" s="22">
         <f>Welding!F5</f>
@@ -6875,7 +6914,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H32" s="22">
         <f>Manufacturing!F32</f>
@@ -6891,13 +6930,13 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q32" s="22">
         <f>0.03*(Q27+Q28)</f>
@@ -6914,7 +6953,7 @@
     <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H33" s="22">
         <f>Manufacturing!F10*3+Manufacturing!F11*3</f>
@@ -6930,19 +6969,19 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H34" s="22">
         <f>0.5*H33</f>
@@ -6958,13 +6997,13 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" t="s">
-        <v>507</v>
-      </c>
-      <c r="O34" s="131" t="s">
-        <v>245</v>
-      </c>
-      <c r="P34" s="132" t="s">
-        <v>506</v>
+        <v>501</v>
+      </c>
+      <c r="O34" s="118" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" s="119" t="s">
+        <v>500</v>
       </c>
       <c r="Q34" s="22">
         <f>Welding!B29</f>
@@ -6974,7 +7013,7 @@
     <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H35" s="22">
         <v>4000</v>
@@ -6989,10 +7028,10 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" t="s">
-        <v>508</v>
-      </c>
-      <c r="O35" s="131"/>
-      <c r="P35" s="132"/>
+        <v>502</v>
+      </c>
+      <c r="O35" s="118"/>
+      <c r="P35" s="119"/>
       <c r="Q35" s="22">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -7001,7 +7040,7 @@
     <row r="36" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="G36" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H36" s="22">
         <v>3000</v>
@@ -7013,16 +7052,16 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
       <c r="N36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P36" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q36" s="22">
         <f>Welding!B17</f>
@@ -7032,7 +7071,7 @@
     <row r="37" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F37" s="5"/>
       <c r="G37" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H37" s="22">
         <f>Manufacturing!F23</f>
@@ -7045,15 +7084,15 @@
         <f t="shared" si="0"/>
         <v>230.25700000000001</v>
       </c>
-      <c r="L37" s="123" t="s">
-        <v>440</v>
-      </c>
-      <c r="M37" s="123"/>
+      <c r="L37" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="M37" s="127"/>
       <c r="N37" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="O37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q37" s="2">
         <f>'Conventionnal machinning'!B2</f>
@@ -7070,7 +7109,7 @@
     <row r="38" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F38" s="5"/>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38" s="22">
         <f>Manufacturing!F20*6+Manufacturing!F21*3</f>
@@ -7083,17 +7122,17 @@
         <f t="shared" si="0"/>
         <v>706.69499999999994</v>
       </c>
-      <c r="L38" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="M38" s="109">
+      <c r="L38" s="108" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" s="108">
         <v>10</v>
       </c>
       <c r="N38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="22">
         <f>'Conventionnal machinning'!B4</f>
@@ -7110,7 +7149,7 @@
     <row r="39" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="G39" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H39" s="22">
         <f>Manufacturing!F25*5+Manufacturing!F26+Manufacturing!F27+Manufacturing!F28+Manufacturing!F29*3+Manufacturing!F30*30</f>
@@ -7123,17 +7162,17 @@
         <f t="shared" si="0"/>
         <v>711.01300000000003</v>
       </c>
-      <c r="L39" s="109" t="s">
-        <v>259</v>
+      <c r="L39" s="108" t="s">
+        <v>257</v>
       </c>
       <c r="M39" s="42">
         <v>0.44</v>
       </c>
       <c r="N39" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="O39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q39" s="22">
         <f>(Q5+Q4+Q12+Q13)*0.25</f>
@@ -7150,7 +7189,7 @@
     <row r="40" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="G40" s="40" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H40" s="22">
         <f>Manufacturing!F17</f>
@@ -7163,20 +7202,20 @@
         <f>H40/I40</f>
         <v>1299.9000000000001</v>
       </c>
-      <c r="L40" s="109" t="s">
-        <v>260</v>
-      </c>
-      <c r="M40" s="109">
+      <c r="L40" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="M40" s="108">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P40" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q40" s="2">
         <f>0.03*(Q38+Q37)</f>
@@ -7193,7 +7232,7 @@
     <row r="41" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="G41" s="40" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H41" s="22">
         <f>15*C14*C8*C9</f>
@@ -7206,21 +7245,21 @@
         <f>H41/I41</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L41" s="109" t="s">
-        <v>521</v>
+      <c r="L41" s="108" t="s">
+        <v>533</v>
       </c>
       <c r="M41" s="43">
-        <f>2*1/10000</f>
-        <v>2.0000000000000001E-4</v>
+        <f>2.5*1/10000</f>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="N41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q41" s="31">
         <f>M38*0.8*C14</f>
@@ -7230,7 +7269,7 @@
     <row r="42" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
       <c r="G42" s="40" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H42" s="22">
         <f>Manufacturing!F34</f>
@@ -7243,855 +7282,935 @@
         <f>H42/I42</f>
         <v>107.5</v>
       </c>
-      <c r="L42" s="109" t="s">
-        <v>283</v>
-      </c>
-      <c r="M42" s="109">
+      <c r="L42" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" s="108">
         <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="O42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P42" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="61"/>
+      <c r="F43" s="60"/>
       <c r="G43" s="40"/>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="128" t="s">
-        <v>355</v>
-      </c>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="130"/>
-      <c r="L44" s="85" t="s">
-        <v>355</v>
-      </c>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="87"/>
+      <c r="F44" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="125"/>
+      <c r="L44" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="86"/>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="G45" s="120" t="s">
-        <v>523</v>
-      </c>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="56">
+      <c r="F45" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="G45" s="126" t="s">
+        <v>526</v>
+      </c>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="55">
         <f>SUM(J3:J42)*1.05</f>
         <v>126190.92341598139</v>
       </c>
-      <c r="L45" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="127"/>
-      <c r="N45" s="114" t="s">
-        <v>324</v>
-      </c>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="71">
+      <c r="L45" s="120" t="s">
+        <v>530</v>
+      </c>
+      <c r="M45" s="121"/>
+      <c r="N45" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="70">
         <f>SUM(S3:S6)+S10</f>
         <v>17591.025600000001</v>
       </c>
     </row>
     <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="65"/>
-      <c r="G46" s="121" t="s">
-        <v>315</v>
-      </c>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="66">
+      <c r="F46" s="64"/>
+      <c r="G46" s="113" t="s">
+        <v>311</v>
+      </c>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="65">
         <f>J45/SUM('Manpower &amp; time'!B28:I28)</f>
         <v>13.5388689420449</v>
       </c>
-      <c r="L46" s="79"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="110" t="s">
-        <v>325</v>
-      </c>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="74">
+      <c r="L46" s="143" t="s">
+        <v>534</v>
+      </c>
+      <c r="M46" s="144"/>
+      <c r="N46" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="73">
         <f>R45/(M5*C8*C9)+J46</f>
         <v>27.316301272871968</v>
       </c>
     </row>
     <row r="47" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F47" s="63" t="s">
-        <v>358</v>
-      </c>
-      <c r="G47" s="120" t="s">
-        <v>359</v>
-      </c>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="67">
+      <c r="F47" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="G47" s="126" t="s">
+        <v>354</v>
+      </c>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="66">
         <f>'Manpower &amp; time'!H5</f>
         <v>12.68856351404828</v>
       </c>
-      <c r="L47" s="81"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="110" t="s">
-        <v>326</v>
-      </c>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="74">
+      <c r="L47" s="147" t="s">
+        <v>537</v>
+      </c>
+      <c r="M47" s="148">
+        <v>2.5</v>
+      </c>
+      <c r="N47" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="73">
         <f>R46+Q9+Q7</f>
         <v>48.719437272871964</v>
       </c>
     </row>
     <row r="48" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F48" s="64"/>
-      <c r="G48" s="121" t="s">
-        <v>370</v>
-      </c>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="68">
+      <c r="F48" s="63"/>
+      <c r="G48" s="113" t="s">
+        <v>365</v>
+      </c>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="67">
         <f>'Manpower &amp; time'!H6</f>
         <v>23.630193905817173</v>
       </c>
-      <c r="L48" s="81"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="94"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="93"/>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F49" s="64"/>
-      <c r="G49" s="121" t="s">
-        <v>526</v>
-      </c>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="68">
+      <c r="F49" s="63"/>
+      <c r="G49" s="113" t="s">
+        <v>518</v>
+      </c>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="67">
         <f>'Manpower &amp; time'!H7</f>
         <v>29.773842500989314</v>
       </c>
-      <c r="L49" s="81"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="110" t="s">
-        <v>311</v>
-      </c>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="95">
+      <c r="L49" s="80"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="114" t="s">
+        <v>307</v>
+      </c>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="94">
         <f>('Manpower &amp; time'!H5+R47)*M7/60</f>
         <v>1.0234666797820041E-4</v>
       </c>
     </row>
     <row r="50" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="57"/>
-      <c r="G50" s="122" t="s">
-        <v>360</v>
-      </c>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="69">
+      <c r="F50" s="56"/>
+      <c r="G50" s="128" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="68">
         <f>'Manpower &amp; time'!H8</f>
         <v>41.458053027305105</v>
       </c>
-      <c r="L50" s="81"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="110" t="s">
-        <v>314</v>
-      </c>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="95">
+      <c r="L50" s="80"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="114" t="s">
+        <v>525</v>
+      </c>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="137">
+        <f>('Manpower &amp; time'!H5)*M7/60/R49</f>
+        <v>0.20662720413381239</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J51" s="51"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="94"/>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J52" s="51"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="94">
         <f>('Manpower &amp; time'!H5)*M8/60</f>
         <v>1.0573802928373568E-5</v>
       </c>
     </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J51" s="51"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="110" t="s">
-        <v>312</v>
-      </c>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="95">
+    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J53" s="51"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="114" t="s">
+        <v>308</v>
+      </c>
+      <c r="O53" s="114"/>
+      <c r="P53" s="114"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="94">
         <f>('Manpower &amp; time'!H6)*M8/60</f>
         <v>1.9691828254847643E-5</v>
       </c>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J52" s="51"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="95">
+    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J54" s="51"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="114" t="s">
+        <v>309</v>
+      </c>
+      <c r="O54" s="114"/>
+      <c r="P54" s="114"/>
+      <c r="Q54" s="114"/>
+      <c r="R54" s="94">
         <f>('Manpower &amp; time'!H8)*M8/60</f>
         <v>3.4548377522754257E-5</v>
       </c>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J53" s="51"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="110" t="s">
-        <v>361</v>
-      </c>
-      <c r="O53" s="110"/>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="95">
+    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J55" s="51"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="114" t="s">
+        <v>356</v>
+      </c>
+      <c r="O55" s="114"/>
+      <c r="P55" s="114"/>
+      <c r="Q55" s="114"/>
+      <c r="R55" s="94">
         <f>('Manpower &amp; time'!H5)*M$9/60</f>
         <v>8.4590423426988525E-6</v>
       </c>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J54" s="51"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="110" t="s">
-        <v>362</v>
-      </c>
-      <c r="O54" s="110"/>
-      <c r="P54" s="110"/>
-      <c r="Q54" s="110"/>
-      <c r="R54" s="95">
+    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L56" s="80"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="O56" s="114"/>
+      <c r="P56" s="114"/>
+      <c r="Q56" s="114"/>
+      <c r="R56" s="94">
         <f>('Manpower &amp; time'!H6)*M$9/60</f>
         <v>1.5753462603878117E-5</v>
       </c>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J55" s="51"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="110" t="s">
-        <v>363</v>
-      </c>
-      <c r="O55" s="110"/>
-      <c r="P55" s="110"/>
-      <c r="Q55" s="110"/>
-      <c r="R55" s="95">
-        <f>('Manpower &amp; time'!H8)*M$9/60</f>
-        <v>2.7638702018203404E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L56" s="83"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="O56" s="111"/>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="96">
-        <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
-        <v>16.668693661216771</v>
-      </c>
-    </row>
     <row r="57" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J57" s="27"/>
-      <c r="L57" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="M57" s="113"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="81"/>
       <c r="N57" s="114" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="O57" s="114"/>
       <c r="P57" s="114"/>
       <c r="Q57" s="114"/>
-      <c r="R57" s="71">
+      <c r="R57" s="94">
+        <f>('Manpower &amp; time'!H8)*M$9/60</f>
+        <v>2.7638702018203404E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="26"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="O58" s="112"/>
+      <c r="P58" s="112"/>
+      <c r="Q58" s="112"/>
+      <c r="R58" s="95">
+        <f>('Manpower &amp; time'!H5+R46)*(M10+M6)/60</f>
+        <v>16.668693661216771</v>
+      </c>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J59" s="26"/>
+      <c r="L59" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="116"/>
+      <c r="N59" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="O59" s="117"/>
+      <c r="P59" s="117"/>
+      <c r="Q59" s="117"/>
+      <c r="R59" s="70">
         <f>SUM(S11:S14)+S18</f>
         <v>23026.025600000001</v>
       </c>
     </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J58" s="26"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="110" t="s">
-        <v>325</v>
-      </c>
-      <c r="O58" s="110"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="74">
-        <f>R57/(M13*C8*C9)+J46</f>
-        <v>31.5730368618444</v>
-      </c>
-    </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J59" s="26"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="110" t="s">
-        <v>326</v>
-      </c>
-      <c r="O59" s="110"/>
-      <c r="P59" s="110"/>
-      <c r="Q59" s="110"/>
-      <c r="R59" s="74">
-        <f>R58+Q17+Q15</f>
-        <v>43.439708861844402</v>
-      </c>
-    </row>
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J60" s="26"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="110"/>
-      <c r="O60" s="110"/>
-      <c r="P60" s="110"/>
-      <c r="Q60" s="110"/>
-      <c r="R60" s="94"/>
+      <c r="L60" s="141" t="s">
+        <v>534</v>
+      </c>
+      <c r="M60" s="142"/>
+      <c r="N60" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="O60" s="114"/>
+      <c r="P60" s="114"/>
+      <c r="Q60" s="114"/>
+      <c r="R60" s="73">
+        <f>R59/(M13*C8*C9)+J46</f>
+        <v>31.5730368618444</v>
+      </c>
     </row>
     <row r="61" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J61" s="22"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="110" t="s">
-        <v>311</v>
-      </c>
-      <c r="O61" s="110"/>
-      <c r="P61" s="110"/>
-      <c r="Q61" s="110"/>
-      <c r="R61" s="95">
-        <f>(J47+R59)*M15/60</f>
+      <c r="L61" s="149" t="s">
+        <v>537</v>
+      </c>
+      <c r="M61" s="150">
+        <v>2.5</v>
+      </c>
+      <c r="N61" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="O61" s="114"/>
+      <c r="P61" s="114"/>
+      <c r="Q61" s="114"/>
+      <c r="R61" s="73">
+        <f>R60+Q17+Q15</f>
+        <v>43.439708861844402</v>
+      </c>
+    </row>
+    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L62" s="74"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="114"/>
+      <c r="R62" s="93"/>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L63" s="74"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="114" t="s">
+        <v>307</v>
+      </c>
+      <c r="O63" s="114"/>
+      <c r="P63" s="114"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="94">
+        <f>(J47+R61)*M15/60</f>
         <v>9.3547120626487793E-5</v>
       </c>
     </row>
-    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L62" s="75"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="110" t="s">
-        <v>314</v>
-      </c>
-      <c r="O62" s="110"/>
-      <c r="P62" s="110"/>
-      <c r="Q62" s="110"/>
-      <c r="R62" s="95">
+    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L64" s="74"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="114" t="s">
+        <v>525</v>
+      </c>
+      <c r="O64" s="114"/>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="114"/>
+      <c r="R64" s="137">
+        <f>(J47)*M15/60/R63</f>
+        <v>0.22606367481030953</v>
+      </c>
+    </row>
+    <row r="65" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J65" s="26"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="114"/>
+      <c r="O65" s="114"/>
+      <c r="P65" s="114"/>
+      <c r="Q65" s="114"/>
+      <c r="R65" s="94"/>
+    </row>
+    <row r="66" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L66" s="74"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="94">
         <f>(J47)*M$16/60</f>
         <v>1.0573802928373568E-5</v>
       </c>
     </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L63" s="75"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="110" t="s">
-        <v>312</v>
-      </c>
-      <c r="O63" s="110"/>
-      <c r="P63" s="110"/>
-      <c r="Q63" s="110"/>
-      <c r="R63" s="95">
+    <row r="67" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F67" s="40"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="114" t="s">
+        <v>308</v>
+      </c>
+      <c r="O67" s="114"/>
+      <c r="P67" s="114"/>
+      <c r="Q67" s="114"/>
+      <c r="R67" s="94">
         <f>(J48)*M$16/60</f>
         <v>1.9691828254847643E-5</v>
       </c>
     </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L64" s="75"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="O64" s="110"/>
-      <c r="P64" s="110"/>
-      <c r="Q64" s="110"/>
-      <c r="R64" s="95">
+    <row r="68" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L68" s="74"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="114" t="s">
+        <v>309</v>
+      </c>
+      <c r="O68" s="114"/>
+      <c r="P68" s="114"/>
+      <c r="Q68" s="114"/>
+      <c r="R68" s="94">
         <f>(J50)*M$16/60</f>
         <v>3.4548377522754257E-5</v>
       </c>
     </row>
-    <row r="65" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J65" s="26"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="110" t="s">
-        <v>361</v>
-      </c>
-      <c r="O65" s="110"/>
-      <c r="P65" s="110"/>
-      <c r="Q65" s="110"/>
-      <c r="R65" s="95">
-        <f>(J47)*M$17/60</f>
-        <v>8.4590423426988525E-6</v>
-      </c>
-    </row>
-    <row r="66" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L66" s="75"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="110" t="s">
-        <v>362</v>
-      </c>
-      <c r="O66" s="110"/>
-      <c r="P66" s="110"/>
-      <c r="Q66" s="110"/>
-      <c r="R66" s="95">
-        <f>(J48)*M$17/60</f>
-        <v>1.5753462603878117E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F67" s="40"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="110" t="s">
-        <v>363</v>
-      </c>
-      <c r="O67" s="110"/>
-      <c r="P67" s="110"/>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="95">
-        <f>(J50)*M$17/60</f>
-        <v>2.7638702018203404E-5</v>
-      </c>
-    </row>
-    <row r="68" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L68" s="77"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="O68" s="111"/>
-      <c r="P68" s="111"/>
-      <c r="Q68" s="111"/>
-      <c r="R68" s="96">
-        <f>(J47+R58)*(M14+M18)/60</f>
-        <v>14.753866791964226</v>
-      </c>
-    </row>
     <row r="69" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L69" s="134" t="s">
-        <v>455</v>
-      </c>
-      <c r="M69" s="135"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="75"/>
       <c r="N69" s="114" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="O69" s="114"/>
       <c r="P69" s="114"/>
       <c r="Q69" s="114"/>
-      <c r="R69" s="71">
+      <c r="R69" s="94">
+        <f>(J47)*M$17/60</f>
+        <v>8.4590423426988525E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L70" s="74"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
+      <c r="Q70" s="114"/>
+      <c r="R70" s="94">
+        <f>(J48)*M$17/60</f>
+        <v>1.5753462603878117E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L71" s="74"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="O71" s="114"/>
+      <c r="P71" s="114"/>
+      <c r="Q71" s="114"/>
+      <c r="R71" s="94">
+        <f>(J50)*M$17/60</f>
+        <v>2.7638702018203404E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="76"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="O72" s="112"/>
+      <c r="P72" s="112"/>
+      <c r="Q72" s="112"/>
+      <c r="R72" s="95">
+        <f>(J47+R60)*(M14+M18)/60</f>
+        <v>14.753866791964226</v>
+      </c>
+    </row>
+    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L73" s="135" t="s">
+        <v>449</v>
+      </c>
+      <c r="M73" s="136"/>
+      <c r="N73" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
+      <c r="R73" s="70">
         <f>S19+S20</f>
         <v>27751.54031372827</v>
       </c>
     </row>
-    <row r="70" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L70" s="136"/>
-      <c r="M70" s="137"/>
-      <c r="N70" s="110" t="s">
-        <v>325</v>
-      </c>
-      <c r="O70" s="110"/>
-      <c r="P70" s="110"/>
-      <c r="Q70" s="110"/>
-      <c r="R70" s="74">
-        <f>R69/(M21*C8*C9)+J46</f>
+    <row r="74" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L74" s="139" t="s">
+        <v>535</v>
+      </c>
+      <c r="M74" s="140"/>
+      <c r="N74" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="O74" s="114"/>
+      <c r="P74" s="114"/>
+      <c r="Q74" s="114"/>
+      <c r="R74" s="73">
+        <f>R73/(M21*C8*C9)+J46</f>
         <v>35.274097884501252</v>
       </c>
     </row>
-    <row r="71" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L71" s="138"/>
-      <c r="M71" s="139"/>
-      <c r="N71" s="110" t="s">
-        <v>326</v>
-      </c>
-      <c r="O71" s="110"/>
-      <c r="P71" s="110"/>
-      <c r="Q71" s="110"/>
-      <c r="R71" s="74">
-        <f>R70+Q21+Q22</f>
+    <row r="75" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L75" s="145" t="s">
+        <v>536</v>
+      </c>
+      <c r="M75" s="146">
+        <f>'Laser cutter'!J14</f>
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="N75" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="O75" s="114"/>
+      <c r="P75" s="114"/>
+      <c r="Q75" s="114"/>
+      <c r="R75" s="73">
+        <f>R74+Q21+Q22</f>
         <v>40.816697884501252</v>
       </c>
     </row>
-    <row r="72" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L72" s="138"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="110"/>
-      <c r="O72" s="110"/>
-      <c r="P72" s="110"/>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="94"/>
-    </row>
-    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L73" s="138"/>
-      <c r="M73" s="139"/>
-      <c r="N73" s="110" t="s">
-        <v>458</v>
-      </c>
-      <c r="O73" s="110"/>
-      <c r="P73" s="110"/>
-      <c r="Q73" s="110"/>
-      <c r="R73" s="95">
-        <f>(J47*0.5+R71)*M23/60</f>
-        <v>3.5370734731144049E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L74" s="138"/>
-      <c r="M74" s="139"/>
-      <c r="N74" s="110" t="s">
-        <v>459</v>
-      </c>
-      <c r="O74" s="110"/>
-      <c r="P74" s="110"/>
-      <c r="Q74" s="110"/>
-      <c r="R74" s="95">
+    <row r="76" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L76" s="139"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="114"/>
+      <c r="O76" s="114"/>
+      <c r="P76" s="114"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="93"/>
+    </row>
+    <row r="77" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L77" s="139"/>
+      <c r="M77" s="140"/>
+      <c r="N77" s="114" t="s">
+        <v>452</v>
+      </c>
+      <c r="O77" s="114"/>
+      <c r="P77" s="114"/>
+      <c r="Q77" s="114"/>
+      <c r="R77" s="94">
+        <f>(J47*0.5+R75)*M23/60</f>
+        <v>3.6156751058502806E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L78" s="139"/>
+      <c r="M78" s="140"/>
+      <c r="N78" s="114" t="s">
+        <v>453</v>
+      </c>
+      <c r="O78" s="114"/>
+      <c r="P78" s="114"/>
+      <c r="Q78" s="114"/>
+      <c r="R78" s="94">
         <f>(J47)*M$24/60</f>
-        <v>4.7582113177681053E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L75" s="138"/>
-      <c r="M75" s="139"/>
-      <c r="N75" s="110" t="s">
-        <v>460</v>
-      </c>
-      <c r="O75" s="110"/>
-      <c r="P75" s="110"/>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="95">
+        <v>4.8639493470518408E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L79" s="139"/>
+      <c r="M79" s="140"/>
+      <c r="N79" s="114" t="s">
+        <v>454</v>
+      </c>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="94">
         <f>(J48)*M$24/60</f>
-        <v>8.8613227146814392E-5</v>
-      </c>
-    </row>
-    <row r="76" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L76" s="138"/>
-      <c r="M76" s="139"/>
-      <c r="N76" s="110"/>
-      <c r="O76" s="110"/>
-      <c r="P76" s="110"/>
-      <c r="Q76" s="110"/>
-      <c r="R76" s="95"/>
-    </row>
-    <row r="77" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="138"/>
-      <c r="M77" s="139"/>
-      <c r="N77" s="110" t="s">
-        <v>461</v>
-      </c>
-      <c r="O77" s="110"/>
-      <c r="P77" s="110"/>
-      <c r="Q77" s="110"/>
-      <c r="R77" s="95">
-        <f>(J47)*M$25/60</f>
-        <v>3.8065690542144844E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="138"/>
-      <c r="M78" s="139"/>
-      <c r="N78" s="110" t="s">
-        <v>462</v>
-      </c>
-      <c r="O78" s="110"/>
-      <c r="P78" s="110"/>
-      <c r="Q78" s="110"/>
-      <c r="R78" s="95">
-        <f>(J48)*M$25/60</f>
-        <v>7.0890581717451519E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L79" s="138"/>
-      <c r="M79" s="139"/>
-      <c r="N79" s="110"/>
-      <c r="O79" s="110"/>
-      <c r="P79" s="110"/>
-      <c r="Q79" s="110"/>
-      <c r="R79" s="95"/>
-    </row>
-    <row r="80" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L80" s="140"/>
-      <c r="M80" s="141"/>
-      <c r="N80" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="O80" s="111"/>
-      <c r="P80" s="111"/>
-      <c r="Q80" s="111"/>
-      <c r="R80" s="96">
-        <f>(J47+R70)*(M26+M22)/60</f>
-        <v>11.990665349637384</v>
-      </c>
+        <v>9.0582409972299173E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L80" s="139"/>
+      <c r="M80" s="140"/>
+      <c r="N80" s="114"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="114"/>
+      <c r="Q80" s="114"/>
+      <c r="R80" s="94"/>
     </row>
     <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="M81" s="127"/>
+      <c r="L81" s="139"/>
+      <c r="M81" s="140"/>
       <c r="N81" s="114" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="O81" s="114"/>
       <c r="P81" s="114"/>
       <c r="Q81" s="114"/>
-      <c r="R81" s="105">
+      <c r="R81" s="94">
+        <f>(J47)*M$25/60</f>
+        <v>3.8911594776414732E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L82" s="139"/>
+      <c r="M82" s="140"/>
+      <c r="N82" s="114" t="s">
+        <v>456</v>
+      </c>
+      <c r="O82" s="114"/>
+      <c r="P82" s="114"/>
+      <c r="Q82" s="114"/>
+      <c r="R82" s="94">
+        <f>(J48)*M$25/60</f>
+        <v>7.2465927977839338E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L83" s="139"/>
+      <c r="M83" s="140"/>
+      <c r="N83" s="114"/>
+      <c r="O83" s="114"/>
+      <c r="P83" s="114"/>
+      <c r="Q83" s="114"/>
+      <c r="R83" s="94"/>
+    </row>
+    <row r="84" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="110"/>
+      <c r="M84" s="111"/>
+      <c r="N84" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="O84" s="112"/>
+      <c r="P84" s="112"/>
+      <c r="Q84" s="112"/>
+      <c r="R84" s="95">
+        <f>(J47+R74)*(M26+M22)/60</f>
+        <v>10.391909969685731</v>
+      </c>
+    </row>
+    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L85" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" s="121"/>
+      <c r="N85" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="O85" s="117"/>
+      <c r="P85" s="117"/>
+      <c r="Q85" s="117"/>
+      <c r="R85" s="104">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
       </c>
     </row>
-    <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="79"/>
-      <c r="M82" s="80"/>
-      <c r="N82" s="110" t="s">
-        <v>325</v>
-      </c>
-      <c r="O82" s="110"/>
-      <c r="P82" s="110"/>
-      <c r="Q82" s="110"/>
-      <c r="R82" s="66">
-        <f>R81/(M29*C8*C9)+J46</f>
+    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L86" s="78"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
+      <c r="Q86" s="114"/>
+      <c r="R86" s="65">
+        <f>R85/(M29*C8*C9)+J46</f>
         <v>15.243886172621341</v>
       </c>
-    </row>
-    <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="81"/>
-      <c r="M83" s="82"/>
-      <c r="N83" s="110" t="s">
-        <v>326</v>
-      </c>
-      <c r="O83" s="110"/>
-      <c r="P83" s="110"/>
-      <c r="Q83" s="110"/>
-      <c r="R83" s="66">
-        <f>R82+Q33</f>
+      <c r="S86" s="23"/>
+    </row>
+    <row r="87" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L87" s="80"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="O87" s="114"/>
+      <c r="P87" s="114"/>
+      <c r="Q87" s="114"/>
+      <c r="R87" s="65">
+        <f>R86+Q33</f>
         <v>15.243886172621341</v>
       </c>
     </row>
-    <row r="84" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L84" s="81"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="110"/>
-      <c r="O84" s="110"/>
-      <c r="P84" s="110"/>
-      <c r="Q84" s="110"/>
-      <c r="R84" s="103"/>
-    </row>
-    <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="81"/>
-      <c r="M85" s="82"/>
-      <c r="N85" s="110" t="s">
-        <v>510</v>
-      </c>
-      <c r="O85" s="110"/>
-      <c r="P85" s="110"/>
-      <c r="Q85" s="110"/>
-      <c r="R85" s="106">
-        <f>Q34+Q36+(R83+J49)*M30/60</f>
-        <v>119.8039324136965</v>
-      </c>
-    </row>
-    <row r="86" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L86" s="81"/>
-      <c r="M86" s="82"/>
-      <c r="N86" s="110" t="s">
-        <v>511</v>
-      </c>
-      <c r="O86" s="110"/>
-      <c r="P86" s="110"/>
-      <c r="Q86" s="110"/>
-      <c r="R86" s="66">
-        <f>Q35+Q36+(R83+J49)*M30/60</f>
-        <v>119.76887035472684</v>
-      </c>
-      <c r="S86" s="23"/>
-    </row>
-    <row r="87" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L87" s="83"/>
-      <c r="M87" s="84"/>
-      <c r="N87" s="111"/>
-      <c r="O87" s="111"/>
-      <c r="P87" s="111"/>
-      <c r="Q87" s="111"/>
-      <c r="R87" s="104"/>
-    </row>
     <row r="88" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L88" s="112" t="s">
-        <v>440</v>
-      </c>
-      <c r="M88" s="113"/>
-      <c r="N88" s="114" t="s">
-        <v>324</v>
-      </c>
+      <c r="L88" s="80"/>
+      <c r="M88" s="81"/>
+      <c r="N88" s="114"/>
       <c r="O88" s="114"/>
       <c r="P88" s="114"/>
       <c r="Q88" s="114"/>
-      <c r="R88" s="71">
+      <c r="R88" s="102"/>
+    </row>
+    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L89" s="80"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="114" t="s">
+        <v>504</v>
+      </c>
+      <c r="O89" s="114"/>
+      <c r="P89" s="114"/>
+      <c r="Q89" s="114"/>
+      <c r="R89" s="105">
+        <f>Q34+Q36+(R87+J49)*M30/60</f>
+        <v>119.8039324136965</v>
+      </c>
+    </row>
+    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L90" s="80"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="114" t="s">
+        <v>505</v>
+      </c>
+      <c r="O90" s="114"/>
+      <c r="P90" s="114"/>
+      <c r="Q90" s="114"/>
+      <c r="R90" s="65">
+        <f>Q35+Q36+(R87+J49)*M30/60</f>
+        <v>119.76887035472684</v>
+      </c>
+    </row>
+    <row r="91" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="82"/>
+      <c r="M91" s="83"/>
+      <c r="N91" s="112"/>
+      <c r="O91" s="112"/>
+      <c r="P91" s="112"/>
+      <c r="Q91" s="112"/>
+      <c r="R91" s="103"/>
+    </row>
+    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L92" s="115" t="s">
+        <v>434</v>
+      </c>
+      <c r="M92" s="116"/>
+      <c r="N92" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="O92" s="117"/>
+      <c r="P92" s="117"/>
+      <c r="Q92" s="117"/>
+      <c r="R92" s="70">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
       </c>
     </row>
-    <row r="89" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L89" s="72"/>
-      <c r="M89" s="73"/>
-      <c r="N89" s="110" t="s">
-        <v>325</v>
-      </c>
-      <c r="O89" s="110"/>
-      <c r="P89" s="110"/>
-      <c r="Q89" s="110"/>
-      <c r="R89" s="74">
-        <f>R88/(M39*C8*C9)+J46</f>
+    <row r="93" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L93" s="71"/>
+      <c r="M93" s="72"/>
+      <c r="N93" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="O93" s="114"/>
+      <c r="P93" s="114"/>
+      <c r="Q93" s="114"/>
+      <c r="R93" s="73">
+        <f>R92/(M39*C8*C9)+J46</f>
         <v>20.338538570661896</v>
       </c>
     </row>
-    <row r="90" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L90" s="75"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="110" t="s">
-        <v>326</v>
-      </c>
-      <c r="O90" s="110"/>
-      <c r="P90" s="110"/>
-      <c r="Q90" s="110"/>
-      <c r="R90" s="74">
-        <f>R89+Q42+Q41</f>
+    <row r="94" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L94" s="74"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="O94" s="114"/>
+      <c r="P94" s="114"/>
+      <c r="Q94" s="114"/>
+      <c r="R94" s="73">
+        <f>R93+Q42+Q41</f>
         <v>30.964938570661896</v>
       </c>
     </row>
-    <row r="91" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L91" s="75"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="110"/>
-      <c r="O91" s="110"/>
-      <c r="P91" s="110"/>
-      <c r="Q91" s="110"/>
-      <c r="R91" s="94"/>
-    </row>
-    <row r="92" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="75"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="110" t="s">
-        <v>311</v>
-      </c>
-      <c r="O92" s="110"/>
-      <c r="P92" s="110"/>
-      <c r="Q92" s="110"/>
-      <c r="R92" s="95">
-        <f>(J47+R90)*M41/60</f>
-        <v>1.455116736157006E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L93" s="77"/>
-      <c r="M93" s="78"/>
-      <c r="N93" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="O93" s="111"/>
-      <c r="P93" s="111"/>
-      <c r="Q93" s="111"/>
-      <c r="R93" s="96">
-        <f>(J47+R89)*(M40+M42)/60</f>
+    <row r="95" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L95" s="74"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="114"/>
+      <c r="O95" s="114"/>
+      <c r="P95" s="114"/>
+      <c r="Q95" s="114"/>
+      <c r="R95" s="93"/>
+    </row>
+    <row r="96" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L96" s="74"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="114" t="s">
+        <v>307</v>
+      </c>
+      <c r="O96" s="114"/>
+      <c r="P96" s="114"/>
+      <c r="Q96" s="114"/>
+      <c r="R96" s="94">
+        <f>(J47+R94)*M41/60</f>
+        <v>1.8188959201962575E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L97" s="76"/>
+      <c r="M97" s="77"/>
+      <c r="N97" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="O97" s="112"/>
+      <c r="P97" s="112"/>
+      <c r="Q97" s="112"/>
+      <c r="R97" s="95">
+        <f>(J47+R93)*(M40+M42)/60</f>
         <v>8.2567755211775449</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N50:Q50"/>
+  <mergeCells count="87">
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L80:M80"/>
     <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
     <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="N76:Q76"/>
     <mergeCell ref="N82:Q82"/>
     <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N51:Q51"/>
     <mergeCell ref="N64:Q64"/>
     <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N68:Q68"/>
     <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N89:Q89"/>
     <mergeCell ref="N71:Q71"/>
     <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="N67:Q67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8106,7 +8225,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8115,6 +8234,7 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8125,33 +8245,33 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E4">
         <v>208995</v>
@@ -8161,30 +8281,30 @@
         <v>185010.26875818847</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="R4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="S4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F5">
         <v>126.82</v>
@@ -8194,10 +8314,10 @@
         <v>101.456</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="O5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P5">
         <v>76.5</v>
@@ -8216,7 +8336,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="R6">
         <v>10.6</v>
@@ -8242,24 +8362,24 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C10">
         <v>780</v>
@@ -8278,7 +8398,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C11">
         <v>230</v>
@@ -8297,7 +8417,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -8313,10 +8433,16 @@
         <f>1/E12</f>
         <v>3.1496062992125983E-4</v>
       </c>
+      <c r="I12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J12" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C13">
         <v>86</v>
@@ -8332,10 +8458,16 @@
         <f t="shared" ref="F13:F26" si="2">1/E13</f>
         <v>4.5779161325764511E-4</v>
       </c>
+      <c r="I13">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="J13">
+        <v>3.3E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -8351,10 +8483,17 @@
         <f t="shared" si="2"/>
         <v>5.3202809108320926E-4</v>
       </c>
+      <c r="I14" t="s">
+        <v>529</v>
+      </c>
+      <c r="J14" s="138">
+        <f>J13/I13</f>
+        <v>0.71739130434782605</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C15">
         <v>59</v>
@@ -8373,7 +8512,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -8392,7 +8531,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -8411,7 +8550,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -8430,10 +8569,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C19">
         <v>780</v>
@@ -8452,7 +8591,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C20">
         <v>216</v>
@@ -8471,7 +8610,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C21">
         <v>74</v>
@@ -8490,7 +8629,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C22">
         <v>47</v>
@@ -8509,7 +8648,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -8528,10 +8667,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C24">
         <v>300</v>
@@ -8550,7 +8689,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C25">
         <v>120</v>
@@ -8569,7 +8708,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -8616,91 +8755,91 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2">
         <v>4386</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F3" s="2">
         <v>922.6</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2">
         <v>3859.6</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="2">
         <v>8579</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="2">
         <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8708,219 +8847,219 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>466</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97" t="s">
-        <v>234</v>
+      <c r="A12" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
-        <v>467</v>
-      </c>
-      <c r="B13" s="99">
+      <c r="A13" s="97" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="98">
         <v>200</v>
       </c>
-      <c r="C13" s="98" t="s">
-        <v>468</v>
+      <c r="C13" s="97" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="s">
-        <v>469</v>
-      </c>
-      <c r="B14" s="98">
+      <c r="A14" s="97" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="97">
         <v>18</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>468</v>
+      <c r="C14" s="97" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
-        <v>470</v>
-      </c>
-      <c r="B15" s="100">
+      <c r="A15" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="99">
         <f>B14*5/228</f>
         <v>0.39473684210526316</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="97"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
-        <v>471</v>
-      </c>
-      <c r="B16" s="98">
+      <c r="A16" s="97" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="97">
         <v>5.5</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="97"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
-        <v>472</v>
-      </c>
-      <c r="B17" s="101">
+      <c r="A17" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" s="100">
         <f>B15*B13/B16</f>
         <v>14.354066985645932</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
-        <v>473</v>
-      </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97" t="s">
-        <v>234</v>
+      <c r="A19" s="96" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="98">
+      <c r="A20" s="97" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="97">
         <v>12.8</v>
       </c>
-      <c r="C20" s="98" t="s">
-        <v>468</v>
+      <c r="C20" s="97" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
-        <v>475</v>
-      </c>
-      <c r="B21" s="98">
+      <c r="A21" s="97" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="97">
         <v>11</v>
       </c>
-      <c r="C21" s="98" t="s">
-        <v>468</v>
+      <c r="C21" s="97" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
-        <v>476</v>
-      </c>
-      <c r="B22" s="98">
+      <c r="A22" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" s="97">
         <f>PI()*0.04*0.04*100*7.8</f>
         <v>3.9207076316800622</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="97"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
-        <v>477</v>
-      </c>
-      <c r="B23" s="99">
+      <c r="A23" s="97" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="98">
         <f>B20*B22/1000</f>
         <v>5.0185057685504804E-2</v>
       </c>
-      <c r="C23" s="98"/>
+      <c r="C23" s="97"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="97" t="s">
-        <v>478</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97" t="s">
-        <v>234</v>
+      <c r="A25" s="96" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="97" t="s">
+        <v>468</v>
+      </c>
+      <c r="B26" s="97">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="B26" s="98">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="C26" s="102" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
-        <v>480</v>
-      </c>
-      <c r="B27" s="98">
+      <c r="B27" s="97">
         <v>2</v>
       </c>
-      <c r="C27" s="98" t="s">
-        <v>468</v>
+      <c r="C27" s="97" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="98">
+      <c r="A28" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="B28" s="97">
         <f>PI()*0.1*0.1*100*2.7</f>
         <v>8.4823001646924432</v>
       </c>
-      <c r="C28" s="98"/>
+      <c r="C28" s="97"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
-        <v>477</v>
-      </c>
-      <c r="B29" s="99">
+      <c r="A29" s="97" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" s="98">
         <f>B26*B28/1000</f>
         <v>8.5247116655159064E-2</v>
       </c>
-      <c r="C29" s="98"/>
+      <c r="C29" s="97"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="97"/>
+      <c r="C30" s="96"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="s">
-        <v>502</v>
-      </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="97" t="s">
-        <v>234</v>
+      <c r="A31" s="97" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" s="97"/>
+      <c r="C31" s="96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="s">
-        <v>503</v>
-      </c>
-      <c r="B32" s="108">
+      <c r="A32" s="97" t="s">
+        <v>497</v>
+      </c>
+      <c r="B32" s="107">
         <f>30/(2*PI()*0.034)</f>
         <v>140.43083213990764</v>
       </c>
-      <c r="C32" s="98" t="s">
-        <v>468</v>
+      <c r="C32" s="97" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="s">
-        <v>504</v>
-      </c>
-      <c r="B33" s="101">
+      <c r="A33" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" s="100">
         <f>'Manpower &amp; time'!H6/60</f>
         <v>0.39383656509695286</v>
       </c>
-      <c r="C33" s="98"/>
+      <c r="C33" s="97"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="s">
-        <v>505</v>
-      </c>
-      <c r="B34" s="101">
+      <c r="A34" s="97" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" s="100">
         <f>B33*B32</f>
         <v>55.306796563687996</v>
       </c>
-      <c r="C34" s="98"/>
+      <c r="C34" s="97"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8953,35 +9092,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B2" s="2">
         <v>15000</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B4" s="2">
         <v>10000</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -9021,7 +9160,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -9082,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -9091,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -9605,7 +9744,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -9617,13 +9756,13 @@
         <v>3.7201299982926756E-5</v>
       </c>
       <c r="N16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q16" t="s">
         <v>3</v>
@@ -9661,10 +9800,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N19">
         <v>15</v>
@@ -9682,13 +9821,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -9844,68 +9983,68 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N31" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="O31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I32" t="s">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P32" t="s">
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R32" t="s">
         <v>3</v>
@@ -10176,15 +10315,15 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B44" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -10224,33 +10363,33 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G48" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H49" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I49" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
@@ -10258,7 +10397,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B50" s="2">
         <v>86.4</v>
@@ -10272,7 +10411,7 @@
         <v>1.9072847682119207E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H50" s="31">
         <v>1.1000000000000001</v>
@@ -10288,7 +10427,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B51" s="2">
         <v>60</v>
@@ -10302,7 +10441,7 @@
         <v>1.5915494309189534E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H51" s="31">
         <v>2.5</v>
@@ -10318,7 +10457,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B52" s="2">
         <v>28.32</v>
@@ -10332,7 +10471,7 @@
         <v>9.8117398386121925E-6</v>
       </c>
       <c r="G52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H52" s="31">
         <v>2.5</v>
@@ -10348,7 +10487,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B53" s="2">
         <v>35.4</v>
@@ -10362,7 +10501,7 @@
         <v>9.8333333333333329E-6</v>
       </c>
       <c r="G53" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H53" s="31">
         <v>18</v>
@@ -10378,7 +10517,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B54" s="2">
         <v>81.599999999999994</v>
@@ -10394,7 +10533,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -10410,7 +10549,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -10426,7 +10565,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B57" s="2">
         <v>46.2</v>
@@ -10442,7 +10581,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B58" s="2">
         <v>28</v>
@@ -10458,7 +10597,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B59" s="2">
         <v>35.700000000000003</v>
@@ -10474,7 +10613,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -10532,43 +10671,43 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2">
         <v>1592</v>
@@ -10594,7 +10733,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" s="2">
         <v>2438</v>
@@ -10620,7 +10759,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B7" s="2">
         <v>3077</v>
@@ -10646,7 +10785,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B8" s="2">
         <v>4104</v>
@@ -10672,7 +10811,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F9">
         <f>SUM(F8+F6+F5)</f>
@@ -10685,15 +10824,15 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>365</v>
@@ -10701,7 +10840,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13">
         <v>104</v>
@@ -10709,7 +10848,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -10717,7 +10856,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15">
         <v>25</v>
@@ -10725,7 +10864,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16">
         <f>B12-B13-B14-B15</f>
@@ -10734,7 +10873,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="27">
         <f>B16/5</f>
@@ -10743,39 +10882,39 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>435</v>
+      </c>
+      <c r="E22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F22" t="s">
+        <v>434</v>
+      </c>
+      <c r="G22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
         <v>287</v>
-      </c>
-      <c r="D22" t="s">
-        <v>441</v>
-      </c>
-      <c r="E22" t="s">
-        <v>442</v>
-      </c>
-      <c r="F22" t="s">
-        <v>440</v>
-      </c>
-      <c r="G22" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" t="s">
-        <v>289</v>
-      </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23">
         <v>0.85</v>
@@ -10808,7 +10947,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H24">
         <v>0.5</v>
@@ -10823,7 +10962,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G25">
         <v>0.85</v>
@@ -10841,7 +10980,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H26">
         <v>0.35</v>
@@ -10859,7 +10998,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:J27" si="3">$B$30*SUM(B23:B26)</f>
@@ -10904,7 +11043,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B28">
         <f>Summary!$C$10*Summary!$C$9*Summary!$C$8</f>
@@ -10949,7 +11088,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B30">
         <f>Summary!$C$11*Summary!$C$9*Summary!$C$8</f>
@@ -10958,7 +11097,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B32" s="22">
         <f>SUMPRODUCT(D5:D8*J23:J26)</f>
@@ -10999,25 +11138,25 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>38.64</v>
@@ -11025,7 +11164,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <f>(24*2 + 7.5)*0.8+16+14</f>
@@ -11034,7 +11173,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B6" s="2">
         <f>B5*B4</f>
@@ -11043,7 +11182,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="28">
         <v>7.8299999999999995E-2</v>
@@ -11051,15 +11190,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B10" s="2">
         <v>2.77</v>
@@ -11069,7 +11208,7 @@
         <v>2.2160000000000002</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -11100,30 +11239,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
         <v>221</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" t="s">
-        <v>224</v>
-      </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="25">
         <v>149</v>
@@ -11133,12 +11272,12 @@
         <v>119.2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -11151,12 +11290,12 @@
         <v>103.2</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -11169,7 +11308,7 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11177,7 +11316,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="25">
         <v>392</v>
@@ -11187,12 +11326,12 @@
         <v>313.60000000000002</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="25">
         <v>167</v>
@@ -11202,12 +11341,12 @@
         <v>133.6</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="25">
         <v>94</v>
@@ -11217,7 +11356,7 @@
         <v>75.2</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11225,7 +11364,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="25">
         <v>282</v>
@@ -11235,12 +11374,12 @@
         <v>225.60000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="25">
         <v>408</v>
@@ -11252,7 +11391,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="25">
         <v>3322</v>
@@ -11262,7 +11401,7 @@
         <v>2657.6000000000004</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11270,10 +11409,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
         <v>150</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
       </c>
       <c r="D14" s="25">
         <v>1390</v>
@@ -11283,12 +11422,12 @@
         <v>1112</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="25">
         <v>1202</v>
@@ -11298,12 +11437,12 @@
         <v>961.6</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="25">
         <v>146</v>
@@ -11313,12 +11452,12 @@
         <v>116.80000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="25">
         <v>162</v>
@@ -11328,15 +11467,15 @@
         <v>129.6</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" s="25">
         <v>1623</v>
@@ -11346,12 +11485,12 @@
         <v>1298.4000000000001</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="25">
         <v>675</v>
@@ -11361,7 +11500,7 @@
         <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11370,10 +11509,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="30">
         <v>348</v>
@@ -11387,35 +11526,35 @@
         <v>246.45019652278603</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E23" s="2">
         <v>48334.81</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E25" s="2">
         <v>5390</v>
       </c>
       <c r="F25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -11449,21 +11588,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2">
         <v>498</v>
@@ -11473,22 +11612,22 @@
         <v>398.40000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11497,7 +11636,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2">
         <v>241.2</v>
@@ -11507,12 +11646,12 @@
         <v>192.96</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -11522,12 +11661,12 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="2">
         <v>137.99</v>
@@ -11537,31 +11676,31 @@
         <v>110.39200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>23.6</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>39.950000000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11570,7 +11709,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2">
         <v>2097.6</v>
@@ -11580,12 +11719,12 @@
         <v>1678.08</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2">
         <v>2150.1</v>
@@ -11595,12 +11734,12 @@
         <v>1720.08</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2">
         <v>620.4</v>
@@ -11610,7 +11749,7 @@
         <v>496.32</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -11619,7 +11758,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2">
         <v>183.6</v>
@@ -11629,12 +11768,12 @@
         <v>146.88</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -11644,12 +11783,12 @@
         <v>43.2</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2">
         <v>40.799999999999997</v>
@@ -11659,12 +11798,12 @@
         <v>32.64</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2">
         <v>217.2</v>
@@ -11674,43 +11813,43 @@
         <v>173.76</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D20" s="2">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D22" s="2">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D23" s="2">
         <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -11739,96 +11878,96 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D2" s="2">
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D3" s="2">
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D4" s="2">
         <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D5" s="2">
         <v>515</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D7" s="2">
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D8" s="2">
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -11856,30 +11995,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="30">
         <v>1295</v>
@@ -11889,12 +12028,12 @@
         <v>1146.3829184518961</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="30">
         <v>13995</v>
@@ -11904,12 +12043,12 @@
         <v>12388.902659254276</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="30">
         <v>395</v>
@@ -11919,12 +12058,12 @@
         <v>349.66892107220002</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D5" s="30">
         <v>3795</v>
@@ -11934,43 +12073,43 @@
         <v>3359.4773556177188</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D6" s="30"/>
       <c r="F6" s="2">
         <v>119</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D7" s="30"/>
       <c r="F7" s="2">
         <v>379</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D8" s="30"/>
       <c r="F8" s="2">
         <v>425</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11978,25 +12117,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="20"/>
       <c r="F10" s="2">
         <v>1079.0999999999999</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" t="s">
         <v>256</v>
-      </c>
-      <c r="B11" t="s">
-        <v>258</v>
       </c>
       <c r="C11" s="20"/>
       <c r="E11" s="2">
@@ -12007,99 +12146,99 @@
         <v>1633.384</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2">
         <v>283.8</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="2">
         <v>173.75</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="24"/>
       <c r="F15" s="2">
         <v>153.08000000000001</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F17" s="2">
         <v>12999</v>
       </c>
       <c r="G17" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F20" s="2">
         <v>1001.67</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F21" s="2">
         <v>352.31</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F23" s="2">
         <v>2302.5700000000002</v>
       </c>
       <c r="G23" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -12108,12 +12247,12 @@
         <v>69.400000000000006</v>
       </c>
       <c r="G25" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12122,12 +12261,12 @@
         <v>1433.25</v>
       </c>
       <c r="G26" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -12136,12 +12275,12 @@
         <v>1866.02</v>
       </c>
       <c r="G27" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -12150,12 +12289,12 @@
         <v>859.65</v>
       </c>
       <c r="G28" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -12164,12 +12303,12 @@
         <v>699.07</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -12178,32 +12317,32 @@
         <v>16.899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B32" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F32" s="2">
         <v>3259</v>
       </c>
       <c r="G32" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F34" s="2">
         <v>1075</v>
       </c>
       <c r="G34" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -12247,27 +12386,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2">
         <f>97625+10395</f>
         <v>108020</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
       </c>
       <c r="C4">
         <v>1016</v>
@@ -12275,7 +12414,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>660</v>
@@ -12283,7 +12422,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>635</v>
@@ -12291,25 +12430,25 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>1372</v>
@@ -12317,7 +12456,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>610</v>
@@ -12325,77 +12464,77 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
         <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
         <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
         <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
         <v>130</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2">
         <f>97625+10395</f>
@@ -12405,12 +12544,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -12419,12 +12558,12 @@
         <v>40</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2">
         <v>2500</v>
@@ -12433,34 +12572,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="21">
         <v>0.04</v>
@@ -12482,7 +12621,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -12541,24 +12680,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>393</v>
+      <c r="A2" s="69" t="s">
+        <v>387</v>
       </c>
       <c r="B2" s="2">
         <f>133720</f>
         <v>133720</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>369</v>
+      <c r="A4" s="69" t="s">
+        <v>364</v>
       </c>
       <c r="B4">
         <v>208</v>
@@ -12566,71 +12705,71 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B7" s="2">
         <f>(2500+1500)/2</f>
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="21">
         <v>0.04</v>
@@ -12652,7 +12791,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -12679,7 +12818,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
